--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['31', '39', '90']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1034,6 +1037,9 @@
   </si>
   <si>
     <t>['12', '26', '89']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1660,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2066,7 +2072,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2272,7 +2278,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2478,7 +2484,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3096,7 +3102,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3380,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.07</v>
@@ -3714,7 +3720,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4001,7 +4007,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4332,7 +4338,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4822,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ17">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4950,7 +4956,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -6061,7 +6067,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -6186,7 +6192,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6267,7 +6273,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -6392,7 +6398,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -7294,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.73</v>
@@ -7500,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -8246,7 +8252,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8864,7 +8870,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9276,7 +9282,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9563,7 +9569,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ40">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9766,7 +9772,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>0.9399999999999999</v>
@@ -9894,7 +9900,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10100,7 +10106,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10590,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -10924,7 +10930,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11542,7 +11548,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11954,7 +11960,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12160,7 +12166,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12241,7 +12247,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12778,7 +12784,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12859,7 +12865,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR56">
         <v>1.49</v>
@@ -12984,7 +12990,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13062,7 +13068,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
         <v>2.33</v>
@@ -14220,7 +14226,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14426,7 +14432,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14632,7 +14638,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15044,7 +15050,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15250,7 +15256,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15740,7 +15746,7 @@
         <v>2.2</v>
       </c>
       <c r="AP70">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.27</v>
@@ -15868,7 +15874,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16567,7 +16573,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16898,7 +16904,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17182,7 +17188,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17516,7 +17522,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17722,7 +17728,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17928,7 +17934,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18134,7 +18140,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18340,7 +18346,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18421,7 +18427,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18752,7 +18758,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18958,7 +18964,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19245,7 +19251,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR87">
         <v>1.68</v>
@@ -19576,7 +19582,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19988,7 +19994,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20194,7 +20200,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20684,7 +20690,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>1.19</v>
@@ -20812,7 +20818,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21099,7 +21105,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ96">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21224,7 +21230,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21430,7 +21436,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21714,7 +21720,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.33</v>
@@ -22129,7 +22135,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR101">
         <v>1.34</v>
@@ -22254,7 +22260,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22460,7 +22466,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22872,7 +22878,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -24108,7 +24114,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24392,7 +24398,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1.63</v>
@@ -24807,7 +24813,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ114">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -25010,7 +25016,7 @@
         <v>1.6</v>
       </c>
       <c r="AP115">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
         <v>1.38</v>
@@ -25756,7 +25762,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26040,7 +26046,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ120">
         <v>1.07</v>
@@ -26580,7 +26586,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -26867,7 +26873,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR124">
         <v>1.16</v>
@@ -27279,7 +27285,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ126">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.9</v>
@@ -27482,7 +27488,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.38</v>
@@ -28022,7 +28028,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28640,7 +28646,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28846,7 +28852,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29052,7 +29058,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29258,7 +29264,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29336,7 +29342,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ136">
         <v>0.73</v>
@@ -29670,7 +29676,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29876,7 +29882,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30163,7 +30169,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ140">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -30288,7 +30294,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30494,7 +30500,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30700,7 +30706,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30906,7 +30912,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31112,7 +31118,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31318,7 +31324,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31524,7 +31530,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -32635,7 +32641,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ152">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
         <v>1.37</v>
@@ -33172,7 +33178,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33250,7 +33256,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33584,7 +33590,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34074,10 +34080,10 @@
         <v>0.44</v>
       </c>
       <c r="AP159">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34280,10 +34286,10 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR160">
         <v>1.58</v>
@@ -35026,7 +35032,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35232,7 +35238,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35438,7 +35444,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36056,7 +36062,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36343,7 +36349,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR170">
         <v>1.98</v>
@@ -36468,7 +36474,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -36961,7 +36967,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ173">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR173">
         <v>2.01</v>
@@ -37086,7 +37092,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37370,7 +37376,7 @@
         <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -37498,7 +37504,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37576,7 +37582,7 @@
         <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ176">
         <v>2.47</v>
@@ -37704,7 +37710,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37910,7 +37916,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38116,7 +38122,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38322,7 +38328,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -39146,7 +39152,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39433,7 +39439,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ185">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39558,7 +39564,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39764,7 +39770,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39842,7 +39848,7 @@
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
         <v>2.33</v>
@@ -40048,7 +40054,7 @@
         <v>1.55</v>
       </c>
       <c r="AP188">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ188">
         <v>1.27</v>
@@ -40176,7 +40182,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40257,7 +40263,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ189">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR189">
         <v>1.39</v>
@@ -40588,7 +40594,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40794,7 +40800,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41000,7 +41006,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41078,7 +41084,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ193">
         <v>0.5600000000000001</v>
@@ -41206,7 +41212,7 @@
         <v>208</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q194">
         <v>2.11</v>
@@ -41412,7 +41418,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41618,7 +41624,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42030,7 +42036,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42317,7 +42323,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ199">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR199">
         <v>1.41</v>
@@ -42729,7 +42735,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ201">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR201">
         <v>1.13</v>
@@ -42854,7 +42860,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43266,7 +43272,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43472,7 +43478,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44168,7 +44174,7 @@
         <v>0.58</v>
       </c>
       <c r="AP208">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208">
         <v>0.67</v>
@@ -44296,7 +44302,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44377,7 +44383,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ209">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR209">
         <v>1.26</v>
@@ -44708,7 +44714,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44914,7 +44920,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45404,7 +45410,7 @@
         <v>0.38</v>
       </c>
       <c r="AP214">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214">
         <v>0.5600000000000001</v>
@@ -45532,7 +45538,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45610,7 +45616,7 @@
         <v>1.08</v>
       </c>
       <c r="AP215">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ215">
         <v>1.33</v>
@@ -46025,7 +46031,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ217">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR217">
         <v>1.38</v>
@@ -46150,7 +46156,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46356,7 +46362,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46768,7 +46774,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47670,7 +47676,7 @@
         <v>2.38</v>
       </c>
       <c r="AP225">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
         <v>2.47</v>
@@ -48004,7 +48010,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48210,7 +48216,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48416,7 +48422,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48828,7 +48834,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -48906,7 +48912,7 @@
         <v>1.79</v>
       </c>
       <c r="AP231">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ231">
         <v>1.63</v>
@@ -49112,7 +49118,7 @@
         <v>1.14</v>
       </c>
       <c r="AP232">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ232">
         <v>1.19</v>
@@ -49321,7 +49327,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ233">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR233">
         <v>2.36</v>
@@ -49527,7 +49533,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ234">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR234">
         <v>1.33</v>
@@ -50064,7 +50070,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50682,7 +50688,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50888,7 +50894,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51094,7 +51100,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51300,7 +51306,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51506,7 +51512,7 @@
         <v>91</v>
       </c>
       <c r="P244" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -51712,7 +51718,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51918,7 +51924,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52217,7 +52223,7 @@
         <v>3.24</v>
       </c>
       <c r="AU247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV247">
         <v>4</v>
@@ -52229,7 +52235,7 @@
         <v>7</v>
       </c>
       <c r="AY247">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ247">
         <v>11</v>
@@ -52281,6 +52287,418 @@
       </c>
       <c r="BP247">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7420741</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45411.48958333334</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248" t="s">
+        <v>78</v>
+      </c>
+      <c r="H248" t="s">
+        <v>73</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>185</v>
+      </c>
+      <c r="P248" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q248">
+        <v>2.88</v>
+      </c>
+      <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
+        <v>4</v>
+      </c>
+      <c r="T248">
+        <v>1.45</v>
+      </c>
+      <c r="U248">
+        <v>2.69</v>
+      </c>
+      <c r="V248">
+        <v>3.29</v>
+      </c>
+      <c r="W248">
+        <v>1.32</v>
+      </c>
+      <c r="X248">
+        <v>8.5</v>
+      </c>
+      <c r="Y248">
+        <v>1.05</v>
+      </c>
+      <c r="Z248">
+        <v>2.2</v>
+      </c>
+      <c r="AA248">
+        <v>3</v>
+      </c>
+      <c r="AB248">
+        <v>3.2</v>
+      </c>
+      <c r="AC248">
+        <v>1.04</v>
+      </c>
+      <c r="AD248">
+        <v>7.5</v>
+      </c>
+      <c r="AE248">
+        <v>1.38</v>
+      </c>
+      <c r="AF248">
+        <v>2.75</v>
+      </c>
+      <c r="AG248">
+        <v>2.23</v>
+      </c>
+      <c r="AH248">
+        <v>1.59</v>
+      </c>
+      <c r="AI248">
+        <v>1.92</v>
+      </c>
+      <c r="AJ248">
+        <v>1.84</v>
+      </c>
+      <c r="AK248">
+        <v>1.3</v>
+      </c>
+      <c r="AL248">
+        <v>1.31</v>
+      </c>
+      <c r="AM248">
+        <v>1.67</v>
+      </c>
+      <c r="AN248">
+        <v>1.53</v>
+      </c>
+      <c r="AO248">
+        <v>1.07</v>
+      </c>
+      <c r="AP248">
+        <v>1.5</v>
+      </c>
+      <c r="AQ248">
+        <v>1.06</v>
+      </c>
+      <c r="AR248">
+        <v>1.51</v>
+      </c>
+      <c r="AS248">
+        <v>1.28</v>
+      </c>
+      <c r="AT248">
+        <v>2.79</v>
+      </c>
+      <c r="AU248">
+        <v>6</v>
+      </c>
+      <c r="AV248">
+        <v>2</v>
+      </c>
+      <c r="AW248">
+        <v>5</v>
+      </c>
+      <c r="AX248">
+        <v>6</v>
+      </c>
+      <c r="AY248">
+        <v>11</v>
+      </c>
+      <c r="AZ248">
+        <v>8</v>
+      </c>
+      <c r="BA248">
+        <v>2</v>
+      </c>
+      <c r="BB248">
+        <v>1</v>
+      </c>
+      <c r="BC248">
+        <v>3</v>
+      </c>
+      <c r="BD248">
+        <v>0</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>0</v>
+      </c>
+      <c r="BG248">
+        <v>0</v>
+      </c>
+      <c r="BH248">
+        <v>0</v>
+      </c>
+      <c r="BI248">
+        <v>0</v>
+      </c>
+      <c r="BJ248">
+        <v>0</v>
+      </c>
+      <c r="BK248">
+        <v>0</v>
+      </c>
+      <c r="BL248">
+        <v>0</v>
+      </c>
+      <c r="BM248">
+        <v>0</v>
+      </c>
+      <c r="BN248">
+        <v>0</v>
+      </c>
+      <c r="BO248">
+        <v>0</v>
+      </c>
+      <c r="BP248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7420737</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45411.59375</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249" t="s">
+        <v>84</v>
+      </c>
+      <c r="H249" t="s">
+        <v>77</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>238</v>
+      </c>
+      <c r="P249" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q249">
+        <v>2.2</v>
+      </c>
+      <c r="R249">
+        <v>2.1</v>
+      </c>
+      <c r="S249">
+        <v>6.5</v>
+      </c>
+      <c r="T249">
+        <v>1.42</v>
+      </c>
+      <c r="U249">
+        <v>2.8</v>
+      </c>
+      <c r="V249">
+        <v>3.14</v>
+      </c>
+      <c r="W249">
+        <v>1.35</v>
+      </c>
+      <c r="X249">
+        <v>7.9</v>
+      </c>
+      <c r="Y249">
+        <v>1.06</v>
+      </c>
+      <c r="Z249">
+        <v>2.29</v>
+      </c>
+      <c r="AA249">
+        <v>1.97</v>
+      </c>
+      <c r="AB249">
+        <v>6.04</v>
+      </c>
+      <c r="AC249">
+        <v>1.06</v>
+      </c>
+      <c r="AD249">
+        <v>7.2</v>
+      </c>
+      <c r="AE249">
+        <v>1.3</v>
+      </c>
+      <c r="AF249">
+        <v>3.2</v>
+      </c>
+      <c r="AG249">
+        <v>2.15</v>
+      </c>
+      <c r="AH249">
+        <v>1.63</v>
+      </c>
+      <c r="AI249">
+        <v>2.09</v>
+      </c>
+      <c r="AJ249">
+        <v>1.7</v>
+      </c>
+      <c r="AK249">
+        <v>1.12</v>
+      </c>
+      <c r="AL249">
+        <v>1.21</v>
+      </c>
+      <c r="AM249">
+        <v>1.99</v>
+      </c>
+      <c r="AN249">
+        <v>1.53</v>
+      </c>
+      <c r="AO249">
+        <v>0.33</v>
+      </c>
+      <c r="AP249">
+        <v>1.63</v>
+      </c>
+      <c r="AQ249">
+        <v>0.31</v>
+      </c>
+      <c r="AR249">
+        <v>1.53</v>
+      </c>
+      <c r="AS249">
+        <v>0.87</v>
+      </c>
+      <c r="AT249">
+        <v>2.4</v>
+      </c>
+      <c r="AU249">
+        <v>4</v>
+      </c>
+      <c r="AV249">
+        <v>3</v>
+      </c>
+      <c r="AW249">
+        <v>4</v>
+      </c>
+      <c r="AX249">
+        <v>3</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>6</v>
+      </c>
+      <c r="BA249">
+        <v>4</v>
+      </c>
+      <c r="BB249">
+        <v>1</v>
+      </c>
+      <c r="BC249">
+        <v>5</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>0</v>
+      </c>
+      <c r="BG249">
+        <v>0</v>
+      </c>
+      <c r="BH249">
+        <v>0</v>
+      </c>
+      <c r="BI249">
+        <v>0</v>
+      </c>
+      <c r="BJ249">
+        <v>0</v>
+      </c>
+      <c r="BK249">
+        <v>0</v>
+      </c>
+      <c r="BL249">
+        <v>0</v>
+      </c>
+      <c r="BM249">
+        <v>0</v>
+      </c>
+      <c r="BN249">
+        <v>0</v>
+      </c>
+      <c r="BO249">
+        <v>0</v>
+      </c>
+      <c r="BP249">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -52429,22 +52429,22 @@
         <v>2.79</v>
       </c>
       <c r="AU248">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW248">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX248">
         <v>6</v>
       </c>
       <c r="AY248">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ248">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA248">
         <v>2</v>
@@ -52635,22 +52635,22 @@
         <v>2.4</v>
       </c>
       <c r="AU249">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV249">
         <v>3</v>
       </c>
       <c r="AW249">
+        <v>7</v>
+      </c>
+      <c r="AX249">
         <v>4</v>
       </c>
-      <c r="AX249">
-        <v>3</v>
-      </c>
       <c r="AY249">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ249">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA249">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1401,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8330,7 +8330,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>1.27</v>
@@ -12038,7 +12038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.19</v>
@@ -17806,7 +17806,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>1.38</v>
@@ -21102,7 +21102,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96">
         <v>1.06</v>
@@ -24604,7 +24604,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -25840,7 +25840,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>2.47</v>
@@ -26870,7 +26870,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
         <v>0.31</v>
@@ -27694,7 +27694,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>0.5600000000000001</v>
@@ -31196,7 +31196,7 @@
         <v>2.44</v>
       </c>
       <c r="AP145">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145">
         <v>2.33</v>
@@ -34904,7 +34904,7 @@
         <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
         <v>0.67</v>
@@ -38406,7 +38406,7 @@
         <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>1.33</v>
@@ -41496,7 +41496,7 @@
         <v>1.58</v>
       </c>
       <c r="AP195">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ195">
         <v>1.63</v>
@@ -44586,7 +44586,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ210">
         <v>1.07</v>
@@ -48294,7 +48294,7 @@
         <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ228">
         <v>0.73</v>
@@ -52698,6 +52698,212 @@
         <v>0</v>
       </c>
       <c r="BP249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7420742</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45418.48958333334</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>85</v>
+      </c>
+      <c r="H250" t="s">
+        <v>73</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250" t="s">
+        <v>91</v>
+      </c>
+      <c r="P250" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q250">
+        <v>2.88</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>4.33</v>
+      </c>
+      <c r="T250">
+        <v>1.5</v>
+      </c>
+      <c r="U250">
+        <v>2.5</v>
+      </c>
+      <c r="V250">
+        <v>3.4</v>
+      </c>
+      <c r="W250">
+        <v>1.3</v>
+      </c>
+      <c r="X250">
+        <v>10</v>
+      </c>
+      <c r="Y250">
+        <v>1.06</v>
+      </c>
+      <c r="Z250">
+        <v>2.6</v>
+      </c>
+      <c r="AA250">
+        <v>3.1</v>
+      </c>
+      <c r="AB250">
+        <v>2.76</v>
+      </c>
+      <c r="AC250">
+        <v>1.04</v>
+      </c>
+      <c r="AD250">
+        <v>7.4</v>
+      </c>
+      <c r="AE250">
+        <v>1.38</v>
+      </c>
+      <c r="AF250">
+        <v>2.71</v>
+      </c>
+      <c r="AG250">
+        <v>2.5</v>
+      </c>
+      <c r="AH250">
+        <v>1.5</v>
+      </c>
+      <c r="AI250">
+        <v>2</v>
+      </c>
+      <c r="AJ250">
+        <v>1.73</v>
+      </c>
+      <c r="AK250">
+        <v>1.22</v>
+      </c>
+      <c r="AL250">
+        <v>1.28</v>
+      </c>
+      <c r="AM250">
+        <v>1.63</v>
+      </c>
+      <c r="AN250">
+        <v>1.4</v>
+      </c>
+      <c r="AO250">
+        <v>1.06</v>
+      </c>
+      <c r="AP250">
+        <v>1.38</v>
+      </c>
+      <c r="AQ250">
+        <v>1.06</v>
+      </c>
+      <c r="AR250">
+        <v>1.41</v>
+      </c>
+      <c r="AS250">
+        <v>1.27</v>
+      </c>
+      <c r="AT250">
+        <v>2.68</v>
+      </c>
+      <c r="AU250">
+        <v>2</v>
+      </c>
+      <c r="AV250">
+        <v>2</v>
+      </c>
+      <c r="AW250">
+        <v>3</v>
+      </c>
+      <c r="AX250">
+        <v>1</v>
+      </c>
+      <c r="AY250">
+        <v>5</v>
+      </c>
+      <c r="AZ250">
+        <v>3</v>
+      </c>
+      <c r="BA250">
+        <v>1</v>
+      </c>
+      <c r="BB250">
+        <v>2</v>
+      </c>
+      <c r="BC250">
+        <v>3</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>0</v>
+      </c>
+      <c r="BG250">
+        <v>0</v>
+      </c>
+      <c r="BH250">
+        <v>0</v>
+      </c>
+      <c r="BI250">
+        <v>0</v>
+      </c>
+      <c r="BJ250">
+        <v>0</v>
+      </c>
+      <c r="BK250">
+        <v>0</v>
+      </c>
+      <c r="BL250">
+        <v>0</v>
+      </c>
+      <c r="BM250">
+        <v>0</v>
+      </c>
+      <c r="BN250">
+        <v>0</v>
+      </c>
+      <c r="BO250">
+        <v>0</v>
+      </c>
+      <c r="BP250">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1401,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2153,7 +2153,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24">
         <v>1.06</v>
@@ -9157,7 +9157,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR38">
         <v>1.25</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
         <v>0.9399999999999999</v>
@@ -12041,7 +12041,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
         <v>0.9399999999999999</v>
@@ -14925,7 +14925,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -15952,7 +15952,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ71">
         <v>2.33</v>
@@ -17191,7 +17191,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR77">
         <v>1.04</v>
@@ -18839,7 +18839,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR85">
         <v>1.11</v>
@@ -19042,7 +19042,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -22753,7 +22753,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR104">
         <v>1.45</v>
@@ -23986,7 +23986,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ110">
         <v>1.19</v>
@@ -26252,7 +26252,7 @@
         <v>2.14</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ121">
         <v>1.63</v>
@@ -28315,7 +28315,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR131">
         <v>1.12</v>
@@ -29754,7 +29754,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ138">
         <v>1.07</v>
@@ -30375,7 +30375,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -31405,7 +31405,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -33462,7 +33462,7 @@
         <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
         <v>0.73</v>
@@ -35319,7 +35319,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR165">
         <v>1.33</v>
@@ -36346,7 +36346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170">
         <v>0.31</v>
@@ -38821,7 +38821,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ182">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR182">
         <v>2.41</v>
@@ -40672,7 +40672,7 @@
         <v>2.2</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ191">
         <v>2.47</v>
@@ -41293,7 +41293,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ194">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR194">
         <v>1.76</v>
@@ -43968,7 +43968,7 @@
         <v>1.42</v>
       </c>
       <c r="AP207">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ207">
         <v>1.27</v>
@@ -46646,10 +46646,10 @@
         <v>1.38</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ220">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR220">
         <v>1.83</v>
@@ -47882,7 +47882,7 @@
         <v>0.43</v>
       </c>
       <c r="AP226">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ226">
         <v>0.5600000000000001</v>
@@ -50563,7 +50563,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ239">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR239">
         <v>1.5</v>
@@ -51590,7 +51590,7 @@
         <v>0.8</v>
       </c>
       <c r="AP244">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ244">
         <v>0.9399999999999999</v>
@@ -52841,69 +52841,275 @@
         <v>2.68</v>
       </c>
       <c r="AU250">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV250">
         <v>2</v>
       </c>
       <c r="AW250">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY250">
+        <v>16</v>
+      </c>
+      <c r="AZ250">
+        <v>6</v>
+      </c>
+      <c r="BA250">
+        <v>6</v>
+      </c>
+      <c r="BB250">
+        <v>2</v>
+      </c>
+      <c r="BC250">
+        <v>8</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>0</v>
+      </c>
+      <c r="BG250">
+        <v>0</v>
+      </c>
+      <c r="BH250">
+        <v>0</v>
+      </c>
+      <c r="BI250">
+        <v>0</v>
+      </c>
+      <c r="BJ250">
+        <v>0</v>
+      </c>
+      <c r="BK250">
+        <v>0</v>
+      </c>
+      <c r="BL250">
+        <v>0</v>
+      </c>
+      <c r="BM250">
+        <v>0</v>
+      </c>
+      <c r="BN250">
+        <v>0</v>
+      </c>
+      <c r="BO250">
+        <v>0</v>
+      </c>
+      <c r="BP250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7420743</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45418.59375</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s">
+        <v>78</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251" t="s">
+        <v>91</v>
+      </c>
+      <c r="P251" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q251">
+        <v>2.6</v>
+      </c>
+      <c r="R251">
+        <v>2.1</v>
+      </c>
+      <c r="S251">
+        <v>4.75</v>
+      </c>
+      <c r="T251">
+        <v>1.46</v>
+      </c>
+      <c r="U251">
+        <v>2.55</v>
+      </c>
+      <c r="V251">
+        <v>3.15</v>
+      </c>
+      <c r="W251">
+        <v>1.33</v>
+      </c>
+      <c r="X251">
+        <v>8.4</v>
+      </c>
+      <c r="Y251">
+        <v>1.05</v>
+      </c>
+      <c r="Z251">
+        <v>1.74</v>
+      </c>
+      <c r="AA251">
+        <v>3.4</v>
+      </c>
+      <c r="AB251">
+        <v>4.75</v>
+      </c>
+      <c r="AC251">
+        <v>1.04</v>
+      </c>
+      <c r="AD251">
+        <v>7.6</v>
+      </c>
+      <c r="AE251">
+        <v>1.36</v>
+      </c>
+      <c r="AF251">
+        <v>2.95</v>
+      </c>
+      <c r="AG251">
+        <v>1.92</v>
+      </c>
+      <c r="AH251">
+        <v>1.8</v>
+      </c>
+      <c r="AI251">
+        <v>1.95</v>
+      </c>
+      <c r="AJ251">
+        <v>1.8</v>
+      </c>
+      <c r="AK251">
+        <v>1.18</v>
+      </c>
+      <c r="AL251">
+        <v>1.25</v>
+      </c>
+      <c r="AM251">
+        <v>1.87</v>
+      </c>
+      <c r="AN251">
+        <v>1.5</v>
+      </c>
+      <c r="AO251">
+        <v>1.33</v>
+      </c>
+      <c r="AP251">
+        <v>1.47</v>
+      </c>
+      <c r="AQ251">
+        <v>1.31</v>
+      </c>
+      <c r="AR251">
+        <v>1.83</v>
+      </c>
+      <c r="AS251">
+        <v>1.44</v>
+      </c>
+      <c r="AT251">
+        <v>3.27</v>
+      </c>
+      <c r="AU251">
+        <v>4</v>
+      </c>
+      <c r="AV251">
         <v>5</v>
       </c>
-      <c r="AZ250">
-        <v>3</v>
-      </c>
-      <c r="BA250">
-        <v>1</v>
-      </c>
-      <c r="BB250">
-        <v>2</v>
-      </c>
-      <c r="BC250">
-        <v>3</v>
-      </c>
-      <c r="BD250">
-        <v>0</v>
-      </c>
-      <c r="BE250">
-        <v>0</v>
-      </c>
-      <c r="BF250">
-        <v>0</v>
-      </c>
-      <c r="BG250">
-        <v>0</v>
-      </c>
-      <c r="BH250">
-        <v>0</v>
-      </c>
-      <c r="BI250">
-        <v>0</v>
-      </c>
-      <c r="BJ250">
-        <v>0</v>
-      </c>
-      <c r="BK250">
-        <v>0</v>
-      </c>
-      <c r="BL250">
-        <v>0</v>
-      </c>
-      <c r="BM250">
-        <v>0</v>
-      </c>
-      <c r="BN250">
-        <v>0</v>
-      </c>
-      <c r="BO250">
-        <v>0</v>
-      </c>
-      <c r="BP250">
+      <c r="AW251">
+        <v>16</v>
+      </c>
+      <c r="AX251">
+        <v>6</v>
+      </c>
+      <c r="AY251">
+        <v>20</v>
+      </c>
+      <c r="AZ251">
+        <v>11</v>
+      </c>
+      <c r="BA251">
+        <v>7</v>
+      </c>
+      <c r="BB251">
+        <v>0</v>
+      </c>
+      <c r="BC251">
+        <v>7</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>0</v>
+      </c>
+      <c r="BG251">
+        <v>0</v>
+      </c>
+      <c r="BH251">
+        <v>0</v>
+      </c>
+      <c r="BI251">
+        <v>0</v>
+      </c>
+      <c r="BJ251">
+        <v>0</v>
+      </c>
+      <c r="BK251">
+        <v>0</v>
+      </c>
+      <c r="BL251">
+        <v>0</v>
+      </c>
+      <c r="BM251">
+        <v>0</v>
+      </c>
+      <c r="BN251">
+        <v>0</v>
+      </c>
+      <c r="BO251">
+        <v>0</v>
+      </c>
+      <c r="BP251">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['31', '39', '90']</t>
   </si>
   <si>
+    <t>['20', '30', '42', '74']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1040,6 +1043,9 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['42', '65']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1666,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1944,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ3">
         <v>2.47</v>
@@ -2072,7 +2078,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2278,7 +2284,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2484,7 +2490,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3102,7 +3108,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3183,7 +3189,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3386,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ10">
         <v>1.07</v>
@@ -3720,7 +3726,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4338,7 +4344,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4419,7 +4425,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR15">
         <v>1.16</v>
@@ -4625,7 +4631,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ16">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4956,7 +4962,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5034,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ18">
         <v>1.27</v>
@@ -6192,7 +6198,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6398,7 +6404,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6891,7 +6897,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ27">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -7300,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ29">
         <v>0.73</v>
@@ -7921,7 +7927,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ32">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8252,7 +8258,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8870,7 +8876,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9154,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ38">
         <v>1.31</v>
@@ -9282,7 +9288,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9775,7 +9781,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9900,7 +9906,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10106,7 +10112,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10596,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ45">
         <v>0.31</v>
@@ -10930,7 +10936,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11011,7 +11017,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ47">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR47">
         <v>1.35</v>
@@ -11214,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ48">
         <v>1.19</v>
@@ -11548,7 +11554,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11960,7 +11966,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12166,7 +12172,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12659,7 +12665,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12784,7 +12790,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12990,7 +12996,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -14226,7 +14232,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14432,7 +14438,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14638,7 +14644,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14719,7 +14725,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ65">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -15050,7 +15056,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15256,7 +15262,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15334,7 +15340,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
         <v>1.38</v>
@@ -15746,7 +15752,7 @@
         <v>2.2</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ70">
         <v>1.27</v>
@@ -15874,7 +15880,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16367,7 +16373,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ73">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16904,7 +16910,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17522,7 +17528,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17728,7 +17734,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17934,7 +17940,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18015,7 +18021,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR81">
         <v>2.69</v>
@@ -18140,7 +18146,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18346,7 +18352,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18424,7 +18430,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18758,7 +18764,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18964,7 +18970,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19582,7 +19588,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19994,7 +20000,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20075,7 +20081,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR91">
         <v>1.07</v>
@@ -20200,7 +20206,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20484,7 +20490,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ93">
         <v>0.5600000000000001</v>
@@ -20818,7 +20824,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21230,7 +21236,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21311,7 +21317,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ97">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21436,7 +21442,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21720,7 +21726,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ99">
         <v>1.33</v>
@@ -22132,7 +22138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ101">
         <v>0.31</v>
@@ -22260,7 +22266,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22466,7 +22472,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22878,7 +22884,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23165,7 +23171,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR106">
         <v>1.47</v>
@@ -24114,7 +24120,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24398,10 +24404,10 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ112">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR112">
         <v>1.77</v>
@@ -25762,7 +25768,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26255,7 +26261,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR121">
         <v>1.83</v>
@@ -26586,7 +26592,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -27488,7 +27494,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ127">
         <v>1.38</v>
@@ -28028,7 +28034,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28646,7 +28652,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28724,7 +28730,7 @@
         <v>2.38</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ133">
         <v>2.33</v>
@@ -28852,7 +28858,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29058,7 +29064,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29264,7 +29270,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29551,7 +29557,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ137">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29676,7 +29682,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29882,7 +29888,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30294,7 +30300,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30500,7 +30506,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30581,7 +30587,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>2.62</v>
@@ -30706,7 +30712,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30912,7 +30918,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31118,7 +31124,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31324,7 +31330,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31530,7 +31536,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31817,7 +31823,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ148">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR148">
         <v>2.04</v>
@@ -32432,7 +32438,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ151">
         <v>0.67</v>
@@ -32847,7 +32853,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ153">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR153">
         <v>1.82</v>
@@ -33178,7 +33184,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33256,7 +33262,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33590,7 +33596,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34286,7 +34292,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ160">
         <v>1.06</v>
@@ -34698,7 +34704,7 @@
         <v>1.3</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ162">
         <v>1.33</v>
@@ -35032,7 +35038,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35238,7 +35244,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35444,7 +35450,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35525,7 +35531,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -36062,7 +36068,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36474,7 +36480,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37092,7 +37098,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37376,10 +37382,10 @@
         <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37504,7 +37510,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37710,7 +37716,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37916,7 +37922,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38122,7 +38128,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38200,10 +38206,10 @@
         <v>1.73</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ179">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38328,7 +38334,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -39152,7 +39158,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39564,7 +39570,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39645,7 +39651,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>1.38</v>
@@ -39770,7 +39776,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39848,7 +39854,7 @@
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ187">
         <v>2.33</v>
@@ -40182,7 +40188,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40594,7 +40600,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40800,7 +40806,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41006,7 +41012,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41212,7 +41218,7 @@
         <v>208</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q194">
         <v>2.11</v>
@@ -41418,7 +41424,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41499,7 +41505,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ195">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -41624,7 +41630,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42036,7 +42042,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42114,7 +42120,7 @@
         <v>0.92</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ198">
         <v>1.07</v>
@@ -42860,7 +42866,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43147,7 +43153,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ203">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR203">
         <v>2.04</v>
@@ -43272,7 +43278,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43478,7 +43484,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44174,7 +44180,7 @@
         <v>0.58</v>
       </c>
       <c r="AP208">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ208">
         <v>0.67</v>
@@ -44302,7 +44308,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44714,7 +44720,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44792,7 +44798,7 @@
         <v>0.85</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ211">
         <v>0.73</v>
@@ -44920,7 +44926,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45001,7 +45007,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ212">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR212">
         <v>1.89</v>
@@ -45410,7 +45416,7 @@
         <v>0.38</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ214">
         <v>0.5600000000000001</v>
@@ -45538,7 +45544,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46156,7 +46162,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46237,7 +46243,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ218">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR218">
         <v>1.51</v>
@@ -46362,7 +46368,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46774,7 +46780,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47676,7 +47682,7 @@
         <v>2.38</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ225">
         <v>2.47</v>
@@ -48010,7 +48016,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48216,7 +48222,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48422,7 +48428,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48834,7 +48840,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -48915,7 +48921,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ231">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR231">
         <v>1.51</v>
@@ -49118,7 +49124,7 @@
         <v>1.14</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ232">
         <v>1.19</v>
@@ -49736,10 +49742,10 @@
         <v>0.86</v>
       </c>
       <c r="AP235">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ235">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR235">
         <v>1.44</v>
@@ -50070,7 +50076,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50688,7 +50694,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50894,7 +50900,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51100,7 +51106,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51306,7 +51312,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51512,7 +51518,7 @@
         <v>91</v>
       </c>
       <c r="P244" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -51593,7 +51599,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ244">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR244">
         <v>1.86</v>
@@ -51718,7 +51724,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51924,7 +51930,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52211,7 +52217,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ247">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR247">
         <v>1.82</v>
@@ -52336,7 +52342,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52414,7 +52420,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ248">
         <v>1.06</v>
@@ -53110,6 +53116,418 @@
         <v>0</v>
       </c>
       <c r="BP251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7420747</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45422.44791666666</v>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+      <c r="G252" t="s">
+        <v>78</v>
+      </c>
+      <c r="H252" t="s">
+        <v>85</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252" t="s">
+        <v>91</v>
+      </c>
+      <c r="P252" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q252">
+        <v>2.6</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>4.2</v>
+      </c>
+      <c r="T252">
+        <v>1.44</v>
+      </c>
+      <c r="U252">
+        <v>2.62</v>
+      </c>
+      <c r="V252">
+        <v>3.25</v>
+      </c>
+      <c r="W252">
+        <v>1.33</v>
+      </c>
+      <c r="X252">
+        <v>8</v>
+      </c>
+      <c r="Y252">
+        <v>1.06</v>
+      </c>
+      <c r="Z252">
+        <v>2</v>
+      </c>
+      <c r="AA252">
+        <v>2.87</v>
+      </c>
+      <c r="AB252">
+        <v>3.7</v>
+      </c>
+      <c r="AC252">
+        <v>1.08</v>
+      </c>
+      <c r="AD252">
+        <v>7.2</v>
+      </c>
+      <c r="AE252">
+        <v>1.42</v>
+      </c>
+      <c r="AF252">
+        <v>2.65</v>
+      </c>
+      <c r="AG252">
+        <v>2.25</v>
+      </c>
+      <c r="AH252">
+        <v>1.53</v>
+      </c>
+      <c r="AI252">
+        <v>2</v>
+      </c>
+      <c r="AJ252">
+        <v>1.73</v>
+      </c>
+      <c r="AK252">
+        <v>1.25</v>
+      </c>
+      <c r="AL252">
+        <v>1.36</v>
+      </c>
+      <c r="AM252">
+        <v>1.67</v>
+      </c>
+      <c r="AN252">
+        <v>1.5</v>
+      </c>
+      <c r="AO252">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP252">
+        <v>1.41</v>
+      </c>
+      <c r="AQ252">
+        <v>1.06</v>
+      </c>
+      <c r="AR252">
+        <v>1.53</v>
+      </c>
+      <c r="AS252">
+        <v>1.38</v>
+      </c>
+      <c r="AT252">
+        <v>2.91</v>
+      </c>
+      <c r="AU252">
+        <v>4</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>5</v>
+      </c>
+      <c r="AX252">
+        <v>11</v>
+      </c>
+      <c r="AY252">
+        <v>9</v>
+      </c>
+      <c r="AZ252">
+        <v>16</v>
+      </c>
+      <c r="BA252">
+        <v>5</v>
+      </c>
+      <c r="BB252">
+        <v>3</v>
+      </c>
+      <c r="BC252">
+        <v>8</v>
+      </c>
+      <c r="BD252">
+        <v>0</v>
+      </c>
+      <c r="BE252">
+        <v>0</v>
+      </c>
+      <c r="BF252">
+        <v>0</v>
+      </c>
+      <c r="BG252">
+        <v>0</v>
+      </c>
+      <c r="BH252">
+        <v>0</v>
+      </c>
+      <c r="BI252">
+        <v>0</v>
+      </c>
+      <c r="BJ252">
+        <v>0</v>
+      </c>
+      <c r="BK252">
+        <v>0</v>
+      </c>
+      <c r="BL252">
+        <v>0</v>
+      </c>
+      <c r="BM252">
+        <v>0</v>
+      </c>
+      <c r="BN252">
+        <v>0</v>
+      </c>
+      <c r="BO252">
+        <v>0</v>
+      </c>
+      <c r="BP252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7420954</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45422.55208333334</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>71</v>
+      </c>
+      <c r="H253" t="s">
+        <v>74</v>
+      </c>
+      <c r="I253">
+        <v>3</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>3</v>
+      </c>
+      <c r="L253">
+        <v>4</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>5</v>
+      </c>
+      <c r="O253" t="s">
+        <v>239</v>
+      </c>
+      <c r="P253" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q253">
+        <v>3.6</v>
+      </c>
+      <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
+        <v>3.2</v>
+      </c>
+      <c r="T253">
+        <v>1.5</v>
+      </c>
+      <c r="U253">
+        <v>2.5</v>
+      </c>
+      <c r="V253">
+        <v>3.4</v>
+      </c>
+      <c r="W253">
+        <v>1.3</v>
+      </c>
+      <c r="X253">
+        <v>10</v>
+      </c>
+      <c r="Y253">
+        <v>1.06</v>
+      </c>
+      <c r="Z253">
+        <v>2.8</v>
+      </c>
+      <c r="AA253">
+        <v>3.25</v>
+      </c>
+      <c r="AB253">
+        <v>2.5</v>
+      </c>
+      <c r="AC253">
+        <v>1.04</v>
+      </c>
+      <c r="AD253">
+        <v>7.6</v>
+      </c>
+      <c r="AE253">
+        <v>1.36</v>
+      </c>
+      <c r="AF253">
+        <v>2.8</v>
+      </c>
+      <c r="AG253">
+        <v>2.18</v>
+      </c>
+      <c r="AH253">
+        <v>1.49</v>
+      </c>
+      <c r="AI253">
+        <v>1.91</v>
+      </c>
+      <c r="AJ253">
+        <v>1.8</v>
+      </c>
+      <c r="AK253">
+        <v>1.52</v>
+      </c>
+      <c r="AL253">
+        <v>1.28</v>
+      </c>
+      <c r="AM253">
+        <v>1.4</v>
+      </c>
+      <c r="AN253">
+        <v>2</v>
+      </c>
+      <c r="AO253">
+        <v>1.63</v>
+      </c>
+      <c r="AP253">
+        <v>2.06</v>
+      </c>
+      <c r="AQ253">
+        <v>1.53</v>
+      </c>
+      <c r="AR253">
+        <v>1.46</v>
+      </c>
+      <c r="AS253">
+        <v>1.43</v>
+      </c>
+      <c r="AT253">
+        <v>2.89</v>
+      </c>
+      <c r="AU253">
+        <v>9</v>
+      </c>
+      <c r="AV253">
+        <v>6</v>
+      </c>
+      <c r="AW253">
+        <v>6</v>
+      </c>
+      <c r="AX253">
+        <v>7</v>
+      </c>
+      <c r="AY253">
+        <v>15</v>
+      </c>
+      <c r="AZ253">
+        <v>13</v>
+      </c>
+      <c r="BA253">
+        <v>3</v>
+      </c>
+      <c r="BB253">
+        <v>6</v>
+      </c>
+      <c r="BC253">
+        <v>9</v>
+      </c>
+      <c r="BD253">
+        <v>0</v>
+      </c>
+      <c r="BE253">
+        <v>0</v>
+      </c>
+      <c r="BF253">
+        <v>0</v>
+      </c>
+      <c r="BG253">
+        <v>0</v>
+      </c>
+      <c r="BH253">
+        <v>0</v>
+      </c>
+      <c r="BI253">
+        <v>0</v>
+      </c>
+      <c r="BJ253">
+        <v>0</v>
+      </c>
+      <c r="BK253">
+        <v>0</v>
+      </c>
+      <c r="BL253">
+        <v>0</v>
+      </c>
+      <c r="BM253">
+        <v>0</v>
+      </c>
+      <c r="BN253">
+        <v>0</v>
+      </c>
+      <c r="BO253">
+        <v>0</v>
+      </c>
+      <c r="BP253">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,12 @@
     <t>['20', '30', '42', '74']</t>
   </si>
   <si>
+    <t>['64', '85']</t>
+  </si>
+  <si>
+    <t>['2', '48', '57']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1407,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1672,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2078,7 +2084,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2284,7 +2290,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2362,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ5">
         <v>1.27</v>
@@ -2490,7 +2496,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2571,7 +2577,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2777,7 +2783,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ7">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3108,7 +3114,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3726,7 +3732,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4010,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ13">
         <v>0.31</v>
@@ -4344,7 +4350,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4962,7 +4968,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5455,7 +5461,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>2.02</v>
@@ -6198,7 +6204,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6404,7 +6410,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -7718,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1.19</v>
@@ -8133,7 +8139,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.13</v>
@@ -8258,7 +8264,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8748,10 +8754,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR36">
         <v>3.37</v>
@@ -8876,7 +8882,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9288,7 +9294,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9906,7 +9912,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9987,7 +9993,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ42">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR42">
         <v>1.29</v>
@@ -10112,7 +10118,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10936,7 +10942,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11554,7 +11560,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11635,7 +11641,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.37</v>
@@ -11838,7 +11844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11966,7 +11972,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12172,7 +12178,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12790,7 +12796,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12996,7 +13002,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13077,7 +13083,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR57">
         <v>0.96</v>
@@ -13898,7 +13904,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ61">
         <v>0.5600000000000001</v>
@@ -14232,7 +14238,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14438,7 +14444,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14516,10 +14522,10 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>2.66</v>
@@ -14644,7 +14650,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15056,7 +15062,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15262,7 +15268,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15880,7 +15886,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15961,7 +15967,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ71">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -16164,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
         <v>0.73</v>
@@ -16910,7 +16916,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17403,7 +17409,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17528,7 +17534,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17734,7 +17740,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17940,7 +17946,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18018,7 +18024,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ81">
         <v>1.53</v>
@@ -18146,7 +18152,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18352,7 +18358,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18764,7 +18770,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18970,7 +18976,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19254,7 +19260,7 @@
         <v>0.6</v>
       </c>
       <c r="AP87">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
         <v>0.31</v>
@@ -19588,7 +19594,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20000,7 +20006,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20206,7 +20212,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20287,7 +20293,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ92">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20824,7 +20830,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21236,7 +21242,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21442,7 +21448,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21729,7 +21735,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.75</v>
@@ -21932,7 +21938,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ100">
         <v>1.07</v>
@@ -22266,7 +22272,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22472,7 +22478,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22553,7 +22559,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22884,7 +22890,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -22965,7 +22971,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ105">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR105">
         <v>1.11</v>
@@ -23580,7 +23586,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108">
         <v>2.47</v>
@@ -24120,7 +24126,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -25228,7 +25234,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ116">
         <v>0.73</v>
@@ -25437,7 +25443,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ117">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25640,7 +25646,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ118">
         <v>1.38</v>
@@ -25768,7 +25774,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26464,7 +26470,7 @@
         <v>0.57</v>
       </c>
       <c r="AP122">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ122">
         <v>0.9399999999999999</v>
@@ -26592,7 +26598,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -28034,7 +28040,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28524,7 +28530,7 @@
         <v>0.88</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ132">
         <v>0.67</v>
@@ -28652,7 +28658,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28733,7 +28739,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ133">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR133">
         <v>1.35</v>
@@ -28858,7 +28864,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -28939,7 +28945,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
         <v>2.11</v>
@@ -29064,7 +29070,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29270,7 +29276,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29682,7 +29688,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29888,7 +29894,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30300,7 +30306,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30378,7 +30384,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ141">
         <v>1.31</v>
@@ -30506,7 +30512,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30584,7 +30590,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -30712,7 +30718,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30918,7 +30924,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -30996,10 +31002,10 @@
         <v>1.11</v>
       </c>
       <c r="AP144">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31124,7 +31130,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31205,7 +31211,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR145">
         <v>1.26</v>
@@ -31330,7 +31336,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31536,7 +31542,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -32232,7 +32238,7 @@
         <v>0.44</v>
       </c>
       <c r="AP150">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ150">
         <v>0.5600000000000001</v>
@@ -33184,7 +33190,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33596,7 +33602,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34707,7 +34713,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -35038,7 +35044,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35244,7 +35250,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35450,7 +35456,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35528,7 +35534,7 @@
         <v>1.6</v>
       </c>
       <c r="AP166">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166">
         <v>1.53</v>
@@ -35940,7 +35946,7 @@
         <v>1.7</v>
       </c>
       <c r="AP168">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ168">
         <v>1.27</v>
@@ -36068,7 +36074,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36480,7 +36486,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -36767,7 +36773,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ172">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR172">
         <v>1.8</v>
@@ -37098,7 +37104,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37510,7 +37516,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37716,7 +37722,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37922,7 +37928,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38128,7 +38134,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38334,7 +38340,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38415,7 +38421,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
@@ -38824,7 +38830,7 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ182">
         <v>1.31</v>
@@ -39030,7 +39036,7 @@
         <v>0.91</v>
       </c>
       <c r="AP183">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183">
         <v>1.07</v>
@@ -39158,7 +39164,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39570,7 +39576,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39776,7 +39782,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39857,7 +39863,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ187">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR187">
         <v>1.41</v>
@@ -40188,7 +40194,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40600,7 +40606,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40806,7 +40812,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41012,7 +41018,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41218,7 +41224,7 @@
         <v>208</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q194">
         <v>2.11</v>
@@ -41424,7 +41430,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41630,7 +41636,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -41914,7 +41920,7 @@
         <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ197">
         <v>1.19</v>
@@ -42042,7 +42048,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42535,7 +42541,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ200">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR200">
         <v>1.88</v>
@@ -42866,7 +42872,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -42944,7 +42950,7 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ202">
         <v>0.9399999999999999</v>
@@ -43278,7 +43284,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43484,7 +43490,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -43771,7 +43777,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ206">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR206">
         <v>1.33</v>
@@ -44308,7 +44314,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44720,7 +44726,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44926,7 +44932,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45210,7 +45216,7 @@
         <v>1.69</v>
       </c>
       <c r="AP213">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ213">
         <v>1.38</v>
@@ -45544,7 +45550,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45625,7 +45631,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ215">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR215">
         <v>1.48</v>
@@ -46162,7 +46168,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46240,7 +46246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ218">
         <v>1.06</v>
@@ -46368,7 +46374,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46449,7 +46455,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ219">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR219">
         <v>2.04</v>
@@ -46780,7 +46786,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -48016,7 +48022,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48222,7 +48228,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48428,7 +48434,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48840,7 +48846,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49330,7 +49336,7 @@
         <v>1.14</v>
       </c>
       <c r="AP233">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ233">
         <v>1.06</v>
@@ -50076,7 +50082,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50694,7 +50700,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50775,7 +50781,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ240">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR240">
         <v>1.31</v>
@@ -50900,7 +50906,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -50978,10 +50984,10 @@
         <v>2.29</v>
       </c>
       <c r="AP241">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ241">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR241">
         <v>1.47</v>
@@ -51106,7 +51112,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51312,7 +51318,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51518,7 +51524,7 @@
         <v>91</v>
       </c>
       <c r="P244" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -51724,7 +51730,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51930,7 +51936,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52008,7 +52014,7 @@
         <v>0.93</v>
       </c>
       <c r="AP246">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ246">
         <v>0.9399999999999999</v>
@@ -52342,7 +52348,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53166,7 +53172,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53372,7 +53378,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53528,6 +53534,418 @@
         <v>0</v>
       </c>
       <c r="BP253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7420748</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+      <c r="G254" t="s">
+        <v>73</v>
+      </c>
+      <c r="H254" t="s">
+        <v>80</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>3</v>
+      </c>
+      <c r="O254" t="s">
+        <v>240</v>
+      </c>
+      <c r="P254" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q254">
+        <v>3</v>
+      </c>
+      <c r="R254">
+        <v>2.05</v>
+      </c>
+      <c r="S254">
+        <v>3.4</v>
+      </c>
+      <c r="T254">
+        <v>1.43</v>
+      </c>
+      <c r="U254">
+        <v>2.65</v>
+      </c>
+      <c r="V254">
+        <v>2.75</v>
+      </c>
+      <c r="W254">
+        <v>1.4</v>
+      </c>
+      <c r="X254">
+        <v>6.5</v>
+      </c>
+      <c r="Y254">
+        <v>1.1</v>
+      </c>
+      <c r="Z254">
+        <v>2.85</v>
+      </c>
+      <c r="AA254">
+        <v>2.94</v>
+      </c>
+      <c r="AB254">
+        <v>2.28</v>
+      </c>
+      <c r="AC254">
+        <v>1.04</v>
+      </c>
+      <c r="AD254">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE254">
+        <v>1.33</v>
+      </c>
+      <c r="AF254">
+        <v>3.1</v>
+      </c>
+      <c r="AG254">
+        <v>2.05</v>
+      </c>
+      <c r="AH254">
+        <v>1.58</v>
+      </c>
+      <c r="AI254">
+        <v>1.75</v>
+      </c>
+      <c r="AJ254">
+        <v>2</v>
+      </c>
+      <c r="AK254">
+        <v>1.4</v>
+      </c>
+      <c r="AL254">
+        <v>1.28</v>
+      </c>
+      <c r="AM254">
+        <v>1.53</v>
+      </c>
+      <c r="AN254">
+        <v>1.53</v>
+      </c>
+      <c r="AO254">
+        <v>1.33</v>
+      </c>
+      <c r="AP254">
+        <v>1.63</v>
+      </c>
+      <c r="AQ254">
+        <v>1.25</v>
+      </c>
+      <c r="AR254">
+        <v>1.48</v>
+      </c>
+      <c r="AS254">
+        <v>1.44</v>
+      </c>
+      <c r="AT254">
+        <v>2.92</v>
+      </c>
+      <c r="AU254">
+        <v>7</v>
+      </c>
+      <c r="AV254">
+        <v>8</v>
+      </c>
+      <c r="AW254">
+        <v>3</v>
+      </c>
+      <c r="AX254">
+        <v>4</v>
+      </c>
+      <c r="AY254">
+        <v>10</v>
+      </c>
+      <c r="AZ254">
+        <v>12</v>
+      </c>
+      <c r="BA254">
+        <v>12</v>
+      </c>
+      <c r="BB254">
+        <v>5</v>
+      </c>
+      <c r="BC254">
+        <v>17</v>
+      </c>
+      <c r="BD254">
+        <v>0</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>0</v>
+      </c>
+      <c r="BG254">
+        <v>0</v>
+      </c>
+      <c r="BH254">
+        <v>0</v>
+      </c>
+      <c r="BI254">
+        <v>0</v>
+      </c>
+      <c r="BJ254">
+        <v>0</v>
+      </c>
+      <c r="BK254">
+        <v>0</v>
+      </c>
+      <c r="BL254">
+        <v>0</v>
+      </c>
+      <c r="BM254">
+        <v>0</v>
+      </c>
+      <c r="BN254">
+        <v>0</v>
+      </c>
+      <c r="BO254">
+        <v>0</v>
+      </c>
+      <c r="BP254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7420956</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45423.5625</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255" t="s">
+        <v>81</v>
+      </c>
+      <c r="H255" t="s">
+        <v>79</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>3</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>4</v>
+      </c>
+      <c r="O255" t="s">
+        <v>241</v>
+      </c>
+      <c r="P255" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q255">
+        <v>2.3</v>
+      </c>
+      <c r="R255">
+        <v>2.25</v>
+      </c>
+      <c r="S255">
+        <v>5</v>
+      </c>
+      <c r="T255">
+        <v>1.36</v>
+      </c>
+      <c r="U255">
+        <v>3</v>
+      </c>
+      <c r="V255">
+        <v>2.75</v>
+      </c>
+      <c r="W255">
+        <v>1.4</v>
+      </c>
+      <c r="X255">
+        <v>7</v>
+      </c>
+      <c r="Y255">
+        <v>1.1</v>
+      </c>
+      <c r="Z255">
+        <v>1.76</v>
+      </c>
+      <c r="AA255">
+        <v>3.3</v>
+      </c>
+      <c r="AB255">
+        <v>3.9</v>
+      </c>
+      <c r="AC255">
+        <v>1.01</v>
+      </c>
+      <c r="AD255">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE255">
+        <v>1.25</v>
+      </c>
+      <c r="AF255">
+        <v>3.6</v>
+      </c>
+      <c r="AG255">
+        <v>1.93</v>
+      </c>
+      <c r="AH255">
+        <v>1.63</v>
+      </c>
+      <c r="AI255">
+        <v>1.8</v>
+      </c>
+      <c r="AJ255">
+        <v>1.91</v>
+      </c>
+      <c r="AK255">
+        <v>1.15</v>
+      </c>
+      <c r="AL255">
+        <v>1.2</v>
+      </c>
+      <c r="AM255">
+        <v>2.1</v>
+      </c>
+      <c r="AN255">
+        <v>2.44</v>
+      </c>
+      <c r="AO255">
+        <v>2.33</v>
+      </c>
+      <c r="AP255">
+        <v>2.47</v>
+      </c>
+      <c r="AQ255">
+        <v>2.19</v>
+      </c>
+      <c r="AR255">
+        <v>2.46</v>
+      </c>
+      <c r="AS255">
+        <v>1.73</v>
+      </c>
+      <c r="AT255">
+        <v>4.19</v>
+      </c>
+      <c r="AU255">
+        <v>6</v>
+      </c>
+      <c r="AV255">
+        <v>5</v>
+      </c>
+      <c r="AW255">
+        <v>6</v>
+      </c>
+      <c r="AX255">
+        <v>5</v>
+      </c>
+      <c r="AY255">
+        <v>12</v>
+      </c>
+      <c r="AZ255">
+        <v>10</v>
+      </c>
+      <c r="BA255">
+        <v>5</v>
+      </c>
+      <c r="BB255">
+        <v>8</v>
+      </c>
+      <c r="BC255">
+        <v>13</v>
+      </c>
+      <c r="BD255">
+        <v>0</v>
+      </c>
+      <c r="BE255">
+        <v>0</v>
+      </c>
+      <c r="BF255">
+        <v>0</v>
+      </c>
+      <c r="BG255">
+        <v>0</v>
+      </c>
+      <c r="BH255">
+        <v>0</v>
+      </c>
+      <c r="BI255">
+        <v>0</v>
+      </c>
+      <c r="BJ255">
+        <v>0</v>
+      </c>
+      <c r="BK255">
+        <v>0</v>
+      </c>
+      <c r="BL255">
+        <v>0</v>
+      </c>
+      <c r="BM255">
+        <v>0</v>
+      </c>
+      <c r="BN255">
+        <v>0</v>
+      </c>
+      <c r="BO255">
+        <v>0</v>
+      </c>
+      <c r="BP255">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,9 @@
     <t>['2', '48', '57']</t>
   </si>
   <si>
+    <t>['29', '31']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1675,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2084,7 +2087,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2162,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ4">
         <v>1.31</v>
@@ -2290,7 +2293,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2371,7 +2374,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ5">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2496,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3114,7 +3117,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3401,7 +3404,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3732,7 +3735,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4350,7 +4353,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4840,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>1.06</v>
@@ -4968,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5049,7 +5052,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5664,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ21">
         <v>1.19</v>
@@ -6204,7 +6207,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6410,7 +6413,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6697,7 +6700,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.16</v>
@@ -7518,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -8264,7 +8267,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8345,7 +8348,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -8548,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ35">
         <v>0.5600000000000001</v>
@@ -8882,7 +8885,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9294,7 +9297,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9784,7 +9787,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>1.06</v>
@@ -9912,7 +9915,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10118,7 +10121,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10942,7 +10945,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11435,7 +11438,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.65</v>
@@ -11560,7 +11563,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11972,7 +11975,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12178,7 +12181,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12465,7 +12468,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ54">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.31</v>
@@ -12796,7 +12799,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13002,7 +13005,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13080,7 +13083,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
         <v>2.19</v>
@@ -13492,7 +13495,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ59">
         <v>0.73</v>
@@ -13698,10 +13701,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -14238,7 +14241,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14444,7 +14447,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14650,7 +14653,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15062,7 +15065,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15143,7 +15146,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ67">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.41</v>
@@ -15268,7 +15271,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15761,7 +15764,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.84</v>
@@ -15886,7 +15889,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16582,7 +16585,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ74">
         <v>0.31</v>
@@ -16916,7 +16919,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17200,7 +17203,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77">
         <v>1.31</v>
@@ -17534,7 +17537,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17740,7 +17743,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17946,7 +17949,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18152,7 +18155,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18233,7 +18236,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ82">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18358,7 +18361,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18770,7 +18773,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18976,7 +18979,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19469,7 +19472,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ88">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19594,7 +19597,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19672,7 +19675,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89">
         <v>2.47</v>
@@ -20006,7 +20009,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20212,7 +20215,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20702,7 +20705,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>1.19</v>
@@ -20830,7 +20833,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21242,7 +21245,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21448,7 +21451,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21941,7 +21944,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ100">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>2.51</v>
@@ -22272,7 +22275,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22478,7 +22481,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22890,7 +22893,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23380,10 +23383,10 @@
         <v>1.86</v>
       </c>
       <c r="AP107">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ107">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>2.15</v>
@@ -24126,7 +24129,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24207,7 +24210,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ111">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.82</v>
@@ -25028,7 +25031,7 @@
         <v>1.6</v>
       </c>
       <c r="AP115">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ115">
         <v>1.38</v>
@@ -25774,7 +25777,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26058,10 +26061,10 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26598,7 +26601,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -28040,7 +28043,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28121,7 +28124,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28658,7 +28661,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28864,7 +28867,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -28942,7 +28945,7 @@
         <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ134">
         <v>1.25</v>
@@ -29070,7 +29073,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29276,7 +29279,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29354,7 +29357,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136">
         <v>0.73</v>
@@ -29688,7 +29691,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29769,7 +29772,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ138">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.82</v>
@@ -29894,7 +29897,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30306,7 +30309,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30512,7 +30515,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30718,7 +30721,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30924,7 +30927,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31130,7 +31133,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31336,7 +31339,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31542,7 +31545,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31623,7 +31626,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31826,7 +31829,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ148">
         <v>1.53</v>
@@ -33190,7 +33193,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33602,7 +33605,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33889,7 +33892,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ158">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -34092,7 +34095,7 @@
         <v>0.44</v>
       </c>
       <c r="AP159">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ159">
         <v>0.31</v>
@@ -35044,7 +35047,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35250,7 +35253,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35456,7 +35459,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35949,7 +35952,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ168">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
         <v>2.52</v>
@@ -36074,7 +36077,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36155,7 +36158,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ169">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.33</v>
@@ -36486,7 +36489,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -36976,7 +36979,7 @@
         <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ173">
         <v>1.06</v>
@@ -37104,7 +37107,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37516,7 +37519,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37594,7 +37597,7 @@
         <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ176">
         <v>2.47</v>
@@ -37722,7 +37725,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37928,7 +37931,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38134,7 +38137,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38340,7 +38343,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -39039,7 +39042,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.38</v>
@@ -39164,7 +39167,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39576,7 +39579,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39782,7 +39785,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40066,10 +40069,10 @@
         <v>1.55</v>
       </c>
       <c r="AP188">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ188">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR188">
         <v>1.51</v>
@@ -40194,7 +40197,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40478,7 +40481,7 @@
         <v>0.91</v>
       </c>
       <c r="AP190">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ190">
         <v>0.9399999999999999</v>
@@ -40606,7 +40609,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40812,7 +40815,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41018,7 +41021,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41096,7 +41099,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ193">
         <v>0.5600000000000001</v>
@@ -41224,7 +41227,7 @@
         <v>208</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>2.11</v>
@@ -41430,7 +41433,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41636,7 +41639,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42048,7 +42051,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42129,7 +42132,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.37</v>
@@ -42872,7 +42875,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43156,7 +43159,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ203">
         <v>1.06</v>
@@ -43284,7 +43287,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43490,7 +43493,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -43983,7 +43986,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ207">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
         <v>1.87</v>
@@ -44314,7 +44317,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44601,7 +44604,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ210">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.3</v>
@@ -44726,7 +44729,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44932,7 +44935,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45550,7 +45553,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45628,7 +45631,7 @@
         <v>1.08</v>
       </c>
       <c r="AP215">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ215">
         <v>1.25</v>
@@ -46168,7 +46171,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46374,7 +46377,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46452,7 +46455,7 @@
         <v>2.23</v>
       </c>
       <c r="AP219">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ219">
         <v>2.19</v>
@@ -46786,7 +46789,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47279,7 +47282,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ223">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR223">
         <v>1.49</v>
@@ -48022,7 +48025,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48103,7 +48106,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ227">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR227">
         <v>1.88</v>
@@ -48228,7 +48231,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48434,7 +48437,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48846,7 +48849,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -48924,7 +48927,7 @@
         <v>1.79</v>
       </c>
       <c r="AP231">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ231">
         <v>1.53</v>
@@ -49957,7 +49960,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ236">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR236">
         <v>1.12</v>
@@ -50082,7 +50085,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50366,7 +50369,7 @@
         <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238">
         <v>0.67</v>
@@ -50700,7 +50703,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50906,7 +50909,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51112,7 +51115,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51318,7 +51321,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51524,7 +51527,7 @@
         <v>91</v>
       </c>
       <c r="P244" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -51730,7 +51733,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51936,7 +51939,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52348,7 +52351,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52632,7 +52635,7 @@
         <v>0.33</v>
       </c>
       <c r="AP249">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ249">
         <v>0.31</v>
@@ -53172,7 +53175,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53378,7 +53381,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53947,6 +53950,418 @@
       </c>
       <c r="BP255">
         <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7420746</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45424.45833333334</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256" t="s">
+        <v>84</v>
+      </c>
+      <c r="H256" t="s">
+        <v>70</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>242</v>
+      </c>
+      <c r="P256" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q256">
+        <v>2.6</v>
+      </c>
+      <c r="R256">
+        <v>2.05</v>
+      </c>
+      <c r="S256">
+        <v>4.75</v>
+      </c>
+      <c r="T256">
+        <v>1.44</v>
+      </c>
+      <c r="U256">
+        <v>2.63</v>
+      </c>
+      <c r="V256">
+        <v>3.4</v>
+      </c>
+      <c r="W256">
+        <v>1.3</v>
+      </c>
+      <c r="X256">
+        <v>10</v>
+      </c>
+      <c r="Y256">
+        <v>1.06</v>
+      </c>
+      <c r="Z256">
+        <v>1.92</v>
+      </c>
+      <c r="AA256">
+        <v>3.4</v>
+      </c>
+      <c r="AB256">
+        <v>4.03</v>
+      </c>
+      <c r="AC256">
+        <v>1.04</v>
+      </c>
+      <c r="AD256">
+        <v>7.6</v>
+      </c>
+      <c r="AE256">
+        <v>1.38</v>
+      </c>
+      <c r="AF256">
+        <v>2.9</v>
+      </c>
+      <c r="AG256">
+        <v>2.1</v>
+      </c>
+      <c r="AH256">
+        <v>1.6</v>
+      </c>
+      <c r="AI256">
+        <v>2</v>
+      </c>
+      <c r="AJ256">
+        <v>1.73</v>
+      </c>
+      <c r="AK256">
+        <v>1.18</v>
+      </c>
+      <c r="AL256">
+        <v>1.25</v>
+      </c>
+      <c r="AM256">
+        <v>1.87</v>
+      </c>
+      <c r="AN256">
+        <v>1.63</v>
+      </c>
+      <c r="AO256">
+        <v>1.07</v>
+      </c>
+      <c r="AP256">
+        <v>1.71</v>
+      </c>
+      <c r="AQ256">
+        <v>1</v>
+      </c>
+      <c r="AR256">
+        <v>1.55</v>
+      </c>
+      <c r="AS256">
+        <v>1.1</v>
+      </c>
+      <c r="AT256">
+        <v>2.65</v>
+      </c>
+      <c r="AU256">
+        <v>6</v>
+      </c>
+      <c r="AV256">
+        <v>0</v>
+      </c>
+      <c r="AW256">
+        <v>9</v>
+      </c>
+      <c r="AX256">
+        <v>6</v>
+      </c>
+      <c r="AY256">
+        <v>15</v>
+      </c>
+      <c r="AZ256">
+        <v>6</v>
+      </c>
+      <c r="BA256">
+        <v>5</v>
+      </c>
+      <c r="BB256">
+        <v>4</v>
+      </c>
+      <c r="BC256">
+        <v>9</v>
+      </c>
+      <c r="BD256">
+        <v>0</v>
+      </c>
+      <c r="BE256">
+        <v>0</v>
+      </c>
+      <c r="BF256">
+        <v>0</v>
+      </c>
+      <c r="BG256">
+        <v>0</v>
+      </c>
+      <c r="BH256">
+        <v>0</v>
+      </c>
+      <c r="BI256">
+        <v>0</v>
+      </c>
+      <c r="BJ256">
+        <v>0</v>
+      </c>
+      <c r="BK256">
+        <v>0</v>
+      </c>
+      <c r="BL256">
+        <v>0</v>
+      </c>
+      <c r="BM256">
+        <v>0</v>
+      </c>
+      <c r="BN256">
+        <v>0</v>
+      </c>
+      <c r="BO256">
+        <v>0</v>
+      </c>
+      <c r="BP256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7420955</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45424.5625</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257" t="s">
+        <v>72</v>
+      </c>
+      <c r="H257" t="s">
+        <v>82</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257" t="s">
+        <v>91</v>
+      </c>
+      <c r="P257" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q257">
+        <v>3.1</v>
+      </c>
+      <c r="R257">
+        <v>1.91</v>
+      </c>
+      <c r="S257">
+        <v>4.33</v>
+      </c>
+      <c r="T257">
+        <v>1.57</v>
+      </c>
+      <c r="U257">
+        <v>2.25</v>
+      </c>
+      <c r="V257">
+        <v>3.75</v>
+      </c>
+      <c r="W257">
+        <v>1.25</v>
+      </c>
+      <c r="X257">
+        <v>13</v>
+      </c>
+      <c r="Y257">
+        <v>1.04</v>
+      </c>
+      <c r="Z257">
+        <v>2.07</v>
+      </c>
+      <c r="AA257">
+        <v>3.18</v>
+      </c>
+      <c r="AB257">
+        <v>3.74</v>
+      </c>
+      <c r="AC257">
+        <v>1.09</v>
+      </c>
+      <c r="AD257">
+        <v>6.5</v>
+      </c>
+      <c r="AE257">
+        <v>1.5</v>
+      </c>
+      <c r="AF257">
+        <v>2.4</v>
+      </c>
+      <c r="AG257">
+        <v>2.52</v>
+      </c>
+      <c r="AH257">
+        <v>1.51</v>
+      </c>
+      <c r="AI257">
+        <v>2.2</v>
+      </c>
+      <c r="AJ257">
+        <v>1.62</v>
+      </c>
+      <c r="AK257">
+        <v>1.3</v>
+      </c>
+      <c r="AL257">
+        <v>1.28</v>
+      </c>
+      <c r="AM257">
+        <v>1.63</v>
+      </c>
+      <c r="AN257">
+        <v>2.13</v>
+      </c>
+      <c r="AO257">
+        <v>1.27</v>
+      </c>
+      <c r="AP257">
+        <v>2.06</v>
+      </c>
+      <c r="AQ257">
+        <v>1.25</v>
+      </c>
+      <c r="AR257">
+        <v>2</v>
+      </c>
+      <c r="AS257">
+        <v>1.68</v>
+      </c>
+      <c r="AT257">
+        <v>3.68</v>
+      </c>
+      <c r="AU257">
+        <v>4</v>
+      </c>
+      <c r="AV257">
+        <v>3</v>
+      </c>
+      <c r="AW257">
+        <v>5</v>
+      </c>
+      <c r="AX257">
+        <v>1</v>
+      </c>
+      <c r="AY257">
+        <v>9</v>
+      </c>
+      <c r="AZ257">
+        <v>4</v>
+      </c>
+      <c r="BA257">
+        <v>6</v>
+      </c>
+      <c r="BB257">
+        <v>2</v>
+      </c>
+      <c r="BC257">
+        <v>8</v>
+      </c>
+      <c r="BD257">
+        <v>1.73</v>
+      </c>
+      <c r="BE257">
+        <v>8.5</v>
+      </c>
+      <c r="BF257">
+        <v>2.45</v>
+      </c>
+      <c r="BG257">
+        <v>1.38</v>
+      </c>
+      <c r="BH257">
+        <v>2.71</v>
+      </c>
+      <c r="BI257">
+        <v>1.73</v>
+      </c>
+      <c r="BJ257">
+        <v>2.07</v>
+      </c>
+      <c r="BK257">
+        <v>2.19</v>
+      </c>
+      <c r="BL257">
+        <v>1.66</v>
+      </c>
+      <c r="BM257">
+        <v>2.93</v>
+      </c>
+      <c r="BN257">
+        <v>1.33</v>
+      </c>
+      <c r="BO257">
+        <v>4.2</v>
+      </c>
+      <c r="BP257">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['29', '31']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1040,9 +1043,6 @@
   </si>
   <si>
     <t>['61']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['10', '80']</t>
@@ -1416,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1675,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2087,7 +2087,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2293,7 +2293,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2499,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3117,7 +3117,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ9">
         <v>1.06</v>
@@ -3735,7 +3735,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4228,7 +4228,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ14">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4637,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ16">
         <v>1.06</v>
@@ -4971,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5670,7 +5670,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ21">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR21">
         <v>1.45</v>
@@ -6207,7 +6207,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6413,7 +6413,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ25">
         <v>2.47</v>
@@ -7318,7 +7318,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ29">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR29">
         <v>1.89</v>
@@ -7730,7 +7730,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR31">
         <v>1.21</v>
@@ -8267,7 +8267,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8885,7 +8885,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8963,7 +8963,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -9297,7 +9297,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9378,7 +9378,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ39">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR39">
         <v>1.52</v>
@@ -9915,7 +9915,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9993,7 +9993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ42">
         <v>2.19</v>
@@ -10121,7 +10121,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10945,7 +10945,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11232,7 +11232,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ48">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR48">
         <v>1.17</v>
@@ -11563,7 +11563,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11641,7 +11641,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11975,7 +11975,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12181,7 +12181,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12465,7 +12465,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12799,7 +12799,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13005,7 +13005,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13498,7 +13498,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ59">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -14241,7 +14241,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14322,7 +14322,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14447,7 +14447,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14653,7 +14653,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14731,7 +14731,7 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ65">
         <v>1.53</v>
@@ -15065,7 +15065,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15271,7 +15271,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15555,7 +15555,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15889,7 +15889,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16176,7 +16176,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ72">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16919,7 +16919,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17537,7 +17537,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17743,7 +17743,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17949,7 +17949,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18155,7 +18155,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18233,7 +18233,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18648,7 +18648,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ84">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR84">
         <v>1.65</v>
@@ -18773,7 +18773,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18851,7 +18851,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ85">
         <v>1.31</v>
@@ -18979,7 +18979,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19597,7 +19597,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20009,7 +20009,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20215,7 +20215,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20708,7 +20708,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR94">
         <v>1.25</v>
@@ -20833,7 +20833,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21245,7 +21245,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21451,7 +21451,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21529,10 +21529,10 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ98">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -22275,7 +22275,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22481,7 +22481,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22559,7 +22559,7 @@
         <v>0.86</v>
       </c>
       <c r="AP103">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ103">
         <v>1.25</v>
@@ -22893,7 +22893,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23795,7 +23795,7 @@
         <v>0.57</v>
       </c>
       <c r="AP109">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ109">
         <v>0.5600000000000001</v>
@@ -24004,7 +24004,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ110">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR110">
         <v>1.67</v>
@@ -24129,7 +24129,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -25240,7 +25240,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>2.64</v>
@@ -25443,7 +25443,7 @@
         <v>2.29</v>
       </c>
       <c r="AP117">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ117">
         <v>2.19</v>
@@ -25777,7 +25777,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26601,7 +26601,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -26679,10 +26679,10 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ123">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -27094,7 +27094,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ125">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
         <v>1.73</v>
@@ -27918,7 +27918,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ129">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28043,7 +28043,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28661,7 +28661,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28867,7 +28867,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29073,7 +29073,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29151,7 +29151,7 @@
         <v>1.86</v>
       </c>
       <c r="AP135">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ135">
         <v>2.47</v>
@@ -29279,7 +29279,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29360,7 +29360,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ136">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -29563,7 +29563,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ137">
         <v>1.53</v>
@@ -29691,7 +29691,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29897,7 +29897,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30309,7 +30309,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30515,7 +30515,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30721,7 +30721,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30927,7 +30927,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31133,7 +31133,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31339,7 +31339,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31545,7 +31545,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31623,7 +31623,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ147">
         <v>1.25</v>
@@ -32038,7 +32038,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ149">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR149">
         <v>1.12</v>
@@ -33065,7 +33065,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ154">
         <v>1.38</v>
@@ -33193,7 +33193,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33480,7 +33480,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR156">
         <v>1.94</v>
@@ -33605,7 +33605,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34510,7 +34510,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ161">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR161">
         <v>1.44</v>
@@ -35047,7 +35047,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35253,7 +35253,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35331,7 +35331,7 @@
         <v>1.7</v>
       </c>
       <c r="AP165">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ165">
         <v>1.31</v>
@@ -35459,7 +35459,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36077,7 +36077,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36155,7 +36155,7 @@
         <v>0.7</v>
       </c>
       <c r="AP169">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36489,7 +36489,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -36570,7 +36570,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR171">
         <v>1.48</v>
@@ -37107,7 +37107,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37519,7 +37519,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37725,7 +37725,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37931,7 +37931,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38009,10 +38009,10 @@
         <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ178">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR178">
         <v>1.29</v>
@@ -38137,7 +38137,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38343,7 +38343,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -39167,7 +39167,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39579,7 +39579,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39785,7 +39785,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40197,7 +40197,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40275,7 +40275,7 @@
         <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ189">
         <v>1.06</v>
@@ -40609,7 +40609,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40815,7 +40815,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40896,7 +40896,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR192">
         <v>1.09</v>
@@ -41021,7 +41021,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41227,7 +41227,7 @@
         <v>208</v>
       </c>
       <c r="P194" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>2.11</v>
@@ -41433,7 +41433,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41639,7 +41639,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -41717,7 +41717,7 @@
         <v>1.58</v>
       </c>
       <c r="AP196">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ196">
         <v>1.38</v>
@@ -41926,7 +41926,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ197">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR197">
         <v>2.37</v>
@@ -42051,7 +42051,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42875,7 +42875,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43287,7 +43287,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43365,10 +43365,10 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ204">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -43493,7 +43493,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44317,7 +44317,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44395,7 +44395,7 @@
         <v>1.23</v>
       </c>
       <c r="AP209">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -44729,7 +44729,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44810,7 +44810,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR211">
         <v>1.43</v>
@@ -44935,7 +44935,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45553,7 +45553,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45840,7 +45840,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ216">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR216">
         <v>1.78</v>
@@ -46171,7 +46171,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46377,7 +46377,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46789,7 +46789,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47073,7 +47073,7 @@
         <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ222">
         <v>0.9399999999999999</v>
@@ -48025,7 +48025,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48231,7 +48231,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48312,7 +48312,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ228">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR228">
         <v>1.39</v>
@@ -48437,7 +48437,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48721,7 +48721,7 @@
         <v>0.93</v>
       </c>
       <c r="AP230">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -48849,7 +48849,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49136,7 +49136,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ232">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR232">
         <v>1.49</v>
@@ -49545,7 +49545,7 @@
         <v>0.36</v>
       </c>
       <c r="AP234">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ234">
         <v>0.31</v>
@@ -50085,7 +50085,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50703,7 +50703,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50909,7 +50909,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51115,7 +51115,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51321,7 +51321,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51527,7 +51527,7 @@
         <v>91</v>
       </c>
       <c r="P244" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -51814,7 +51814,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ245">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR245">
         <v>1.44</v>
@@ -53381,7 +53381,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54304,16 +54304,16 @@
         <v>3</v>
       </c>
       <c r="AW257">
+        <v>9</v>
+      </c>
+      <c r="AX257">
+        <v>2</v>
+      </c>
+      <c r="AY257">
+        <v>13</v>
+      </c>
+      <c r="AZ257">
         <v>5</v>
-      </c>
-      <c r="AX257">
-        <v>1</v>
-      </c>
-      <c r="AY257">
-        <v>9</v>
-      </c>
-      <c r="AZ257">
-        <v>4</v>
       </c>
       <c r="BA257">
         <v>6</v>
@@ -54362,6 +54362,418 @@
       </c>
       <c r="BP257">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7420744</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45425.48958333334</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258" t="s">
+        <v>77</v>
+      </c>
+      <c r="H258" t="s">
+        <v>76</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>99</v>
+      </c>
+      <c r="P258" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q258">
+        <v>4.75</v>
+      </c>
+      <c r="R258">
+        <v>2.05</v>
+      </c>
+      <c r="S258">
+        <v>2.63</v>
+      </c>
+      <c r="T258">
+        <v>1.5</v>
+      </c>
+      <c r="U258">
+        <v>2.5</v>
+      </c>
+      <c r="V258">
+        <v>3.4</v>
+      </c>
+      <c r="W258">
+        <v>1.3</v>
+      </c>
+      <c r="X258">
+        <v>10</v>
+      </c>
+      <c r="Y258">
+        <v>1.06</v>
+      </c>
+      <c r="Z258">
+        <v>3.5</v>
+      </c>
+      <c r="AA258">
+        <v>3.25</v>
+      </c>
+      <c r="AB258">
+        <v>2.12</v>
+      </c>
+      <c r="AC258">
+        <v>1.05</v>
+      </c>
+      <c r="AD258">
+        <v>7.2</v>
+      </c>
+      <c r="AE258">
+        <v>1.3</v>
+      </c>
+      <c r="AF258">
+        <v>3.05</v>
+      </c>
+      <c r="AG258">
+        <v>2.28</v>
+      </c>
+      <c r="AH258">
+        <v>1.61</v>
+      </c>
+      <c r="AI258">
+        <v>2</v>
+      </c>
+      <c r="AJ258">
+        <v>1.73</v>
+      </c>
+      <c r="AK258">
+        <v>1.83</v>
+      </c>
+      <c r="AL258">
+        <v>1.25</v>
+      </c>
+      <c r="AM258">
+        <v>1.18</v>
+      </c>
+      <c r="AN258">
+        <v>0.6</v>
+      </c>
+      <c r="AO258">
+        <v>1.19</v>
+      </c>
+      <c r="AP258">
+        <v>0.63</v>
+      </c>
+      <c r="AQ258">
+        <v>1.18</v>
+      </c>
+      <c r="AR258">
+        <v>1.25</v>
+      </c>
+      <c r="AS258">
+        <v>1.15</v>
+      </c>
+      <c r="AT258">
+        <v>2.4</v>
+      </c>
+      <c r="AU258">
+        <v>3</v>
+      </c>
+      <c r="AV258">
+        <v>9</v>
+      </c>
+      <c r="AW258">
+        <v>5</v>
+      </c>
+      <c r="AX258">
+        <v>5</v>
+      </c>
+      <c r="AY258">
+        <v>8</v>
+      </c>
+      <c r="AZ258">
+        <v>14</v>
+      </c>
+      <c r="BA258">
+        <v>1</v>
+      </c>
+      <c r="BB258">
+        <v>7</v>
+      </c>
+      <c r="BC258">
+        <v>8</v>
+      </c>
+      <c r="BD258">
+        <v>0</v>
+      </c>
+      <c r="BE258">
+        <v>0</v>
+      </c>
+      <c r="BF258">
+        <v>0</v>
+      </c>
+      <c r="BG258">
+        <v>0</v>
+      </c>
+      <c r="BH258">
+        <v>0</v>
+      </c>
+      <c r="BI258">
+        <v>0</v>
+      </c>
+      <c r="BJ258">
+        <v>0</v>
+      </c>
+      <c r="BK258">
+        <v>0</v>
+      </c>
+      <c r="BL258">
+        <v>0</v>
+      </c>
+      <c r="BM258">
+        <v>0</v>
+      </c>
+      <c r="BN258">
+        <v>0</v>
+      </c>
+      <c r="BO258">
+        <v>0</v>
+      </c>
+      <c r="BP258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7420745</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45425.59375</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+      <c r="G259" t="s">
+        <v>83</v>
+      </c>
+      <c r="H259" t="s">
+        <v>75</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259" t="s">
+        <v>243</v>
+      </c>
+      <c r="P259" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q259">
+        <v>3</v>
+      </c>
+      <c r="R259">
+        <v>2.05</v>
+      </c>
+      <c r="S259">
+        <v>4</v>
+      </c>
+      <c r="T259">
+        <v>1.5</v>
+      </c>
+      <c r="U259">
+        <v>2.5</v>
+      </c>
+      <c r="V259">
+        <v>3.4</v>
+      </c>
+      <c r="W259">
+        <v>1.3</v>
+      </c>
+      <c r="X259">
+        <v>10</v>
+      </c>
+      <c r="Y259">
+        <v>1.06</v>
+      </c>
+      <c r="Z259">
+        <v>2.27</v>
+      </c>
+      <c r="AA259">
+        <v>3.05</v>
+      </c>
+      <c r="AB259">
+        <v>3.2</v>
+      </c>
+      <c r="AC259">
+        <v>1.04</v>
+      </c>
+      <c r="AD259">
+        <v>7.6</v>
+      </c>
+      <c r="AE259">
+        <v>1.36</v>
+      </c>
+      <c r="AF259">
+        <v>2.95</v>
+      </c>
+      <c r="AG259">
+        <v>2.09</v>
+      </c>
+      <c r="AH259">
+        <v>1.67</v>
+      </c>
+      <c r="AI259">
+        <v>1.83</v>
+      </c>
+      <c r="AJ259">
+        <v>1.83</v>
+      </c>
+      <c r="AK259">
+        <v>1.35</v>
+      </c>
+      <c r="AL259">
+        <v>1.28</v>
+      </c>
+      <c r="AM259">
+        <v>1.6</v>
+      </c>
+      <c r="AN259">
+        <v>1.07</v>
+      </c>
+      <c r="AO259">
+        <v>0.73</v>
+      </c>
+      <c r="AP259">
+        <v>1.19</v>
+      </c>
+      <c r="AQ259">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR259">
+        <v>1.35</v>
+      </c>
+      <c r="AS259">
+        <v>1.03</v>
+      </c>
+      <c r="AT259">
+        <v>2.38</v>
+      </c>
+      <c r="AU259">
+        <v>6</v>
+      </c>
+      <c r="AV259">
+        <v>2</v>
+      </c>
+      <c r="AW259">
+        <v>7</v>
+      </c>
+      <c r="AX259">
+        <v>10</v>
+      </c>
+      <c r="AY259">
+        <v>13</v>
+      </c>
+      <c r="AZ259">
+        <v>12</v>
+      </c>
+      <c r="BA259">
+        <v>5</v>
+      </c>
+      <c r="BB259">
+        <v>3</v>
+      </c>
+      <c r="BC259">
+        <v>8</v>
+      </c>
+      <c r="BD259">
+        <v>0</v>
+      </c>
+      <c r="BE259">
+        <v>0</v>
+      </c>
+      <c r="BF259">
+        <v>0</v>
+      </c>
+      <c r="BG259">
+        <v>0</v>
+      </c>
+      <c r="BH259">
+        <v>0</v>
+      </c>
+      <c r="BI259">
+        <v>0</v>
+      </c>
+      <c r="BJ259">
+        <v>0</v>
+      </c>
+      <c r="BK259">
+        <v>0</v>
+      </c>
+      <c r="BL259">
+        <v>0</v>
+      </c>
+      <c r="BM259">
+        <v>0</v>
+      </c>
+      <c r="BN259">
+        <v>0</v>
+      </c>
+      <c r="BO259">
+        <v>0</v>
+      </c>
+      <c r="BP259">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,12 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['4', '90+3']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -976,9 +982,6 @@
     <t>['59', '90+4']</t>
   </si>
   <si>
-    <t>['31']</t>
-  </si>
-  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -1055,6 +1058,9 @@
   </si>
   <si>
     <t>['42', '65']</t>
+  </si>
+  <si>
+    <t>['62', '64']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1681,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1756,7 +1762,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2087,7 +2093,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2293,7 +2299,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2499,7 +2505,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ7">
         <v>2.19</v>
@@ -2989,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3117,7 +3123,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3735,7 +3741,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4022,7 +4028,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ13">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4353,7 +4359,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4431,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ15">
         <v>1.53</v>
@@ -4971,7 +4977,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5255,10 +5261,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR19">
         <v>0.34</v>
@@ -5876,7 +5882,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ22">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR22">
         <v>1.99</v>
@@ -6082,7 +6088,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ23">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -6207,7 +6213,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6413,7 +6419,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6697,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -8139,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -8267,7 +8273,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8554,7 +8560,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ35">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8885,7 +8891,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8966,7 +8972,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9297,7 +9303,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9375,7 +9381,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ39">
         <v>0.6899999999999999</v>
@@ -9915,7 +9921,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10121,7 +10127,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10614,7 +10620,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ45">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -10820,7 +10826,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10945,7 +10951,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11023,7 +11029,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ47">
         <v>1.53</v>
@@ -11563,7 +11569,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11850,7 +11856,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51">
         <v>2.65</v>
@@ -11975,7 +11981,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12181,7 +12187,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12799,7 +12805,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12877,10 +12883,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ56">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR56">
         <v>1.49</v>
@@ -13005,7 +13011,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13910,7 +13916,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14116,7 +14122,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -14241,7 +14247,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14447,7 +14453,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14653,7 +14659,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15065,7 +15071,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15143,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15271,7 +15277,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15558,7 +15564,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
         <v>1.18</v>
@@ -15889,7 +15895,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16588,7 +16594,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ74">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16919,7 +16925,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -16997,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ76">
         <v>2.47</v>
@@ -17537,7 +17543,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17615,10 +17621,10 @@
         <v>0.6</v>
       </c>
       <c r="AP79">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ79">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -17743,7 +17749,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17949,7 +17955,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18155,7 +18161,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18361,7 +18367,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18773,7 +18779,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18979,7 +18985,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19060,7 +19066,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -19266,7 +19272,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR87">
         <v>1.68</v>
@@ -19469,7 +19475,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ88">
         <v>1.25</v>
@@ -19597,7 +19603,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19881,7 +19887,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ90">
         <v>0.9399999999999999</v>
@@ -20009,7 +20015,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20215,7 +20221,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20502,7 +20508,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ93">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20833,7 +20839,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21245,7 +21251,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21451,7 +21457,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -22150,7 +22156,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ101">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR101">
         <v>1.34</v>
@@ -22275,7 +22281,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22356,7 +22362,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -22481,7 +22487,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22765,7 +22771,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ104">
         <v>1.31</v>
@@ -22893,7 +22899,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23177,7 +23183,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ106">
         <v>1.06</v>
@@ -23798,7 +23804,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ109">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -24129,7 +24135,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -25777,7 +25783,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26601,7 +26607,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -26888,7 +26894,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR124">
         <v>1.16</v>
@@ -27712,7 +27718,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR128">
         <v>1.26</v>
@@ -28043,7 +28049,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28121,7 +28127,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ130">
         <v>1.25</v>
@@ -28536,7 +28542,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
         <v>1.33</v>
@@ -28661,7 +28667,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28867,7 +28873,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29073,7 +29079,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29279,7 +29285,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29691,7 +29697,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29897,7 +29903,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30184,7 +30190,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ140">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -30309,7 +30315,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30515,7 +30521,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30721,7 +30727,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30799,7 +30805,7 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ143">
         <v>1.38</v>
@@ -30927,7 +30933,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31133,7 +31139,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31339,7 +31345,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31417,7 +31423,7 @@
         <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ146">
         <v>1.31</v>
@@ -31545,7 +31551,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -32244,7 +32250,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ150">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR150">
         <v>2.49</v>
@@ -32450,7 +32456,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ151">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32653,7 +32659,7 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ152">
         <v>1.06</v>
@@ -33193,7 +33199,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33605,7 +33611,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34098,7 +34104,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34507,7 +34513,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ161">
         <v>1.18</v>
@@ -34922,7 +34928,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR163">
         <v>1.28</v>
@@ -35047,7 +35053,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35253,7 +35259,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35459,7 +35465,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35746,7 +35752,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ167">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR167">
         <v>1.74</v>
@@ -36077,7 +36083,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36364,7 +36370,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR170">
         <v>1.98</v>
@@ -36489,7 +36495,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37107,7 +37113,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37185,7 +37191,7 @@
         <v>0.7</v>
       </c>
       <c r="AP174">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ174">
         <v>0.9399999999999999</v>
@@ -37519,7 +37525,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37725,7 +37731,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37806,7 +37812,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ177">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -37931,7 +37937,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38137,7 +38143,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38343,7 +38349,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38630,7 +38636,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR181">
         <v>1.81</v>
@@ -39167,7 +39173,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39245,7 +39251,7 @@
         <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ184">
         <v>1.38</v>
@@ -39454,7 +39460,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ185">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39579,7 +39585,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39657,7 +39663,7 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ186">
         <v>1.06</v>
@@ -39785,7 +39791,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40197,7 +40203,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40609,7 +40615,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40815,7 +40821,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41021,7 +41027,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41102,7 +41108,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ193">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR193">
         <v>1.49</v>
@@ -41227,7 +41233,7 @@
         <v>208</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="Q194">
         <v>2.11</v>
@@ -41433,7 +41439,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41639,7 +41645,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42051,7 +42057,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42335,7 +42341,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -42750,7 +42756,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ201">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR201">
         <v>1.13</v>
@@ -42875,7 +42881,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43287,7 +43293,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43493,7 +43499,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -43777,7 +43783,7 @@
         <v>2.17</v>
       </c>
       <c r="AP206">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ206">
         <v>2.19</v>
@@ -44192,7 +44198,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ208">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR208">
         <v>1.4</v>
@@ -44317,7 +44323,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44729,7 +44735,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44935,7 +44941,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45428,7 +45434,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ214">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -45553,7 +45559,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46043,10 +46049,10 @@
         <v>0.38</v>
       </c>
       <c r="AP217">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ217">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR217">
         <v>1.38</v>
@@ -46171,7 +46177,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46377,7 +46383,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46789,7 +46795,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47485,10 +47491,10 @@
         <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ224">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR224">
         <v>1.33</v>
@@ -47900,7 +47906,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ226">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR226">
         <v>1.86</v>
@@ -48025,7 +48031,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48231,7 +48237,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48437,7 +48443,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48849,7 +48855,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49548,7 +49554,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ234">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR234">
         <v>1.33</v>
@@ -50085,7 +50091,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50163,7 +50169,7 @@
         <v>2.43</v>
       </c>
       <c r="AP237">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ237">
         <v>2.47</v>
@@ -50372,7 +50378,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR238">
         <v>1.95</v>
@@ -50703,7 +50709,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50781,7 +50787,7 @@
         <v>1.21</v>
       </c>
       <c r="AP240">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ240">
         <v>1.25</v>
@@ -50909,7 +50915,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51115,7 +51121,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51196,7 +51202,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ242">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR242">
         <v>1.1</v>
@@ -51321,7 +51327,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51733,7 +51739,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51811,7 +51817,7 @@
         <v>1.07</v>
       </c>
       <c r="AP245">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ245">
         <v>1.18</v>
@@ -51939,7 +51945,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52351,7 +52357,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52638,7 +52644,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ249">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR249">
         <v>1.53</v>
@@ -53175,7 +53181,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53381,7 +53387,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54411,7 +54417,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54773,6 +54779,624 @@
         <v>0</v>
       </c>
       <c r="BP259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7420749</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>70</v>
+      </c>
+      <c r="H260" t="s">
+        <v>77</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>4</v>
+      </c>
+      <c r="O260" t="s">
+        <v>244</v>
+      </c>
+      <c r="P260" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q260">
+        <v>1.91</v>
+      </c>
+      <c r="R260">
+        <v>2.3</v>
+      </c>
+      <c r="S260">
+        <v>8</v>
+      </c>
+      <c r="T260">
+        <v>1.36</v>
+      </c>
+      <c r="U260">
+        <v>2.88</v>
+      </c>
+      <c r="V260">
+        <v>2.88</v>
+      </c>
+      <c r="W260">
+        <v>1.36</v>
+      </c>
+      <c r="X260">
+        <v>7.5</v>
+      </c>
+      <c r="Y260">
+        <v>1.06</v>
+      </c>
+      <c r="Z260">
+        <v>1.35</v>
+      </c>
+      <c r="AA260">
+        <v>4.3</v>
+      </c>
+      <c r="AB260">
+        <v>6.9</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>10</v>
+      </c>
+      <c r="AE260">
+        <v>1.34</v>
+      </c>
+      <c r="AF260">
+        <v>2.9</v>
+      </c>
+      <c r="AG260">
+        <v>2.14</v>
+      </c>
+      <c r="AH260">
+        <v>1.63</v>
+      </c>
+      <c r="AI260">
+        <v>2.35</v>
+      </c>
+      <c r="AJ260">
+        <v>1.56</v>
+      </c>
+      <c r="AK260">
+        <v>1.08</v>
+      </c>
+      <c r="AL260">
+        <v>1.14</v>
+      </c>
+      <c r="AM260">
+        <v>2.42</v>
+      </c>
+      <c r="AN260">
+        <v>0.88</v>
+      </c>
+      <c r="AO260">
+        <v>0.31</v>
+      </c>
+      <c r="AP260">
+        <v>0.88</v>
+      </c>
+      <c r="AQ260">
+        <v>0.35</v>
+      </c>
+      <c r="AR260">
+        <v>1.13</v>
+      </c>
+      <c r="AS260">
+        <v>0.87</v>
+      </c>
+      <c r="AT260">
+        <v>2</v>
+      </c>
+      <c r="AU260">
+        <v>6</v>
+      </c>
+      <c r="AV260">
+        <v>7</v>
+      </c>
+      <c r="AW260">
+        <v>2</v>
+      </c>
+      <c r="AX260">
+        <v>6</v>
+      </c>
+      <c r="AY260">
+        <v>8</v>
+      </c>
+      <c r="AZ260">
+        <v>13</v>
+      </c>
+      <c r="BA260">
+        <v>2</v>
+      </c>
+      <c r="BB260">
+        <v>6</v>
+      </c>
+      <c r="BC260">
+        <v>8</v>
+      </c>
+      <c r="BD260">
+        <v>0</v>
+      </c>
+      <c r="BE260">
+        <v>0</v>
+      </c>
+      <c r="BF260">
+        <v>0</v>
+      </c>
+      <c r="BG260">
+        <v>0</v>
+      </c>
+      <c r="BH260">
+        <v>0</v>
+      </c>
+      <c r="BI260">
+        <v>0</v>
+      </c>
+      <c r="BJ260">
+        <v>0</v>
+      </c>
+      <c r="BK260">
+        <v>0</v>
+      </c>
+      <c r="BL260">
+        <v>0</v>
+      </c>
+      <c r="BM260">
+        <v>0</v>
+      </c>
+      <c r="BN260">
+        <v>0</v>
+      </c>
+      <c r="BO260">
+        <v>0</v>
+      </c>
+      <c r="BP260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7420751</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45429.48958333334</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>76</v>
+      </c>
+      <c r="H261" t="s">
+        <v>83</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>245</v>
+      </c>
+      <c r="P261" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q261">
+        <v>2.88</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>4.33</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.62</v>
+      </c>
+      <c r="V261">
+        <v>3.2</v>
+      </c>
+      <c r="W261">
+        <v>1.3</v>
+      </c>
+      <c r="X261">
+        <v>8.5</v>
+      </c>
+      <c r="Y261">
+        <v>1.05</v>
+      </c>
+      <c r="Z261">
+        <v>2.08</v>
+      </c>
+      <c r="AA261">
+        <v>3.15</v>
+      </c>
+      <c r="AB261">
+        <v>3.15</v>
+      </c>
+      <c r="AC261">
+        <v>1.04</v>
+      </c>
+      <c r="AD261">
+        <v>7.5</v>
+      </c>
+      <c r="AE261">
+        <v>1.4</v>
+      </c>
+      <c r="AF261">
+        <v>2.8</v>
+      </c>
+      <c r="AG261">
+        <v>2.22</v>
+      </c>
+      <c r="AH261">
+        <v>1.61</v>
+      </c>
+      <c r="AI261">
+        <v>1.93</v>
+      </c>
+      <c r="AJ261">
+        <v>1.83</v>
+      </c>
+      <c r="AK261">
+        <v>1.24</v>
+      </c>
+      <c r="AL261">
+        <v>1.29</v>
+      </c>
+      <c r="AM261">
+        <v>1.57</v>
+      </c>
+      <c r="AN261">
+        <v>0.8</v>
+      </c>
+      <c r="AO261">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP261">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ261">
+        <v>0.59</v>
+      </c>
+      <c r="AR261">
+        <v>1.33</v>
+      </c>
+      <c r="AS261">
+        <v>1.1</v>
+      </c>
+      <c r="AT261">
+        <v>2.43</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>4</v>
+      </c>
+      <c r="AW261">
+        <v>7</v>
+      </c>
+      <c r="AX261">
+        <v>3</v>
+      </c>
+      <c r="AY261">
+        <v>12</v>
+      </c>
+      <c r="AZ261">
+        <v>7</v>
+      </c>
+      <c r="BA261">
+        <v>6</v>
+      </c>
+      <c r="BB261">
+        <v>2</v>
+      </c>
+      <c r="BC261">
+        <v>8</v>
+      </c>
+      <c r="BD261">
+        <v>0</v>
+      </c>
+      <c r="BE261">
+        <v>0</v>
+      </c>
+      <c r="BF261">
+        <v>0</v>
+      </c>
+      <c r="BG261">
+        <v>0</v>
+      </c>
+      <c r="BH261">
+        <v>0</v>
+      </c>
+      <c r="BI261">
+        <v>0</v>
+      </c>
+      <c r="BJ261">
+        <v>0</v>
+      </c>
+      <c r="BK261">
+        <v>0</v>
+      </c>
+      <c r="BL261">
+        <v>0</v>
+      </c>
+      <c r="BM261">
+        <v>0</v>
+      </c>
+      <c r="BN261">
+        <v>0</v>
+      </c>
+      <c r="BO261">
+        <v>0</v>
+      </c>
+      <c r="BP261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7420750</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45429.59375</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>75</v>
+      </c>
+      <c r="H262" t="s">
+        <v>84</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>91</v>
+      </c>
+      <c r="P262" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q262">
+        <v>2.75</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="S262">
+        <v>4.5</v>
+      </c>
+      <c r="T262">
+        <v>1.48</v>
+      </c>
+      <c r="U262">
+        <v>2.54</v>
+      </c>
+      <c r="V262">
+        <v>3.28</v>
+      </c>
+      <c r="W262">
+        <v>1.31</v>
+      </c>
+      <c r="X262">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y262">
+        <v>1.05</v>
+      </c>
+      <c r="Z262">
+        <v>2.1</v>
+      </c>
+      <c r="AA262">
+        <v>3</v>
+      </c>
+      <c r="AB262">
+        <v>3.2</v>
+      </c>
+      <c r="AC262">
+        <v>1.04</v>
+      </c>
+      <c r="AD262">
+        <v>7.3</v>
+      </c>
+      <c r="AE262">
+        <v>1.42</v>
+      </c>
+      <c r="AF262">
+        <v>2.75</v>
+      </c>
+      <c r="AG262">
+        <v>2.25</v>
+      </c>
+      <c r="AH262">
+        <v>1.57</v>
+      </c>
+      <c r="AI262">
+        <v>2.03</v>
+      </c>
+      <c r="AJ262">
+        <v>1.75</v>
+      </c>
+      <c r="AK262">
+        <v>1.22</v>
+      </c>
+      <c r="AL262">
+        <v>1.29</v>
+      </c>
+      <c r="AM262">
+        <v>1.6</v>
+      </c>
+      <c r="AN262">
+        <v>1.19</v>
+      </c>
+      <c r="AO262">
+        <v>0.67</v>
+      </c>
+      <c r="AP262">
+        <v>1.12</v>
+      </c>
+      <c r="AQ262">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR262">
+        <v>1.44</v>
+      </c>
+      <c r="AS262">
+        <v>1.24</v>
+      </c>
+      <c r="AT262">
+        <v>2.68</v>
+      </c>
+      <c r="AU262">
+        <v>4</v>
+      </c>
+      <c r="AV262">
+        <v>7</v>
+      </c>
+      <c r="AW262">
+        <v>6</v>
+      </c>
+      <c r="AX262">
+        <v>5</v>
+      </c>
+      <c r="AY262">
+        <v>10</v>
+      </c>
+      <c r="AZ262">
+        <v>12</v>
+      </c>
+      <c r="BA262">
+        <v>5</v>
+      </c>
+      <c r="BB262">
+        <v>4</v>
+      </c>
+      <c r="BC262">
+        <v>9</v>
+      </c>
+      <c r="BD262">
+        <v>0</v>
+      </c>
+      <c r="BE262">
+        <v>0</v>
+      </c>
+      <c r="BF262">
+        <v>0</v>
+      </c>
+      <c r="BG262">
+        <v>0</v>
+      </c>
+      <c r="BH262">
+        <v>0</v>
+      </c>
+      <c r="BI262">
+        <v>0</v>
+      </c>
+      <c r="BJ262">
+        <v>0</v>
+      </c>
+      <c r="BK262">
+        <v>0</v>
+      </c>
+      <c r="BL262">
+        <v>0</v>
+      </c>
+      <c r="BM262">
+        <v>0</v>
+      </c>
+      <c r="BN262">
+        <v>0</v>
+      </c>
+      <c r="BO262">
+        <v>0</v>
+      </c>
+      <c r="BP262">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['29', '49']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1061,6 +1064,9 @@
   </si>
   <si>
     <t>['62', '64']</t>
+  </si>
+  <si>
+    <t>['3', '55']</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1687,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2093,7 +2099,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2299,7 +2305,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2505,7 +2511,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3123,7 +3129,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3613,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
         <v>0.9399999999999999</v>
@@ -3741,7 +3747,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4359,7 +4365,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4977,7 +4983,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -6213,7 +6219,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6419,7 +6425,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6909,7 +6915,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ27">
         <v>1.06</v>
@@ -8273,7 +8279,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8891,7 +8897,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9303,7 +9309,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9921,7 +9927,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10127,7 +10133,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10951,7 +10957,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11441,7 +11447,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11569,7 +11575,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11981,7 +11987,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12187,7 +12193,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12805,7 +12811,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13011,7 +13017,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -14247,7 +14253,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14453,7 +14459,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14659,7 +14665,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14943,7 +14949,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
         <v>1.31</v>
@@ -15071,7 +15077,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15277,7 +15283,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15895,7 +15901,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16925,7 +16931,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17543,7 +17549,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17749,7 +17755,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17955,7 +17961,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18161,7 +18167,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18367,7 +18373,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18651,7 +18657,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>1.18</v>
@@ -18779,7 +18785,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18985,7 +18991,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19603,7 +19609,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20015,7 +20021,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20221,7 +20227,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20839,7 +20845,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -20917,7 +20923,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -21251,7 +21257,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21457,7 +21463,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -22281,7 +22287,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22487,7 +22493,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22899,7 +22905,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -24135,7 +24141,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24831,7 +24837,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25783,7 +25789,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26607,7 +26613,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -27097,7 +27103,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125">
         <v>0.6899999999999999</v>
@@ -28049,7 +28055,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28667,7 +28673,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28873,7 +28879,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29079,7 +29085,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29285,7 +29291,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29697,7 +29703,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29903,7 +29909,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30187,7 +30193,7 @@
         <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ140">
         <v>0.35</v>
@@ -30315,7 +30321,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30521,7 +30527,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30727,7 +30733,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30933,7 +30939,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31139,7 +31145,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31345,7 +31351,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31551,7 +31557,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -33199,7 +33205,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33611,7 +33617,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33689,7 +33695,7 @@
         <v>2</v>
       </c>
       <c r="AP157">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ157">
         <v>2.47</v>
@@ -35053,7 +35059,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35259,7 +35265,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35465,7 +35471,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35749,7 +35755,7 @@
         <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ167">
         <v>0.59</v>
@@ -36083,7 +36089,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36495,7 +36501,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37113,7 +37119,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37525,7 +37531,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37731,7 +37737,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37937,7 +37943,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38143,7 +38149,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38349,7 +38355,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38633,7 +38639,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ181">
         <v>0.8100000000000001</v>
@@ -39173,7 +39179,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39585,7 +39591,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39791,7 +39797,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40203,7 +40209,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40615,7 +40621,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40821,7 +40827,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41027,7 +41033,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41439,7 +41445,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41645,7 +41651,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42057,7 +42063,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42547,7 +42553,7 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
         <v>1.25</v>
@@ -42881,7 +42887,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43293,7 +43299,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43499,7 +43505,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44323,7 +44329,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44735,7 +44741,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44941,7 +44947,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45019,7 +45025,7 @@
         <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ212">
         <v>1.53</v>
@@ -45559,7 +45565,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46177,7 +46183,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46383,7 +46389,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46795,7 +46801,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -48031,7 +48037,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48109,7 +48115,7 @@
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ227">
         <v>1</v>
@@ -48237,7 +48243,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48443,7 +48449,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48855,7 +48861,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -50091,7 +50097,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50709,7 +50715,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50915,7 +50921,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51121,7 +51127,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51327,7 +51333,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51405,7 +51411,7 @@
         <v>1.47</v>
       </c>
       <c r="AP243">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ243">
         <v>1.38</v>
@@ -51739,7 +51745,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51945,7 +51951,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52357,7 +52363,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53181,7 +53187,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53387,7 +53393,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54417,7 +54423,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54829,7 +54835,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -55035,7 +55041,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55334,22 +55340,22 @@
         <v>2.68</v>
       </c>
       <c r="AU262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV262">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX262">
         <v>5</v>
       </c>
       <c r="AY262">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ262">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA262">
         <v>5</v>
@@ -55397,6 +55403,212 @@
         <v>0</v>
       </c>
       <c r="BP262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7420957</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45430.48958333334</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>79</v>
+      </c>
+      <c r="H263" t="s">
+        <v>71</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>4</v>
+      </c>
+      <c r="O263" t="s">
+        <v>246</v>
+      </c>
+      <c r="P263" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q263">
+        <v>1.69</v>
+      </c>
+      <c r="R263">
+        <v>2.48</v>
+      </c>
+      <c r="S263">
+        <v>9</v>
+      </c>
+      <c r="T263">
+        <v>1.34</v>
+      </c>
+      <c r="U263">
+        <v>3.1</v>
+      </c>
+      <c r="V263">
+        <v>2.6</v>
+      </c>
+      <c r="W263">
+        <v>1.46</v>
+      </c>
+      <c r="X263">
+        <v>6.35</v>
+      </c>
+      <c r="Y263">
+        <v>1.1</v>
+      </c>
+      <c r="Z263">
+        <v>1.22</v>
+      </c>
+      <c r="AA263">
+        <v>5.5</v>
+      </c>
+      <c r="AB263">
+        <v>9.5</v>
+      </c>
+      <c r="AC263">
+        <v>1.01</v>
+      </c>
+      <c r="AD263">
+        <v>10.25</v>
+      </c>
+      <c r="AE263">
+        <v>1.22</v>
+      </c>
+      <c r="AF263">
+        <v>3.65</v>
+      </c>
+      <c r="AG263">
+        <v>1.73</v>
+      </c>
+      <c r="AH263">
+        <v>2</v>
+      </c>
+      <c r="AI263">
+        <v>2.36</v>
+      </c>
+      <c r="AJ263">
+        <v>1.52</v>
+      </c>
+      <c r="AK263">
+        <v>1.02</v>
+      </c>
+      <c r="AL263">
+        <v>1.13</v>
+      </c>
+      <c r="AM263">
+        <v>3.74</v>
+      </c>
+      <c r="AN263">
+        <v>1.94</v>
+      </c>
+      <c r="AO263">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP263">
+        <v>1.88</v>
+      </c>
+      <c r="AQ263">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR263">
+        <v>1.92</v>
+      </c>
+      <c r="AS263">
+        <v>1.41</v>
+      </c>
+      <c r="AT263">
+        <v>3.33</v>
+      </c>
+      <c r="AU263">
+        <v>6</v>
+      </c>
+      <c r="AV263">
+        <v>4</v>
+      </c>
+      <c r="AW263">
+        <v>2</v>
+      </c>
+      <c r="AX263">
+        <v>1</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>5</v>
+      </c>
+      <c r="BA263">
+        <v>0</v>
+      </c>
+      <c r="BB263">
+        <v>6</v>
+      </c>
+      <c r="BC263">
+        <v>6</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1068,6 +1068,9 @@
   <si>
     <t>['3', '55']</t>
   </si>
+  <si>
+    <t>['29', '32']</t>
+  </si>
 </sst>
 </file>
 
@@ -1428,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP263"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ6">
         <v>1.25</v>
@@ -3828,7 +3831,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5885,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ22">
         <v>0.59</v>
@@ -7121,10 +7124,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -9593,7 +9596,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -13301,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -15364,7 +15367,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -16391,7 +16394,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ73">
         <v>1.06</v>
@@ -17836,7 +17839,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR80">
         <v>1.44</v>
@@ -20305,7 +20308,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ92">
         <v>2.19</v>
@@ -20926,7 +20929,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.77</v>
@@ -22365,7 +22368,7 @@
         <v>0.57</v>
       </c>
       <c r="AP102">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ102">
         <v>0.8100000000000001</v>
@@ -25046,7 +25049,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -25664,7 +25667,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.49</v>
@@ -27518,7 +27521,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -27927,7 +27930,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ129">
         <v>1.18</v>
@@ -30814,7 +30817,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ143">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -33080,7 +33083,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR154">
         <v>1.35</v>
@@ -33901,7 +33904,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -35140,7 +35143,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ164">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR164">
         <v>1.11</v>
@@ -36579,7 +36582,7 @@
         <v>0.7</v>
       </c>
       <c r="AP171">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ171">
         <v>0.6899999999999999</v>
@@ -39260,7 +39263,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ184">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39463,7 +39466,7 @@
         <v>0.45</v>
       </c>
       <c r="AP185">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ185">
         <v>0.35</v>
@@ -41732,7 +41735,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ196">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR196">
         <v>1.33</v>
@@ -43583,7 +43586,7 @@
         <v>2.27</v>
       </c>
       <c r="AP205">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ205">
         <v>2.47</v>
@@ -45234,7 +45237,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ213">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR213">
         <v>2.41</v>
@@ -47291,7 +47294,7 @@
         <v>1.38</v>
       </c>
       <c r="AP223">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ223">
         <v>1.25</v>
@@ -48530,7 +48533,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ229">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR229">
         <v>1.83</v>
@@ -50587,7 +50590,7 @@
         <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ239">
         <v>1.31</v>
@@ -51414,7 +51417,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ243">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR243">
         <v>1.96</v>
@@ -55340,22 +55343,22 @@
         <v>2.68</v>
       </c>
       <c r="AU262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV262">
+        <v>7</v>
+      </c>
+      <c r="AW262">
         <v>6</v>
-      </c>
-      <c r="AW262">
-        <v>3</v>
       </c>
       <c r="AX262">
         <v>5</v>
       </c>
       <c r="AY262">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ262">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA262">
         <v>5</v>
@@ -55546,70 +55549,276 @@
         <v>3.33</v>
       </c>
       <c r="AU263">
+        <v>11</v>
+      </c>
+      <c r="AV263">
+        <v>5</v>
+      </c>
+      <c r="AW263">
+        <v>10</v>
+      </c>
+      <c r="AX263">
+        <v>5</v>
+      </c>
+      <c r="AY263">
+        <v>21</v>
+      </c>
+      <c r="AZ263">
+        <v>10</v>
+      </c>
+      <c r="BA263">
         <v>6</v>
       </c>
-      <c r="AV263">
-        <v>4</v>
-      </c>
-      <c r="AW263">
-        <v>2</v>
-      </c>
-      <c r="AX263">
-        <v>1</v>
-      </c>
-      <c r="AY263">
+      <c r="BB263">
         <v>8</v>
       </c>
-      <c r="AZ263">
-        <v>5</v>
-      </c>
-      <c r="BA263">
-        <v>0</v>
-      </c>
-      <c r="BB263">
+      <c r="BC263">
+        <v>14</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7420959</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45430.59375</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264" t="s">
+        <v>74</v>
+      </c>
+      <c r="H264" t="s">
+        <v>72</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>2</v>
+      </c>
+      <c r="K264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>145</v>
+      </c>
+      <c r="P264" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q264">
+        <v>3.75</v>
+      </c>
+      <c r="R264">
+        <v>2</v>
+      </c>
+      <c r="S264">
+        <v>3.25</v>
+      </c>
+      <c r="T264">
+        <v>1.5</v>
+      </c>
+      <c r="U264">
+        <v>2.48</v>
+      </c>
+      <c r="V264">
+        <v>3.34</v>
+      </c>
+      <c r="W264">
+        <v>1.3</v>
+      </c>
+      <c r="X264">
+        <v>9</v>
+      </c>
+      <c r="Y264">
+        <v>1.04</v>
+      </c>
+      <c r="Z264">
+        <v>2.9</v>
+      </c>
+      <c r="AA264">
+        <v>3.15</v>
+      </c>
+      <c r="AB264">
+        <v>2.39</v>
+      </c>
+      <c r="AC264">
+        <v>1.05</v>
+      </c>
+      <c r="AD264">
+        <v>7.1</v>
+      </c>
+      <c r="AE264">
+        <v>1.44</v>
+      </c>
+      <c r="AF264">
+        <v>2.55</v>
+      </c>
+      <c r="AG264">
+        <v>2.25</v>
+      </c>
+      <c r="AH264">
+        <v>1.57</v>
+      </c>
+      <c r="AI264">
+        <v>1.95</v>
+      </c>
+      <c r="AJ264">
+        <v>1.81</v>
+      </c>
+      <c r="AK264">
+        <v>1.45</v>
+      </c>
+      <c r="AL264">
+        <v>1.29</v>
+      </c>
+      <c r="AM264">
+        <v>1.33</v>
+      </c>
+      <c r="AN264">
+        <v>1.93</v>
+      </c>
+      <c r="AO264">
+        <v>1.38</v>
+      </c>
+      <c r="AP264">
+        <v>1.81</v>
+      </c>
+      <c r="AQ264">
+        <v>1.47</v>
+      </c>
+      <c r="AR264">
+        <v>1.54</v>
+      </c>
+      <c r="AS264">
+        <v>1.72</v>
+      </c>
+      <c r="AT264">
+        <v>3.26</v>
+      </c>
+      <c r="AU264">
+        <v>3</v>
+      </c>
+      <c r="AV264">
+        <v>7</v>
+      </c>
+      <c r="AW264">
+        <v>0</v>
+      </c>
+      <c r="AX264">
+        <v>9</v>
+      </c>
+      <c r="AY264">
+        <v>3</v>
+      </c>
+      <c r="AZ264">
+        <v>16</v>
+      </c>
+      <c r="BA264">
+        <v>1</v>
+      </c>
+      <c r="BB264">
         <v>6</v>
       </c>
-      <c r="BC263">
-        <v>6</v>
-      </c>
-      <c r="BD263">
-        <v>0</v>
-      </c>
-      <c r="BE263">
-        <v>0</v>
-      </c>
-      <c r="BF263">
-        <v>0</v>
-      </c>
-      <c r="BG263">
-        <v>0</v>
-      </c>
-      <c r="BH263">
-        <v>0</v>
-      </c>
-      <c r="BI263">
-        <v>0</v>
-      </c>
-      <c r="BJ263">
-        <v>0</v>
-      </c>
-      <c r="BK263">
-        <v>0</v>
-      </c>
-      <c r="BL263">
-        <v>0</v>
-      </c>
-      <c r="BM263">
-        <v>0</v>
-      </c>
-      <c r="BN263">
-        <v>0</v>
-      </c>
-      <c r="BO263">
-        <v>0</v>
-      </c>
-      <c r="BP263">
-        <v>0</v>
+      <c r="BC264">
+        <v>7</v>
+      </c>
+      <c r="BD264">
+        <v>2.69</v>
+      </c>
+      <c r="BE264">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF264">
+        <v>1.63</v>
+      </c>
+      <c r="BG264">
+        <v>1.48</v>
+      </c>
+      <c r="BH264">
+        <v>2.53</v>
+      </c>
+      <c r="BI264">
+        <v>1.86</v>
+      </c>
+      <c r="BJ264">
+        <v>1.93</v>
+      </c>
+      <c r="BK264">
+        <v>2.35</v>
+      </c>
+      <c r="BL264">
+        <v>1.56</v>
+      </c>
+      <c r="BM264">
+        <v>3.2</v>
+      </c>
+      <c r="BN264">
+        <v>1.28</v>
+      </c>
+      <c r="BO264">
+        <v>4.7</v>
+      </c>
+      <c r="BP264">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -55549,22 +55549,22 @@
         <v>3.33</v>
       </c>
       <c r="AU263">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV263">
+        <v>4</v>
+      </c>
+      <c r="AW263">
         <v>5</v>
       </c>
-      <c r="AW263">
-        <v>10</v>
-      </c>
       <c r="AX263">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY263">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ263">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA263">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,9 @@
     <t>['29', '49']</t>
   </si>
   <si>
+    <t>['43', '67', '82', '90']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1431,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP264"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1693,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1977,7 +1980,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ3">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2102,7 +2105,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2308,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2514,7 +2517,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3132,7 +3135,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3750,7 +3753,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4368,7 +4371,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4986,7 +4989,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -6222,7 +6225,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6428,7 +6431,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6509,7 +6512,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ25">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR25">
         <v>2.01</v>
@@ -8282,7 +8285,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8900,7 +8903,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9312,7 +9315,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9930,7 +9933,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10136,7 +10139,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10423,7 +10426,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ44">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR44">
         <v>1.98</v>
@@ -10960,7 +10963,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11578,7 +11581,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11990,7 +11993,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12196,7 +12199,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12814,7 +12817,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13020,7 +13023,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -14256,7 +14259,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14462,7 +14465,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14668,7 +14671,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15080,7 +15083,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15286,7 +15289,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15904,7 +15907,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16934,7 +16937,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17015,7 +17018,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ76">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR76">
         <v>1.74</v>
@@ -17552,7 +17555,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17758,7 +17761,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17964,7 +17967,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18170,7 +18173,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18376,7 +18379,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18788,7 +18791,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18994,7 +18997,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19612,7 +19615,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19693,7 +19696,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ89">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR89">
         <v>2.26</v>
@@ -20024,7 +20027,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20230,7 +20233,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20848,7 +20851,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21260,7 +21263,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21466,7 +21469,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -22290,7 +22293,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22496,7 +22499,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22908,7 +22911,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23607,7 +23610,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ108">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -24144,7 +24147,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -25792,7 +25795,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25873,7 +25876,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR119">
         <v>1.32</v>
@@ -26616,7 +26619,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -28058,7 +28061,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28676,7 +28679,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28882,7 +28885,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29088,7 +29091,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29169,7 +29172,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ135">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29294,7 +29297,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29706,7 +29709,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29912,7 +29915,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30324,7 +30327,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30530,7 +30533,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30736,7 +30739,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30942,7 +30945,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31148,7 +31151,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31354,7 +31357,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31560,7 +31563,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -33208,7 +33211,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33620,7 +33623,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33701,7 +33704,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ157">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR157">
         <v>1.81</v>
@@ -35062,7 +35065,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35268,7 +35271,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35474,7 +35477,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36092,7 +36095,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36504,7 +36507,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37122,7 +37125,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37534,7 +37537,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37615,7 +37618,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ176">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37740,7 +37743,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37946,7 +37949,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38152,7 +38155,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38358,7 +38361,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -39182,7 +39185,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39594,7 +39597,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39800,7 +39803,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40212,7 +40215,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40624,7 +40627,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40705,7 +40708,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ191">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR191">
         <v>1.96</v>
@@ -40830,7 +40833,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41036,7 +41039,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41448,7 +41451,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41654,7 +41657,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42066,7 +42069,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42890,7 +42893,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43302,7 +43305,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43508,7 +43511,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -43589,7 +43592,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ205">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR205">
         <v>1.53</v>
@@ -44332,7 +44335,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44744,7 +44747,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44950,7 +44953,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45568,7 +45571,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46186,7 +46189,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46392,7 +46395,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46804,7 +46807,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -46885,7 +46888,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ221">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR221">
         <v>1.14</v>
@@ -47709,7 +47712,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ225">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR225">
         <v>1.49</v>
@@ -48040,7 +48043,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48246,7 +48249,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48452,7 +48455,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48864,7 +48867,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -50100,7 +50103,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50181,7 +50184,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ237">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR237">
         <v>1.45</v>
@@ -50718,7 +50721,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50924,7 +50927,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51130,7 +51133,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51336,7 +51339,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51748,7 +51751,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51954,7 +51957,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52366,7 +52369,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53190,7 +53193,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53396,7 +53399,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54426,7 +54429,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54838,7 +54841,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -55044,7 +55047,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55456,7 +55459,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q263">
         <v>1.69</v>
@@ -55549,22 +55552,22 @@
         <v>3.33</v>
       </c>
       <c r="AU263">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW263">
+        <v>10</v>
+      </c>
+      <c r="AX263">
         <v>5</v>
       </c>
-      <c r="AX263">
-        <v>3</v>
-      </c>
       <c r="AY263">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ263">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA263">
         <v>6</v>
@@ -55662,7 +55665,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q264">
         <v>3.75</v>
@@ -55819,6 +55822,212 @@
       </c>
       <c r="BP264">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7420958</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45431.60416666666</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+      <c r="G265" t="s">
+        <v>82</v>
+      </c>
+      <c r="H265" t="s">
+        <v>81</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>4</v>
+      </c>
+      <c r="O265" t="s">
+        <v>247</v>
+      </c>
+      <c r="P265" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q265">
+        <v>2.75</v>
+      </c>
+      <c r="R265">
+        <v>2.05</v>
+      </c>
+      <c r="S265">
+        <v>4.33</v>
+      </c>
+      <c r="T265">
+        <v>1.45</v>
+      </c>
+      <c r="U265">
+        <v>2.65</v>
+      </c>
+      <c r="V265">
+        <v>3.1</v>
+      </c>
+      <c r="W265">
+        <v>1.34</v>
+      </c>
+      <c r="X265">
+        <v>8.4</v>
+      </c>
+      <c r="Y265">
+        <v>1.05</v>
+      </c>
+      <c r="Z265">
+        <v>2.08</v>
+      </c>
+      <c r="AA265">
+        <v>3.15</v>
+      </c>
+      <c r="AB265">
+        <v>3.3</v>
+      </c>
+      <c r="AC265">
+        <v>1.04</v>
+      </c>
+      <c r="AD265">
+        <v>7.8</v>
+      </c>
+      <c r="AE265">
+        <v>1.33</v>
+      </c>
+      <c r="AF265">
+        <v>3</v>
+      </c>
+      <c r="AG265">
+        <v>1.98</v>
+      </c>
+      <c r="AH265">
+        <v>1.73</v>
+      </c>
+      <c r="AI265">
+        <v>1.94</v>
+      </c>
+      <c r="AJ265">
+        <v>1.82</v>
+      </c>
+      <c r="AK265">
+        <v>1.36</v>
+      </c>
+      <c r="AL265">
+        <v>1.33</v>
+      </c>
+      <c r="AM265">
+        <v>1.67</v>
+      </c>
+      <c r="AN265">
+        <v>2.88</v>
+      </c>
+      <c r="AO265">
+        <v>2.47</v>
+      </c>
+      <c r="AP265">
+        <v>2.88</v>
+      </c>
+      <c r="AQ265">
+        <v>2.31</v>
+      </c>
+      <c r="AR265">
+        <v>1.84</v>
+      </c>
+      <c r="AS265">
+        <v>2.06</v>
+      </c>
+      <c r="AT265">
+        <v>3.9</v>
+      </c>
+      <c r="AU265">
+        <v>5</v>
+      </c>
+      <c r="AV265">
+        <v>3</v>
+      </c>
+      <c r="AW265">
+        <v>3</v>
+      </c>
+      <c r="AX265">
+        <v>4</v>
+      </c>
+      <c r="AY265">
+        <v>8</v>
+      </c>
+      <c r="AZ265">
+        <v>7</v>
+      </c>
+      <c r="BA265">
+        <v>4</v>
+      </c>
+      <c r="BB265">
+        <v>2</v>
+      </c>
+      <c r="BC265">
+        <v>6</v>
+      </c>
+      <c r="BD265">
+        <v>1.86</v>
+      </c>
+      <c r="BE265">
+        <v>8.4</v>
+      </c>
+      <c r="BF265">
+        <v>2.23</v>
+      </c>
+      <c r="BG265">
+        <v>1.36</v>
+      </c>
+      <c r="BH265">
+        <v>2.9</v>
+      </c>
+      <c r="BI265">
+        <v>1.64</v>
+      </c>
+      <c r="BJ265">
+        <v>2.21</v>
+      </c>
+      <c r="BK265">
+        <v>2.05</v>
+      </c>
+      <c r="BL265">
+        <v>1.75</v>
+      </c>
+      <c r="BM265">
+        <v>2.5</v>
+      </c>
+      <c r="BN265">
+        <v>1.48</v>
+      </c>
+      <c r="BO265">
+        <v>3.3</v>
+      </c>
+      <c r="BP265">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1434,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2186,7 +2186,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ5">
         <v>1.25</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ31">
         <v>1.18</v>
@@ -9190,7 +9190,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ38">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>1.25</v>
@@ -12074,7 +12074,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -13925,7 +13925,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ61">
         <v>0.59</v>
@@ -14958,7 +14958,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -16191,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ72">
         <v>0.6899999999999999</v>
@@ -17224,7 +17224,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ77">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.04</v>
@@ -18872,7 +18872,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ85">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.11</v>
@@ -19281,7 +19281,7 @@
         <v>0.6</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ87">
         <v>0.35</v>
@@ -22786,7 +22786,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ104">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR104">
         <v>1.45</v>
@@ -23607,7 +23607,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ108">
         <v>2.31</v>
@@ -25667,7 +25667,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ118">
         <v>1.47</v>
@@ -28348,7 +28348,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ131">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR131">
         <v>1.12</v>
@@ -28551,7 +28551,7 @@
         <v>0.88</v>
       </c>
       <c r="AP132">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ132">
         <v>0.8100000000000001</v>
@@ -30405,10 +30405,10 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ141">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -31023,7 +31023,7 @@
         <v>1.11</v>
       </c>
       <c r="AP144">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ144">
         <v>1.25</v>
@@ -31438,7 +31438,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ146">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -35352,7 +35352,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ165">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR165">
         <v>1.33</v>
@@ -35555,7 +35555,7 @@
         <v>1.6</v>
       </c>
       <c r="AP166">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ166">
         <v>1.53</v>
@@ -38854,7 +38854,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ182">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR182">
         <v>2.41</v>
@@ -39057,7 +39057,7 @@
         <v>0.91</v>
       </c>
       <c r="AP183">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -41326,7 +41326,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ194">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR194">
         <v>1.76</v>
@@ -42971,7 +42971,7 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ202">
         <v>0.9399999999999999</v>
@@ -46267,7 +46267,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ218">
         <v>1.06</v>
@@ -46682,7 +46682,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ220">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR220">
         <v>1.83</v>
@@ -50596,7 +50596,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ239">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR239">
         <v>1.5</v>
@@ -51005,7 +51005,7 @@
         <v>2.29</v>
       </c>
       <c r="AP241">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ241">
         <v>2.19</v>
@@ -53068,7 +53068,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ251">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -53683,7 +53683,7 @@
         <v>1.33</v>
       </c>
       <c r="AP254">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ254">
         <v>1.25</v>
@@ -55964,19 +55964,19 @@
         <v>3.9</v>
       </c>
       <c r="AU265">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV265">
+        <v>4</v>
+      </c>
+      <c r="AW265">
+        <v>1</v>
+      </c>
+      <c r="AX265">
         <v>3</v>
       </c>
-      <c r="AW265">
-        <v>3</v>
-      </c>
-      <c r="AX265">
+      <c r="AY265">
         <v>4</v>
-      </c>
-      <c r="AY265">
-        <v>8</v>
       </c>
       <c r="AZ265">
         <v>7</v>
@@ -56028,6 +56028,212 @@
       </c>
       <c r="BP265">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7420753</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45432.48958333334</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>73</v>
+      </c>
+      <c r="H266" t="s">
+        <v>78</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266" t="s">
+        <v>91</v>
+      </c>
+      <c r="P266" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q266">
+        <v>3.1</v>
+      </c>
+      <c r="R266">
+        <v>2.05</v>
+      </c>
+      <c r="S266">
+        <v>3.75</v>
+      </c>
+      <c r="T266">
+        <v>1.48</v>
+      </c>
+      <c r="U266">
+        <v>2.54</v>
+      </c>
+      <c r="V266">
+        <v>3.28</v>
+      </c>
+      <c r="W266">
+        <v>1.31</v>
+      </c>
+      <c r="X266">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y266">
+        <v>1.05</v>
+      </c>
+      <c r="Z266">
+        <v>2.2</v>
+      </c>
+      <c r="AA266">
+        <v>2.9</v>
+      </c>
+      <c r="AB266">
+        <v>3.1</v>
+      </c>
+      <c r="AC266">
+        <v>1.04</v>
+      </c>
+      <c r="AD266">
+        <v>7.3</v>
+      </c>
+      <c r="AE266">
+        <v>1.38</v>
+      </c>
+      <c r="AF266">
+        <v>2.71</v>
+      </c>
+      <c r="AG266">
+        <v>2.22</v>
+      </c>
+      <c r="AH266">
+        <v>1.47</v>
+      </c>
+      <c r="AI266">
+        <v>1.92</v>
+      </c>
+      <c r="AJ266">
+        <v>1.79</v>
+      </c>
+      <c r="AK266">
+        <v>1.35</v>
+      </c>
+      <c r="AL266">
+        <v>1.33</v>
+      </c>
+      <c r="AM266">
+        <v>1.58</v>
+      </c>
+      <c r="AN266">
+        <v>1.63</v>
+      </c>
+      <c r="AO266">
+        <v>1.31</v>
+      </c>
+      <c r="AP266">
+        <v>1.59</v>
+      </c>
+      <c r="AQ266">
+        <v>1.29</v>
+      </c>
+      <c r="AR266">
+        <v>1.49</v>
+      </c>
+      <c r="AS266">
+        <v>1.44</v>
+      </c>
+      <c r="AT266">
+        <v>2.93</v>
+      </c>
+      <c r="AU266">
+        <v>2</v>
+      </c>
+      <c r="AV266">
+        <v>2</v>
+      </c>
+      <c r="AW266">
+        <v>2</v>
+      </c>
+      <c r="AX266">
+        <v>1</v>
+      </c>
+      <c r="AY266">
+        <v>4</v>
+      </c>
+      <c r="AZ266">
+        <v>3</v>
+      </c>
+      <c r="BA266">
+        <v>5</v>
+      </c>
+      <c r="BB266">
+        <v>0</v>
+      </c>
+      <c r="BC266">
+        <v>5</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>0</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>0</v>
+      </c>
+      <c r="BI266">
+        <v>0</v>
+      </c>
+      <c r="BJ266">
+        <v>0</v>
+      </c>
+      <c r="BK266">
+        <v>0</v>
+      </c>
+      <c r="BL266">
+        <v>0</v>
+      </c>
+      <c r="BM266">
+        <v>0</v>
+      </c>
+      <c r="BN266">
+        <v>0</v>
+      </c>
+      <c r="BO266">
+        <v>0</v>
+      </c>
+      <c r="BP266">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['43', '67', '82', '90']</t>
   </si>
   <si>
+    <t>['5', '22', '78']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1073,6 +1076,9 @@
   </si>
   <si>
     <t>['29', '32']</t>
+  </si>
+  <si>
+    <t>['15', '42', '69']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1699,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2105,7 +2111,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2311,7 +2317,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2517,7 +2523,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2598,7 +2604,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3010,7 +3016,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3135,7 +3141,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3213,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ9">
         <v>1.06</v>
@@ -3753,7 +3759,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4371,7 +4377,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4861,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ17">
         <v>1.06</v>
@@ -4989,7 +4995,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5482,7 +5488,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR20">
         <v>2.02</v>
@@ -5688,7 +5694,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ21">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR21">
         <v>1.45</v>
@@ -5894,7 +5900,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ22">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR22">
         <v>1.99</v>
@@ -6225,7 +6231,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6431,7 +6437,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -7539,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -7748,7 +7754,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ31">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR31">
         <v>1.21</v>
@@ -8160,7 +8166,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR33">
         <v>1.13</v>
@@ -8285,7 +8291,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8363,7 +8369,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8572,7 +8578,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ35">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8903,7 +8909,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8981,7 +8987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ37">
         <v>0.8100000000000001</v>
@@ -9315,7 +9321,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9805,7 +9811,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
         <v>1.06</v>
@@ -9933,7 +9939,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10139,7 +10145,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10838,7 +10844,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -10963,7 +10969,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11250,7 +11256,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ48">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR48">
         <v>1.17</v>
@@ -11581,7 +11587,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11659,10 +11665,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR50">
         <v>1.37</v>
@@ -11993,7 +11999,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12071,7 +12077,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -12199,7 +12205,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12817,7 +12823,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13023,7 +13029,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13101,7 +13107,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ57">
         <v>2.19</v>
@@ -13928,7 +13934,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ61">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14259,7 +14265,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14337,10 +14343,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14465,7 +14471,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14546,7 +14552,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR64">
         <v>2.66</v>
@@ -14671,7 +14677,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14749,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ65">
         <v>1.53</v>
@@ -15083,7 +15089,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15289,7 +15295,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15907,7 +15913,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16937,7 +16943,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17221,7 +17227,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17430,7 +17436,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17555,7 +17561,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17636,7 +17642,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ79">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -17761,7 +17767,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17839,7 +17845,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
         <v>1.47</v>
@@ -17967,7 +17973,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18173,7 +18179,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18251,7 +18257,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18379,7 +18385,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18666,7 +18672,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR84">
         <v>1.65</v>
@@ -18791,7 +18797,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18997,7 +19003,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19615,7 +19621,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20027,7 +20033,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20233,7 +20239,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20520,7 +20526,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ93">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20723,10 +20729,10 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ94">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR94">
         <v>1.25</v>
@@ -20851,7 +20857,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21135,7 +21141,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ96">
         <v>1.06</v>
@@ -21263,7 +21269,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21469,7 +21475,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21547,7 +21553,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ98">
         <v>0.6899999999999999</v>
@@ -21756,7 +21762,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.75</v>
@@ -22293,7 +22299,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22499,7 +22505,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22580,7 +22586,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22911,7 +22917,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23813,10 +23819,10 @@
         <v>0.57</v>
       </c>
       <c r="AP109">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ109">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -24022,7 +24028,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ110">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR110">
         <v>1.67</v>
@@ -24147,7 +24153,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24637,7 +24643,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -25049,7 +25055,7 @@
         <v>1.6</v>
       </c>
       <c r="AP115">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ115">
         <v>1.47</v>
@@ -25461,7 +25467,7 @@
         <v>2.29</v>
       </c>
       <c r="AP117">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ117">
         <v>2.19</v>
@@ -25795,7 +25801,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25873,7 +25879,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>2.31</v>
@@ -26079,7 +26085,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26619,7 +26625,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -26700,7 +26706,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ123">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26903,7 +26909,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ124">
         <v>0.35</v>
@@ -27727,10 +27733,10 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR128">
         <v>1.26</v>
@@ -27936,7 +27942,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ129">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28061,7 +28067,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28679,7 +28685,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28885,7 +28891,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -28966,7 +28972,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR134">
         <v>2.11</v>
@@ -29091,7 +29097,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29169,7 +29175,7 @@
         <v>1.86</v>
       </c>
       <c r="AP135">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ135">
         <v>2.31</v>
@@ -29297,7 +29303,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29375,7 +29381,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ136">
         <v>0.6899999999999999</v>
@@ -29709,7 +29715,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29915,7 +29921,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30327,7 +30333,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30533,7 +30539,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30739,7 +30745,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30945,7 +30951,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31026,7 +31032,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31151,7 +31157,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31229,7 +31235,7 @@
         <v>2.44</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145">
         <v>2.19</v>
@@ -31357,7 +31363,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31563,7 +31569,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31641,7 +31647,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ147">
         <v>1.25</v>
@@ -32056,7 +32062,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ149">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR149">
         <v>1.12</v>
@@ -32262,7 +32268,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ150">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR150">
         <v>2.49</v>
@@ -33211,7 +33217,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33623,7 +33629,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34113,7 +34119,7 @@
         <v>0.44</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ159">
         <v>0.35</v>
@@ -34528,7 +34534,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR161">
         <v>1.44</v>
@@ -34734,7 +34740,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ162">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34937,7 +34943,7 @@
         <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
         <v>0.8100000000000001</v>
@@ -35065,7 +35071,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35271,7 +35277,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35349,7 +35355,7 @@
         <v>1.7</v>
       </c>
       <c r="AP165">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ165">
         <v>1.29</v>
@@ -35477,7 +35483,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35764,7 +35770,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ167">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR167">
         <v>1.74</v>
@@ -36095,7 +36101,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36507,7 +36513,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37125,7 +37131,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37537,7 +37543,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37615,7 +37621,7 @@
         <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ176">
         <v>2.31</v>
@@ -37743,7 +37749,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37824,7 +37830,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ177">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -37949,7 +37955,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38027,10 +38033,10 @@
         <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ178">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR178">
         <v>1.29</v>
@@ -38155,7 +38161,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38361,7 +38367,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38439,10 +38445,10 @@
         <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
@@ -39185,7 +39191,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39597,7 +39603,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39803,7 +39809,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40087,7 +40093,7 @@
         <v>1.55</v>
       </c>
       <c r="AP188">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ188">
         <v>1.25</v>
@@ -40215,7 +40221,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40627,7 +40633,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40833,7 +40839,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41039,7 +41045,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41117,10 +41123,10 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ193">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR193">
         <v>1.49</v>
@@ -41451,7 +41457,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41529,7 +41535,7 @@
         <v>1.58</v>
       </c>
       <c r="AP195">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ195">
         <v>1.53</v>
@@ -41657,7 +41663,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -41735,7 +41741,7 @@
         <v>1.58</v>
       </c>
       <c r="AP196">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ196">
         <v>1.47</v>
@@ -41944,7 +41950,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ197">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR197">
         <v>2.37</v>
@@ -42069,7 +42075,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42562,7 +42568,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR200">
         <v>1.88</v>
@@ -42893,7 +42899,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43305,7 +43311,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43511,7 +43517,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44335,7 +44341,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44413,7 +44419,7 @@
         <v>1.23</v>
       </c>
       <c r="AP209">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -44619,7 +44625,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -44747,7 +44753,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44953,7 +44959,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45446,7 +45452,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ214">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -45571,7 +45577,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45649,10 +45655,10 @@
         <v>1.08</v>
       </c>
       <c r="AP215">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ215">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR215">
         <v>1.48</v>
@@ -45858,7 +45864,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ216">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR216">
         <v>1.78</v>
@@ -46189,7 +46195,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46395,7 +46401,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46807,7 +46813,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47918,7 +47924,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ226">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR226">
         <v>1.86</v>
@@ -48043,7 +48049,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48249,7 +48255,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48327,7 +48333,7 @@
         <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ228">
         <v>0.6899999999999999</v>
@@ -48455,7 +48461,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48739,7 +48745,7 @@
         <v>0.93</v>
       </c>
       <c r="AP230">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -48867,7 +48873,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -48945,7 +48951,7 @@
         <v>1.79</v>
       </c>
       <c r="AP231">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ231">
         <v>1.53</v>
@@ -49154,7 +49160,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ232">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR232">
         <v>1.49</v>
@@ -50103,7 +50109,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50721,7 +50727,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50802,7 +50808,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ240">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR240">
         <v>1.31</v>
@@ -50927,7 +50933,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51133,7 +51139,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51214,7 +51220,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ242">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR242">
         <v>1.1</v>
@@ -51339,7 +51345,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51751,7 +51757,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51832,7 +51838,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ245">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR245">
         <v>1.44</v>
@@ -51957,7 +51963,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52369,7 +52375,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52653,7 +52659,7 @@
         <v>0.33</v>
       </c>
       <c r="AP249">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ249">
         <v>0.35</v>
@@ -52859,7 +52865,7 @@
         <v>1.06</v>
       </c>
       <c r="AP250">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250">
         <v>1.06</v>
@@ -53193,7 +53199,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53399,7 +53405,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53686,7 +53692,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ254">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR254">
         <v>1.48</v>
@@ -54095,7 +54101,7 @@
         <v>1.07</v>
       </c>
       <c r="AP256">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ256">
         <v>1</v>
@@ -54429,7 +54435,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54507,10 +54513,10 @@
         <v>1.19</v>
       </c>
       <c r="AP258">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ258">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR258">
         <v>1.25</v>
@@ -54841,7 +54847,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -55047,7 +55053,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55128,7 +55134,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ261">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR261">
         <v>1.33</v>
@@ -55459,7 +55465,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q263">
         <v>1.69</v>
@@ -55665,7 +55671,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q264">
         <v>3.75</v>
@@ -55964,19 +55970,19 @@
         <v>3.9</v>
       </c>
       <c r="AU265">
+        <v>5</v>
+      </c>
+      <c r="AV265">
         <v>3</v>
       </c>
-      <c r="AV265">
+      <c r="AW265">
+        <v>3</v>
+      </c>
+      <c r="AX265">
         <v>4</v>
       </c>
-      <c r="AW265">
-        <v>1</v>
-      </c>
-      <c r="AX265">
-        <v>3</v>
-      </c>
       <c r="AY265">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ265">
         <v>7</v>
@@ -56170,69 +56176,687 @@
         <v>2.93</v>
       </c>
       <c r="AU266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV266">
         <v>2</v>
       </c>
       <c r="AW266">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX266">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY266">
+        <v>12</v>
+      </c>
+      <c r="AZ266">
+        <v>8</v>
+      </c>
+      <c r="BA266">
+        <v>8</v>
+      </c>
+      <c r="BB266">
+        <v>3</v>
+      </c>
+      <c r="BC266">
+        <v>11</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>0</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>0</v>
+      </c>
+      <c r="BI266">
+        <v>0</v>
+      </c>
+      <c r="BJ266">
+        <v>0</v>
+      </c>
+      <c r="BK266">
+        <v>0</v>
+      </c>
+      <c r="BL266">
+        <v>0</v>
+      </c>
+      <c r="BM266">
+        <v>0</v>
+      </c>
+      <c r="BN266">
+        <v>0</v>
+      </c>
+      <c r="BO266">
+        <v>0</v>
+      </c>
+      <c r="BP266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7420752</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45432.59375</v>
+      </c>
+      <c r="F267">
         <v>4</v>
       </c>
-      <c r="AZ266">
+      <c r="G267" t="s">
+        <v>85</v>
+      </c>
+      <c r="H267" t="s">
+        <v>80</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
         <v>3</v>
       </c>
-      <c r="BA266">
+      <c r="L267">
+        <v>3</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267" t="s">
+        <v>248</v>
+      </c>
+      <c r="P267" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q267">
+        <v>2.25</v>
+      </c>
+      <c r="R267">
+        <v>2.1</v>
+      </c>
+      <c r="S267">
+        <v>6</v>
+      </c>
+      <c r="T267">
+        <v>1.44</v>
+      </c>
+      <c r="U267">
+        <v>2.65</v>
+      </c>
+      <c r="V267">
+        <v>3.1</v>
+      </c>
+      <c r="W267">
+        <v>1.34</v>
+      </c>
+      <c r="X267">
+        <v>8.1</v>
+      </c>
+      <c r="Y267">
+        <v>1.06</v>
+      </c>
+      <c r="Z267">
+        <v>2.38</v>
+      </c>
+      <c r="AA267">
+        <v>3</v>
+      </c>
+      <c r="AB267">
+        <v>2.88</v>
+      </c>
+      <c r="AC267">
+        <v>1.03</v>
+      </c>
+      <c r="AD267">
+        <v>8</v>
+      </c>
+      <c r="AE267">
+        <v>1.33</v>
+      </c>
+      <c r="AF267">
+        <v>2.91</v>
+      </c>
+      <c r="AG267">
+        <v>2.07</v>
+      </c>
+      <c r="AH267">
+        <v>1.54</v>
+      </c>
+      <c r="AI267">
+        <v>1.99</v>
+      </c>
+      <c r="AJ267">
+        <v>1.73</v>
+      </c>
+      <c r="AK267">
+        <v>1.17</v>
+      </c>
+      <c r="AL267">
+        <v>1.27</v>
+      </c>
+      <c r="AM267">
+        <v>2.06</v>
+      </c>
+      <c r="AN267">
+        <v>1.38</v>
+      </c>
+      <c r="AO267">
+        <v>1.25</v>
+      </c>
+      <c r="AP267">
+        <v>1.47</v>
+      </c>
+      <c r="AQ267">
+        <v>1.18</v>
+      </c>
+      <c r="AR267">
+        <v>1.44</v>
+      </c>
+      <c r="AS267">
+        <v>1.45</v>
+      </c>
+      <c r="AT267">
+        <v>2.89</v>
+      </c>
+      <c r="AU267">
         <v>5</v>
       </c>
-      <c r="BB266">
-        <v>0</v>
-      </c>
-      <c r="BC266">
+      <c r="AV267">
+        <v>0</v>
+      </c>
+      <c r="AW267">
+        <v>4</v>
+      </c>
+      <c r="AX267">
         <v>5</v>
       </c>
-      <c r="BD266">
-        <v>0</v>
-      </c>
-      <c r="BE266">
-        <v>0</v>
-      </c>
-      <c r="BF266">
-        <v>0</v>
-      </c>
-      <c r="BG266">
-        <v>0</v>
-      </c>
-      <c r="BH266">
-        <v>0</v>
-      </c>
-      <c r="BI266">
-        <v>0</v>
-      </c>
-      <c r="BJ266">
-        <v>0</v>
-      </c>
-      <c r="BK266">
-        <v>0</v>
-      </c>
-      <c r="BL266">
-        <v>0</v>
-      </c>
-      <c r="BM266">
-        <v>0</v>
-      </c>
-      <c r="BN266">
-        <v>0</v>
-      </c>
-      <c r="BO266">
-        <v>0</v>
-      </c>
-      <c r="BP266">
+      <c r="AY267">
+        <v>9</v>
+      </c>
+      <c r="AZ267">
+        <v>5</v>
+      </c>
+      <c r="BA267">
+        <v>7</v>
+      </c>
+      <c r="BB267">
+        <v>5</v>
+      </c>
+      <c r="BC267">
+        <v>12</v>
+      </c>
+      <c r="BD267">
+        <v>1.51</v>
+      </c>
+      <c r="BE267">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF267">
+        <v>2.99</v>
+      </c>
+      <c r="BG267">
+        <v>1.26</v>
+      </c>
+      <c r="BH267">
+        <v>3.34</v>
+      </c>
+      <c r="BI267">
+        <v>1.54</v>
+      </c>
+      <c r="BJ267">
+        <v>2.39</v>
+      </c>
+      <c r="BK267">
+        <v>1.92</v>
+      </c>
+      <c r="BL267">
+        <v>1.88</v>
+      </c>
+      <c r="BM267">
+        <v>2.43</v>
+      </c>
+      <c r="BN267">
+        <v>1.52</v>
+      </c>
+      <c r="BO267">
+        <v>3.28</v>
+      </c>
+      <c r="BP267">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7420754</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45433.4375</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>77</v>
+      </c>
+      <c r="H268" t="s">
+        <v>83</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268" t="s">
+        <v>144</v>
+      </c>
+      <c r="P268" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q268">
+        <v>4.88</v>
+      </c>
+      <c r="R268">
+        <v>2.19</v>
+      </c>
+      <c r="S268">
+        <v>2.46</v>
+      </c>
+      <c r="T268">
+        <v>1.41</v>
+      </c>
+      <c r="U268">
+        <v>2.83</v>
+      </c>
+      <c r="V268">
+        <v>3.08</v>
+      </c>
+      <c r="W268">
+        <v>1.36</v>
+      </c>
+      <c r="X268">
+        <v>7.5</v>
+      </c>
+      <c r="Y268">
+        <v>1.06</v>
+      </c>
+      <c r="Z268">
+        <v>3.75</v>
+      </c>
+      <c r="AA268">
+        <v>3.45</v>
+      </c>
+      <c r="AB268">
+        <v>1.91</v>
+      </c>
+      <c r="AC268">
+        <v>1.04</v>
+      </c>
+      <c r="AD268">
+        <v>9</v>
+      </c>
+      <c r="AE268">
+        <v>1.3</v>
+      </c>
+      <c r="AF268">
+        <v>3.2</v>
+      </c>
+      <c r="AG268">
+        <v>2.03</v>
+      </c>
+      <c r="AH268">
+        <v>1.83</v>
+      </c>
+      <c r="AI268">
+        <v>1.85</v>
+      </c>
+      <c r="AJ268">
+        <v>1.91</v>
+      </c>
+      <c r="AK268">
+        <v>1.83</v>
+      </c>
+      <c r="AL268">
+        <v>1.25</v>
+      </c>
+      <c r="AM268">
+        <v>1.17</v>
+      </c>
+      <c r="AN268">
+        <v>0.63</v>
+      </c>
+      <c r="AO268">
+        <v>0.59</v>
+      </c>
+      <c r="AP268">
+        <v>0.65</v>
+      </c>
+      <c r="AQ268">
+        <v>0.61</v>
+      </c>
+      <c r="AR268">
+        <v>1.24</v>
+      </c>
+      <c r="AS268">
+        <v>1.1</v>
+      </c>
+      <c r="AT268">
+        <v>2.34</v>
+      </c>
+      <c r="AU268">
+        <v>7</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>6</v>
+      </c>
+      <c r="AX268">
+        <v>10</v>
+      </c>
+      <c r="AY268">
+        <v>13</v>
+      </c>
+      <c r="AZ268">
+        <v>14</v>
+      </c>
+      <c r="BA268">
+        <v>4</v>
+      </c>
+      <c r="BB268">
+        <v>7</v>
+      </c>
+      <c r="BC268">
+        <v>11</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>0</v>
+      </c>
+      <c r="BG268">
+        <v>0</v>
+      </c>
+      <c r="BH268">
+        <v>0</v>
+      </c>
+      <c r="BI268">
+        <v>0</v>
+      </c>
+      <c r="BJ268">
+        <v>0</v>
+      </c>
+      <c r="BK268">
+        <v>0</v>
+      </c>
+      <c r="BL268">
+        <v>0</v>
+      </c>
+      <c r="BM268">
+        <v>0</v>
+      </c>
+      <c r="BN268">
+        <v>0</v>
+      </c>
+      <c r="BO268">
+        <v>0</v>
+      </c>
+      <c r="BP268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7420755</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45433.53125</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>84</v>
+      </c>
+      <c r="H269" t="s">
+        <v>76</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>2</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>3</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>91</v>
+      </c>
+      <c r="P269" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q269">
+        <v>3.11</v>
+      </c>
+      <c r="R269">
+        <v>2.04</v>
+      </c>
+      <c r="S269">
+        <v>3.95</v>
+      </c>
+      <c r="T269">
+        <v>1.48</v>
+      </c>
+      <c r="U269">
+        <v>2.52</v>
+      </c>
+      <c r="V269">
+        <v>3.25</v>
+      </c>
+      <c r="W269">
+        <v>1.29</v>
+      </c>
+      <c r="X269">
+        <v>9.5</v>
+      </c>
+      <c r="Y269">
+        <v>1.04</v>
+      </c>
+      <c r="Z269">
+        <v>2.15</v>
+      </c>
+      <c r="AA269">
+        <v>3.24</v>
+      </c>
+      <c r="AB269">
+        <v>3.44</v>
+      </c>
+      <c r="AC269">
+        <v>1.06</v>
+      </c>
+      <c r="AD269">
+        <v>7</v>
+      </c>
+      <c r="AE269">
+        <v>1.42</v>
+      </c>
+      <c r="AF269">
+        <v>2.71</v>
+      </c>
+      <c r="AG269">
+        <v>2.3</v>
+      </c>
+      <c r="AH269">
+        <v>1.6</v>
+      </c>
+      <c r="AI269">
+        <v>1.95</v>
+      </c>
+      <c r="AJ269">
+        <v>1.81</v>
+      </c>
+      <c r="AK269">
+        <v>1.3</v>
+      </c>
+      <c r="AL269">
+        <v>1.33</v>
+      </c>
+      <c r="AM269">
+        <v>1.53</v>
+      </c>
+      <c r="AN269">
+        <v>1.71</v>
+      </c>
+      <c r="AO269">
+        <v>1.18</v>
+      </c>
+      <c r="AP269">
+        <v>1.61</v>
+      </c>
+      <c r="AQ269">
+        <v>1.28</v>
+      </c>
+      <c r="AR269">
+        <v>1.57</v>
+      </c>
+      <c r="AS269">
+        <v>1.19</v>
+      </c>
+      <c r="AT269">
+        <v>2.76</v>
+      </c>
+      <c r="AU269">
+        <v>2</v>
+      </c>
+      <c r="AV269">
+        <v>4</v>
+      </c>
+      <c r="AW269">
+        <v>2</v>
+      </c>
+      <c r="AX269">
+        <v>1</v>
+      </c>
+      <c r="AY269">
+        <v>4</v>
+      </c>
+      <c r="AZ269">
+        <v>5</v>
+      </c>
+      <c r="BA269">
+        <v>2</v>
+      </c>
+      <c r="BB269">
+        <v>2</v>
+      </c>
+      <c r="BC269">
+        <v>4</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,9 @@
     <t>['5', '22', '78']</t>
   </si>
   <si>
+    <t>['9', '10', '33']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1440,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP269"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1702,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1777,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ2">
         <v>0.8100000000000001</v>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
         <v>2.31</v>
@@ -2111,7 +2114,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2317,7 +2320,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2523,7 +2526,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3141,7 +3144,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3759,7 +3762,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -3840,7 +3843,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4043,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
         <v>0.35</v>
@@ -4252,7 +4255,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ14">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4377,7 +4380,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4458,7 +4461,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ15">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>1.16</v>
@@ -4995,7 +4998,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5073,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5485,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20">
         <v>1.18</v>
@@ -6231,7 +6234,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6437,7 +6440,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -7136,7 +7139,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7342,7 +7345,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ29">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>1.89</v>
@@ -7957,10 +7960,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8291,7 +8294,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
         <v>2.19</v>
@@ -8909,7 +8912,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9193,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
         <v>1.29</v>
@@ -9321,7 +9324,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9402,7 +9405,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ39">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>1.52</v>
@@ -9939,7 +9942,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10145,7 +10148,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10841,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46">
         <v>0.61</v>
@@ -10969,7 +10972,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11050,7 +11053,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ47">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
         <v>1.35</v>
@@ -11253,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
         <v>1.28</v>
@@ -11587,7 +11590,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11871,7 +11874,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>0.8100000000000001</v>
@@ -11999,7 +12002,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12205,7 +12208,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12283,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53">
         <v>1.06</v>
@@ -12823,7 +12826,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13029,7 +13032,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13522,7 +13525,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ59">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -14265,7 +14268,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14471,7 +14474,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14549,7 +14552,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
         <v>1.18</v>
@@ -14677,7 +14680,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14758,7 +14761,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ65">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -15089,7 +15092,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15295,7 +15298,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15373,10 +15376,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ68">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15913,7 +15916,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16200,7 +16203,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ72">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16815,7 +16818,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -16943,7 +16946,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17561,7 +17564,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17767,7 +17770,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17848,7 +17851,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
         <v>1.44</v>
@@ -17973,7 +17976,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18051,10 +18054,10 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>2.69</v>
@@ -18179,7 +18182,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18385,7 +18388,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18463,7 +18466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18797,7 +18800,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -19003,7 +19006,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19621,7 +19624,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20033,7 +20036,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20111,7 +20114,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -20239,7 +20242,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20523,7 +20526,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
         <v>0.61</v>
@@ -20857,7 +20860,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -20938,7 +20941,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ95">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.77</v>
@@ -21269,7 +21272,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21350,7 +21353,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ97">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21475,7 +21478,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21556,7 +21559,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ98">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21965,7 +21968,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -22171,7 +22174,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
         <v>0.35</v>
@@ -22299,7 +22302,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22505,7 +22508,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22917,7 +22920,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -22995,7 +22998,7 @@
         <v>2.17</v>
       </c>
       <c r="AP105">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ105">
         <v>2.19</v>
@@ -24153,7 +24156,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24440,7 +24443,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ112">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
         <v>1.77</v>
@@ -25058,7 +25061,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ115">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -25261,10 +25264,10 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>2.64</v>
@@ -25676,7 +25679,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ118">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR118">
         <v>1.49</v>
@@ -25801,7 +25804,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26294,7 +26297,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.83</v>
@@ -26497,7 +26500,7 @@
         <v>0.57</v>
       </c>
       <c r="AP122">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ122">
         <v>0.9399999999999999</v>
@@ -26625,7 +26628,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -27118,7 +27121,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR125">
         <v>1.73</v>
@@ -27530,7 +27533,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -28067,7 +28070,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28351,7 +28354,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ131">
         <v>1.29</v>
@@ -28685,7 +28688,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28763,7 +28766,7 @@
         <v>2.38</v>
       </c>
       <c r="AP133">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ133">
         <v>2.19</v>
@@ -28891,7 +28894,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29097,7 +29100,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29303,7 +29306,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29384,7 +29387,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ136">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -29590,7 +29593,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ137">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29715,7 +29718,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29921,7 +29924,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30333,7 +30336,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30539,7 +30542,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30617,7 +30620,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -30745,7 +30748,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30826,7 +30829,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ143">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30951,7 +30954,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31157,7 +31160,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31363,7 +31366,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31569,7 +31572,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31856,7 +31859,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ148">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
         <v>2.04</v>
@@ -32059,7 +32062,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149">
         <v>1.28</v>
@@ -32265,7 +32268,7 @@
         <v>0.44</v>
       </c>
       <c r="AP150">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ150">
         <v>0.61</v>
@@ -32471,7 +32474,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
         <v>0.8100000000000001</v>
@@ -33092,7 +33095,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ154">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR154">
         <v>1.35</v>
@@ -33217,7 +33220,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33504,7 +33507,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR156">
         <v>1.94</v>
@@ -33629,7 +33632,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34737,7 +34740,7 @@
         <v>1.3</v>
       </c>
       <c r="AP162">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
         <v>1.18</v>
@@ -35071,7 +35074,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35149,10 +35152,10 @@
         <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ164">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
         <v>1.11</v>
@@ -35277,7 +35280,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35483,7 +35486,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35564,7 +35567,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ166">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35973,7 +35976,7 @@
         <v>1.7</v>
       </c>
       <c r="AP168">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ168">
         <v>1.25</v>
@@ -36101,7 +36104,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36513,7 +36516,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -36594,7 +36597,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ171">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR171">
         <v>1.48</v>
@@ -37131,7 +37134,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37543,7 +37546,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37749,7 +37752,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37955,7 +37958,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38161,7 +38164,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38239,10 +38242,10 @@
         <v>1.73</v>
       </c>
       <c r="AP179">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38367,7 +38370,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38857,7 +38860,7 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ182">
         <v>1.29</v>
@@ -39191,7 +39194,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39272,7 +39275,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ184">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39603,7 +39606,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39809,7 +39812,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40221,7 +40224,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40633,7 +40636,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40839,7 +40842,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40917,10 +40920,10 @@
         <v>0.91</v>
       </c>
       <c r="AP192">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ192">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR192">
         <v>1.09</v>
@@ -41045,7 +41048,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41457,7 +41460,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41538,7 +41541,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ195">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -41663,7 +41666,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -41744,7 +41747,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ196">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR196">
         <v>1.33</v>
@@ -41947,7 +41950,7 @@
         <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ197">
         <v>1.28</v>
@@ -42075,7 +42078,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42153,7 +42156,7 @@
         <v>0.92</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -42771,7 +42774,7 @@
         <v>0.42</v>
       </c>
       <c r="AP201">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ201">
         <v>0.35</v>
@@ -42899,7 +42902,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43311,7 +43314,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43392,7 +43395,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ204">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -43517,7 +43520,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44341,7 +44344,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44753,7 +44756,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44831,10 +44834,10 @@
         <v>0.85</v>
       </c>
       <c r="AP211">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR211">
         <v>1.43</v>
@@ -44959,7 +44962,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45040,7 +45043,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ212">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR212">
         <v>1.89</v>
@@ -45243,10 +45246,10 @@
         <v>1.69</v>
       </c>
       <c r="AP213">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR213">
         <v>2.41</v>
@@ -45577,7 +45580,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46195,7 +46198,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46401,7 +46404,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46813,7 +46816,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -46891,7 +46894,7 @@
         <v>2.33</v>
       </c>
       <c r="AP221">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ221">
         <v>2.31</v>
@@ -48049,7 +48052,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48255,7 +48258,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48336,7 +48339,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ228">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR228">
         <v>1.39</v>
@@ -48461,7 +48464,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48542,7 +48545,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ229">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR229">
         <v>1.83</v>
@@ -48873,7 +48876,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -48954,7 +48957,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ231">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR231">
         <v>1.51</v>
@@ -49363,7 +49366,7 @@
         <v>1.14</v>
       </c>
       <c r="AP233">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ233">
         <v>1.06</v>
@@ -49775,7 +49778,7 @@
         <v>0.86</v>
       </c>
       <c r="AP235">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ235">
         <v>1.06</v>
@@ -49981,7 +49984,7 @@
         <v>1.29</v>
       </c>
       <c r="AP236">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ236">
         <v>1.25</v>
@@ -50109,7 +50112,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50727,7 +50730,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50933,7 +50936,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51139,7 +51142,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51217,7 +51220,7 @@
         <v>0.4</v>
       </c>
       <c r="AP242">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ242">
         <v>0.61</v>
@@ -51345,7 +51348,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51426,7 +51429,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ243">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR243">
         <v>1.96</v>
@@ -51757,7 +51760,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51963,7 +51966,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52041,7 +52044,7 @@
         <v>0.93</v>
       </c>
       <c r="AP246">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ246">
         <v>0.9399999999999999</v>
@@ -52250,7 +52253,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ247">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR247">
         <v>1.82</v>
@@ -52375,7 +52378,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53199,7 +53202,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53405,7 +53408,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53483,10 +53486,10 @@
         <v>1.63</v>
       </c>
       <c r="AP253">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ253">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR253">
         <v>1.46</v>
@@ -53895,7 +53898,7 @@
         <v>2.33</v>
       </c>
       <c r="AP255">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ255">
         <v>2.19</v>
@@ -54435,7 +54438,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54722,7 +54725,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ259">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR259">
         <v>1.35</v>
@@ -54847,7 +54850,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -54925,7 +54928,7 @@
         <v>0.31</v>
       </c>
       <c r="AP260">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ260">
         <v>0.35</v>
@@ -55053,7 +55056,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55465,7 +55468,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q263">
         <v>1.69</v>
@@ -55671,7 +55674,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q264">
         <v>3.75</v>
@@ -55752,7 +55755,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ264">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR264">
         <v>1.54</v>
@@ -56382,22 +56385,22 @@
         <v>2.89</v>
       </c>
       <c r="AU267">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW267">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX267">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY267">
+        <v>16</v>
+      </c>
+      <c r="AZ267">
         <v>9</v>
-      </c>
-      <c r="AZ267">
-        <v>5</v>
       </c>
       <c r="BA267">
         <v>7</v>
@@ -56701,7 +56704,7 @@
         <v>91</v>
       </c>
       <c r="P269" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q269">
         <v>3.11</v>
@@ -56794,70 +56797,688 @@
         <v>2.76</v>
       </c>
       <c r="AU269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV269">
+        <v>5</v>
+      </c>
+      <c r="AW269">
+        <v>8</v>
+      </c>
+      <c r="AX269">
+        <v>7</v>
+      </c>
+      <c r="AY269">
+        <v>12</v>
+      </c>
+      <c r="AZ269">
+        <v>12</v>
+      </c>
+      <c r="BA269">
+        <v>5</v>
+      </c>
+      <c r="BB269">
+        <v>3</v>
+      </c>
+      <c r="BC269">
+        <v>8</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7420756</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45433.625</v>
+      </c>
+      <c r="F270">
         <v>4</v>
       </c>
-      <c r="AW269">
-        <v>2</v>
-      </c>
-      <c r="AX269">
-        <v>1</v>
-      </c>
-      <c r="AY269">
+      <c r="G270" t="s">
+        <v>70</v>
+      </c>
+      <c r="H270" t="s">
+        <v>75</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270" t="s">
+        <v>91</v>
+      </c>
+      <c r="P270" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q270">
+        <v>2.66</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
+        <v>4.87</v>
+      </c>
+      <c r="T270">
+        <v>1.5</v>
+      </c>
+      <c r="U270">
+        <v>2.55</v>
+      </c>
+      <c r="V270">
+        <v>3.25</v>
+      </c>
+      <c r="W270">
+        <v>1.29</v>
+      </c>
+      <c r="X270">
+        <v>9.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.04</v>
+      </c>
+      <c r="Z270">
+        <v>2.1</v>
+      </c>
+      <c r="AA270">
+        <v>3.22</v>
+      </c>
+      <c r="AB270">
+        <v>3.6</v>
+      </c>
+      <c r="AC270">
+        <v>1.06</v>
+      </c>
+      <c r="AD270">
+        <v>7</v>
+      </c>
+      <c r="AE270">
+        <v>1.44</v>
+      </c>
+      <c r="AF270">
+        <v>2.76</v>
+      </c>
+      <c r="AG270">
+        <v>2.38</v>
+      </c>
+      <c r="AH270">
+        <v>1.57</v>
+      </c>
+      <c r="AI270">
+        <v>2</v>
+      </c>
+      <c r="AJ270">
+        <v>1.77</v>
+      </c>
+      <c r="AK270">
+        <v>1.2</v>
+      </c>
+      <c r="AL270">
+        <v>1.33</v>
+      </c>
+      <c r="AM270">
+        <v>1.73</v>
+      </c>
+      <c r="AN270">
+        <v>0.88</v>
+      </c>
+      <c r="AO270">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP270">
+        <v>0.89</v>
+      </c>
+      <c r="AQ270">
+        <v>0.71</v>
+      </c>
+      <c r="AR270">
+        <v>1.14</v>
+      </c>
+      <c r="AS270">
+        <v>1.05</v>
+      </c>
+      <c r="AT270">
+        <v>2.19</v>
+      </c>
+      <c r="AU270">
+        <v>0</v>
+      </c>
+      <c r="AV270">
         <v>4</v>
       </c>
-      <c r="AZ269">
+      <c r="AW270">
+        <v>2</v>
+      </c>
+      <c r="AX270">
+        <v>9</v>
+      </c>
+      <c r="AY270">
+        <v>2</v>
+      </c>
+      <c r="AZ270">
+        <v>13</v>
+      </c>
+      <c r="BA270">
+        <v>3</v>
+      </c>
+      <c r="BB270">
+        <v>3</v>
+      </c>
+      <c r="BC270">
+        <v>6</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>0</v>
+      </c>
+      <c r="BH270">
+        <v>0</v>
+      </c>
+      <c r="BI270">
+        <v>0</v>
+      </c>
+      <c r="BJ270">
+        <v>0</v>
+      </c>
+      <c r="BK270">
+        <v>0</v>
+      </c>
+      <c r="BL270">
+        <v>0</v>
+      </c>
+      <c r="BM270">
+        <v>0</v>
+      </c>
+      <c r="BN270">
+        <v>0</v>
+      </c>
+      <c r="BO270">
+        <v>0</v>
+      </c>
+      <c r="BP270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7420960</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45434.41666666666</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271" t="s">
+        <v>71</v>
+      </c>
+      <c r="H271" t="s">
+        <v>72</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>91</v>
+      </c>
+      <c r="P271" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q271">
+        <v>4.9</v>
+      </c>
+      <c r="R271">
+        <v>2.05</v>
+      </c>
+      <c r="S271">
+        <v>2.43</v>
+      </c>
+      <c r="T271">
+        <v>1.48</v>
+      </c>
+      <c r="U271">
+        <v>2.43</v>
+      </c>
+      <c r="V271">
+        <v>3.15</v>
+      </c>
+      <c r="W271">
+        <v>1.29</v>
+      </c>
+      <c r="X271">
+        <v>8</v>
+      </c>
+      <c r="Y271">
+        <v>1.04</v>
+      </c>
+      <c r="Z271">
+        <v>4.23</v>
+      </c>
+      <c r="AA271">
+        <v>3.13</v>
+      </c>
+      <c r="AB271">
+        <v>1.91</v>
+      </c>
+      <c r="AC271">
+        <v>1.06</v>
+      </c>
+      <c r="AD271">
+        <v>6.75</v>
+      </c>
+      <c r="AE271">
+        <v>1.4</v>
+      </c>
+      <c r="AF271">
+        <v>2.7</v>
+      </c>
+      <c r="AG271">
+        <v>2.22</v>
+      </c>
+      <c r="AH271">
+        <v>1.64</v>
+      </c>
+      <c r="AI271">
+        <v>2.08</v>
+      </c>
+      <c r="AJ271">
+        <v>1.65</v>
+      </c>
+      <c r="AK271">
+        <v>2</v>
+      </c>
+      <c r="AL271">
+        <v>1.3</v>
+      </c>
+      <c r="AM271">
+        <v>1.19</v>
+      </c>
+      <c r="AN271">
+        <v>2.06</v>
+      </c>
+      <c r="AO271">
+        <v>1.47</v>
+      </c>
+      <c r="AP271">
+        <v>1.94</v>
+      </c>
+      <c r="AQ271">
+        <v>1.56</v>
+      </c>
+      <c r="AR271">
+        <v>1.49</v>
+      </c>
+      <c r="AS271">
+        <v>1.72</v>
+      </c>
+      <c r="AT271">
+        <v>3.21</v>
+      </c>
+      <c r="AU271">
+        <v>2</v>
+      </c>
+      <c r="AV271">
+        <v>6</v>
+      </c>
+      <c r="AW271">
         <v>5</v>
       </c>
-      <c r="BA269">
-        <v>2</v>
-      </c>
-      <c r="BB269">
-        <v>2</v>
-      </c>
-      <c r="BC269">
+      <c r="AX271">
+        <v>11</v>
+      </c>
+      <c r="AY271">
+        <v>7</v>
+      </c>
+      <c r="AZ271">
+        <v>17</v>
+      </c>
+      <c r="BA271">
+        <v>2</v>
+      </c>
+      <c r="BB271">
+        <v>3</v>
+      </c>
+      <c r="BC271">
+        <v>5</v>
+      </c>
+      <c r="BD271">
+        <v>3.22</v>
+      </c>
+      <c r="BE271">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF271">
+        <v>1.47</v>
+      </c>
+      <c r="BG271">
+        <v>1.47</v>
+      </c>
+      <c r="BH271">
+        <v>2.42</v>
+      </c>
+      <c r="BI271">
+        <v>1.86</v>
+      </c>
+      <c r="BJ271">
+        <v>1.84</v>
+      </c>
+      <c r="BK271">
+        <v>2.42</v>
+      </c>
+      <c r="BL271">
+        <v>1.47</v>
+      </c>
+      <c r="BM271">
+        <v>3.34</v>
+      </c>
+      <c r="BN271">
+        <v>1.26</v>
+      </c>
+      <c r="BO271">
+        <v>4.9</v>
+      </c>
+      <c r="BP271">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7420961</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45434.52083333334</v>
+      </c>
+      <c r="F272">
         <v>4</v>
       </c>
-      <c r="BD269">
-        <v>0</v>
-      </c>
-      <c r="BE269">
-        <v>0</v>
-      </c>
-      <c r="BF269">
-        <v>0</v>
-      </c>
-      <c r="BG269">
-        <v>0</v>
-      </c>
-      <c r="BH269">
-        <v>0</v>
-      </c>
-      <c r="BI269">
-        <v>0</v>
-      </c>
-      <c r="BJ269">
-        <v>0</v>
-      </c>
-      <c r="BK269">
-        <v>0</v>
-      </c>
-      <c r="BL269">
-        <v>0</v>
-      </c>
-      <c r="BM269">
-        <v>0</v>
-      </c>
-      <c r="BN269">
-        <v>0</v>
-      </c>
-      <c r="BO269">
-        <v>0</v>
-      </c>
-      <c r="BP269">
-        <v>0</v>
+      <c r="G272" t="s">
+        <v>81</v>
+      </c>
+      <c r="H272" t="s">
+        <v>74</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>3</v>
+      </c>
+      <c r="L272">
+        <v>3</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>3</v>
+      </c>
+      <c r="O272" t="s">
+        <v>249</v>
+      </c>
+      <c r="P272" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q272">
+        <v>1.95</v>
+      </c>
+      <c r="R272">
+        <v>2.4</v>
+      </c>
+      <c r="S272">
+        <v>6</v>
+      </c>
+      <c r="T272">
+        <v>1.31</v>
+      </c>
+      <c r="U272">
+        <v>3.28</v>
+      </c>
+      <c r="V272">
+        <v>2.46</v>
+      </c>
+      <c r="W272">
+        <v>1.51</v>
+      </c>
+      <c r="X272">
+        <v>5.85</v>
+      </c>
+      <c r="Y272">
+        <v>1.11</v>
+      </c>
+      <c r="Z272">
+        <v>1.59</v>
+      </c>
+      <c r="AA272">
+        <v>3.95</v>
+      </c>
+      <c r="AB272">
+        <v>5.2</v>
+      </c>
+      <c r="AC272">
+        <v>1.01</v>
+      </c>
+      <c r="AD272">
+        <v>12.9</v>
+      </c>
+      <c r="AE272">
+        <v>1.18</v>
+      </c>
+      <c r="AF272">
+        <v>4.05</v>
+      </c>
+      <c r="AG272">
+        <v>1.7</v>
+      </c>
+      <c r="AH272">
+        <v>2</v>
+      </c>
+      <c r="AI272">
+        <v>1.85</v>
+      </c>
+      <c r="AJ272">
+        <v>1.91</v>
+      </c>
+      <c r="AK272">
+        <v>1.09</v>
+      </c>
+      <c r="AL272">
+        <v>1.18</v>
+      </c>
+      <c r="AM272">
+        <v>2.75</v>
+      </c>
+      <c r="AN272">
+        <v>2.47</v>
+      </c>
+      <c r="AO272">
+        <v>1.53</v>
+      </c>
+      <c r="AP272">
+        <v>2.5</v>
+      </c>
+      <c r="AQ272">
+        <v>1.44</v>
+      </c>
+      <c r="AR272">
+        <v>2.41</v>
+      </c>
+      <c r="AS272">
+        <v>1.45</v>
+      </c>
+      <c r="AT272">
+        <v>3.86</v>
+      </c>
+      <c r="AU272">
+        <v>5</v>
+      </c>
+      <c r="AV272">
+        <v>2</v>
+      </c>
+      <c r="AW272">
+        <v>10</v>
+      </c>
+      <c r="AX272">
+        <v>5</v>
+      </c>
+      <c r="AY272">
+        <v>15</v>
+      </c>
+      <c r="AZ272">
+        <v>7</v>
+      </c>
+      <c r="BA272">
+        <v>2</v>
+      </c>
+      <c r="BB272">
+        <v>4</v>
+      </c>
+      <c r="BC272">
+        <v>6</v>
+      </c>
+      <c r="BD272">
+        <v>1.29</v>
+      </c>
+      <c r="BE272">
+        <v>12</v>
+      </c>
+      <c r="BF272">
+        <v>4.34</v>
+      </c>
+      <c r="BG272">
+        <v>1.35</v>
+      </c>
+      <c r="BH272">
+        <v>2.9</v>
+      </c>
+      <c r="BI272">
+        <v>1.6</v>
+      </c>
+      <c r="BJ272">
+        <v>2.2</v>
+      </c>
+      <c r="BK272">
+        <v>2</v>
+      </c>
+      <c r="BL272">
+        <v>1.72</v>
+      </c>
+      <c r="BM272">
+        <v>2.55</v>
+      </c>
+      <c r="BN272">
+        <v>1.45</v>
+      </c>
+      <c r="BO272">
+        <v>3.4</v>
+      </c>
+      <c r="BP272">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,12 @@
     <t>['9', '10', '33']</t>
   </si>
   <si>
+    <t>['33', '62', '86']</t>
+  </si>
+  <si>
+    <t>['80', '90+1']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1082,6 +1088,9 @@
   </si>
   <si>
     <t>['15', '42', '69']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1711,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2114,7 +2123,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2320,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2398,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2526,7 +2535,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2607,7 +2616,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ6">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3144,7 +3153,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3225,7 +3234,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ9">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3428,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3634,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>0.9399999999999999</v>
@@ -3762,7 +3771,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4380,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4667,7 +4676,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ16">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4998,7 +5007,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5079,7 +5088,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5491,7 +5500,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>2.02</v>
@@ -6234,7 +6243,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6440,7 +6449,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6930,10 +6939,10 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ27">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -7342,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.71</v>
@@ -7754,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1.28</v>
@@ -8169,7 +8178,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ33">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
         <v>1.13</v>
@@ -8294,7 +8303,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8375,7 +8384,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -8912,7 +8921,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9324,7 +9333,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9817,7 +9826,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9942,7 +9951,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10148,7 +10157,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10638,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>0.35</v>
@@ -10972,7 +10981,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11462,10 +11471,10 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR49">
         <v>1.65</v>
@@ -11590,7 +11599,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11671,7 +11680,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ50">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.37</v>
@@ -12002,7 +12011,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12208,7 +12217,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12495,7 +12504,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR54">
         <v>1.31</v>
@@ -12701,7 +12710,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12826,7 +12835,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13032,7 +13041,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13934,7 +13943,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>0.61</v>
@@ -14268,7 +14277,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14474,7 +14483,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14555,7 +14564,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR64">
         <v>2.66</v>
@@ -14680,7 +14689,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14964,7 +14973,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66">
         <v>1.29</v>
@@ -15092,7 +15101,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15298,7 +15307,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15788,10 +15797,10 @@
         <v>2.2</v>
       </c>
       <c r="AP70">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR70">
         <v>1.84</v>
@@ -15916,7 +15925,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16200,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>0.71</v>
@@ -16409,7 +16418,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16946,7 +16955,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17439,7 +17448,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ78">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17564,7 +17573,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17770,7 +17779,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17976,7 +17985,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18182,7 +18191,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18388,7 +18397,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18672,7 +18681,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ84">
         <v>1.28</v>
@@ -18800,7 +18809,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -19006,7 +19015,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19290,7 +19299,7 @@
         <v>0.6</v>
       </c>
       <c r="AP87">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
         <v>0.35</v>
@@ -19499,7 +19508,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ88">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19624,7 +19633,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -20036,7 +20045,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20117,7 +20126,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.07</v>
@@ -20242,7 +20251,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20860,7 +20869,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -20938,7 +20947,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -21272,7 +21281,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21478,7 +21487,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21762,10 +21771,10 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.75</v>
@@ -22302,7 +22311,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22508,7 +22517,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22589,7 +22598,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ103">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22920,7 +22929,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23207,7 +23216,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ106">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.47</v>
@@ -23413,7 +23422,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR107">
         <v>2.15</v>
@@ -23616,7 +23625,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>2.31</v>
@@ -24156,7 +24165,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24440,7 +24449,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1.44</v>
@@ -24852,7 +24861,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25676,7 +25685,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -25804,7 +25813,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26628,7 +26637,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -27118,7 +27127,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ125">
         <v>0.71</v>
@@ -27530,7 +27539,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.56</v>
@@ -28070,7 +28079,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28151,7 +28160,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28560,7 +28569,7 @@
         <v>0.88</v>
       </c>
       <c r="AP132">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
         <v>0.8100000000000001</v>
@@ -28688,7 +28697,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28894,7 +28903,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -28975,7 +28984,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ134">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR134">
         <v>2.11</v>
@@ -29100,7 +29109,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29306,7 +29315,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29718,7 +29727,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29924,7 +29933,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30208,7 +30217,7 @@
         <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ140">
         <v>0.35</v>
@@ -30336,7 +30345,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30414,7 +30423,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -30542,7 +30551,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30623,7 +30632,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>2.62</v>
@@ -30748,7 +30757,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30954,7 +30963,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31032,10 +31041,10 @@
         <v>1.11</v>
       </c>
       <c r="AP144">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31160,7 +31169,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31366,7 +31375,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31572,7 +31581,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31653,7 +31662,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ147">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -32889,7 +32898,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ153">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.82</v>
@@ -33220,7 +33229,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33298,7 +33307,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33632,7 +33641,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33710,7 +33719,7 @@
         <v>2</v>
       </c>
       <c r="AP157">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ157">
         <v>2.31</v>
@@ -34328,7 +34337,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
         <v>1.06</v>
@@ -34743,7 +34752,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -35074,7 +35083,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35280,7 +35289,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35486,7 +35495,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35564,7 +35573,7 @@
         <v>1.6</v>
       </c>
       <c r="AP166">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166">
         <v>1.44</v>
@@ -35770,7 +35779,7 @@
         <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ167">
         <v>0.61</v>
@@ -35979,7 +35988,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR168">
         <v>2.52</v>
@@ -36104,7 +36113,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36516,7 +36525,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37134,7 +37143,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37418,10 +37427,10 @@
         <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37546,7 +37555,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37752,7 +37761,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37958,7 +37967,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38164,7 +38173,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38370,7 +38379,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38451,7 +38460,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
@@ -38654,7 +38663,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ181">
         <v>0.8100000000000001</v>
@@ -39066,7 +39075,7 @@
         <v>0.91</v>
       </c>
       <c r="AP183">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -39194,7 +39203,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39606,7 +39615,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39687,7 +39696,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ186">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR186">
         <v>1.38</v>
@@ -39812,7 +39821,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39890,7 +39899,7 @@
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
         <v>2.19</v>
@@ -40099,7 +40108,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ188">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR188">
         <v>1.51</v>
@@ -40224,7 +40233,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40636,7 +40645,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40842,7 +40851,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41048,7 +41057,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41460,7 +41469,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41666,7 +41675,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42078,7 +42087,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42568,10 +42577,10 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ200">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
         <v>1.88</v>
@@ -42902,7 +42911,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -42980,7 +42989,7 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ202">
         <v>0.9399999999999999</v>
@@ -43189,7 +43198,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ203">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR203">
         <v>2.04</v>
@@ -43314,7 +43323,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43520,7 +43529,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -44013,7 +44022,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
         <v>1.87</v>
@@ -44216,7 +44225,7 @@
         <v>0.58</v>
       </c>
       <c r="AP208">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208">
         <v>0.8100000000000001</v>
@@ -44344,7 +44353,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44756,7 +44765,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44962,7 +44971,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45040,7 +45049,7 @@
         <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ212">
         <v>1.44</v>
@@ -45452,7 +45461,7 @@
         <v>0.38</v>
       </c>
       <c r="AP214">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214">
         <v>0.61</v>
@@ -45580,7 +45589,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45661,7 +45670,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ215">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR215">
         <v>1.48</v>
@@ -46198,7 +46207,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46276,10 +46285,10 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ218">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR218">
         <v>1.51</v>
@@ -46404,7 +46413,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46816,7 +46825,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47309,7 +47318,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ223">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR223">
         <v>1.49</v>
@@ -47718,7 +47727,7 @@
         <v>2.38</v>
       </c>
       <c r="AP225">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
         <v>2.31</v>
@@ -48052,7 +48061,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48130,7 +48139,7 @@
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ227">
         <v>1</v>
@@ -48258,7 +48267,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48464,7 +48473,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48876,7 +48885,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49160,7 +49169,7 @@
         <v>1.14</v>
       </c>
       <c r="AP232">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ232">
         <v>1.28</v>
@@ -49781,7 +49790,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ235">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR235">
         <v>1.44</v>
@@ -49987,7 +49996,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ236">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR236">
         <v>1.12</v>
@@ -50112,7 +50121,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50730,7 +50739,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50811,7 +50820,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ240">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR240">
         <v>1.31</v>
@@ -50936,7 +50945,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51014,7 +51023,7 @@
         <v>2.29</v>
       </c>
       <c r="AP241">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ241">
         <v>2.19</v>
@@ -51142,7 +51151,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51348,7 +51357,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51426,7 +51435,7 @@
         <v>1.47</v>
       </c>
       <c r="AP243">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ243">
         <v>1.56</v>
@@ -51635,7 +51644,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ244">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR244">
         <v>1.86</v>
@@ -51760,7 +51769,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51966,7 +51975,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52378,7 +52387,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52456,7 +52465,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248">
         <v>1.06</v>
@@ -53202,7 +53211,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53280,10 +53289,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP252">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ252">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR252">
         <v>1.53</v>
@@ -53408,7 +53417,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53692,10 +53701,10 @@
         <v>1.33</v>
       </c>
       <c r="AP254">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ254">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR254">
         <v>1.48</v>
@@ -54313,7 +54322,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ257">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR257">
         <v>2</v>
@@ -54438,7 +54447,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54850,7 +54859,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -55056,7 +55065,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55468,7 +55477,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q263">
         <v>1.69</v>
@@ -55546,7 +55555,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP263">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ263">
         <v>0.9399999999999999</v>
@@ -55674,7 +55683,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q264">
         <v>3.75</v>
@@ -56164,7 +56173,7 @@
         <v>1.31</v>
       </c>
       <c r="AP266">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ266">
         <v>1.29</v>
@@ -56373,7 +56382,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ267">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR267">
         <v>1.44</v>
@@ -56704,7 +56713,7 @@
         <v>91</v>
       </c>
       <c r="P269" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q269">
         <v>3.11</v>
@@ -57116,7 +57125,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q271">
         <v>4.9</v>
@@ -57479,6 +57488,624 @@
       </c>
       <c r="BP272">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7420757</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="F273">
+        <v>5</v>
+      </c>
+      <c r="G273" t="s">
+        <v>73</v>
+      </c>
+      <c r="H273" t="s">
+        <v>85</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>4</v>
+      </c>
+      <c r="O273" t="s">
+        <v>250</v>
+      </c>
+      <c r="P273" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q273">
+        <v>3.25</v>
+      </c>
+      <c r="R273">
+        <v>1.95</v>
+      </c>
+      <c r="S273">
+        <v>3.75</v>
+      </c>
+      <c r="T273">
+        <v>1.5</v>
+      </c>
+      <c r="U273">
+        <v>2.5</v>
+      </c>
+      <c r="V273">
+        <v>3.25</v>
+      </c>
+      <c r="W273">
+        <v>1.29</v>
+      </c>
+      <c r="X273">
+        <v>9.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.04</v>
+      </c>
+      <c r="Z273">
+        <v>2.4</v>
+      </c>
+      <c r="AA273">
+        <v>3</v>
+      </c>
+      <c r="AB273">
+        <v>2.85</v>
+      </c>
+      <c r="AC273">
+        <v>1.1</v>
+      </c>
+      <c r="AD273">
+        <v>7</v>
+      </c>
+      <c r="AE273">
+        <v>1.44</v>
+      </c>
+      <c r="AF273">
+        <v>2.62</v>
+      </c>
+      <c r="AG273">
+        <v>2.39</v>
+      </c>
+      <c r="AH273">
+        <v>1.56</v>
+      </c>
+      <c r="AI273">
+        <v>2.1</v>
+      </c>
+      <c r="AJ273">
+        <v>1.7</v>
+      </c>
+      <c r="AK273">
+        <v>1.4</v>
+      </c>
+      <c r="AL273">
+        <v>1.36</v>
+      </c>
+      <c r="AM273">
+        <v>1.53</v>
+      </c>
+      <c r="AN273">
+        <v>1.59</v>
+      </c>
+      <c r="AO273">
+        <v>1.06</v>
+      </c>
+      <c r="AP273">
+        <v>1.67</v>
+      </c>
+      <c r="AQ273">
+        <v>1</v>
+      </c>
+      <c r="AR273">
+        <v>1.49</v>
+      </c>
+      <c r="AS273">
+        <v>1.4</v>
+      </c>
+      <c r="AT273">
+        <v>2.89</v>
+      </c>
+      <c r="AU273">
+        <v>9</v>
+      </c>
+      <c r="AV273">
+        <v>5</v>
+      </c>
+      <c r="AW273">
+        <v>7</v>
+      </c>
+      <c r="AX273">
+        <v>3</v>
+      </c>
+      <c r="AY273">
+        <v>16</v>
+      </c>
+      <c r="AZ273">
+        <v>8</v>
+      </c>
+      <c r="BA273">
+        <v>6</v>
+      </c>
+      <c r="BB273">
+        <v>3</v>
+      </c>
+      <c r="BC273">
+        <v>9</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7420758</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45435.48958333334</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274" t="s">
+        <v>78</v>
+      </c>
+      <c r="H274" t="s">
+        <v>80</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>251</v>
+      </c>
+      <c r="P274" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q274">
+        <v>2.3</v>
+      </c>
+      <c r="R274">
+        <v>2.1</v>
+      </c>
+      <c r="S274">
+        <v>5.5</v>
+      </c>
+      <c r="T274">
+        <v>1.44</v>
+      </c>
+      <c r="U274">
+        <v>2.62</v>
+      </c>
+      <c r="V274">
+        <v>3.25</v>
+      </c>
+      <c r="W274">
+        <v>1.33</v>
+      </c>
+      <c r="X274">
+        <v>9</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>2.67</v>
+      </c>
+      <c r="AA274">
+        <v>5.48</v>
+      </c>
+      <c r="AB274">
+        <v>1.81</v>
+      </c>
+      <c r="AC274">
+        <v>1.07</v>
+      </c>
+      <c r="AD274">
+        <v>9</v>
+      </c>
+      <c r="AE274">
+        <v>1.33</v>
+      </c>
+      <c r="AF274">
+        <v>3.25</v>
+      </c>
+      <c r="AG274">
+        <v>2</v>
+      </c>
+      <c r="AH274">
+        <v>1.67</v>
+      </c>
+      <c r="AI274">
+        <v>2</v>
+      </c>
+      <c r="AJ274">
+        <v>1.77</v>
+      </c>
+      <c r="AK274">
+        <v>1.17</v>
+      </c>
+      <c r="AL274">
+        <v>1.25</v>
+      </c>
+      <c r="AM274">
+        <v>2.15</v>
+      </c>
+      <c r="AN274">
+        <v>1.41</v>
+      </c>
+      <c r="AO274">
+        <v>1.18</v>
+      </c>
+      <c r="AP274">
+        <v>1.5</v>
+      </c>
+      <c r="AQ274">
+        <v>1.11</v>
+      </c>
+      <c r="AR274">
+        <v>1.5</v>
+      </c>
+      <c r="AS274">
+        <v>1.44</v>
+      </c>
+      <c r="AT274">
+        <v>2.94</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>4</v>
+      </c>
+      <c r="AW274">
+        <v>10</v>
+      </c>
+      <c r="AX274">
+        <v>11</v>
+      </c>
+      <c r="AY274">
+        <v>14</v>
+      </c>
+      <c r="AZ274">
+        <v>15</v>
+      </c>
+      <c r="BA274">
+        <v>10</v>
+      </c>
+      <c r="BB274">
+        <v>5</v>
+      </c>
+      <c r="BC274">
+        <v>15</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7420962</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45435.59375</v>
+      </c>
+      <c r="F275">
+        <v>4</v>
+      </c>
+      <c r="G275" t="s">
+        <v>79</v>
+      </c>
+      <c r="H275" t="s">
+        <v>82</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" t="s">
+        <v>91</v>
+      </c>
+      <c r="P275" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q275">
+        <v>2.88</v>
+      </c>
+      <c r="R275">
+        <v>1.95</v>
+      </c>
+      <c r="S275">
+        <v>4.33</v>
+      </c>
+      <c r="T275">
+        <v>1.5</v>
+      </c>
+      <c r="U275">
+        <v>2.5</v>
+      </c>
+      <c r="V275">
+        <v>3.5</v>
+      </c>
+      <c r="W275">
+        <v>1.25</v>
+      </c>
+      <c r="X275">
+        <v>9.5</v>
+      </c>
+      <c r="Y275">
+        <v>1.04</v>
+      </c>
+      <c r="Z275">
+        <v>2.91</v>
+      </c>
+      <c r="AA275">
+        <v>4.69</v>
+      </c>
+      <c r="AB275">
+        <v>1.81</v>
+      </c>
+      <c r="AC275">
+        <v>1.1</v>
+      </c>
+      <c r="AD275">
+        <v>7</v>
+      </c>
+      <c r="AE275">
+        <v>1.44</v>
+      </c>
+      <c r="AF275">
+        <v>2.62</v>
+      </c>
+      <c r="AG275">
+        <v>2.25</v>
+      </c>
+      <c r="AH275">
+        <v>1.53</v>
+      </c>
+      <c r="AI275">
+        <v>2.1</v>
+      </c>
+      <c r="AJ275">
+        <v>1.7</v>
+      </c>
+      <c r="AK275">
+        <v>1.29</v>
+      </c>
+      <c r="AL275">
+        <v>1.36</v>
+      </c>
+      <c r="AM275">
+        <v>1.7</v>
+      </c>
+      <c r="AN275">
+        <v>1.88</v>
+      </c>
+      <c r="AO275">
+        <v>1.25</v>
+      </c>
+      <c r="AP275">
+        <v>1.78</v>
+      </c>
+      <c r="AQ275">
+        <v>1.35</v>
+      </c>
+      <c r="AR275">
+        <v>1.95</v>
+      </c>
+      <c r="AS275">
+        <v>1.62</v>
+      </c>
+      <c r="AT275">
+        <v>3.57</v>
+      </c>
+      <c r="AU275">
+        <v>4</v>
+      </c>
+      <c r="AV275">
+        <v>2</v>
+      </c>
+      <c r="AW275">
+        <v>7</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>11</v>
+      </c>
+      <c r="AZ275">
+        <v>5</v>
+      </c>
+      <c r="BA275">
+        <v>9</v>
+      </c>
+      <c r="BB275">
+        <v>1</v>
+      </c>
+      <c r="BC275">
+        <v>10</v>
+      </c>
+      <c r="BD275">
+        <v>1.57</v>
+      </c>
+      <c r="BE275">
+        <v>8.9</v>
+      </c>
+      <c r="BF275">
+        <v>2.81</v>
+      </c>
+      <c r="BG275">
+        <v>1.3</v>
+      </c>
+      <c r="BH275">
+        <v>3.2</v>
+      </c>
+      <c r="BI275">
+        <v>1.55</v>
+      </c>
+      <c r="BJ275">
+        <v>2.38</v>
+      </c>
+      <c r="BK275">
+        <v>1.92</v>
+      </c>
+      <c r="BL275">
+        <v>1.87</v>
+      </c>
+      <c r="BM275">
+        <v>2.44</v>
+      </c>
+      <c r="BN275">
+        <v>1.52</v>
+      </c>
+      <c r="BO275">
+        <v>3</v>
+      </c>
+      <c r="BP275">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['80', '90+1']</t>
   </si>
   <si>
+    <t>['48', '66', '85']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1091,6 +1094,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1717,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1792,7 +1798,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ2">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2123,7 +2129,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2329,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2535,7 +2541,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2819,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>2.19</v>
@@ -3025,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
         <v>0.61</v>
@@ -3153,7 +3159,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3440,7 +3446,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3771,7 +3777,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4058,7 +4064,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4389,7 +4395,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -4467,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4673,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5007,7 +5013,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5291,10 +5297,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR19">
         <v>0.34</v>
@@ -6118,7 +6124,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ23">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -6243,7 +6249,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6449,7 +6455,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6527,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
         <v>2.31</v>
@@ -6733,10 +6739,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.16</v>
@@ -8175,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
         <v>1.11</v>
@@ -8303,7 +8309,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8921,7 +8927,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9002,7 +9008,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ37">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9333,7 +9339,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9411,7 +9417,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9951,7 +9957,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10029,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>2.19</v>
@@ -10157,7 +10163,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10650,7 +10656,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -10981,7 +10987,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11059,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
         <v>1.44</v>
@@ -11599,7 +11605,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11886,7 +11892,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ51">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
         <v>2.65</v>
@@ -12011,7 +12017,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12217,7 +12223,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12501,7 +12507,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>1.35</v>
@@ -12835,7 +12841,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12913,10 +12919,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ56">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR56">
         <v>1.49</v>
@@ -13041,7 +13047,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13740,7 +13746,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -14152,7 +14158,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ62">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -14277,7 +14283,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14483,7 +14489,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14689,7 +14695,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15101,7 +15107,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15179,10 +15185,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
         <v>1.41</v>
@@ -15307,7 +15313,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15591,10 +15597,10 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR69">
         <v>1.18</v>
@@ -15925,7 +15931,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16624,7 +16630,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ74">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16955,7 +16961,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17033,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
         <v>2.31</v>
@@ -17573,7 +17579,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17651,7 +17657,7 @@
         <v>0.6</v>
       </c>
       <c r="AP79">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79">
         <v>0.61</v>
@@ -17779,7 +17785,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17985,7 +17991,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18191,7 +18197,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18272,7 +18278,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18397,7 +18403,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18809,7 +18815,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18887,7 +18893,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
         <v>1.29</v>
@@ -19015,7 +19021,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19096,7 +19102,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -19302,7 +19308,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR87">
         <v>1.68</v>
@@ -19505,7 +19511,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ88">
         <v>1.35</v>
@@ -19633,7 +19639,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19917,7 +19923,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>0.9399999999999999</v>
@@ -20045,7 +20051,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20251,7 +20257,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20869,7 +20875,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21281,7 +21287,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21487,7 +21493,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -21980,7 +21986,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
         <v>2.51</v>
@@ -22186,7 +22192,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ101">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR101">
         <v>1.34</v>
@@ -22311,7 +22317,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22392,7 +22398,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ102">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -22517,7 +22523,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22595,7 +22601,7 @@
         <v>0.86</v>
       </c>
       <c r="AP103">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
         <v>1.11</v>
@@ -22801,7 +22807,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
         <v>1.29</v>
@@ -22929,7 +22935,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23213,7 +23219,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -24165,7 +24171,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24246,7 +24252,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.82</v>
@@ -25813,7 +25819,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26100,7 +26106,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26637,7 +26643,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -26715,7 +26721,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ123">
         <v>1.28</v>
@@ -26924,7 +26930,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ124">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR124">
         <v>1.16</v>
@@ -28079,7 +28085,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28157,7 +28163,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ130">
         <v>1.35</v>
@@ -28572,7 +28578,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ132">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR132">
         <v>1.33</v>
@@ -28697,7 +28703,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28903,7 +28909,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -29109,7 +29115,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29315,7 +29321,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29599,7 +29605,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
         <v>1.44</v>
@@ -29727,7 +29733,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29808,7 +29814,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
         <v>1.82</v>
@@ -29933,7 +29939,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30220,7 +30226,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ140">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -30345,7 +30351,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30551,7 +30557,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30757,7 +30763,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30835,7 +30841,7 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
         <v>1.56</v>
@@ -30963,7 +30969,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31169,7 +31175,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31375,7 +31381,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31453,7 +31459,7 @@
         <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
         <v>1.29</v>
@@ -31581,7 +31587,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -32486,7 +32492,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32689,7 +32695,7 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
         <v>1.06</v>
@@ -33101,7 +33107,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
         <v>1.56</v>
@@ -33229,7 +33235,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33641,7 +33647,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33928,7 +33934,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -34134,7 +34140,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ159">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34543,7 +34549,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ161">
         <v>1.28</v>
@@ -34958,7 +34964,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ163">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR163">
         <v>1.28</v>
@@ -35083,7 +35089,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35289,7 +35295,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35495,7 +35501,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36113,7 +36119,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36191,10 +36197,10 @@
         <v>0.7</v>
       </c>
       <c r="AP169">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
         <v>1.33</v>
@@ -36400,7 +36406,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR170">
         <v>1.98</v>
@@ -36525,7 +36531,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -37143,7 +37149,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37221,7 +37227,7 @@
         <v>0.7</v>
       </c>
       <c r="AP174">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ174">
         <v>0.9399999999999999</v>
@@ -37555,7 +37561,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37761,7 +37767,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37967,7 +37973,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38173,7 +38179,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38379,7 +38385,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38666,7 +38672,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ181">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR181">
         <v>1.81</v>
@@ -39078,7 +39084,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.38</v>
@@ -39203,7 +39209,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39281,7 +39287,7 @@
         <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ184">
         <v>1.56</v>
@@ -39490,7 +39496,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ185">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39615,7 +39621,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39693,7 +39699,7 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -39821,7 +39827,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40233,7 +40239,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40311,7 +40317,7 @@
         <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
         <v>1.06</v>
@@ -40645,7 +40651,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40851,7 +40857,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41057,7 +41063,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41469,7 +41475,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41675,7 +41681,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42087,7 +42093,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42168,7 +42174,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
         <v>1.37</v>
@@ -42371,7 +42377,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -42786,7 +42792,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ201">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR201">
         <v>1.13</v>
@@ -42911,7 +42917,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -43323,7 +43329,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43401,7 +43407,7 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ204">
         <v>0.71</v>
@@ -43529,7 +43535,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -43813,7 +43819,7 @@
         <v>2.17</v>
       </c>
       <c r="AP206">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
         <v>2.19</v>
@@ -44228,7 +44234,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ208">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR208">
         <v>1.4</v>
@@ -44353,7 +44359,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44640,7 +44646,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ210">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR210">
         <v>1.3</v>
@@ -44765,7 +44771,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44971,7 +44977,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45589,7 +45595,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46079,10 +46085,10 @@
         <v>0.38</v>
       </c>
       <c r="AP217">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ217">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR217">
         <v>1.38</v>
@@ -46207,7 +46213,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46413,7 +46419,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46825,7 +46831,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47109,7 +47115,7 @@
         <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222">
         <v>0.9399999999999999</v>
@@ -47521,10 +47527,10 @@
         <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ224">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR224">
         <v>1.33</v>
@@ -48061,7 +48067,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48142,7 +48148,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ227">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
         <v>1.88</v>
@@ -48267,7 +48273,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48473,7 +48479,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48885,7 +48891,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -49581,10 +49587,10 @@
         <v>0.36</v>
       </c>
       <c r="AP234">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR234">
         <v>1.33</v>
@@ -50121,7 +50127,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50199,7 +50205,7 @@
         <v>2.43</v>
       </c>
       <c r="AP237">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ237">
         <v>2.31</v>
@@ -50408,7 +50414,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR238">
         <v>1.95</v>
@@ -50739,7 +50745,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50817,7 +50823,7 @@
         <v>1.21</v>
       </c>
       <c r="AP240">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ240">
         <v>1.11</v>
@@ -50945,7 +50951,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51151,7 +51157,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51357,7 +51363,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51769,7 +51775,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51847,7 +51853,7 @@
         <v>1.07</v>
       </c>
       <c r="AP245">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ245">
         <v>1.28</v>
@@ -51975,7 +51981,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52387,7 +52393,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52674,7 +52680,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ249">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR249">
         <v>1.53</v>
@@ -53211,7 +53217,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53417,7 +53423,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54116,7 +54122,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ256">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR256">
         <v>1.55</v>
@@ -54447,7 +54453,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54731,7 +54737,7 @@
         <v>0.73</v>
       </c>
       <c r="AP259">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ259">
         <v>0.71</v>
@@ -54859,7 +54865,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -54940,7 +54946,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ260">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR260">
         <v>1.13</v>
@@ -55065,7 +55071,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55143,7 +55149,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP261">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ261">
         <v>0.61</v>
@@ -55349,10 +55355,10 @@
         <v>0.67</v>
       </c>
       <c r="AP262">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ262">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR262">
         <v>1.44</v>
@@ -55477,7 +55483,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q263">
         <v>1.69</v>
@@ -55683,7 +55689,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q264">
         <v>3.75</v>
@@ -56713,7 +56719,7 @@
         <v>91</v>
       </c>
       <c r="P269" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q269">
         <v>3.11</v>
@@ -57125,7 +57131,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q271">
         <v>4.9</v>
@@ -57537,7 +57543,7 @@
         <v>250</v>
       </c>
       <c r="P273" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q273">
         <v>3.25</v>
@@ -57743,7 +57749,7 @@
         <v>251</v>
       </c>
       <c r="P274" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q274">
         <v>2.3</v>
@@ -58106,6 +58112,624 @@
       </c>
       <c r="BP275">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7420761</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45437.60416666666</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>83</v>
+      </c>
+      <c r="H276" t="s">
+        <v>84</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>148</v>
+      </c>
+      <c r="P276" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q276">
+        <v>2.15</v>
+      </c>
+      <c r="R276">
+        <v>2.23</v>
+      </c>
+      <c r="S276">
+        <v>5.64</v>
+      </c>
+      <c r="T276">
+        <v>1.4</v>
+      </c>
+      <c r="U276">
+        <v>2.8</v>
+      </c>
+      <c r="V276">
+        <v>2.85</v>
+      </c>
+      <c r="W276">
+        <v>1.39</v>
+      </c>
+      <c r="X276">
+        <v>7.5</v>
+      </c>
+      <c r="Y276">
+        <v>1.07</v>
+      </c>
+      <c r="Z276">
+        <v>1.6</v>
+      </c>
+      <c r="AA276">
+        <v>3.8</v>
+      </c>
+      <c r="AB276">
+        <v>4.6</v>
+      </c>
+      <c r="AC276">
+        <v>1.04</v>
+      </c>
+      <c r="AD276">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE276">
+        <v>1.32</v>
+      </c>
+      <c r="AF276">
+        <v>3.19</v>
+      </c>
+      <c r="AG276">
+        <v>1.8</v>
+      </c>
+      <c r="AH276">
+        <v>1.95</v>
+      </c>
+      <c r="AI276">
+        <v>2.05</v>
+      </c>
+      <c r="AJ276">
+        <v>1.73</v>
+      </c>
+      <c r="AK276">
+        <v>1.14</v>
+      </c>
+      <c r="AL276">
+        <v>1.27</v>
+      </c>
+      <c r="AM276">
+        <v>2.3</v>
+      </c>
+      <c r="AN276">
+        <v>1.19</v>
+      </c>
+      <c r="AO276">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP276">
+        <v>1.29</v>
+      </c>
+      <c r="AQ276">
+        <v>0.76</v>
+      </c>
+      <c r="AR276">
+        <v>1.37</v>
+      </c>
+      <c r="AS276">
+        <v>1.26</v>
+      </c>
+      <c r="AT276">
+        <v>2.63</v>
+      </c>
+      <c r="AU276">
+        <v>7</v>
+      </c>
+      <c r="AV276">
+        <v>0</v>
+      </c>
+      <c r="AW276">
+        <v>4</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>11</v>
+      </c>
+      <c r="AZ276">
+        <v>4</v>
+      </c>
+      <c r="BA276">
+        <v>7</v>
+      </c>
+      <c r="BB276">
+        <v>3</v>
+      </c>
+      <c r="BC276">
+        <v>10</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7420760</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45437.60416666666</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>76</v>
+      </c>
+      <c r="H277" t="s">
+        <v>70</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>106</v>
+      </c>
+      <c r="P277" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q277">
+        <v>6.16</v>
+      </c>
+      <c r="R277">
+        <v>2.27</v>
+      </c>
+      <c r="S277">
+        <v>2.01</v>
+      </c>
+      <c r="T277">
+        <v>1.36</v>
+      </c>
+      <c r="U277">
+        <v>2.88</v>
+      </c>
+      <c r="V277">
+        <v>2.87</v>
+      </c>
+      <c r="W277">
+        <v>1.36</v>
+      </c>
+      <c r="X277">
+        <v>7.2</v>
+      </c>
+      <c r="Y277">
+        <v>1.08</v>
+      </c>
+      <c r="Z277">
+        <v>4.2</v>
+      </c>
+      <c r="AA277">
+        <v>3.7</v>
+      </c>
+      <c r="AB277">
+        <v>1.73</v>
+      </c>
+      <c r="AC277">
+        <v>1.03</v>
+      </c>
+      <c r="AD277">
+        <v>9</v>
+      </c>
+      <c r="AE277">
+        <v>1.3</v>
+      </c>
+      <c r="AF277">
+        <v>3.2</v>
+      </c>
+      <c r="AG277">
+        <v>1.85</v>
+      </c>
+      <c r="AH277">
+        <v>1.85</v>
+      </c>
+      <c r="AI277">
+        <v>2</v>
+      </c>
+      <c r="AJ277">
+        <v>1.77</v>
+      </c>
+      <c r="AK277">
+        <v>2.44</v>
+      </c>
+      <c r="AL277">
+        <v>1.22</v>
+      </c>
+      <c r="AM277">
+        <v>1.11</v>
+      </c>
+      <c r="AN277">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO277">
+        <v>1</v>
+      </c>
+      <c r="AP277">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ277">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR277">
+        <v>1.35</v>
+      </c>
+      <c r="AS277">
+        <v>1.08</v>
+      </c>
+      <c r="AT277">
+        <v>2.43</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>2</v>
+      </c>
+      <c r="AW277">
+        <v>6</v>
+      </c>
+      <c r="AX277">
+        <v>5</v>
+      </c>
+      <c r="AY277">
+        <v>10</v>
+      </c>
+      <c r="AZ277">
+        <v>7</v>
+      </c>
+      <c r="BA277">
+        <v>2</v>
+      </c>
+      <c r="BB277">
+        <v>1</v>
+      </c>
+      <c r="BC277">
+        <v>3</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7420759</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45437.60416666666</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+      <c r="G278" t="s">
+        <v>75</v>
+      </c>
+      <c r="H278" t="s">
+        <v>77</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>4</v>
+      </c>
+      <c r="O278" t="s">
+        <v>252</v>
+      </c>
+      <c r="P278" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q278">
+        <v>1.8</v>
+      </c>
+      <c r="R278">
+        <v>2.44</v>
+      </c>
+      <c r="S278">
+        <v>7.7</v>
+      </c>
+      <c r="T278">
+        <v>1.31</v>
+      </c>
+      <c r="U278">
+        <v>3.27</v>
+      </c>
+      <c r="V278">
+        <v>2.59</v>
+      </c>
+      <c r="W278">
+        <v>1.46</v>
+      </c>
+      <c r="X278">
+        <v>6.1</v>
+      </c>
+      <c r="Y278">
+        <v>1.1</v>
+      </c>
+      <c r="Z278">
+        <v>1.44</v>
+      </c>
+      <c r="AA278">
+        <v>4.2</v>
+      </c>
+      <c r="AB278">
+        <v>6</v>
+      </c>
+      <c r="AC278">
+        <v>1.02</v>
+      </c>
+      <c r="AD278">
+        <v>10</v>
+      </c>
+      <c r="AE278">
+        <v>1.22</v>
+      </c>
+      <c r="AF278">
+        <v>3.8</v>
+      </c>
+      <c r="AG278">
+        <v>1.85</v>
+      </c>
+      <c r="AH278">
+        <v>1.85</v>
+      </c>
+      <c r="AI278">
+        <v>2.07</v>
+      </c>
+      <c r="AJ278">
+        <v>1.72</v>
+      </c>
+      <c r="AK278">
+        <v>1.07</v>
+      </c>
+      <c r="AL278">
+        <v>1.12</v>
+      </c>
+      <c r="AM278">
+        <v>2.51</v>
+      </c>
+      <c r="AN278">
+        <v>1.12</v>
+      </c>
+      <c r="AO278">
+        <v>0.35</v>
+      </c>
+      <c r="AP278">
+        <v>1.22</v>
+      </c>
+      <c r="AQ278">
+        <v>0.33</v>
+      </c>
+      <c r="AR278">
+        <v>1.45</v>
+      </c>
+      <c r="AS278">
+        <v>0.93</v>
+      </c>
+      <c r="AT278">
+        <v>2.38</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>3</v>
+      </c>
+      <c r="AW278">
+        <v>0</v>
+      </c>
+      <c r="AX278">
+        <v>3</v>
+      </c>
+      <c r="AY278">
+        <v>5</v>
+      </c>
+      <c r="AZ278">
+        <v>6</v>
+      </c>
+      <c r="BA278">
+        <v>8</v>
+      </c>
+      <c r="BB278">
+        <v>6</v>
+      </c>
+      <c r="BC278">
+        <v>14</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>0</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>0</v>
+      </c>
+      <c r="BI278">
+        <v>0</v>
+      </c>
+      <c r="BJ278">
+        <v>0</v>
+      </c>
+      <c r="BK278">
+        <v>0</v>
+      </c>
+      <c r="BL278">
+        <v>0</v>
+      </c>
+      <c r="BM278">
+        <v>0</v>
+      </c>
+      <c r="BN278">
+        <v>0</v>
+      </c>
+      <c r="BO278">
+        <v>0</v>
+      </c>
+      <c r="BP278">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['48', '66', '85']</t>
   </si>
   <si>
+    <t>['34', '80', '86']</t>
+  </si>
+  <si>
     <t>['45+3', '50']</t>
   </si>
   <si>
@@ -1458,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1720,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2004,7 +2007,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2129,7 +2132,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2207,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -2335,7 +2338,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q5">
         <v>3.5</v>
@@ -2541,7 +2544,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2619,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>1.11</v>
@@ -2828,7 +2831,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3159,7 +3162,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3652,7 +3655,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ11">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3777,7 +3780,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>4.33</v>
@@ -4267,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ14">
         <v>0.71</v>
@@ -4395,7 +4398,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q15">
         <v>3.85</v>
@@ -5013,7 +5016,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>4.8</v>
@@ -5709,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ21">
         <v>1.28</v>
@@ -5915,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>0.61</v>
@@ -6121,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -6249,7 +6252,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6455,7 +6458,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6536,7 +6539,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR25">
         <v>2.01</v>
@@ -7151,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1.56</v>
@@ -7566,7 +7569,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ30">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>0.89</v>
@@ -8309,7 +8312,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8593,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ35">
         <v>0.61</v>
@@ -8802,7 +8805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR36">
         <v>3.37</v>
@@ -8927,7 +8930,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9339,7 +9342,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9623,7 +9626,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -9957,7 +9960,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10038,7 +10041,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR42">
         <v>1.29</v>
@@ -10163,7 +10166,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10244,7 +10247,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ43">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10447,10 +10450,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ44">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR44">
         <v>1.98</v>
@@ -10987,7 +10990,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11605,7 +11608,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -12017,7 +12020,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q52">
         <v>4.33</v>
@@ -12223,7 +12226,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12841,7 +12844,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13047,7 +13050,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13128,7 +13131,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ57">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR57">
         <v>0.96</v>
@@ -13331,10 +13334,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
         <v>1.45</v>
@@ -13537,7 +13540,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ59">
         <v>0.71</v>
@@ -13743,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -14155,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ62">
         <v>0.76</v>
@@ -14283,7 +14286,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>3.1</v>
@@ -14489,7 +14492,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14695,7 +14698,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -15107,7 +15110,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15313,7 +15316,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15931,7 +15934,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16012,7 +16015,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ71">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -16421,7 +16424,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16627,7 +16630,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ74">
         <v>0.33</v>
@@ -16836,7 +16839,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.08</v>
@@ -16961,7 +16964,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17042,7 +17045,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR76">
         <v>1.74</v>
@@ -17451,7 +17454,7 @@
         <v>1.2</v>
       </c>
       <c r="AP78">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ78">
         <v>1.11</v>
@@ -17579,7 +17582,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17785,7 +17788,7 @@
         <v>91</v>
       </c>
       <c r="P80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q80">
         <v>5.5</v>
@@ -17991,7 +17994,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>1.83</v>
@@ -18197,7 +18200,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18403,7 +18406,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18815,7 +18818,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -19021,7 +19024,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19639,7 +19642,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19717,10 +19720,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR89">
         <v>2.26</v>
@@ -19926,7 +19929,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -20051,7 +20054,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20257,7 +20260,7 @@
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20335,10 +20338,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR92">
         <v>1.46</v>
@@ -20875,7 +20878,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>3.22</v>
@@ -21287,7 +21290,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>2.43</v>
@@ -21365,7 +21368,7 @@
         <v>2.6</v>
       </c>
       <c r="AP97">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21493,7 +21496,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q98">
         <v>3.38</v>
@@ -22317,7 +22320,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -22395,7 +22398,7 @@
         <v>0.57</v>
       </c>
       <c r="AP102">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
         <v>0.76</v>
@@ -22523,7 +22526,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22935,7 +22938,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>10</v>
@@ -23016,7 +23019,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ105">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR105">
         <v>1.11</v>
@@ -23425,7 +23428,7 @@
         <v>1.86</v>
       </c>
       <c r="AP107">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ107">
         <v>1.35</v>
@@ -23634,7 +23637,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ108">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -24171,7 +24174,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24249,7 +24252,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ111">
         <v>0.9399999999999999</v>
@@ -24664,7 +24667,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -25488,7 +25491,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ117">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25819,7 +25822,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25900,7 +25903,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR119">
         <v>1.32</v>
@@ -26518,7 +26521,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ122">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR122">
         <v>2.7</v>
@@ -26643,7 +26646,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -27339,7 +27342,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ126">
         <v>1.06</v>
@@ -27957,7 +27960,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
         <v>1.28</v>
@@ -28085,7 +28088,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>3.6</v>
@@ -28703,7 +28706,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -28784,7 +28787,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ133">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR133">
         <v>1.35</v>
@@ -28909,7 +28912,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>2.1</v>
@@ -28987,7 +28990,7 @@
         <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ134">
         <v>1.11</v>
@@ -29115,7 +29118,7 @@
         <v>91</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>11</v>
@@ -29196,7 +29199,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ135">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29321,7 +29324,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29733,7 +29736,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29939,7 +29942,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>1.91</v>
@@ -30017,10 +30020,10 @@
         <v>0.5</v>
       </c>
       <c r="AP139">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ139">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR139">
         <v>1.89</v>
@@ -30351,7 +30354,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>3.7</v>
@@ -30557,7 +30560,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>1.62</v>
@@ -30763,7 +30766,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>7.5</v>
@@ -30969,7 +30972,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31175,7 +31178,7 @@
         <v>155</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -31256,7 +31259,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ145">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR145">
         <v>1.26</v>
@@ -31381,7 +31384,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31587,7 +31590,7 @@
         <v>157</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -31871,7 +31874,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ148">
         <v>1.44</v>
@@ -32901,7 +32904,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33235,7 +33238,7 @@
         <v>91</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>1.95</v>
@@ -33316,7 +33319,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR155">
         <v>1.6</v>
@@ -33647,7 +33650,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33728,7 +33731,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ157">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR157">
         <v>1.81</v>
@@ -33931,7 +33934,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -35089,7 +35092,7 @@
         <v>166</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>7.5</v>
@@ -35295,7 +35298,7 @@
         <v>189</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35501,7 +35504,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -36119,7 +36122,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36531,7 +36534,7 @@
         <v>145</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>2.2</v>
@@ -36609,7 +36612,7 @@
         <v>0.7</v>
       </c>
       <c r="AP171">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
         <v>0.71</v>
@@ -36815,10 +36818,10 @@
         <v>2.3</v>
       </c>
       <c r="AP172">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ172">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR172">
         <v>1.8</v>
@@ -37021,7 +37024,7 @@
         <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ173">
         <v>1.06</v>
@@ -37149,7 +37152,7 @@
         <v>91</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37230,7 +37233,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
         <v>1.36</v>
@@ -37561,7 +37564,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -37642,7 +37645,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ176">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37767,7 +37770,7 @@
         <v>198</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37845,7 +37848,7 @@
         <v>0.36</v>
       </c>
       <c r="AP177">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ177">
         <v>0.61</v>
@@ -37973,7 +37976,7 @@
         <v>95</v>
       </c>
       <c r="P178" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38179,7 +38182,7 @@
         <v>199</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38385,7 +38388,7 @@
         <v>200</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -39209,7 +39212,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -39493,7 +39496,7 @@
         <v>0.45</v>
       </c>
       <c r="AP185">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ185">
         <v>0.33</v>
@@ -39621,7 +39624,7 @@
         <v>94</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>3.67</v>
@@ -39827,7 +39830,7 @@
         <v>142</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39908,7 +39911,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ187">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR187">
         <v>1.41</v>
@@ -40239,7 +40242,7 @@
         <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>4.75</v>
@@ -40523,10 +40526,10 @@
         <v>0.91</v>
       </c>
       <c r="AP190">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ190">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR190">
         <v>2.05</v>
@@ -40651,7 +40654,7 @@
         <v>91</v>
       </c>
       <c r="P191" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40732,7 +40735,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ191">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR191">
         <v>1.96</v>
@@ -40857,7 +40860,7 @@
         <v>206</v>
       </c>
       <c r="P192" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -41063,7 +41066,7 @@
         <v>207</v>
       </c>
       <c r="P193" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>2.55</v>
@@ -41347,7 +41350,7 @@
         <v>1.5</v>
       </c>
       <c r="AP194">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ194">
         <v>1.29</v>
@@ -41475,7 +41478,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>2.8</v>
@@ -41681,7 +41684,7 @@
         <v>91</v>
       </c>
       <c r="P196" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q196">
         <v>10.29</v>
@@ -42093,7 +42096,7 @@
         <v>211</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q198">
         <v>2.25</v>
@@ -42917,7 +42920,7 @@
         <v>190</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q202">
         <v>2.6</v>
@@ -42998,7 +43001,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ202">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR202">
         <v>1.48</v>
@@ -43201,7 +43204,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ203">
         <v>1</v>
@@ -43329,7 +43332,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43535,7 +43538,7 @@
         <v>206</v>
       </c>
       <c r="P205" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>6.5</v>
@@ -43613,10 +43616,10 @@
         <v>2.27</v>
       </c>
       <c r="AP205">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR205">
         <v>1.53</v>
@@ -43822,7 +43825,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
         <v>1.33</v>
@@ -44359,7 +44362,7 @@
         <v>216</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -44771,7 +44774,7 @@
         <v>217</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q211">
         <v>2.63</v>
@@ -44977,7 +44980,7 @@
         <v>116</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q212">
         <v>2.05</v>
@@ -45595,7 +45598,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45879,7 +45882,7 @@
         <v>1.23</v>
       </c>
       <c r="AP216">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ216">
         <v>1.28</v>
@@ -46213,7 +46216,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q218">
         <v>2.75</v>
@@ -46419,7 +46422,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q219">
         <v>3.6</v>
@@ -46497,10 +46500,10 @@
         <v>2.23</v>
       </c>
       <c r="AP219">
+        <v>2.12</v>
+      </c>
+      <c r="AQ219">
         <v>2.06</v>
-      </c>
-      <c r="AQ219">
-        <v>2.19</v>
       </c>
       <c r="AR219">
         <v>2.04</v>
@@ -46831,7 +46834,7 @@
         <v>91</v>
       </c>
       <c r="P221" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -46912,7 +46915,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ221">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR221">
         <v>1.14</v>
@@ -47118,7 +47121,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ222">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR222">
         <v>1.32</v>
@@ -47321,7 +47324,7 @@
         <v>1.38</v>
       </c>
       <c r="AP223">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ223">
         <v>1.35</v>
@@ -47736,7 +47739,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR225">
         <v>1.49</v>
@@ -48067,7 +48070,7 @@
         <v>224</v>
       </c>
       <c r="P227" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q227">
         <v>1.53</v>
@@ -48273,7 +48276,7 @@
         <v>225</v>
       </c>
       <c r="P228" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q228">
         <v>1.83</v>
@@ -48479,7 +48482,7 @@
         <v>226</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48557,7 +48560,7 @@
         <v>1.57</v>
       </c>
       <c r="AP229">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ229">
         <v>1.56</v>
@@ -48766,7 +48769,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ230">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR230">
         <v>1.27</v>
@@ -48891,7 +48894,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>4.33</v>
@@ -50127,7 +50130,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q237">
         <v>9.5</v>
@@ -50208,7 +50211,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ237">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR237">
         <v>1.45</v>
@@ -50411,7 +50414,7 @@
         <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ238">
         <v>0.76</v>
@@ -50617,7 +50620,7 @@
         <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ239">
         <v>1.29</v>
@@ -50745,7 +50748,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q240">
         <v>4.5</v>
@@ -50951,7 +50954,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51032,7 +51035,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ241">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR241">
         <v>1.47</v>
@@ -51157,7 +51160,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51363,7 +51366,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q243">
         <v>2.72</v>
@@ -51775,7 +51778,7 @@
         <v>91</v>
       </c>
       <c r="P245" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -51981,7 +51984,7 @@
         <v>236</v>
       </c>
       <c r="P246" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q246">
         <v>1.57</v>
@@ -52062,7 +52065,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ246">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR246">
         <v>2.41</v>
@@ -52265,7 +52268,7 @@
         <v>1.73</v>
       </c>
       <c r="AP247">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ247">
         <v>1.44</v>
@@ -52393,7 +52396,7 @@
         <v>185</v>
       </c>
       <c r="P248" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53217,7 +53220,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q252">
         <v>2.6</v>
@@ -53423,7 +53426,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53916,7 +53919,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ255">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR255">
         <v>2.46</v>
@@ -54325,7 +54328,7 @@
         <v>1.27</v>
       </c>
       <c r="AP257">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ257">
         <v>1.35</v>
@@ -54453,7 +54456,7 @@
         <v>99</v>
       </c>
       <c r="P258" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q258">
         <v>4.75</v>
@@ -54865,7 +54868,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q260">
         <v>1.91</v>
@@ -55071,7 +55074,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q261">
         <v>2.88</v>
@@ -55483,7 +55486,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q263">
         <v>1.69</v>
@@ -55564,7 +55567,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ263">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR263">
         <v>1.92</v>
@@ -55689,7 +55692,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q264">
         <v>3.75</v>
@@ -55767,7 +55770,7 @@
         <v>1.38</v>
       </c>
       <c r="AP264">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ264">
         <v>1.56</v>
@@ -55973,10 +55976,10 @@
         <v>2.47</v>
       </c>
       <c r="AP265">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AQ265">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR265">
         <v>1.84</v>
@@ -56719,7 +56722,7 @@
         <v>91</v>
       </c>
       <c r="P269" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q269">
         <v>3.11</v>
@@ -57131,7 +57134,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q271">
         <v>4.9</v>
@@ -57543,7 +57546,7 @@
         <v>250</v>
       </c>
       <c r="P273" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q273">
         <v>3.25</v>
@@ -57749,7 +57752,7 @@
         <v>251</v>
       </c>
       <c r="P274" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q274">
         <v>2.3</v>
@@ -58573,7 +58576,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q278">
         <v>1.8</v>
@@ -58730,6 +58733,624 @@
       </c>
       <c r="BP278">
         <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7420965</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279" t="s">
+        <v>81</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" t="s">
+        <v>111</v>
+      </c>
+      <c r="P279" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q279">
+        <v>3.3</v>
+      </c>
+      <c r="R279">
+        <v>2.15</v>
+      </c>
+      <c r="S279">
+        <v>3</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3</v>
+      </c>
+      <c r="V279">
+        <v>2.6</v>
+      </c>
+      <c r="W279">
+        <v>1.44</v>
+      </c>
+      <c r="X279">
+        <v>6</v>
+      </c>
+      <c r="Y279">
+        <v>1.09</v>
+      </c>
+      <c r="Z279">
+        <v>2.15</v>
+      </c>
+      <c r="AA279">
+        <v>3.16</v>
+      </c>
+      <c r="AB279">
+        <v>2.77</v>
+      </c>
+      <c r="AC279">
+        <v>1.02</v>
+      </c>
+      <c r="AD279">
+        <v>10</v>
+      </c>
+      <c r="AE279">
+        <v>1.25</v>
+      </c>
+      <c r="AF279">
+        <v>3.6</v>
+      </c>
+      <c r="AG279">
+        <v>1.73</v>
+      </c>
+      <c r="AH279">
+        <v>2.03</v>
+      </c>
+      <c r="AI279">
+        <v>1.65</v>
+      </c>
+      <c r="AJ279">
+        <v>2.1</v>
+      </c>
+      <c r="AK279">
+        <v>1.55</v>
+      </c>
+      <c r="AL279">
+        <v>1.35</v>
+      </c>
+      <c r="AM279">
+        <v>1.4</v>
+      </c>
+      <c r="AN279">
+        <v>2.06</v>
+      </c>
+      <c r="AO279">
+        <v>2.31</v>
+      </c>
+      <c r="AP279">
+        <v>2.12</v>
+      </c>
+      <c r="AQ279">
+        <v>2.18</v>
+      </c>
+      <c r="AR279">
+        <v>1.98</v>
+      </c>
+      <c r="AS279">
+        <v>2</v>
+      </c>
+      <c r="AT279">
+        <v>3.98</v>
+      </c>
+      <c r="AU279">
+        <v>7</v>
+      </c>
+      <c r="AV279">
+        <v>3</v>
+      </c>
+      <c r="AW279">
+        <v>14</v>
+      </c>
+      <c r="AX279">
+        <v>1</v>
+      </c>
+      <c r="AY279">
+        <v>21</v>
+      </c>
+      <c r="AZ279">
+        <v>4</v>
+      </c>
+      <c r="BA279">
+        <v>9</v>
+      </c>
+      <c r="BB279">
+        <v>1</v>
+      </c>
+      <c r="BC279">
+        <v>10</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7420963</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="G280" t="s">
+        <v>82</v>
+      </c>
+      <c r="H280" t="s">
+        <v>71</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>3</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>253</v>
+      </c>
+      <c r="P280" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q280">
+        <v>1.83</v>
+      </c>
+      <c r="R280">
+        <v>2.35</v>
+      </c>
+      <c r="S280">
+        <v>7.5</v>
+      </c>
+      <c r="T280">
+        <v>1.33</v>
+      </c>
+      <c r="U280">
+        <v>3.25</v>
+      </c>
+      <c r="V280">
+        <v>2.5</v>
+      </c>
+      <c r="W280">
+        <v>1.5</v>
+      </c>
+      <c r="X280">
+        <v>5.5</v>
+      </c>
+      <c r="Y280">
+        <v>1.12</v>
+      </c>
+      <c r="Z280">
+        <v>1.33</v>
+      </c>
+      <c r="AA280">
+        <v>4.5</v>
+      </c>
+      <c r="AB280">
+        <v>7.64</v>
+      </c>
+      <c r="AC280">
+        <v>1.01</v>
+      </c>
+      <c r="AD280">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE280">
+        <v>1.24</v>
+      </c>
+      <c r="AF280">
+        <v>3.48</v>
+      </c>
+      <c r="AG280">
+        <v>1.8</v>
+      </c>
+      <c r="AH280">
+        <v>1.9</v>
+      </c>
+      <c r="AI280">
+        <v>2.1</v>
+      </c>
+      <c r="AJ280">
+        <v>1.67</v>
+      </c>
+      <c r="AK280">
+        <v>1.05</v>
+      </c>
+      <c r="AL280">
+        <v>1.18</v>
+      </c>
+      <c r="AM280">
+        <v>3.1</v>
+      </c>
+      <c r="AN280">
+        <v>2.88</v>
+      </c>
+      <c r="AO280">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP280">
+        <v>2.89</v>
+      </c>
+      <c r="AQ280">
+        <v>0.89</v>
+      </c>
+      <c r="AR280">
+        <v>1.8</v>
+      </c>
+      <c r="AS280">
+        <v>1.39</v>
+      </c>
+      <c r="AT280">
+        <v>3.19</v>
+      </c>
+      <c r="AU280">
+        <v>8</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>6</v>
+      </c>
+      <c r="AX280">
+        <v>6</v>
+      </c>
+      <c r="AY280">
+        <v>14</v>
+      </c>
+      <c r="AZ280">
+        <v>10</v>
+      </c>
+      <c r="BA280">
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>3</v>
+      </c>
+      <c r="BC280">
+        <v>7</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7420964</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45438.60416666666</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="G281" t="s">
+        <v>74</v>
+      </c>
+      <c r="H281" t="s">
+        <v>79</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>190</v>
+      </c>
+      <c r="P281" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q281">
+        <v>5.65</v>
+      </c>
+      <c r="R281">
+        <v>2.19</v>
+      </c>
+      <c r="S281">
+        <v>2.12</v>
+      </c>
+      <c r="T281">
+        <v>1.36</v>
+      </c>
+      <c r="U281">
+        <v>3</v>
+      </c>
+      <c r="V281">
+        <v>2.62</v>
+      </c>
+      <c r="W281">
+        <v>1.44</v>
+      </c>
+      <c r="X281">
+        <v>6</v>
+      </c>
+      <c r="Y281">
+        <v>1.11</v>
+      </c>
+      <c r="Z281">
+        <v>3.6</v>
+      </c>
+      <c r="AA281">
+        <v>3.6</v>
+      </c>
+      <c r="AB281">
+        <v>1.77</v>
+      </c>
+      <c r="AC281">
+        <v>1.02</v>
+      </c>
+      <c r="AD281">
+        <v>9</v>
+      </c>
+      <c r="AE281">
+        <v>1.28</v>
+      </c>
+      <c r="AF281">
+        <v>3.2</v>
+      </c>
+      <c r="AG281">
+        <v>1.92</v>
+      </c>
+      <c r="AH281">
+        <v>1.84</v>
+      </c>
+      <c r="AI281">
+        <v>1.91</v>
+      </c>
+      <c r="AJ281">
+        <v>1.8</v>
+      </c>
+      <c r="AK281">
+        <v>2.38</v>
+      </c>
+      <c r="AL281">
+        <v>1.25</v>
+      </c>
+      <c r="AM281">
+        <v>1.11</v>
+      </c>
+      <c r="AN281">
+        <v>1.81</v>
+      </c>
+      <c r="AO281">
+        <v>2.19</v>
+      </c>
+      <c r="AP281">
+        <v>1.88</v>
+      </c>
+      <c r="AQ281">
+        <v>2.06</v>
+      </c>
+      <c r="AR281">
+        <v>1.49</v>
+      </c>
+      <c r="AS281">
+        <v>1.71</v>
+      </c>
+      <c r="AT281">
+        <v>3.2</v>
+      </c>
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>6</v>
+      </c>
+      <c r="AW281">
+        <v>5</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>10</v>
+      </c>
+      <c r="AZ281">
+        <v>9</v>
+      </c>
+      <c r="BA281">
+        <v>7</v>
+      </c>
+      <c r="BB281">
+        <v>6</v>
+      </c>
+      <c r="BC281">
+        <v>13</v>
+      </c>
+      <c r="BD281">
+        <v>3.08</v>
+      </c>
+      <c r="BE281">
+        <v>8.1</v>
+      </c>
+      <c r="BF281">
+        <v>1.52</v>
+      </c>
+      <c r="BG281">
+        <v>1.33</v>
+      </c>
+      <c r="BH281">
+        <v>2.91</v>
+      </c>
+      <c r="BI281">
+        <v>1.62</v>
+      </c>
+      <c r="BJ281">
+        <v>2.11</v>
+      </c>
+      <c r="BK281">
+        <v>2.06</v>
+      </c>
+      <c r="BL281">
+        <v>1.68</v>
+      </c>
+      <c r="BM281">
+        <v>2.71</v>
+      </c>
+      <c r="BN281">
+        <v>1.38</v>
+      </c>
+      <c r="BO281">
+        <v>3.74</v>
+      </c>
+      <c r="BP281">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -58881,13 +58881,13 @@
         <v>3</v>
       </c>
       <c r="AW279">
+        <v>7</v>
+      </c>
+      <c r="AX279">
+        <v>1</v>
+      </c>
+      <c r="AY279">
         <v>14</v>
-      </c>
-      <c r="AX279">
-        <v>1</v>
-      </c>
-      <c r="AY279">
-        <v>21</v>
       </c>
       <c r="AZ279">
         <v>4</v>
@@ -59081,22 +59081,22 @@
         <v>3.19</v>
       </c>
       <c r="AU280">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>5</v>
+      </c>
+      <c r="AX280">
         <v>4</v>
       </c>
-      <c r="AW280">
-        <v>6</v>
-      </c>
-      <c r="AX280">
-        <v>6</v>
-      </c>
       <c r="AY280">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ280">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA280">
         <v>4</v>
@@ -59287,22 +59287,22 @@
         <v>3.2</v>
       </c>
       <c r="AU281">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV281">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW281">
         <v>5</v>
       </c>
       <c r="AX281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY281">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ281">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA281">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1101,6 +1101,9 @@
   <si>
     <t>['45+3']</t>
   </si>
+  <si>
+    <t>['5', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2213,7 +2216,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3858,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
         <v>1.56</v>
@@ -4891,7 +4894,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ17">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6330,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -8390,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ34">
         <v>1.35</v>
@@ -9217,7 +9220,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR38">
         <v>1.25</v>
@@ -9629,7 +9632,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -10244,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -12098,10 +12101,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12307,7 +12310,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ53">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12716,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -14364,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ63">
         <v>1.28</v>
@@ -14985,7 +14988,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -16012,7 +16015,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71">
         <v>2.06</v>
@@ -17251,7 +17254,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR77">
         <v>1.04</v>
@@ -17866,7 +17869,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
         <v>1.56</v>
@@ -18487,7 +18490,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18899,7 +18902,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR85">
         <v>1.11</v>
@@ -19102,7 +19105,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
         <v>0.76</v>
@@ -21162,10 +21165,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ96">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -22813,7 +22816,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR104">
         <v>1.45</v>
@@ -24046,7 +24049,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
         <v>1.28</v>
@@ -24664,7 +24667,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ113">
         <v>0.89</v>
@@ -24873,7 +24876,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ114">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -25900,7 +25903,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ119">
         <v>2.18</v>
@@ -26312,7 +26315,7 @@
         <v>2.14</v>
       </c>
       <c r="AP121">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ121">
         <v>1.44</v>
@@ -26930,7 +26933,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ124">
         <v>0.33</v>
@@ -27345,7 +27348,7 @@
         <v>2.89</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
         <v>1.9</v>
@@ -27754,7 +27757,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
         <v>0.61</v>
@@ -28375,7 +28378,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ131">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR131">
         <v>1.12</v>
@@ -29814,7 +29817,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ138">
         <v>0.9399999999999999</v>
@@ -30435,7 +30438,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -31256,7 +31259,7 @@
         <v>2.44</v>
       </c>
       <c r="AP145">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
         <v>2.06</v>
@@ -31465,7 +31468,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -32701,7 +32704,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR152">
         <v>1.37</v>
@@ -33522,7 +33525,7 @@
         <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ156">
         <v>0.71</v>
@@ -34349,7 +34352,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR160">
         <v>1.58</v>
@@ -34964,7 +34967,7 @@
         <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
         <v>0.76</v>
@@ -35379,7 +35382,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ165">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR165">
         <v>1.33</v>
@@ -36406,7 +36409,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ170">
         <v>0.33</v>
@@ -37027,7 +37030,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ173">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR173">
         <v>2.01</v>
@@ -38466,7 +38469,7 @@
         <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
         <v>1.11</v>
@@ -38881,7 +38884,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR182">
         <v>2.41</v>
@@ -40323,7 +40326,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR189">
         <v>1.39</v>
@@ -40732,7 +40735,7 @@
         <v>2.2</v>
       </c>
       <c r="AP191">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ191">
         <v>2.18</v>
@@ -41353,7 +41356,7 @@
         <v>2.89</v>
       </c>
       <c r="AQ194">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR194">
         <v>1.76</v>
@@ -41556,7 +41559,7 @@
         <v>1.58</v>
       </c>
       <c r="AP195">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ195">
         <v>1.44</v>
@@ -42383,7 +42386,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ199">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR199">
         <v>1.41</v>
@@ -44028,7 +44031,7 @@
         <v>1.42</v>
       </c>
       <c r="AP207">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ207">
         <v>1.35</v>
@@ -44443,7 +44446,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ209">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR209">
         <v>1.26</v>
@@ -44646,7 +44649,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
@@ -46706,10 +46709,10 @@
         <v>1.38</v>
       </c>
       <c r="AP220">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ220">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR220">
         <v>1.83</v>
@@ -47942,7 +47945,7 @@
         <v>0.43</v>
       </c>
       <c r="AP226">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ226">
         <v>0.61</v>
@@ -48354,7 +48357,7 @@
         <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ228">
         <v>0.71</v>
@@ -49387,7 +49390,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ233">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR233">
         <v>2.36</v>
@@ -50623,7 +50626,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ239">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR239">
         <v>1.5</v>
@@ -51650,7 +51653,7 @@
         <v>0.8</v>
       </c>
       <c r="AP244">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ244">
         <v>1</v>
@@ -52477,7 +52480,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ248">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR248">
         <v>1.51</v>
@@ -52886,10 +52889,10 @@
         <v>1.06</v>
       </c>
       <c r="AP250">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ250">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
         <v>1.41</v>
@@ -53092,10 +53095,10 @@
         <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -56185,7 +56188,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ266">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR266">
         <v>1.49</v>
@@ -56388,7 +56391,7 @@
         <v>1.25</v>
       </c>
       <c r="AP267">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ267">
         <v>1.11</v>
@@ -58881,13 +58884,13 @@
         <v>3</v>
       </c>
       <c r="AW279">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AX279">
         <v>1</v>
       </c>
       <c r="AY279">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ279">
         <v>4</v>
@@ -59081,22 +59084,22 @@
         <v>3.19</v>
       </c>
       <c r="AU280">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV280">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW280">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX280">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY280">
+        <v>14</v>
+      </c>
+      <c r="AZ280">
         <v>10</v>
-      </c>
-      <c r="AZ280">
-        <v>7</v>
       </c>
       <c r="BA280">
         <v>4</v>
@@ -59287,22 +59290,22 @@
         <v>3.2</v>
       </c>
       <c r="AU281">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV281">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW281">
         <v>5</v>
       </c>
       <c r="AX281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY281">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ281">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA281">
         <v>7</v>
@@ -59351,6 +59354,418 @@
       </c>
       <c r="BP281">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7420763</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>80</v>
+      </c>
+      <c r="H282" t="s">
+        <v>73</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>91</v>
+      </c>
+      <c r="P282" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q282">
+        <v>4.28</v>
+      </c>
+      <c r="R282">
+        <v>2.49</v>
+      </c>
+      <c r="S282">
+        <v>2.32</v>
+      </c>
+      <c r="T282">
+        <v>1.37</v>
+      </c>
+      <c r="U282">
+        <v>2.89</v>
+      </c>
+      <c r="V282">
+        <v>2.37</v>
+      </c>
+      <c r="W282">
+        <v>1.56</v>
+      </c>
+      <c r="X282">
+        <v>5.4</v>
+      </c>
+      <c r="Y282">
+        <v>1.13</v>
+      </c>
+      <c r="Z282">
+        <v>3.62</v>
+      </c>
+      <c r="AA282">
+        <v>3.43</v>
+      </c>
+      <c r="AB282">
+        <v>1.85</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>11</v>
+      </c>
+      <c r="AE282">
+        <v>1.15</v>
+      </c>
+      <c r="AF282">
+        <v>4</v>
+      </c>
+      <c r="AG282">
+        <v>1.56</v>
+      </c>
+      <c r="AH282">
+        <v>2.32</v>
+      </c>
+      <c r="AI282">
+        <v>1.55</v>
+      </c>
+      <c r="AJ282">
+        <v>2.38</v>
+      </c>
+      <c r="AK282">
+        <v>1.92</v>
+      </c>
+      <c r="AL282">
+        <v>1.24</v>
+      </c>
+      <c r="AM282">
+        <v>1.25</v>
+      </c>
+      <c r="AN282">
+        <v>1.47</v>
+      </c>
+      <c r="AO282">
+        <v>1.06</v>
+      </c>
+      <c r="AP282">
+        <v>1.39</v>
+      </c>
+      <c r="AQ282">
+        <v>1.17</v>
+      </c>
+      <c r="AR282">
+        <v>1.85</v>
+      </c>
+      <c r="AS282">
+        <v>1.25</v>
+      </c>
+      <c r="AT282">
+        <v>3.1</v>
+      </c>
+      <c r="AU282">
+        <v>3</v>
+      </c>
+      <c r="AV282">
+        <v>4</v>
+      </c>
+      <c r="AW282">
+        <v>2</v>
+      </c>
+      <c r="AX282">
+        <v>5</v>
+      </c>
+      <c r="AY282">
+        <v>5</v>
+      </c>
+      <c r="AZ282">
+        <v>9</v>
+      </c>
+      <c r="BA282">
+        <v>1</v>
+      </c>
+      <c r="BB282">
+        <v>7</v>
+      </c>
+      <c r="BC282">
+        <v>8</v>
+      </c>
+      <c r="BD282">
+        <v>2.71</v>
+      </c>
+      <c r="BE282">
+        <v>10.5</v>
+      </c>
+      <c r="BF282">
+        <v>1.56</v>
+      </c>
+      <c r="BG282">
+        <v>0</v>
+      </c>
+      <c r="BH282">
+        <v>0</v>
+      </c>
+      <c r="BI282">
+        <v>1.11</v>
+      </c>
+      <c r="BJ282">
+        <v>5.15</v>
+      </c>
+      <c r="BK282">
+        <v>1.91</v>
+      </c>
+      <c r="BL282">
+        <v>1.8</v>
+      </c>
+      <c r="BM282">
+        <v>1.43</v>
+      </c>
+      <c r="BN282">
+        <v>2.54</v>
+      </c>
+      <c r="BO282">
+        <v>1.73</v>
+      </c>
+      <c r="BP282">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7420762</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>85</v>
+      </c>
+      <c r="H283" t="s">
+        <v>78</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" t="s">
+        <v>91</v>
+      </c>
+      <c r="P283" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q283">
+        <v>4.31</v>
+      </c>
+      <c r="R283">
+        <v>2.32</v>
+      </c>
+      <c r="S283">
+        <v>2.48</v>
+      </c>
+      <c r="T283">
+        <v>1.34</v>
+      </c>
+      <c r="U283">
+        <v>3.2</v>
+      </c>
+      <c r="V283">
+        <v>2.69</v>
+      </c>
+      <c r="W283">
+        <v>1.45</v>
+      </c>
+      <c r="X283">
+        <v>6.45</v>
+      </c>
+      <c r="Y283">
+        <v>1.09</v>
+      </c>
+      <c r="Z283">
+        <v>3.68</v>
+      </c>
+      <c r="AA283">
+        <v>3.45</v>
+      </c>
+      <c r="AB283">
+        <v>1.82</v>
+      </c>
+      <c r="AC283">
+        <v>1.02</v>
+      </c>
+      <c r="AD283">
+        <v>10</v>
+      </c>
+      <c r="AE283">
+        <v>1.25</v>
+      </c>
+      <c r="AF283">
+        <v>3.6</v>
+      </c>
+      <c r="AG283">
+        <v>1.77</v>
+      </c>
+      <c r="AH283">
+        <v>1.97</v>
+      </c>
+      <c r="AI283">
+        <v>1.68</v>
+      </c>
+      <c r="AJ283">
+        <v>2.13</v>
+      </c>
+      <c r="AK283">
+        <v>1.8</v>
+      </c>
+      <c r="AL283">
+        <v>1.27</v>
+      </c>
+      <c r="AM283">
+        <v>1.27</v>
+      </c>
+      <c r="AN283">
+        <v>1.47</v>
+      </c>
+      <c r="AO283">
+        <v>1.29</v>
+      </c>
+      <c r="AP283">
+        <v>1.39</v>
+      </c>
+      <c r="AQ283">
+        <v>1.39</v>
+      </c>
+      <c r="AR283">
+        <v>1.47</v>
+      </c>
+      <c r="AS283">
+        <v>1.41</v>
+      </c>
+      <c r="AT283">
+        <v>2.88</v>
+      </c>
+      <c r="AU283">
+        <v>4</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>8</v>
+      </c>
+      <c r="AY283">
+        <v>10</v>
+      </c>
+      <c r="AZ283">
+        <v>12</v>
+      </c>
+      <c r="BA283">
+        <v>4</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>9</v>
+      </c>
+      <c r="BD283">
+        <v>2.18</v>
+      </c>
+      <c r="BE283">
+        <v>8.5</v>
+      </c>
+      <c r="BF283">
+        <v>1.89</v>
+      </c>
+      <c r="BG283">
+        <v>1.29</v>
+      </c>
+      <c r="BH283">
+        <v>3.14</v>
+      </c>
+      <c r="BI283">
+        <v>1.54</v>
+      </c>
+      <c r="BJ283">
+        <v>2.25</v>
+      </c>
+      <c r="BK283">
+        <v>1.8</v>
+      </c>
+      <c r="BL283">
+        <v>1.91</v>
+      </c>
+      <c r="BM283">
+        <v>2.54</v>
+      </c>
+      <c r="BN283">
+        <v>1.43</v>
+      </c>
+      <c r="BO283">
+        <v>3.48</v>
+      </c>
+      <c r="BP283">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -59502,16 +59502,16 @@
         <v>4</v>
       </c>
       <c r="AW282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX282">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY282">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ282">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA282">
         <v>1</v>
@@ -59702,22 +59702,22 @@
         <v>2.88</v>
       </c>
       <c r="AU283">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV283">
         <v>4</v>
       </c>
       <c r="AW283">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX283">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AY283">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ283">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA283">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1104,6 +1104,9 @@
   <si>
     <t>['5', '63']</t>
   </si>
+  <si>
+    <t>['30', '53']</t>
+  </si>
 </sst>
 </file>
 
@@ -1464,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2216,7 +2219,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ4">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3655,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
         <v>0.89</v>
@@ -6951,7 +6954,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -9220,7 +9223,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
         <v>1.25</v>
@@ -11483,7 +11486,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ49">
         <v>1.35</v>
@@ -12104,7 +12107,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -14985,10 +14988,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ66">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -17254,7 +17257,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ77">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
         <v>1.04</v>
@@ -18693,7 +18696,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
         <v>1.28</v>
@@ -18902,7 +18905,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR85">
         <v>1.11</v>
@@ -20959,7 +20962,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -22816,7 +22819,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR104">
         <v>1.45</v>
@@ -24873,7 +24876,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ114">
         <v>1.17</v>
@@ -27139,7 +27142,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
         <v>0.71</v>
@@ -28378,7 +28381,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ131">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR131">
         <v>1.12</v>
@@ -30229,7 +30232,7 @@
         <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ140">
         <v>0.33</v>
@@ -30438,7 +30441,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -31468,7 +31471,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -33731,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="AP157">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ157">
         <v>2.18</v>
@@ -35382,7 +35385,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ165">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR165">
         <v>1.33</v>
@@ -35791,7 +35794,7 @@
         <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ167">
         <v>0.61</v>
@@ -38675,7 +38678,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ181">
         <v>0.76</v>
@@ -38884,7 +38887,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ182">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR182">
         <v>2.41</v>
@@ -41356,7 +41359,7 @@
         <v>2.89</v>
       </c>
       <c r="AQ194">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR194">
         <v>1.76</v>
@@ -42589,7 +42592,7 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ200">
         <v>1.11</v>
@@ -45061,7 +45064,7 @@
         <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ212">
         <v>1.44</v>
@@ -46712,7 +46715,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ220">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
         <v>1.83</v>
@@ -48151,7 +48154,7 @@
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ227">
         <v>0.9399999999999999</v>
@@ -50626,7 +50629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ239">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR239">
         <v>1.5</v>
@@ -51447,7 +51450,7 @@
         <v>1.47</v>
       </c>
       <c r="AP243">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ243">
         <v>1.56</v>
@@ -53098,7 +53101,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -55567,7 +55570,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP263">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ263">
         <v>0.89</v>
@@ -56188,7 +56191,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ266">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR266">
         <v>1.49</v>
@@ -58039,7 +58042,7 @@
         <v>1.25</v>
       </c>
       <c r="AP275">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ275">
         <v>1.35</v>
@@ -59690,7 +59693,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ283">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR283">
         <v>1.47</v>
@@ -59766,6 +59769,212 @@
       </c>
       <c r="BP283">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7441105</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45443.58333333334</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>79</v>
+      </c>
+      <c r="H284" t="s">
+        <v>78</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>91</v>
+      </c>
+      <c r="P284" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q284">
+        <v>2.6</v>
+      </c>
+      <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>5</v>
+      </c>
+      <c r="T284">
+        <v>1.41</v>
+      </c>
+      <c r="U284">
+        <v>2.8</v>
+      </c>
+      <c r="V284">
+        <v>2.9</v>
+      </c>
+      <c r="W284">
+        <v>1.39</v>
+      </c>
+      <c r="X284">
+        <v>7.5</v>
+      </c>
+      <c r="Y284">
+        <v>1.07</v>
+      </c>
+      <c r="Z284">
+        <v>1.85</v>
+      </c>
+      <c r="AA284">
+        <v>3.1</v>
+      </c>
+      <c r="AB284">
+        <v>4.2</v>
+      </c>
+      <c r="AC284">
+        <v>1.04</v>
+      </c>
+      <c r="AD284">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE284">
+        <v>1.33</v>
+      </c>
+      <c r="AF284">
+        <v>3.1</v>
+      </c>
+      <c r="AG284">
+        <v>2</v>
+      </c>
+      <c r="AH284">
+        <v>1.7</v>
+      </c>
+      <c r="AI284">
+        <v>1.97</v>
+      </c>
+      <c r="AJ284">
+        <v>1.79</v>
+      </c>
+      <c r="AK284">
+        <v>1.2</v>
+      </c>
+      <c r="AL284">
+        <v>1.3</v>
+      </c>
+      <c r="AM284">
+        <v>1.83</v>
+      </c>
+      <c r="AN284">
+        <v>1.91</v>
+      </c>
+      <c r="AO284">
+        <v>1.44</v>
+      </c>
+      <c r="AP284">
+        <v>1.86</v>
+      </c>
+      <c r="AQ284">
+        <v>1.49</v>
+      </c>
+      <c r="AR284">
+        <v>1.92</v>
+      </c>
+      <c r="AS284">
+        <v>1.44</v>
+      </c>
+      <c r="AT284">
+        <v>3.36</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>8</v>
+      </c>
+      <c r="AW284">
+        <v>6</v>
+      </c>
+      <c r="AX284">
+        <v>3</v>
+      </c>
+      <c r="AY284">
+        <v>12</v>
+      </c>
+      <c r="AZ284">
+        <v>11</v>
+      </c>
+      <c r="BA284">
+        <v>4</v>
+      </c>
+      <c r="BB284">
+        <v>5</v>
+      </c>
+      <c r="BC284">
+        <v>9</v>
+      </c>
+      <c r="BD284">
+        <v>1.33</v>
+      </c>
+      <c r="BE284">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF284">
+        <v>4.36</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>1.11</v>
+      </c>
+      <c r="BJ284">
+        <v>5.1</v>
+      </c>
+      <c r="BK284">
+        <v>1.26</v>
+      </c>
+      <c r="BL284">
+        <v>3.4</v>
+      </c>
+      <c r="BM284">
+        <v>1.45</v>
+      </c>
+      <c r="BN284">
+        <v>2.55</v>
+      </c>
+      <c r="BO284">
+        <v>1.72</v>
+      </c>
+      <c r="BP284">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -59914,19 +59914,19 @@
         <v>6</v>
       </c>
       <c r="AV284">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW284">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX284">
         <v>3</v>
       </c>
       <c r="AY284">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ284">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA284">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -59902,13 +59902,13 @@
         <v>1.49</v>
       </c>
       <c r="AR284">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="AS284">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT284">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="AU284">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -51238,25 +51238,25 @@
         <v>1.7</v>
       </c>
       <c r="AN242">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO242">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
       <c r="AP242">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ242">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR242">
         <v>1.1</v>
       </c>
       <c r="AS242">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="AT242">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="AU242">
         <v>6</v>
@@ -51650,25 +51650,25 @@
         <v>1.77</v>
       </c>
       <c r="AN244">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AO244">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP244">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ244">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR244">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="AS244">
         <v>1.41</v>
       </c>
       <c r="AT244">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="AU244">
         <v>3</v>
@@ -51856,25 +51856,25 @@
         <v>1.8</v>
       </c>
       <c r="AN245">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AO245">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AP245">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ245">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR245">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AS245">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AT245">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="AU245">
         <v>4</v>
@@ -52474,25 +52474,25 @@
         <v>1.67</v>
       </c>
       <c r="AN248">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AO248">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AP248">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ248">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR248">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AS248">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT248">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52680,25 +52680,25 @@
         <v>1.99</v>
       </c>
       <c r="AN249">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AO249">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="AP249">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ249">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR249">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS249">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AT249">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU249">
         <v>7</v>
@@ -52886,25 +52886,25 @@
         <v>1.63</v>
       </c>
       <c r="AN250">
+        <v>1.16</v>
+      </c>
+      <c r="AO250">
+        <v>1.29</v>
+      </c>
+      <c r="AP250">
+        <v>1.19</v>
+      </c>
+      <c r="AQ250">
+        <v>1.42</v>
+      </c>
+      <c r="AR250">
         <v>1.4</v>
       </c>
-      <c r="AO250">
-        <v>1.06</v>
-      </c>
-      <c r="AP250">
-        <v>1.39</v>
-      </c>
-      <c r="AQ250">
-        <v>1.17</v>
-      </c>
-      <c r="AR250">
-        <v>1.41</v>
-      </c>
       <c r="AS250">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53092,25 +53092,25 @@
         <v>1.87</v>
       </c>
       <c r="AN251">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO251">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AP251">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ251">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR251">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AS251">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT251">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="AU251">
         <v>4</v>
@@ -53298,25 +53298,25 @@
         <v>1.67</v>
       </c>
       <c r="AN252">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AO252">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AP252">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR252">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS252">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT252">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53710,25 +53710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN254">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AO254">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP254">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ254">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR254">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS254">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AT254">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -54122,25 +54122,25 @@
         <v>1.87</v>
       </c>
       <c r="AN256">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="AO256">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AP256">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ256">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR256">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AS256">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT256">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="AU256">
         <v>6</v>
@@ -54534,25 +54534,25 @@
         <v>1.18</v>
       </c>
       <c r="AN258">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="AO258">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AP258">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ258">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR258">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AS258">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT258">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AU258">
         <v>3</v>
@@ -54740,25 +54740,25 @@
         <v>1.6</v>
       </c>
       <c r="AN259">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO259">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="AP259">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ259">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR259">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AS259">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AT259">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AU259">
         <v>6</v>
@@ -54946,25 +54946,25 @@
         <v>2.42</v>
       </c>
       <c r="AN260">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO260">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="AP260">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ260">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR260">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AS260">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AT260">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU260">
         <v>6</v>
@@ -55152,25 +55152,25 @@
         <v>1.57</v>
       </c>
       <c r="AN261">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO261">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AP261">
+        <v>1.11</v>
+      </c>
+      <c r="AQ261">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AQ261">
-        <v>0.61</v>
-      </c>
       <c r="AR261">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS261">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AT261">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU261">
         <v>5</v>
@@ -55358,25 +55358,25 @@
         <v>1.6</v>
       </c>
       <c r="AN262">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO262">
-        <v>0.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP262">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ262">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR262">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AS262">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT262">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="AU262">
         <v>4</v>
@@ -56182,25 +56182,25 @@
         <v>1.58</v>
       </c>
       <c r="AN266">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO266">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AP266">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ266">
+        <v>1.49</v>
+      </c>
+      <c r="AR266">
+        <v>1.36</v>
+      </c>
+      <c r="AS266">
         <v>1.47</v>
       </c>
-      <c r="AR266">
-        <v>1.49</v>
-      </c>
-      <c r="AS266">
-        <v>1.44</v>
-      </c>
       <c r="AT266">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56388,25 +56388,25 @@
         <v>2.06</v>
       </c>
       <c r="AN267">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AO267">
+        <v>1.36</v>
+      </c>
+      <c r="AP267">
+        <v>1.19</v>
+      </c>
+      <c r="AQ267">
         <v>1.25</v>
       </c>
-      <c r="AP267">
-        <v>1.39</v>
-      </c>
-      <c r="AQ267">
-        <v>1.11</v>
-      </c>
       <c r="AR267">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS267">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AT267">
-        <v>2.89</v>
+        <v>3.08</v>
       </c>
       <c r="AU267">
         <v>8</v>
@@ -56594,25 +56594,25 @@
         <v>1.17</v>
       </c>
       <c r="AN268">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="AO268">
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
       <c r="AP268">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ268">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR268">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="AS268">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT268">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AU268">
         <v>7</v>
@@ -56800,25 +56800,25 @@
         <v>1.53</v>
       </c>
       <c r="AN269">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="AO269">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP269">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ269">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR269">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS269">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT269">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="AU269">
         <v>4</v>
@@ -57006,25 +57006,25 @@
         <v>1.73</v>
       </c>
       <c r="AN270">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO270">
-        <v>0.6899999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AP270">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ270">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR270">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AS270">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="AT270">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="AU270">
         <v>0</v>
@@ -57624,25 +57624,25 @@
         <v>1.53</v>
       </c>
       <c r="AN273">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AO273">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AP273">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ273">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR273">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS273">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT273">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU273">
         <v>9</v>
@@ -57830,25 +57830,25 @@
         <v>2.15</v>
       </c>
       <c r="AN274">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AO274">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ274">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR274">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS274">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AT274">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58242,25 +58242,25 @@
         <v>2.3</v>
       </c>
       <c r="AN276">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="AO276">
-        <v>0.8100000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="AP276">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ276">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR276">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AS276">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AT276">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU276">
         <v>7</v>
@@ -58448,25 +58448,25 @@
         <v>1.11</v>
       </c>
       <c r="AN277">
-        <v>0.8100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AO277">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP277">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ277">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR277">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AS277">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AT277">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="AU277">
         <v>4</v>
@@ -58654,25 +58654,25 @@
         <v>2.51</v>
       </c>
       <c r="AN278">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AO278">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AP278">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ278">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR278">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AS278">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AT278">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AU278">
         <v>5</v>
@@ -59478,25 +59478,25 @@
         <v>1.25</v>
       </c>
       <c r="AN282">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AO282">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="AP282">
+        <v>1.25</v>
+      </c>
+      <c r="AQ282">
+        <v>1.42</v>
+      </c>
+      <c r="AR282">
+        <v>1.64</v>
+      </c>
+      <c r="AS282">
         <v>1.39</v>
       </c>
-      <c r="AQ282">
-        <v>1.17</v>
-      </c>
-      <c r="AR282">
-        <v>1.85</v>
-      </c>
-      <c r="AS282">
-        <v>1.25</v>
-      </c>
       <c r="AT282">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU282">
         <v>3</v>
@@ -59684,25 +59684,25 @@
         <v>1.27</v>
       </c>
       <c r="AN283">
+        <v>1.23</v>
+      </c>
+      <c r="AO283">
+        <v>1.4</v>
+      </c>
+      <c r="AP283">
+        <v>1.19</v>
+      </c>
+      <c r="AQ283">
+        <v>1.49</v>
+      </c>
+      <c r="AR283">
+        <v>1.43</v>
+      </c>
+      <c r="AS283">
         <v>1.47</v>
       </c>
-      <c r="AO283">
-        <v>1.29</v>
-      </c>
-      <c r="AP283">
-        <v>1.39</v>
-      </c>
-      <c r="AQ283">
-        <v>1.47</v>
-      </c>
-      <c r="AR283">
-        <v>1.47</v>
-      </c>
-      <c r="AS283">
-        <v>1.41</v>
-      </c>
       <c r="AT283">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU283">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -51238,25 +51238,25 @@
         <v>1.7</v>
       </c>
       <c r="AN242">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO242">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="AP242">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ242">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR242">
         <v>1.1</v>
       </c>
       <c r="AS242">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="AT242">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AU242">
         <v>6</v>
@@ -51650,25 +51650,25 @@
         <v>1.77</v>
       </c>
       <c r="AN244">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AO244">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP244">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ244">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR244">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="AS244">
         <v>1.41</v>
       </c>
       <c r="AT244">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="AU244">
         <v>3</v>
@@ -51856,25 +51856,25 @@
         <v>1.8</v>
       </c>
       <c r="AN245">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO245">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AP245">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ245">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR245">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AS245">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AT245">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="AU245">
         <v>4</v>
@@ -52474,25 +52474,25 @@
         <v>1.67</v>
       </c>
       <c r="AN248">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AO248">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR248">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AS248">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT248">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52680,25 +52680,25 @@
         <v>1.99</v>
       </c>
       <c r="AN249">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AO249">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="AP249">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ249">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR249">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS249">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AT249">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="AU249">
         <v>7</v>
@@ -52886,25 +52886,25 @@
         <v>1.63</v>
       </c>
       <c r="AN250">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AO250">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AP250">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ250">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS250">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT250">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53092,25 +53092,25 @@
         <v>1.87</v>
       </c>
       <c r="AN251">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AO251">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AS251">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT251">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="AU251">
         <v>4</v>
@@ -53298,25 +53298,25 @@
         <v>1.67</v>
       </c>
       <c r="AN252">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AO252">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP252">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ252">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR252">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS252">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT252">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53710,25 +53710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN254">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AO254">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AP254">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ254">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR254">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS254">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AT254">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -54122,25 +54122,25 @@
         <v>1.87</v>
       </c>
       <c r="AN256">
-        <v>1.16</v>
+        <v>1.63</v>
       </c>
       <c r="AO256">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AP256">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ256">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR256">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AS256">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AT256">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="AU256">
         <v>6</v>
@@ -54534,25 +54534,25 @@
         <v>1.18</v>
       </c>
       <c r="AN258">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="AO258">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AP258">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ258">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR258">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AS258">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT258">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AU258">
         <v>3</v>
@@ -54740,25 +54740,25 @@
         <v>1.6</v>
       </c>
       <c r="AN259">
-        <v>0.8100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AO259">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="AP259">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ259">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR259">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AS259">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AT259">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AU259">
         <v>6</v>
@@ -54946,25 +54946,25 @@
         <v>2.42</v>
       </c>
       <c r="AN260">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AO260">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="AP260">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ260">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR260">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AS260">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AT260">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU260">
         <v>6</v>
@@ -55152,25 +55152,25 @@
         <v>1.57</v>
       </c>
       <c r="AN261">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO261">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP261">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ261">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR261">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS261">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AT261">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AU261">
         <v>5</v>
@@ -55358,25 +55358,25 @@
         <v>1.6</v>
       </c>
       <c r="AN262">
-        <v>0.9399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AO262">
+        <v>0.67</v>
+      </c>
+      <c r="AP262">
         <v>1.22</v>
       </c>
-      <c r="AP262">
-        <v>0.97</v>
-      </c>
       <c r="AQ262">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR262">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS262">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AT262">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AU262">
         <v>4</v>
@@ -56182,25 +56182,25 @@
         <v>1.58</v>
       </c>
       <c r="AN266">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO266">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AP266">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ266">
+        <v>1.47</v>
+      </c>
+      <c r="AR266">
         <v>1.49</v>
       </c>
-      <c r="AR266">
-        <v>1.36</v>
-      </c>
       <c r="AS266">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT266">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56388,25 +56388,25 @@
         <v>2.06</v>
       </c>
       <c r="AN267">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AO267">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AP267">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ267">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR267">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS267">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="AT267">
-        <v>3.08</v>
+        <v>2.89</v>
       </c>
       <c r="AU267">
         <v>8</v>
@@ -56594,25 +56594,25 @@
         <v>1.17</v>
       </c>
       <c r="AN268">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="AO268">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="AP268">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ268">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR268">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AS268">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT268">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="AU268">
         <v>7</v>
@@ -56800,25 +56800,25 @@
         <v>1.53</v>
       </c>
       <c r="AN269">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="AO269">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP269">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ269">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR269">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS269">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT269">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="AU269">
         <v>4</v>
@@ -57006,25 +57006,25 @@
         <v>1.73</v>
       </c>
       <c r="AN270">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AO270">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP270">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ270">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR270">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AS270">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AT270">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="AU270">
         <v>0</v>
@@ -57624,25 +57624,25 @@
         <v>1.53</v>
       </c>
       <c r="AN273">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AO273">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ273">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR273">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS273">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU273">
         <v>9</v>
@@ -57830,25 +57830,25 @@
         <v>2.15</v>
       </c>
       <c r="AN274">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AO274">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AP274">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ274">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR274">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS274">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AT274">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58242,25 +58242,25 @@
         <v>2.3</v>
       </c>
       <c r="AN276">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="AO276">
-        <v>1.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP276">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ276">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR276">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AS276">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AT276">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU276">
         <v>7</v>
@@ -58448,25 +58448,25 @@
         <v>1.11</v>
       </c>
       <c r="AN277">
-        <v>1.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO277">
+        <v>1</v>
+      </c>
+      <c r="AP277">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AP277">
-        <v>1.11</v>
-      </c>
       <c r="AQ277">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR277">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AS277">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AT277">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="AU277">
         <v>4</v>
@@ -58654,25 +58654,25 @@
         <v>2.51</v>
       </c>
       <c r="AN278">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AO278">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="AP278">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ278">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR278">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AS278">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AT278">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AU278">
         <v>5</v>
@@ -59478,25 +59478,25 @@
         <v>1.25</v>
       </c>
       <c r="AN282">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO282">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="AP282">
+        <v>1.39</v>
+      </c>
+      <c r="AQ282">
+        <v>1.17</v>
+      </c>
+      <c r="AR282">
+        <v>1.85</v>
+      </c>
+      <c r="AS282">
         <v>1.25</v>
       </c>
-      <c r="AQ282">
-        <v>1.42</v>
-      </c>
-      <c r="AR282">
-        <v>1.64</v>
-      </c>
-      <c r="AS282">
-        <v>1.39</v>
-      </c>
       <c r="AT282">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU282">
         <v>3</v>
@@ -59684,25 +59684,25 @@
         <v>1.27</v>
       </c>
       <c r="AN283">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AO283">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP283">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ283">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR283">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AS283">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AT283">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU283">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ6">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ7">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
+        <v>1.11</v>
+      </c>
+      <c r="AQ8">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ8">
-        <v>0.61</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3446,25 +3446,25 @@
         <v>4.5</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3652,25 +3652,25 @@
         <v>3.7</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3858,25 +3858,25 @@
         <v>1.28</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AU12">
         <v>7</v>
@@ -4070,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4270,25 +4270,25 @@
         <v>2.06</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4479,22 +4479,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR15">
         <v>1.16</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AT15">
-        <v>1.16</v>
+        <v>3.15</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4688,19 +4688,19 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AS16">
         <v>1.15</v>
       </c>
       <c r="AT16">
-        <v>1.15</v>
+        <v>1.93</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4888,25 +4888,25 @@
         <v>1.2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5094,25 +5094,25 @@
         <v>1.21</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR18">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="AS18">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AT18">
-        <v>2.65</v>
+        <v>2.74</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -5300,25 +5300,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO19">
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ19">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AS19">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AT19">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5509,22 +5509,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="AS20">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>3.36</v>
+        <v>2.83</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5712,25 +5712,25 @@
         <v>3.75</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AT21">
-        <v>1.45</v>
+        <v>2.96</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5918,25 +5918,25 @@
         <v>2.8</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ22">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="AS22">
-        <v>0.78</v>
+        <v>1.39</v>
       </c>
       <c r="AT22">
-        <v>2.77</v>
+        <v>3.42</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -6124,25 +6124,25 @@
         <v>2.75</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR23">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
       <c r="AS23">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="AT23">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6330,25 +6330,25 @@
         <v>1.71</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR24">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AS24">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6536,25 +6536,25 @@
         <v>1.02</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ25">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR25">
-        <v>2.01</v>
+        <v>1.37</v>
       </c>
       <c r="AS25">
-        <v>2.64</v>
+        <v>3.01</v>
       </c>
       <c r="AT25">
-        <v>4.65</v>
+        <v>4.38</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6742,25 +6742,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AS26">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="AT26">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6948,16 +6948,16 @@
         <v>2.75</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -7154,25 +7154,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR28">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AS28">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AT28">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7363,22 +7363,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR29">
-        <v>1.89</v>
+        <v>1.3</v>
       </c>
       <c r="AS29">
-        <v>0.28</v>
+        <v>0.85</v>
       </c>
       <c r="AT29">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7566,25 +7566,25 @@
         <v>1.63</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="AS30">
-        <v>0.6899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AT30">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7772,25 +7772,25 @@
         <v>2.02</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR31">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AS31">
-        <v>0.85</v>
+        <v>1.35</v>
       </c>
       <c r="AT31">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7978,25 +7978,25 @@
         <v>1.2</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP32">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR32">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="AS32">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>3.4</v>
+        <v>2.71</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -8184,25 +8184,25 @@
         <v>1.27</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ33">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT33">
-        <v>2.83</v>
+        <v>2.54</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8390,25 +8390,25 @@
         <v>1.39</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP34">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>1.57</v>
+        <v>3.14</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8599,22 +8599,22 @@
         <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP35">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="AS35">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>2.82</v>
+        <v>3.13</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8802,25 +8802,25 @@
         <v>2.01</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ36">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
-        <v>3.37</v>
+        <v>3.16</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AT36">
-        <v>4.83</v>
+        <v>4.75</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ37">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AS37">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="AT37">
-        <v>2.49</v>
+        <v>2.15</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9214,25 +9214,25 @@
         <v>1.17</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR38">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AS38">
-        <v>0.71</v>
+        <v>1.44</v>
       </c>
       <c r="AT38">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9420,25 +9420,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR39">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="AS39">
-        <v>0.68</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9626,25 +9626,25 @@
         <v>1.66</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
+        <v>1.71</v>
+      </c>
+      <c r="AS40">
         <v>1.47</v>
       </c>
-      <c r="AS40">
-        <v>1.51</v>
-      </c>
       <c r="AT40">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9832,25 +9832,25 @@
         <v>1.28</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="AS41">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -10038,25 +10038,25 @@
         <v>1.03</v>
       </c>
       <c r="AN42">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR42">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS42">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AT42">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10244,25 +10244,25 @@
         <v>2.39</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP43">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS43">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10450,25 +10450,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP44">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR44">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AS44">
-        <v>3.06</v>
+        <v>2.85</v>
       </c>
       <c r="AT44">
-        <v>5.04</v>
+        <v>4.56</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10656,25 +10656,25 @@
         <v>3.2</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR45">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="AS45">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AT45">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10862,25 +10862,25 @@
         <v>1.71</v>
       </c>
       <c r="AN46">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ46">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AT46">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -11068,25 +11068,25 @@
         <v>1.26</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO47">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP47">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR47">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="AT47">
-        <v>3.41</v>
+        <v>2.8</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -11274,25 +11274,25 @@
         <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AS48">
-        <v>0.76</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="AU48">
         <v>10</v>
@@ -11480,25 +11480,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO49">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP49">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR49">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="AS49">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AT49">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11686,25 +11686,25 @@
         <v>1.25</v>
       </c>
       <c r="AN50">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AS50">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11892,25 +11892,25 @@
         <v>5</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ51">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AS51">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT51">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="AU51">
         <v>12</v>
@@ -12098,25 +12098,25 @@
         <v>1.13</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ52">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR52">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AS52">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>2.6</v>
+        <v>2.89</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12304,25 +12304,25 @@
         <v>1.11</v>
       </c>
       <c r="AN53">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR53">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS53">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT53">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12510,25 +12510,25 @@
         <v>1.09</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ54">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AS54">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12716,25 +12716,25 @@
         <v>1.8</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR55">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT55">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12922,25 +12922,25 @@
         <v>1.72</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP56">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR56">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AS56">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AT56">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AU56">
         <v>10</v>
@@ -13128,25 +13128,25 @@
         <v>1.06</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AO57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AS57">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT57">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13334,25 +13334,25 @@
         <v>2.3</v>
       </c>
       <c r="AN58">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AP58">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ58">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS58">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT58">
-        <v>2.91</v>
+        <v>2.98</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13540,25 +13540,25 @@
         <v>3.4</v>
       </c>
       <c r="AN59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP59">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AS59">
-        <v>0.9399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="AT59">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13746,25 +13746,25 @@
         <v>3.23</v>
       </c>
       <c r="AN60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AP60">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR60">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AS60">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="AT60">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="AU60">
         <v>12</v>
@@ -13952,25 +13952,25 @@
         <v>2.85</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO61">
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ61">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS61">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AT61">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -14158,25 +14158,25 @@
         <v>3</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP62">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT62">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -14364,25 +14364,25 @@
         <v>1.57</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ63">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AS63">
-        <v>0.88</v>
+        <v>1.42</v>
       </c>
       <c r="AT63">
-        <v>2.13</v>
+        <v>2.76</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14570,25 +14570,25 @@
         <v>4.33</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2.34</v>
+      </c>
+      <c r="AQ64">
         <v>1.25</v>
       </c>
-      <c r="AP64">
-        <v>2.5</v>
-      </c>
-      <c r="AQ64">
-        <v>1.11</v>
-      </c>
       <c r="AR64">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="AS64">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT64">
-        <v>4.19</v>
+        <v>4.17</v>
       </c>
       <c r="AU64">
         <v>11</v>
@@ -14776,25 +14776,25 @@
         <v>1.22</v>
       </c>
       <c r="AN65">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP65">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR65">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS65">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="AT65">
-        <v>3.12</v>
+        <v>2.8</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14982,25 +14982,25 @@
         <v>1.87</v>
       </c>
       <c r="AN66">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP66">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR66">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS66">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AT66">
-        <v>2.9</v>
+        <v>3.11</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15188,25 +15188,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP67">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR67">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="AS67">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AT67">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -15394,25 +15394,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AP68">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR68">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="AT68">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15600,25 +15600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN69">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO69">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ69">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AS69">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT69">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15806,25 +15806,25 @@
         <v>1.72</v>
       </c>
       <c r="AN70">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO70">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ70">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR70">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="AS70">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="AT70">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -16012,25 +16012,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP71">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="AU71">
         <v>5</v>
@@ -16218,25 +16218,25 @@
         <v>2</v>
       </c>
       <c r="AN72">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
       </c>
       <c r="AS72">
-        <v>0.8</v>
+        <v>1.21</v>
       </c>
       <c r="AT72">
-        <v>2.43</v>
+        <v>2.84</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16424,25 +16424,25 @@
         <v>1.9</v>
       </c>
       <c r="AN73">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AO73">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR73">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AS73">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT73">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16630,25 +16630,25 @@
         <v>3.5</v>
       </c>
       <c r="AN74">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
       </c>
       <c r="AS74">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AT74">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="AU74">
         <v>11</v>
@@ -16836,25 +16836,25 @@
         <v>1.44</v>
       </c>
       <c r="AN75">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="AO75">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP75">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT75">
-        <v>2.53</v>
+        <v>2.34</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -17042,25 +17042,25 @@
         <v>1.03</v>
       </c>
       <c r="AN76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP76">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR76">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AS76">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="AT76">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17248,25 +17248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN77">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO77">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR77">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="AS77">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>2.21</v>
+        <v>2.6</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -17454,25 +17454,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO78">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AP78">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AS78">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AT78">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17660,25 +17660,25 @@
         <v>1.72</v>
       </c>
       <c r="AN79">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AO79">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP79">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ79">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AT79">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17866,25 +17866,25 @@
         <v>1.16</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AO80">
-        <v>1.33</v>
+        <v>2.11</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR80">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS80">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="AT80">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -18072,25 +18072,25 @@
         <v>2.8</v>
       </c>
       <c r="AN81">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ81">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR81">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AS81">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AT81">
-        <v>4.42</v>
+        <v>4.12</v>
       </c>
       <c r="AU81">
         <v>7</v>
@@ -18278,25 +18278,25 @@
         <v>1.85</v>
       </c>
       <c r="AN82">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="AO82">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AP82">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR82">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AS82">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="AT82">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18484,25 +18484,25 @@
         <v>1.28</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO83">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS83">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AT83">
-        <v>2.97</v>
+        <v>3.02</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18693,22 +18693,22 @@
         <v>2</v>
       </c>
       <c r="AO84">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AP84">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18896,25 +18896,25 @@
         <v>1.08</v>
       </c>
       <c r="AN85">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AO85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR85">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AS85">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AT85">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -19102,25 +19102,25 @@
         <v>1.92</v>
       </c>
       <c r="AN86">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AO86">
-        <v>0.67</v>
+        <v>1.27</v>
       </c>
       <c r="AP86">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR86">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS86">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AT86">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19308,25 +19308,25 @@
         <v>2.57</v>
       </c>
       <c r="AN87">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO87">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR87">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AS87">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19514,25 +19514,25 @@
         <v>1.27</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO88">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AP88">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ88">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR88">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT88">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19720,25 +19720,25 @@
         <v>1.37</v>
       </c>
       <c r="AN89">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO89">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AP89">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ89">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR89">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="AS89">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AT89">
-        <v>4.67</v>
+        <v>4.52</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19926,25 +19926,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AO90">
-        <v>0.6</v>
+        <v>1.18</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ90">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR90">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="AS90">
         <v>1.39</v>
       </c>
       <c r="AT90">
-        <v>2.94</v>
+        <v>2.63</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -20132,25 +20132,25 @@
         <v>1.33</v>
       </c>
       <c r="AN91">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="AO91">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR91">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AS91">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT91">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -20338,25 +20338,25 @@
         <v>1.25</v>
       </c>
       <c r="AN92">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ92">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR92">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AS92">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT92">
-        <v>2.9</v>
+        <v>3.12</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20544,25 +20544,25 @@
         <v>2</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO93">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP93">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AS93">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AT93">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20750,25 +20750,25 @@
         <v>1.64</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO94">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="AP94">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
+        <v>1.24</v>
+      </c>
+      <c r="AS94">
         <v>1.25</v>
       </c>
-      <c r="AS94">
-        <v>0.98</v>
-      </c>
       <c r="AT94">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20956,25 +20956,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AO95">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP95">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR95">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AS95">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AT95">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21162,25 +21162,25 @@
         <v>1.23</v>
       </c>
       <c r="AN96">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AO96">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
         <v>1.61</v>
       </c>
       <c r="AT96">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21368,25 +21368,25 @@
         <v>2.12</v>
       </c>
       <c r="AN97">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO97">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="AP97">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR97">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS97">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT97">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21574,25 +21574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="AO98">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AP98">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR98">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AS98">
-        <v>0.87</v>
+        <v>1.22</v>
       </c>
       <c r="AT98">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21780,25 +21780,25 @@
         <v>2.07</v>
       </c>
       <c r="AN99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO99">
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT99">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21986,25 +21986,25 @@
         <v>4.2</v>
       </c>
       <c r="AN100">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO100">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AP100">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ100">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR100">
-        <v>2.51</v>
+        <v>2.35</v>
       </c>
       <c r="AS100">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AT100">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="AU100">
         <v>14</v>
@@ -22192,25 +22192,25 @@
         <v>1.72</v>
       </c>
       <c r="AN101">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="AO101">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP101">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR101">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS101">
-        <v>0.91</v>
+        <v>1.15</v>
       </c>
       <c r="AT101">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22398,25 +22398,25 @@
         <v>2.65</v>
       </c>
       <c r="AN102">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AO102">
-        <v>0.57</v>
+        <v>1.08</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ102">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR102">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS102">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AT102">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22604,25 +22604,25 @@
         <v>1.35</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AO103">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AT103">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22813,22 +22813,22 @@
         <v>1</v>
       </c>
       <c r="AO104">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AP104">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR104">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AS104">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AT104">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -23016,25 +23016,25 @@
         <v>1.05</v>
       </c>
       <c r="AN105">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="AO105">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP105">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ105">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR105">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23222,25 +23222,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
+        <v>1.23</v>
+      </c>
+      <c r="AO106">
+        <v>0.67</v>
+      </c>
+      <c r="AP106">
+        <v>0.97</v>
+      </c>
+      <c r="AQ106">
+        <v>1.19</v>
+      </c>
+      <c r="AR106">
+        <v>1.21</v>
+      </c>
+      <c r="AS106">
         <v>1.29</v>
       </c>
-      <c r="AO106">
-        <v>0.71</v>
-      </c>
-      <c r="AP106">
-        <v>1.22</v>
-      </c>
-      <c r="AQ106">
-        <v>1</v>
-      </c>
-      <c r="AR106">
-        <v>1.47</v>
-      </c>
-      <c r="AS106">
-        <v>1.22</v>
-      </c>
       <c r="AT106">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23428,25 +23428,25 @@
         <v>2</v>
       </c>
       <c r="AN107">
+        <v>1.92</v>
+      </c>
+      <c r="AO107">
+        <v>2.23</v>
+      </c>
+      <c r="AP107">
+        <v>1.83</v>
+      </c>
+      <c r="AQ107">
         <v>2.14</v>
       </c>
-      <c r="AO107">
-        <v>1.86</v>
-      </c>
-      <c r="AP107">
-        <v>2.12</v>
-      </c>
-      <c r="AQ107">
-        <v>1.35</v>
-      </c>
       <c r="AR107">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="AS107">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AT107">
-        <v>3.85</v>
+        <v>3.73</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23634,25 +23634,25 @@
         <v>1.15</v>
       </c>
       <c r="AN108">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AP108">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR108">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS108">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="AT108">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23840,25 +23840,25 @@
         <v>1.47</v>
       </c>
       <c r="AN109">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AO109">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP109">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ109">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AS109">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT109">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -24046,25 +24046,25 @@
         <v>2.2</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO110">
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR110">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AS110">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="AT110">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU110">
         <v>13</v>
@@ -24252,25 +24252,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
-        <v>2.67</v>
+        <v>2.07</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP111">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AS111">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT111">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU111">
         <v>8</v>
@@ -24458,25 +24458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN112">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ112">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR112">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AS112">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AT112">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24664,25 +24664,25 @@
         <v>1.65</v>
       </c>
       <c r="AN113">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="AO113">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ113">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR113">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS113">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT113">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24870,25 +24870,25 @@
         <v>2.4</v>
       </c>
       <c r="AN114">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO114">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="AP114">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ114">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR114">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS114">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT114">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25076,25 +25076,25 @@
         <v>1.06</v>
       </c>
       <c r="AN115">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AO115">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR115">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS115">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="AT115">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="AU115">
         <v>3</v>
@@ -25282,25 +25282,25 @@
         <v>4.75</v>
       </c>
       <c r="AN116">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AP116">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR116">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="AS116">
-        <v>0.91</v>
+        <v>1.21</v>
       </c>
       <c r="AT116">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="AU116">
         <v>13</v>
@@ -25491,22 +25491,22 @@
         <v>0.57</v>
       </c>
       <c r="AO117">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AP117">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ117">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR117">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="AS117">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT117">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="AU117">
         <v>9</v>
@@ -25694,25 +25694,25 @@
         <v>1.31</v>
       </c>
       <c r="AN118">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR118">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS118">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AT118">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -25900,25 +25900,25 @@
         <v>1.06</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AO119">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AP119">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR119">
         <v>1.32</v>
       </c>
       <c r="AS119">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="AT119">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -26106,25 +26106,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AO120">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP120">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ120">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
       </c>
       <c r="AS120">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT120">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="AU120">
         <v>10</v>
@@ -26312,25 +26312,25 @@
         <v>1.47</v>
       </c>
       <c r="AN121">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AO121">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AP121">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR121">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="AS121">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT121">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26518,25 +26518,25 @@
         <v>5.1</v>
       </c>
       <c r="AN122">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="AO122">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ122">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR122">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="AS122">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT122">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26724,25 +26724,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO123">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP123">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ123">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR123">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AS123">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="AT123">
-        <v>2.24</v>
+        <v>2.33</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26930,25 +26930,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AO124">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AP124">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ124">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR124">
+        <v>1.24</v>
+      </c>
+      <c r="AS124">
         <v>1.16</v>
       </c>
-      <c r="AS124">
-        <v>0.87</v>
-      </c>
       <c r="AT124">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -27136,25 +27136,25 @@
         <v>4.2</v>
       </c>
       <c r="AN125">
+        <v>2.13</v>
+      </c>
+      <c r="AO125">
+        <v>1.27</v>
+      </c>
+      <c r="AP125">
         <v>1.86</v>
       </c>
-      <c r="AO125">
-        <v>1</v>
-      </c>
-      <c r="AP125">
-        <v>1.68</v>
-      </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR125">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AS125">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AT125">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27342,25 +27342,25 @@
         <v>1.91</v>
       </c>
       <c r="AN126">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO126">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="AP126">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ126">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR126">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AS126">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT126">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27548,25 +27548,25 @@
         <v>1.33</v>
       </c>
       <c r="AN127">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO127">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR127">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AS127">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="AT127">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27754,25 +27754,25 @@
         <v>2.15</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO128">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ128">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR128">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT128">
-        <v>2.33</v>
+        <v>2.49</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27963,22 +27963,22 @@
         <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AP129">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ129">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR129">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS129">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="AT129">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28166,25 +28166,25 @@
         <v>1.35</v>
       </c>
       <c r="AN130">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO130">
-        <v>1.63</v>
+        <v>2.19</v>
       </c>
       <c r="AP130">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ130">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR130">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AS130">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AT130">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28372,25 +28372,25 @@
         <v>1.08</v>
       </c>
       <c r="AN131">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AO131">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AP131">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ131">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR131">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AS131">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AT131">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28578,25 +28578,25 @@
         <v>2.15</v>
       </c>
       <c r="AN132">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="AO132">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR132">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS132">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT132">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28784,25 +28784,25 @@
         <v>1.08</v>
       </c>
       <c r="AN133">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AO133">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AP133">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR133">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS133">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AT133">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28990,25 +28990,25 @@
         <v>2.38</v>
       </c>
       <c r="AN134">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="AO134">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AP134">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="AS134">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29199,22 +29199,22 @@
         <v>0.5</v>
       </c>
       <c r="AO135">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="AP135">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ135">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR135">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="AS135">
-        <v>2.23</v>
+        <v>2.44</v>
       </c>
       <c r="AT135">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29402,25 +29402,25 @@
         <v>1.66</v>
       </c>
       <c r="AN136">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="AO136">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ136">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR136">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS136">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29608,25 +29608,25 @@
         <v>1.25</v>
       </c>
       <c r="AN137">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="AO137">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR137">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AS137">
         <v>1.42</v>
       </c>
       <c r="AT137">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29814,25 +29814,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR138">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AS138">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AT138">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30020,25 +30020,25 @@
         <v>2.8</v>
       </c>
       <c r="AN139">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="AO139">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AP139">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ139">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR139">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AS139">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AT139">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30226,25 +30226,25 @@
         <v>5.8</v>
       </c>
       <c r="AN140">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="AO140">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AP140">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ140">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR140">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="AS140">
-        <v>0.8100000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AT140">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30432,25 +30432,25 @@
         <v>1.3</v>
       </c>
       <c r="AN141">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO141">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ141">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
       </c>
       <c r="AS141">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AT141">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30638,25 +30638,25 @@
         <v>4.2</v>
       </c>
       <c r="AN142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO142">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR142">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AS142">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT142">
-        <v>3.93</v>
+        <v>3.71</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30847,22 +30847,22 @@
         <v>1</v>
       </c>
       <c r="AO143">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="AP143">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR143">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AS143">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AT143">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31050,25 +31050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN144">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AO144">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT144">
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31256,25 +31256,25 @@
         <v>1.1</v>
       </c>
       <c r="AN145">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AO145">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AP145">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ145">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR145">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AS145">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT145">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="AU145">
         <v>6</v>
@@ -31462,25 +31462,25 @@
         <v>1.18</v>
       </c>
       <c r="AN146">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="AO146">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AP146">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ146">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR146">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AS146">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT146">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31671,22 +31671,22 @@
         <v>0.44</v>
       </c>
       <c r="AO147">
-        <v>1.56</v>
+        <v>2.17</v>
       </c>
       <c r="AP147">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ147">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR147">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AS147">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT147">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31874,25 +31874,25 @@
         <v>2.3</v>
       </c>
       <c r="AN148">
-        <v>2.11</v>
+        <v>1.61</v>
       </c>
       <c r="AO148">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AP148">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR148">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="AS148">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AT148">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32080,25 +32080,25 @@
         <v>1.48</v>
       </c>
       <c r="AN149">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AS149">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AT149">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="AU149">
         <v>2</v>
@@ -32286,25 +32286,25 @@
         <v>6.5</v>
       </c>
       <c r="AN150">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AO150">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="AP150">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ150">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="AS150">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AT150">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="AU150">
         <v>12</v>
@@ -32492,25 +32492,25 @@
         <v>1.65</v>
       </c>
       <c r="AN151">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AO151">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ151">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR151">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS151">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AT151">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32701,22 +32701,22 @@
         <v>1</v>
       </c>
       <c r="AO152">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AP152">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ152">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR152">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AS152">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AT152">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32904,25 +32904,25 @@
         <v>2.35</v>
       </c>
       <c r="AN153">
-        <v>2.78</v>
+        <v>2.21</v>
       </c>
       <c r="AO153">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP153">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR153">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="AS153">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33110,25 +33110,25 @@
         <v>1.06</v>
       </c>
       <c r="AN154">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AO154">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ154">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR154">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AS154">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AT154">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33316,25 +33316,25 @@
         <v>2.95</v>
       </c>
       <c r="AN155">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AO155">
-        <v>0.44</v>
+        <v>1.11</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ155">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR155">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AS155">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT155">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33522,25 +33522,25 @@
         <v>3.2</v>
       </c>
       <c r="AN156">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AO156">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="AP156">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR156">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="AS156">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="AT156">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="AU156">
         <v>11</v>
@@ -33728,25 +33728,25 @@
         <v>1.35</v>
       </c>
       <c r="AN157">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="AO157">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP157">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ157">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR157">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AS157">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT157">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="AU157">
         <v>0</v>
@@ -33934,25 +33934,25 @@
         <v>2.75</v>
       </c>
       <c r="AN158">
-        <v>2.11</v>
+        <v>1.84</v>
       </c>
       <c r="AO158">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR158">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AT158">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34140,25 +34140,25 @@
         <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>1.89</v>
+        <v>1.26</v>
       </c>
       <c r="AO159">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AP159">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ159">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR159">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AT159">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34346,25 +34346,25 @@
         <v>1.9</v>
       </c>
       <c r="AN160">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AO160">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ160">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR160">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS160">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT160">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34552,25 +34552,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AP161">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ161">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR161">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AS161">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT161">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -34758,25 +34758,25 @@
         <v>1.15</v>
       </c>
       <c r="AN162">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AO162">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AP162">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ162">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="AT162">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -34964,25 +34964,25 @@
         <v>2</v>
       </c>
       <c r="AN163">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO163">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="AP163">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ163">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AS163">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="AT163">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35170,25 +35170,25 @@
         <v>1.04</v>
       </c>
       <c r="AN164">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AO164">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AP164">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR164">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AS164">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AT164">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -35376,25 +35376,25 @@
         <v>1.08</v>
       </c>
       <c r="AN165">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AO165">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AP165">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ165">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR165">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT165">
-        <v>2.83</v>
+        <v>2.56</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35582,22 +35582,22 @@
         <v>1.66</v>
       </c>
       <c r="AN166">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO166">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AP166">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ166">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR166">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS166">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT166">
         <v>2.84</v>
@@ -35788,25 +35788,25 @@
         <v>6.5</v>
       </c>
       <c r="AN167">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AO167">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="AP167">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ167">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR167">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="AS167">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AT167">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="AU167">
         <v>10</v>
@@ -35994,25 +35994,25 @@
         <v>2.55</v>
       </c>
       <c r="AN168">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="AO168">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AP168">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ168">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR168">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="AS168">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT168">
-        <v>4.22</v>
+        <v>4.09</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36200,25 +36200,25 @@
         <v>1.81</v>
       </c>
       <c r="AN169">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="AO169">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="AP169">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR169">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AS169">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AT169">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36406,25 +36406,25 @@
         <v>3.22</v>
       </c>
       <c r="AN170">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO170">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AP170">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR170">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="AS170">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="AT170">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36612,25 +36612,25 @@
         <v>2.3</v>
       </c>
       <c r="AN171">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AO171">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ171">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR171">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS171">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="AT171">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36818,25 +36818,25 @@
         <v>1.36</v>
       </c>
       <c r="AN172">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="AO172">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="AP172">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ172">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR172">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AS172">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AT172">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37024,25 +37024,25 @@
         <v>2.23</v>
       </c>
       <c r="AN173">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AO173">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AP173">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ173">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR173">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AS173">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT173">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="AU173">
         <v>12</v>
@@ -37230,25 +37230,25 @@
         <v>1.6</v>
       </c>
       <c r="AN174">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AO174">
-        <v>0.7</v>
+        <v>1.29</v>
       </c>
       <c r="AP174">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ174">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR174">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AS174">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT174">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37436,25 +37436,25 @@
         <v>1.9</v>
       </c>
       <c r="AN175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO175">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR175">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS175">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT175">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37642,25 +37642,25 @@
         <v>1.02</v>
       </c>
       <c r="AN176">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="AO176">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP176">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ176">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR176">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AT176">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -37848,25 +37848,25 @@
         <v>3.3</v>
       </c>
       <c r="AN177">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="AO177">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="AP177">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ177">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR177">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AS177">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="AT177">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -38057,22 +38057,22 @@
         <v>0.45</v>
       </c>
       <c r="AO178">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP178">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ178">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR178">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="AS178">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AT178">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38260,25 +38260,25 @@
         <v>1.28</v>
       </c>
       <c r="AN179">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="AO179">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AP179">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ179">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR179">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS179">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT179">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="AU179">
         <v>8</v>
@@ -38466,25 +38466,25 @@
         <v>1.33</v>
       </c>
       <c r="AN180">
+        <v>1.14</v>
+      </c>
+      <c r="AO180">
         <v>1.45</v>
       </c>
-      <c r="AO180">
-        <v>1.18</v>
-      </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ180">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AT180">
-        <v>2.62</v>
+        <v>2.93</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38672,25 +38672,25 @@
         <v>3.4</v>
       </c>
       <c r="AN181">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AO181">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ181">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR181">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="AS181">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AT181">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU181">
         <v>11</v>
@@ -38878,25 +38878,25 @@
         <v>3.25</v>
       </c>
       <c r="AN182">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AO182">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AP182">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ182">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR182">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="AS182">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AT182">
-        <v>3.92</v>
+        <v>3.75</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39084,25 +39084,25 @@
         <v>2.71</v>
       </c>
       <c r="AN183">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AO183">
+        <v>0.86</v>
+      </c>
+      <c r="AP183">
+        <v>1.42</v>
+      </c>
+      <c r="AQ183">
         <v>0.91</v>
       </c>
-      <c r="AP183">
-        <v>1.67</v>
-      </c>
-      <c r="AQ183">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AR183">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS183">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT183">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39290,25 +39290,25 @@
         <v>1.04</v>
       </c>
       <c r="AN184">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AO184">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="AP184">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ184">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR184">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="AT184">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39496,25 +39496,25 @@
         <v>2.88</v>
       </c>
       <c r="AN185">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO185">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ185">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR185">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AS185">
-        <v>0.79</v>
+        <v>1.07</v>
       </c>
       <c r="AT185">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39702,25 +39702,25 @@
         <v>1.39</v>
       </c>
       <c r="AN186">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AO186">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="AP186">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR186">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS186">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT186">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39908,25 +39908,25 @@
         <v>1.35</v>
       </c>
       <c r="AN187">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AO187">
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ187">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR187">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AS187">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AT187">
-        <v>2.98</v>
+        <v>3.17</v>
       </c>
       <c r="AU187">
         <v>6</v>
@@ -40114,25 +40114,25 @@
         <v>1.14</v>
       </c>
       <c r="AN188">
-        <v>1.64</v>
+        <v>1.09</v>
       </c>
       <c r="AO188">
-        <v>1.55</v>
+        <v>2.22</v>
       </c>
       <c r="AP188">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ188">
+        <v>2.14</v>
+      </c>
+      <c r="AR188">
         <v>1.35</v>
       </c>
-      <c r="AR188">
-        <v>1.51</v>
-      </c>
       <c r="AS188">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT188">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="AU188">
         <v>6</v>
@@ -40320,25 +40320,25 @@
         <v>1.2</v>
       </c>
       <c r="AN189">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
       <c r="AO189">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR189">
+        <v>1.2</v>
+      </c>
+      <c r="AS189">
         <v>1.39</v>
       </c>
-      <c r="AS189">
-        <v>1.28</v>
-      </c>
       <c r="AT189">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40526,25 +40526,25 @@
         <v>3</v>
       </c>
       <c r="AN190">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="AO190">
-        <v>0.91</v>
+        <v>1.43</v>
       </c>
       <c r="AP190">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ190">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR190">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AS190">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT190">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40732,25 +40732,25 @@
         <v>1.12</v>
       </c>
       <c r="AN191">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AO191">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AP191">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ191">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR191">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="AS191">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="AT191">
-        <v>4.12</v>
+        <v>3.92</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40938,25 +40938,25 @@
         <v>1.38</v>
       </c>
       <c r="AN192">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
         <v>0.91</v>
       </c>
-      <c r="AP192">
-        <v>0.89</v>
-      </c>
       <c r="AQ192">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR192">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AS192">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="AT192">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41144,25 +41144,25 @@
         <v>1.85</v>
       </c>
       <c r="AN193">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AO193">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AP193">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ193">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS193">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AT193">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU193">
         <v>5</v>
@@ -41350,25 +41350,25 @@
         <v>2.41</v>
       </c>
       <c r="AN194">
-        <v>2.83</v>
+        <v>2.13</v>
       </c>
       <c r="AO194">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AP194">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ194">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR194">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="AS194">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT194">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="AU194">
         <v>8</v>
@@ -41556,25 +41556,25 @@
         <v>1.63</v>
       </c>
       <c r="AN195">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AO195">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AP195">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ195">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR195">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS195">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AT195">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="AU195">
         <v>5</v>
@@ -41765,22 +41765,22 @@
         <v>0.42</v>
       </c>
       <c r="AO196">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="AP196">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ196">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR196">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AS196">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AT196">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AU196">
         <v>0</v>
@@ -41968,25 +41968,25 @@
         <v>6</v>
       </c>
       <c r="AN197">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="AO197">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="AP197">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ197">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR197">
-        <v>2.37</v>
+        <v>2.24</v>
       </c>
       <c r="AS197">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT197">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AU197">
         <v>14</v>
@@ -42174,22 +42174,22 @@
         <v>2.2</v>
       </c>
       <c r="AN198">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO198">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AP198">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ198">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR198">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS198">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT198">
         <v>2.42</v>
@@ -42380,25 +42380,25 @@
         <v>1.31</v>
       </c>
       <c r="AN199">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO199">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AP199">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR199">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AS199">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT199">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42586,25 +42586,25 @@
         <v>2.35</v>
       </c>
       <c r="AN200">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="AO200">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AP200">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ200">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR200">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AS200">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AT200">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="AU200">
         <v>11</v>
@@ -42792,25 +42792,25 @@
         <v>1.63</v>
       </c>
       <c r="AN201">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AO201">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AP201">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ201">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR201">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AS201">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="AT201">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42998,25 +42998,25 @@
         <v>1.87</v>
       </c>
       <c r="AN202">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AO202">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AP202">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ202">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR202">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AS202">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT202">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43204,25 +43204,25 @@
         <v>2.35</v>
       </c>
       <c r="AN203">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AO203">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP203">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR203">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AS203">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT203">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="AU203">
         <v>9</v>
@@ -43410,25 +43410,25 @@
         <v>1.44</v>
       </c>
       <c r="AN204">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO204">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AP204">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ204">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR204">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AS204">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="AT204">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43616,25 +43616,25 @@
         <v>1.06</v>
       </c>
       <c r="AN205">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AO205">
+        <v>2.38</v>
+      </c>
+      <c r="AP205">
+        <v>1.66</v>
+      </c>
+      <c r="AQ205">
+        <v>2.34</v>
+      </c>
+      <c r="AR205">
+        <v>1.46</v>
+      </c>
+      <c r="AS205">
         <v>2.27</v>
       </c>
-      <c r="AP205">
-        <v>1.88</v>
-      </c>
-      <c r="AQ205">
-        <v>2.18</v>
-      </c>
-      <c r="AR205">
-        <v>1.53</v>
-      </c>
-      <c r="AS205">
-        <v>2.09</v>
-      </c>
       <c r="AT205">
-        <v>3.62</v>
+        <v>3.73</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43822,25 +43822,25 @@
         <v>1.03</v>
       </c>
       <c r="AN206">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO206">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="AP206">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ206">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR206">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS206">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AT206">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44028,25 +44028,25 @@
         <v>1.6</v>
       </c>
       <c r="AN207">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AO207">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="AP207">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ207">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR207">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AS207">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT207">
-        <v>3.57</v>
+        <v>3.37</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44234,25 +44234,25 @@
         <v>2.18</v>
       </c>
       <c r="AN208">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="AO208">
-        <v>0.58</v>
+        <v>1.16</v>
       </c>
       <c r="AP208">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ208">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR208">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AS208">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT208">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44443,22 +44443,22 @@
         <v>0.38</v>
       </c>
       <c r="AO209">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AP209">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ209">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR209">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AS209">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT209">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44646,25 +44646,25 @@
         <v>2.3</v>
       </c>
       <c r="AN210">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AO210">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AP210">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ210">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR210">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AS210">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AT210">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AU210">
         <v>8</v>
@@ -44852,25 +44852,25 @@
         <v>1.83</v>
       </c>
       <c r="AN211">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AO211">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="AP211">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ211">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR211">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AS211">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AT211">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AU211">
         <v>8</v>
@@ -45058,25 +45058,25 @@
         <v>3.16</v>
       </c>
       <c r="AN212">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AO212">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="AP212">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ212">
+        <v>1.66</v>
+      </c>
+      <c r="AR212">
+        <v>1.78</v>
+      </c>
+      <c r="AS212">
         <v>1.44</v>
       </c>
-      <c r="AR212">
-        <v>1.89</v>
-      </c>
-      <c r="AS212">
-        <v>1.39</v>
-      </c>
       <c r="AT212">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45264,25 +45264,25 @@
         <v>2.35</v>
       </c>
       <c r="AN213">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AO213">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AP213">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ213">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR213">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="AS213">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AT213">
-        <v>4.13</v>
+        <v>4.14</v>
       </c>
       <c r="AU213">
         <v>8</v>
@@ -45470,25 +45470,25 @@
         <v>3.1</v>
       </c>
       <c r="AN214">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AO214">
-        <v>0.38</v>
+        <v>0.65</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ214">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AS214">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT214">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45676,25 +45676,25 @@
         <v>1.25</v>
       </c>
       <c r="AN215">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="AO215">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="AP215">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ215">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR215">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS215">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT215">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -45882,25 +45882,25 @@
         <v>3.6</v>
       </c>
       <c r="AN216">
-        <v>2.85</v>
+        <v>2.12</v>
       </c>
       <c r="AO216">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AP216">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ216">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR216">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AS216">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AT216">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="AU216">
         <v>11</v>
@@ -46088,25 +46088,25 @@
         <v>2</v>
       </c>
       <c r="AN217">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO217">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="AP217">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ217">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR217">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AS217">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="AT217">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="AU217">
         <v>10</v>
@@ -46294,25 +46294,25 @@
         <v>1.6</v>
       </c>
       <c r="AN218">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AO218">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AP218">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR218">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AS218">
         <v>1.39</v>
       </c>
       <c r="AT218">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU218">
         <v>3</v>
@@ -46500,25 +46500,25 @@
         <v>1.36</v>
       </c>
       <c r="AN219">
-        <v>2.23</v>
+        <v>1.89</v>
       </c>
       <c r="AO219">
-        <v>2.23</v>
+        <v>2.11</v>
       </c>
       <c r="AP219">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ219">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR219">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AS219">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="AT219">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU219">
         <v>0</v>
@@ -46706,25 +46706,25 @@
         <v>1.69</v>
       </c>
       <c r="AN220">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AO220">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AP220">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR220">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AS220">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT220">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="AU220">
         <v>9</v>
@@ -46912,25 +46912,25 @@
         <v>1.01</v>
       </c>
       <c r="AN221">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AO221">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AP221">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ221">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR221">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AS221">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="AT221">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47118,25 +47118,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AO222">
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
       <c r="AP222">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ222">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR222">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AS222">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AT222">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU222">
         <v>3</v>
@@ -47324,25 +47324,25 @@
         <v>1.33</v>
       </c>
       <c r="AN223">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AO223">
-        <v>1.38</v>
+        <v>2.15</v>
       </c>
       <c r="AP223">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ223">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR223">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS223">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AT223">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47530,25 +47530,25 @@
         <v>1.55</v>
       </c>
       <c r="AN224">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AO224">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="AP224">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ224">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR224">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS224">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT224">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU224">
         <v>3</v>
@@ -47736,25 +47736,25 @@
         <v>1.23</v>
       </c>
       <c r="AN225">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AO225">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ225">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR225">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS225">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="AT225">
-        <v>3.56</v>
+        <v>3.69</v>
       </c>
       <c r="AU225">
         <v>6</v>
@@ -47942,25 +47942,25 @@
         <v>3.22</v>
       </c>
       <c r="AN226">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AO226">
-        <v>0.43</v>
+        <v>0.68</v>
       </c>
       <c r="AP226">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ226">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR226">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="AS226">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT226">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="AU226">
         <v>8</v>
@@ -48148,25 +48148,25 @@
         <v>5</v>
       </c>
       <c r="AN227">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO227">
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR227">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS227">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AT227">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AU227">
         <v>8</v>
@@ -48354,25 +48354,25 @@
         <v>2.9</v>
       </c>
       <c r="AN228">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AO228">
-        <v>0.79</v>
+        <v>1.07</v>
       </c>
       <c r="AP228">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ228">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR228">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AS228">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AT228">
-        <v>2.41</v>
+        <v>2.64</v>
       </c>
       <c r="AU228">
         <v>7</v>
@@ -48560,25 +48560,25 @@
         <v>1.55</v>
       </c>
       <c r="AN229">
-        <v>2.86</v>
+        <v>2.07</v>
       </c>
       <c r="AO229">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ229">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR229">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS229">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT229">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48766,25 +48766,25 @@
         <v>1.3</v>
       </c>
       <c r="AN230">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="AO230">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AP230">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ230">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR230">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="AS230">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT230">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -48972,25 +48972,25 @@
         <v>1.22</v>
       </c>
       <c r="AN231">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AO231">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AP231">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ231">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR231">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS231">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AT231">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU231">
         <v>7</v>
@@ -49178,25 +49178,25 @@
         <v>2.5</v>
       </c>
       <c r="AN232">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AO232">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ232">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS232">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AT232">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49384,25 +49384,25 @@
         <v>4.1</v>
       </c>
       <c r="AN233">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AO233">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AP233">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ233">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR233">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="AS233">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT233">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="AU233">
         <v>13</v>
@@ -49590,25 +49590,25 @@
         <v>2.07</v>
       </c>
       <c r="AN234">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="AO234">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="AP234">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ234">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR234">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS234">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="AT234">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49796,25 +49796,25 @@
         <v>1.38</v>
       </c>
       <c r="AN235">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="AO235">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP235">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ235">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR235">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS235">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AT235">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU235">
         <v>7</v>
@@ -50002,25 +50002,25 @@
         <v>1.13</v>
       </c>
       <c r="AN236">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO236">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="AP236">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ236">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR236">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AS236">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT236">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="AU236">
         <v>0</v>
@@ -50208,25 +50208,25 @@
         <v>1.01</v>
       </c>
       <c r="AN237">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="AO237">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AP237">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ237">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR237">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AS237">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AT237">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="AU237">
         <v>3</v>
@@ -50414,25 +50414,25 @@
         <v>3.34</v>
       </c>
       <c r="AN238">
-        <v>2.07</v>
+        <v>1.76</v>
       </c>
       <c r="AO238">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP238">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ238">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR238">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AS238">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT238">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="AU238">
         <v>6</v>
@@ -50620,25 +50620,25 @@
         <v>2.05</v>
       </c>
       <c r="AN239">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AO239">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AP239">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ239">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR239">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS239">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AT239">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AU239">
         <v>6</v>
@@ -50826,25 +50826,25 @@
         <v>1.23</v>
       </c>
       <c r="AN240">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="AO240">
+        <v>1.41</v>
+      </c>
+      <c r="AP240">
+        <v>1.11</v>
+      </c>
+      <c r="AQ240">
+        <v>1.25</v>
+      </c>
+      <c r="AR240">
         <v>1.21</v>
       </c>
-      <c r="AP240">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ240">
-        <v>1.11</v>
-      </c>
-      <c r="AR240">
-        <v>1.31</v>
-      </c>
       <c r="AS240">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="AT240">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -51032,25 +51032,25 @@
         <v>1.15</v>
       </c>
       <c r="AN241">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AO241">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AP241">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ241">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR241">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS241">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT241">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="AU241">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ4">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ9">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3446,25 +3446,25 @@
         <v>4.5</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3652,25 +3652,25 @@
         <v>3.7</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3858,25 +3858,25 @@
         <v>1.28</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>7</v>
@@ -4070,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>4.14</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4270,25 +4270,25 @@
         <v>2.06</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ14">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR14">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4479,22 +4479,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>1.16</v>
       </c>
       <c r="AS15">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>3.15</v>
+        <v>1.16</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4688,19 +4688,19 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AS16">
         <v>1.15</v>
       </c>
       <c r="AT16">
-        <v>1.93</v>
+        <v>1.15</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4888,25 +4888,25 @@
         <v>1.2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ17">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5094,25 +5094,25 @@
         <v>1.21</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="AS18">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AT18">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -5300,25 +5300,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR19">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="AS19">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="AT19">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5509,22 +5509,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="AS20">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT20">
-        <v>2.83</v>
+        <v>3.36</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5712,25 +5712,25 @@
         <v>3.75</v>
       </c>
       <c r="AN21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR21">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AS21">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>2.96</v>
+        <v>1.45</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5918,25 +5918,25 @@
         <v>2.8</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR22">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="AS22">
-        <v>1.39</v>
+        <v>0.78</v>
       </c>
       <c r="AT22">
-        <v>3.42</v>
+        <v>2.77</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -6124,25 +6124,25 @@
         <v>2.75</v>
       </c>
       <c r="AN23">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ23">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AS23">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="AT23">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6330,25 +6330,25 @@
         <v>1.71</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AS24">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="AT24">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6536,25 +6536,25 @@
         <v>1.02</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR25">
-        <v>1.37</v>
+        <v>2.01</v>
       </c>
       <c r="AS25">
-        <v>3.01</v>
+        <v>2.64</v>
       </c>
       <c r="AT25">
-        <v>4.38</v>
+        <v>4.65</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6742,25 +6742,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AS26">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6948,16 +6948,16 @@
         <v>2.75</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -7154,25 +7154,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AS28">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AT28">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7363,22 +7363,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="AS29">
-        <v>0.85</v>
+        <v>0.28</v>
       </c>
       <c r="AT29">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7566,25 +7566,25 @@
         <v>1.63</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="AS30">
-        <v>1.07</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT30">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7772,25 +7772,25 @@
         <v>2.02</v>
       </c>
       <c r="AN31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR31">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AS31">
-        <v>1.35</v>
+        <v>0.85</v>
       </c>
       <c r="AT31">
-        <v>2.76</v>
+        <v>2.06</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7978,25 +7978,25 @@
         <v>1.2</v>
       </c>
       <c r="AN32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="AT32">
-        <v>2.71</v>
+        <v>3.4</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -8184,25 +8184,25 @@
         <v>1.27</v>
       </c>
       <c r="AN33">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>2.54</v>
+        <v>2.83</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8390,25 +8390,25 @@
         <v>1.39</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ34">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>3.14</v>
+        <v>1.57</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8599,22 +8599,22 @@
         <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR35">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="AS35">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AT35">
-        <v>3.13</v>
+        <v>2.82</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8802,25 +8802,25 @@
         <v>2.01</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR36">
-        <v>3.16</v>
+        <v>3.37</v>
       </c>
       <c r="AS36">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>4.75</v>
+        <v>4.83</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="AT37">
-        <v>2.15</v>
+        <v>2.49</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9214,25 +9214,25 @@
         <v>1.17</v>
       </c>
       <c r="AN38">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AS38">
-        <v>1.44</v>
+        <v>0.71</v>
       </c>
       <c r="AT38">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9420,25 +9420,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="AS39">
-        <v>1.08</v>
+        <v>0.68</v>
       </c>
       <c r="AT39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9626,25 +9626,25 @@
         <v>1.66</v>
       </c>
       <c r="AN40">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AS40">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT40">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9832,25 +9832,25 @@
         <v>1.28</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT41">
-        <v>2.51</v>
+        <v>2.42</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -10038,25 +10038,25 @@
         <v>1.03</v>
       </c>
       <c r="AN42">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR42">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS42">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="AT42">
-        <v>2.51</v>
+        <v>2.42</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10244,25 +10244,25 @@
         <v>2.39</v>
       </c>
       <c r="AN43">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO43">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AT43">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10450,25 +10450,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ44">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR44">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="AS44">
-        <v>2.85</v>
+        <v>3.06</v>
       </c>
       <c r="AT44">
-        <v>4.56</v>
+        <v>5.04</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10656,25 +10656,25 @@
         <v>3.2</v>
       </c>
       <c r="AN45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR45">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AS45">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT45">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10862,25 +10862,25 @@
         <v>1.71</v>
       </c>
       <c r="AN46">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR46">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AS46">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -11068,25 +11068,25 @@
         <v>1.26</v>
       </c>
       <c r="AN47">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AS47">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="AT47">
-        <v>2.8</v>
+        <v>3.41</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -11274,25 +11274,25 @@
         <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR48">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>0.76</v>
       </c>
       <c r="AT48">
-        <v>2.57</v>
+        <v>1.93</v>
       </c>
       <c r="AU48">
         <v>10</v>
@@ -11480,25 +11480,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ49">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR49">
+        <v>1.65</v>
+      </c>
+      <c r="AS49">
         <v>1.54</v>
       </c>
-      <c r="AS49">
-        <v>1.58</v>
-      </c>
       <c r="AT49">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11686,25 +11686,25 @@
         <v>1.25</v>
       </c>
       <c r="AN50">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT50">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11892,25 +11892,25 @@
         <v>5</v>
       </c>
       <c r="AN51">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AS51">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT51">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="AU51">
         <v>12</v>
@@ -12098,25 +12098,25 @@
         <v>1.13</v>
       </c>
       <c r="AN52">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS52">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="AT52">
-        <v>2.89</v>
+        <v>2.6</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12304,25 +12304,25 @@
         <v>1.11</v>
       </c>
       <c r="AN53">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AO53">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AS53">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT53">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12510,25 +12510,25 @@
         <v>1.09</v>
       </c>
       <c r="AN54">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR54">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AT54">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12716,25 +12716,25 @@
         <v>1.8</v>
       </c>
       <c r="AN55">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS55">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12922,25 +12922,25 @@
         <v>1.72</v>
       </c>
       <c r="AN56">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ56">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR56">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AS56">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AT56">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AU56">
         <v>10</v>
@@ -13128,25 +13128,25 @@
         <v>1.06</v>
       </c>
       <c r="AN57">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR57">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT57">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13334,25 +13334,25 @@
         <v>2.3</v>
       </c>
       <c r="AN58">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AO58">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AS58">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13540,25 +13540,25 @@
         <v>3.4</v>
       </c>
       <c r="AN59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO59">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AS59">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59">
-        <v>3.09</v>
+        <v>2.65</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13746,25 +13746,25 @@
         <v>3.23</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO60">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ60">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AS60">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="AT60">
-        <v>2.81</v>
+        <v>2.48</v>
       </c>
       <c r="AU60">
         <v>12</v>
@@ -13952,25 +13952,25 @@
         <v>2.85</v>
       </c>
       <c r="AN61">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO61">
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR61">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS61">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AT61">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -14158,25 +14158,25 @@
         <v>3</v>
       </c>
       <c r="AN62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR62">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AS62">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -14364,25 +14364,25 @@
         <v>1.57</v>
       </c>
       <c r="AN63">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ63">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR63">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.42</v>
+        <v>0.88</v>
       </c>
       <c r="AT63">
-        <v>2.76</v>
+        <v>2.13</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14570,25 +14570,25 @@
         <v>4.33</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR64">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="AS64">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AT64">
-        <v>4.17</v>
+        <v>4.19</v>
       </c>
       <c r="AU64">
         <v>11</v>
@@ -14776,25 +14776,25 @@
         <v>1.22</v>
       </c>
       <c r="AN65">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ65">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS65">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AT65">
-        <v>2.8</v>
+        <v>3.12</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14982,25 +14982,25 @@
         <v>1.87</v>
       </c>
       <c r="AN66">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AO66">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ66">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS66">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>3.11</v>
+        <v>2.9</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15188,25 +15188,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO67">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ67">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="AS67">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AT67">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -15394,25 +15394,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
+        <v>2.25</v>
+      </c>
+      <c r="AO68">
         <v>1.5</v>
       </c>
-      <c r="AO68">
-        <v>2.14</v>
-      </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS68">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15600,25 +15600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN69">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AO69">
-        <v>1.44</v>
+        <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR69">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AS69">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT69">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15806,25 +15806,25 @@
         <v>1.72</v>
       </c>
       <c r="AN70">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO70">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="AP70">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR70">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="AS70">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="AT70">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -16012,25 +16012,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO71">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR71">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS71">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>3.11</v>
+        <v>3.19</v>
       </c>
       <c r="AU71">
         <v>5</v>
@@ -16218,25 +16218,25 @@
         <v>2</v>
       </c>
       <c r="AN72">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO72">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
       </c>
       <c r="AS72">
-        <v>1.21</v>
+        <v>0.8</v>
       </c>
       <c r="AT72">
-        <v>2.84</v>
+        <v>2.43</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16424,25 +16424,25 @@
         <v>1.9</v>
       </c>
       <c r="AN73">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ73">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16630,25 +16630,25 @@
         <v>3.5</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AO74">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ74">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
       </c>
       <c r="AS74">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AT74">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="AU74">
         <v>11</v>
@@ -16836,25 +16836,25 @@
         <v>1.44</v>
       </c>
       <c r="AN75">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="AO75">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="AS75">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
-        <v>2.34</v>
+        <v>2.53</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -17042,25 +17042,25 @@
         <v>1.03</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO76">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR76">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AS76">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="AT76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17248,25 +17248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN77">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="AO77">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ77">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AT77">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -17454,25 +17454,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO78">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT78">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17660,25 +17660,25 @@
         <v>1.72</v>
       </c>
       <c r="AN79">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO79">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP79">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR79">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AS79">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT79">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17866,25 +17866,25 @@
         <v>1.16</v>
       </c>
       <c r="AN80">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>2.11</v>
+        <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS80">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="AT80">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -18072,25 +18072,25 @@
         <v>2.8</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO81">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="AS81">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>4.12</v>
+        <v>4.42</v>
       </c>
       <c r="AU81">
         <v>7</v>
@@ -18278,25 +18278,25 @@
         <v>1.85</v>
       </c>
       <c r="AN82">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="AO82">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ82">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="AT82">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18484,25 +18484,25 @@
         <v>1.28</v>
       </c>
       <c r="AN83">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS83">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AT83">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18693,22 +18693,22 @@
         <v>2</v>
       </c>
       <c r="AO84">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="AT84">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18896,25 +18896,25 @@
         <v>1.08</v>
       </c>
       <c r="AN85">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="AO85">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR85">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AS85">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -19102,25 +19102,25 @@
         <v>1.92</v>
       </c>
       <c r="AN86">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="AO86">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR86">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS86">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT86">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19308,25 +19308,25 @@
         <v>2.57</v>
       </c>
       <c r="AN87">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO87">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP87">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR87">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AS87">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="AT87">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19514,25 +19514,25 @@
         <v>1.27</v>
       </c>
       <c r="AN88">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ88">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AS88">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19720,25 +19720,25 @@
         <v>1.37</v>
       </c>
       <c r="AN89">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO89">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR89">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="AS89">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AT89">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19926,25 +19926,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AO90">
-        <v>1.18</v>
+        <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="AS90">
         <v>1.39</v>
       </c>
       <c r="AT90">
-        <v>2.63</v>
+        <v>2.94</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -20132,25 +20132,25 @@
         <v>1.33</v>
       </c>
       <c r="AN91">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AO91">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT91">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -20338,25 +20338,25 @@
         <v>1.25</v>
       </c>
       <c r="AN92">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AO92">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR92">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS92">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>3.12</v>
+        <v>2.9</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20544,25 +20544,25 @@
         <v>2</v>
       </c>
       <c r="AN93">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO93">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR93">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AS93">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AT93">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20750,25 +20750,25 @@
         <v>1.64</v>
       </c>
       <c r="AN94">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR94">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="AT94">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20956,25 +20956,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AO95">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AS95">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AT95">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21162,25 +21162,25 @@
         <v>1.23</v>
       </c>
       <c r="AN96">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AO96">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AS96">
         <v>1.61</v>
       </c>
       <c r="AT96">
-        <v>2.92</v>
+        <v>3.08</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21368,25 +21368,25 @@
         <v>2.12</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO97">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="AP97">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ97">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS97">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT97">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21574,25 +21574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="AO98">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ98">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="AS98">
-        <v>1.22</v>
+        <v>0.87</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21780,25 +21780,25 @@
         <v>2.07</v>
       </c>
       <c r="AN99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO99">
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AS99">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21986,25 +21986,25 @@
         <v>4.2</v>
       </c>
       <c r="AN100">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO100">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="AS100">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AT100">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="AU100">
         <v>14</v>
@@ -22192,25 +22192,25 @@
         <v>1.72</v>
       </c>
       <c r="AN101">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="AO101">
+        <v>0.5</v>
+      </c>
+      <c r="AP101">
+        <v>1.94</v>
+      </c>
+      <c r="AQ101">
         <v>0.33</v>
       </c>
-      <c r="AP101">
-        <v>1.4</v>
-      </c>
-      <c r="AQ101">
-        <v>0.49</v>
-      </c>
       <c r="AR101">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS101">
-        <v>1.15</v>
+        <v>0.91</v>
       </c>
       <c r="AT101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22398,25 +22398,25 @@
         <v>2.65</v>
       </c>
       <c r="AN102">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AO102">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AP102">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR102">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS102">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AT102">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22604,25 +22604,25 @@
         <v>1.35</v>
       </c>
       <c r="AN103">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AP103">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR103">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AS103">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AT103">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22813,22 +22813,22 @@
         <v>1</v>
       </c>
       <c r="AO104">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR104">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AS104">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AT104">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -23016,25 +23016,25 @@
         <v>1.05</v>
       </c>
       <c r="AN105">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="AO105">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP105">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ105">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR105">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AS105">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23222,25 +23222,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AO106">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ106">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AS106">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23428,25 +23428,25 @@
         <v>2</v>
       </c>
       <c r="AN107">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="AO107">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
       <c r="AP107">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ107">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR107">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="AS107">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>3.73</v>
+        <v>3.85</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23634,25 +23634,25 @@
         <v>1.15</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO108">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS108">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="AT108">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23840,25 +23840,25 @@
         <v>1.47</v>
       </c>
       <c r="AN109">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="AO109">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AP109">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR109">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT109">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -24046,25 +24046,25 @@
         <v>2.2</v>
       </c>
       <c r="AN110">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO110">
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR110">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="AT110">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU110">
         <v>13</v>
@@ -24252,25 +24252,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
-        <v>2.07</v>
+        <v>2.67</v>
       </c>
       <c r="AO111">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ111">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AS111">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT111">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU111">
         <v>8</v>
@@ -24458,25 +24458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN112">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AO112">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="AS112">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AT112">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24664,25 +24664,25 @@
         <v>1.65</v>
       </c>
       <c r="AN113">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="AO113">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS113">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT113">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24870,25 +24870,25 @@
         <v>2.4</v>
       </c>
       <c r="AN114">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO114">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT114">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25076,25 +25076,25 @@
         <v>1.06</v>
       </c>
       <c r="AN115">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ115">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AS115">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="AT115">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="AU115">
         <v>3</v>
@@ -25282,25 +25282,25 @@
         <v>4.75</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO116">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="AS116">
-        <v>1.21</v>
+        <v>0.91</v>
       </c>
       <c r="AT116">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="AU116">
         <v>13</v>
@@ -25491,22 +25491,22 @@
         <v>0.57</v>
       </c>
       <c r="AO117">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP117">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ117">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR117">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="AS117">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT117">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="AU117">
         <v>9</v>
@@ -25694,25 +25694,25 @@
         <v>1.31</v>
       </c>
       <c r="AN118">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AO118">
+        <v>1.33</v>
+      </c>
+      <c r="AP118">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118">
+        <v>1.56</v>
+      </c>
+      <c r="AR118">
+        <v>1.49</v>
+      </c>
+      <c r="AS118">
         <v>1.86</v>
       </c>
-      <c r="AP118">
-        <v>1.42</v>
-      </c>
-      <c r="AQ118">
-        <v>1.83</v>
-      </c>
-      <c r="AR118">
-        <v>1.47</v>
-      </c>
-      <c r="AS118">
-        <v>2.01</v>
-      </c>
       <c r="AT118">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -25900,25 +25900,25 @@
         <v>1.06</v>
       </c>
       <c r="AN119">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ119">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR119">
         <v>1.32</v>
       </c>
       <c r="AS119">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="AT119">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -26106,25 +26106,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO120">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ120">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
       </c>
       <c r="AS120">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT120">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AU120">
         <v>10</v>
@@ -26312,25 +26312,25 @@
         <v>1.47</v>
       </c>
       <c r="AN121">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AO121">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ121">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="AS121">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT121">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26518,25 +26518,25 @@
         <v>5.1</v>
       </c>
       <c r="AN122">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="AO122">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AP122">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ122">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR122">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AS122">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT122">
-        <v>3.81</v>
+        <v>4.04</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26724,25 +26724,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO123">
+        <v>0.86</v>
+      </c>
+      <c r="AP123">
+        <v>1.29</v>
+      </c>
+      <c r="AQ123">
+        <v>1.28</v>
+      </c>
+      <c r="AR123">
+        <v>1.31</v>
+      </c>
+      <c r="AS123">
         <v>0.93</v>
       </c>
-      <c r="AP123">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ123">
-        <v>1.11</v>
-      </c>
-      <c r="AR123">
-        <v>1.18</v>
-      </c>
-      <c r="AS123">
-        <v>1.15</v>
-      </c>
       <c r="AT123">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26930,25 +26930,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AO124">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ124">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR124">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AS124">
-        <v>1.16</v>
+        <v>0.87</v>
       </c>
       <c r="AT124">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -27136,25 +27136,25 @@
         <v>4.2</v>
       </c>
       <c r="AN125">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AO125">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR125">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AS125">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AT125">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27342,25 +27342,25 @@
         <v>1.91</v>
       </c>
       <c r="AN126">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO126">
-        <v>1.79</v>
+        <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ126">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AS126">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT126">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27548,25 +27548,25 @@
         <v>1.33</v>
       </c>
       <c r="AN127">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO127">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AS127">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="AT127">
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27754,25 +27754,25 @@
         <v>2.15</v>
       </c>
       <c r="AN128">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR128">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS128">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AT128">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27963,22 +27963,22 @@
         <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR129">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS129">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AT129">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28166,25 +28166,25 @@
         <v>1.35</v>
       </c>
       <c r="AN130">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO130">
-        <v>2.19</v>
+        <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ130">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR130">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AS130">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>2.89</v>
+        <v>3.02</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28372,25 +28372,25 @@
         <v>1.08</v>
       </c>
       <c r="AN131">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AO131">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ131">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR131">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AS131">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AT131">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28578,25 +28578,25 @@
         <v>2.15</v>
       </c>
       <c r="AN132">
+        <v>2.14</v>
+      </c>
+      <c r="AO132">
+        <v>0.88</v>
+      </c>
+      <c r="AP132">
         <v>1.67</v>
       </c>
-      <c r="AO132">
-        <v>1.31</v>
-      </c>
-      <c r="AP132">
-        <v>1.42</v>
-      </c>
       <c r="AQ132">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AT132">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28784,25 +28784,25 @@
         <v>1.08</v>
       </c>
       <c r="AN133">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO133">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AP133">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ133">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR133">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS133">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT133">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28990,25 +28990,25 @@
         <v>2.38</v>
       </c>
       <c r="AN134">
-        <v>1.69</v>
+        <v>2.25</v>
       </c>
       <c r="AO134">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR134">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="AS134">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="AT134">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29199,22 +29199,22 @@
         <v>0.5</v>
       </c>
       <c r="AO135">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="AP135">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ135">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR135">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="AS135">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="AT135">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29402,25 +29402,25 @@
         <v>1.66</v>
       </c>
       <c r="AN136">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="AO136">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ136">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR136">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS136">
-        <v>1.15</v>
+        <v>0.88</v>
       </c>
       <c r="AT136">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29608,25 +29608,25 @@
         <v>1.25</v>
       </c>
       <c r="AN137">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="AO137">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP137">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AS137">
         <v>1.42</v>
       </c>
       <c r="AT137">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29814,25 +29814,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ138">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AS138">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AT138">
-        <v>2.56</v>
+        <v>2.77</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30020,25 +30020,25 @@
         <v>2.8</v>
       </c>
       <c r="AN139">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="AO139">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AP139">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ139">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR139">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AS139">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30226,25 +30226,25 @@
         <v>5.8</v>
       </c>
       <c r="AN140">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="AO140">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ140">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR140">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AS140">
-        <v>1.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT140">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30432,25 +30432,25 @@
         <v>1.3</v>
       </c>
       <c r="AN141">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AO141">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
       </c>
       <c r="AS141">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT141">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30638,25 +30638,25 @@
         <v>4.2</v>
       </c>
       <c r="AN142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR142">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AS142">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT142">
-        <v>3.71</v>
+        <v>3.93</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30847,22 +30847,22 @@
         <v>1</v>
       </c>
       <c r="AO143">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR143">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AS143">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT143">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31050,25 +31050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN144">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO144">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AP144">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
+        <v>1.11</v>
+      </c>
+      <c r="AR144">
+        <v>1.4</v>
+      </c>
+      <c r="AS144">
         <v>1.25</v>
       </c>
-      <c r="AR144">
-        <v>1.41</v>
-      </c>
-      <c r="AS144">
-        <v>1.6</v>
-      </c>
       <c r="AT144">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31256,25 +31256,25 @@
         <v>1.1</v>
       </c>
       <c r="AN145">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AO145">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AP145">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR145">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AS145">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT145">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AU145">
         <v>6</v>
@@ -31462,25 +31462,25 @@
         <v>1.18</v>
       </c>
       <c r="AN146">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AO146">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR146">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AS146">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT146">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31671,22 +31671,22 @@
         <v>0.44</v>
       </c>
       <c r="AO147">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ147">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR147">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AS147">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT147">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31874,25 +31874,25 @@
         <v>2.3</v>
       </c>
       <c r="AN148">
-        <v>1.61</v>
+        <v>2.11</v>
       </c>
       <c r="AO148">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ148">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="AS148">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AT148">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32080,25 +32080,25 @@
         <v>1.48</v>
       </c>
       <c r="AN149">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR149">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AS149">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AT149">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AU149">
         <v>2</v>
@@ -32286,25 +32286,25 @@
         <v>6.5</v>
       </c>
       <c r="AN150">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="AO150">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="AP150">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR150">
-        <v>2.38</v>
+        <v>2.49</v>
       </c>
       <c r="AS150">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AT150">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="AU150">
         <v>12</v>
@@ -32492,25 +32492,25 @@
         <v>1.65</v>
       </c>
       <c r="AN151">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AO151">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR151">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS151">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AT151">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32701,22 +32701,22 @@
         <v>1</v>
       </c>
       <c r="AO152">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
+        <v>1.17</v>
+      </c>
+      <c r="AR152">
+        <v>1.37</v>
+      </c>
+      <c r="AS152">
         <v>1.42</v>
       </c>
-      <c r="AR152">
-        <v>1.23</v>
-      </c>
-      <c r="AS152">
-        <v>1.4</v>
-      </c>
       <c r="AT152">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32904,25 +32904,25 @@
         <v>2.35</v>
       </c>
       <c r="AN153">
-        <v>2.21</v>
+        <v>2.78</v>
       </c>
       <c r="AO153">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ153">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR153">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AT153">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33110,25 +33110,25 @@
         <v>1.06</v>
       </c>
       <c r="AN154">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AO154">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR154">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AS154">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AT154">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33316,25 +33316,25 @@
         <v>2.95</v>
       </c>
       <c r="AN155">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AO155">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR155">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AS155">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT155">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33522,25 +33522,25 @@
         <v>3.2</v>
       </c>
       <c r="AN156">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AO156">
-        <v>1.05</v>
+        <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ156">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR156">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="AS156">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AT156">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="AU156">
         <v>11</v>
@@ -33728,25 +33728,25 @@
         <v>1.35</v>
       </c>
       <c r="AN157">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP157">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ157">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR157">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AS157">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT157">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="AU157">
         <v>0</v>
@@ -33934,25 +33934,25 @@
         <v>2.75</v>
       </c>
       <c r="AN158">
-        <v>1.84</v>
+        <v>2.11</v>
       </c>
       <c r="AO158">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AS158">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="AT158">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34140,25 +34140,25 @@
         <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="AO159">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AP159">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ159">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AT159">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34346,25 +34346,25 @@
         <v>1.9</v>
       </c>
       <c r="AN160">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AO160">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR160">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS160">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT160">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34552,25 +34552,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO161">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ161">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR161">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AS161">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT161">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -34758,25 +34758,25 @@
         <v>1.15</v>
       </c>
       <c r="AN162">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AO162">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AP162">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AT162">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -34964,25 +34964,25 @@
         <v>2</v>
       </c>
       <c r="AN163">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="AO163">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR163">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AT163">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35170,25 +35170,25 @@
         <v>1.04</v>
       </c>
       <c r="AN164">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AO164">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ164">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AS164">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AT164">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -35376,25 +35376,25 @@
         <v>1.08</v>
       </c>
       <c r="AN165">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AO165">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AP165">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ165">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR165">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AS165">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>2.56</v>
+        <v>2.83</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35582,22 +35582,22 @@
         <v>1.66</v>
       </c>
       <c r="AN166">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO166">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AP166">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR166">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AS166">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT166">
         <v>2.84</v>
@@ -35788,25 +35788,25 @@
         <v>6.5</v>
       </c>
       <c r="AN167">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AO167">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ167">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR167">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AS167">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="AT167">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="AU167">
         <v>10</v>
@@ -35994,25 +35994,25 @@
         <v>2.55</v>
       </c>
       <c r="AN168">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="AO168">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AP168">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ168">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR168">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="AS168">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT168">
-        <v>4.09</v>
+        <v>4.22</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36200,25 +36200,25 @@
         <v>1.81</v>
       </c>
       <c r="AN169">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="AO169">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AQ169">
-        <v>0.91</v>
-      </c>
       <c r="AR169">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AT169">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36406,25 +36406,25 @@
         <v>3.22</v>
       </c>
       <c r="AN170">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AO170">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ170">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR170">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="AS170">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="AT170">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36612,25 +36612,25 @@
         <v>2.3</v>
       </c>
       <c r="AN171">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AO171">
+        <v>0.7</v>
+      </c>
+      <c r="AP171">
+        <v>1.88</v>
+      </c>
+      <c r="AQ171">
+        <v>0.71</v>
+      </c>
+      <c r="AR171">
+        <v>1.48</v>
+      </c>
+      <c r="AS171">
         <v>0.95</v>
       </c>
-      <c r="AP171">
-        <v>1.66</v>
-      </c>
-      <c r="AQ171">
-        <v>0.97</v>
-      </c>
-      <c r="AR171">
-        <v>1.45</v>
-      </c>
-      <c r="AS171">
-        <v>1.22</v>
-      </c>
       <c r="AT171">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36818,25 +36818,25 @@
         <v>1.36</v>
       </c>
       <c r="AN172">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="AO172">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="AP172">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ172">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR172">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AS172">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AT172">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37024,25 +37024,25 @@
         <v>2.23</v>
       </c>
       <c r="AN173">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AO173">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ173">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR173">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AS173">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT173">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="AU173">
         <v>12</v>
@@ -37230,25 +37230,25 @@
         <v>1.6</v>
       </c>
       <c r="AN174">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AO174">
-        <v>1.29</v>
+        <v>0.7</v>
       </c>
       <c r="AP174">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ174">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AS174">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37436,25 +37436,25 @@
         <v>1.9</v>
       </c>
       <c r="AN175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO175">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS175">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT175">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37642,25 +37642,25 @@
         <v>1.02</v>
       </c>
       <c r="AN176">
-        <v>1.19</v>
+        <v>1.8</v>
       </c>
       <c r="AO176">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ176">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR176">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS176">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AT176">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -37848,25 +37848,25 @@
         <v>3.3</v>
       </c>
       <c r="AN177">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="AO177">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
       <c r="AP177">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ177">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR177">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="AS177">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AT177">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -38057,22 +38057,22 @@
         <v>0.45</v>
       </c>
       <c r="AO178">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ178">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR178">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AS178">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AT178">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38260,25 +38260,25 @@
         <v>1.28</v>
       </c>
       <c r="AN179">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="AO179">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AP179">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS179">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT179">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="AU179">
         <v>8</v>
@@ -38466,25 +38466,25 @@
         <v>1.33</v>
       </c>
       <c r="AN180">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>2.93</v>
+        <v>2.62</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38672,25 +38672,25 @@
         <v>3.4</v>
       </c>
       <c r="AN181">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ181">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR181">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="AS181">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AT181">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU181">
         <v>11</v>
@@ -38878,25 +38878,25 @@
         <v>3.25</v>
       </c>
       <c r="AN182">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AO182">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ182">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR182">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="AS182">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AT182">
-        <v>3.75</v>
+        <v>3.92</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39084,25 +39084,25 @@
         <v>2.71</v>
       </c>
       <c r="AN183">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AO183">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="AP183">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ183">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT183">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39290,25 +39290,25 @@
         <v>1.04</v>
       </c>
       <c r="AN184">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AO184">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ184">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AS184">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="AT184">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39496,25 +39496,25 @@
         <v>2.88</v>
       </c>
       <c r="AN185">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="AP185">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ185">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR185">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS185">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AT185">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39702,25 +39702,25 @@
         <v>1.39</v>
       </c>
       <c r="AN186">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AO186">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ186">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR186">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT186">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39908,25 +39908,25 @@
         <v>1.35</v>
       </c>
       <c r="AN187">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="AO187">
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR187">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AS187">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AT187">
-        <v>3.17</v>
+        <v>2.98</v>
       </c>
       <c r="AU187">
         <v>6</v>
@@ -40114,25 +40114,25 @@
         <v>1.14</v>
       </c>
       <c r="AN188">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="AO188">
-        <v>2.22</v>
+        <v>1.55</v>
       </c>
       <c r="AP188">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ188">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR188">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AS188">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AT188">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="AU188">
         <v>6</v>
@@ -40320,25 +40320,25 @@
         <v>1.2</v>
       </c>
       <c r="AN189">
-        <v>0.57</v>
+        <v>0.82</v>
       </c>
       <c r="AO189">
+        <v>1.18</v>
+      </c>
+      <c r="AP189">
+        <v>1.29</v>
+      </c>
+      <c r="AQ189">
+        <v>1.17</v>
+      </c>
+      <c r="AR189">
         <v>1.39</v>
       </c>
-      <c r="AP189">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ189">
-        <v>1.42</v>
-      </c>
-      <c r="AR189">
-        <v>1.2</v>
-      </c>
       <c r="AS189">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AT189">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40526,25 +40526,25 @@
         <v>3</v>
       </c>
       <c r="AN190">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="AO190">
-        <v>1.43</v>
+        <v>0.91</v>
       </c>
       <c r="AP190">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ190">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR190">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AS190">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT190">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40732,25 +40732,25 @@
         <v>1.12</v>
       </c>
       <c r="AN191">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AO191">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AP191">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ191">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR191">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="AS191">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="AT191">
-        <v>3.92</v>
+        <v>4.12</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40938,25 +40938,25 @@
         <v>1.38</v>
       </c>
       <c r="AN192">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AO192">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP192">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ192">
+        <v>0.71</v>
+      </c>
+      <c r="AR192">
+        <v>1.09</v>
+      </c>
+      <c r="AS192">
         <v>0.97</v>
       </c>
-      <c r="AR192">
-        <v>1.07</v>
-      </c>
-      <c r="AS192">
-        <v>1.2</v>
-      </c>
       <c r="AT192">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41144,25 +41144,25 @@
         <v>1.85</v>
       </c>
       <c r="AN193">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AO193">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR193">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AS193">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="AT193">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU193">
         <v>5</v>
@@ -41350,25 +41350,25 @@
         <v>2.41</v>
       </c>
       <c r="AN194">
-        <v>2.13</v>
+        <v>2.83</v>
       </c>
       <c r="AO194">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AP194">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ194">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR194">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AS194">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT194">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="AU194">
         <v>8</v>
@@ -41556,25 +41556,25 @@
         <v>1.63</v>
       </c>
       <c r="AN195">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AO195">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AP195">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ195">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR195">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS195">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT195">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="AU195">
         <v>5</v>
@@ -41765,22 +41765,22 @@
         <v>0.42</v>
       </c>
       <c r="AO196">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="AP196">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ196">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR196">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AS196">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AT196">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU196">
         <v>0</v>
@@ -41968,25 +41968,25 @@
         <v>6</v>
       </c>
       <c r="AN197">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="AO197">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ197">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR197">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="AS197">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT197">
-        <v>3.48</v>
+        <v>3.51</v>
       </c>
       <c r="AU197">
         <v>14</v>
@@ -42174,22 +42174,22 @@
         <v>2.2</v>
       </c>
       <c r="AN198">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AO198">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="AP198">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS198">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT198">
         <v>2.42</v>
@@ -42380,25 +42380,25 @@
         <v>1.31</v>
       </c>
       <c r="AN199">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO199">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ199">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR199">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AS199">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42586,25 +42586,25 @@
         <v>2.35</v>
       </c>
       <c r="AN200">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AO200">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AS200">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AT200">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="AU200">
         <v>11</v>
@@ -42792,25 +42792,25 @@
         <v>1.63</v>
       </c>
       <c r="AN201">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AO201">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AP201">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ201">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR201">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AS201">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="AT201">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42998,25 +42998,25 @@
         <v>1.87</v>
       </c>
       <c r="AN202">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AO202">
-        <v>1.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ202">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR202">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AS202">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT202">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43204,25 +43204,25 @@
         <v>2.35</v>
       </c>
       <c r="AN203">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AO203">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP203">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ203">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR203">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="AS203">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT203">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="AU203">
         <v>9</v>
@@ -43410,25 +43410,25 @@
         <v>1.44</v>
       </c>
       <c r="AN204">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AO204">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ204">
+        <v>0.71</v>
+      </c>
+      <c r="AR204">
+        <v>1.36</v>
+      </c>
+      <c r="AS204">
         <v>0.97</v>
       </c>
-      <c r="AR204">
-        <v>1.21</v>
-      </c>
-      <c r="AS204">
-        <v>1.18</v>
-      </c>
       <c r="AT204">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43616,25 +43616,25 @@
         <v>1.06</v>
       </c>
       <c r="AN205">
+        <v>2.08</v>
+      </c>
+      <c r="AO205">
+        <v>2.27</v>
+      </c>
+      <c r="AP205">
         <v>1.88</v>
       </c>
-      <c r="AO205">
-        <v>2.38</v>
-      </c>
-      <c r="AP205">
-        <v>1.66</v>
-      </c>
       <c r="AQ205">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR205">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AS205">
-        <v>2.27</v>
+        <v>2.09</v>
       </c>
       <c r="AT205">
-        <v>3.73</v>
+        <v>3.62</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43822,25 +43822,25 @@
         <v>1.03</v>
       </c>
       <c r="AN206">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO206">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AP206">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS206">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AT206">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44028,25 +44028,25 @@
         <v>1.6</v>
       </c>
       <c r="AN207">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AO207">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="AP207">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ207">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AS207">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT207">
-        <v>3.37</v>
+        <v>3.57</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44234,25 +44234,25 @@
         <v>2.18</v>
       </c>
       <c r="AN208">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="AO208">
-        <v>1.16</v>
+        <v>0.58</v>
       </c>
       <c r="AP208">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208">
+        <v>0.76</v>
+      </c>
+      <c r="AR208">
+        <v>1.4</v>
+      </c>
+      <c r="AS208">
         <v>1.2</v>
       </c>
-      <c r="AR208">
-        <v>1.42</v>
-      </c>
-      <c r="AS208">
-        <v>1.35</v>
-      </c>
       <c r="AT208">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44443,22 +44443,22 @@
         <v>0.38</v>
       </c>
       <c r="AO209">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AP209">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ209">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR209">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AS209">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT209">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44646,25 +44646,25 @@
         <v>2.3</v>
       </c>
       <c r="AN210">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AO210">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ210">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR210">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AS210">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AU210">
         <v>8</v>
@@ -44852,25 +44852,25 @@
         <v>1.83</v>
       </c>
       <c r="AN211">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AO211">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="AP211">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR211">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS211">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AT211">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AU211">
         <v>8</v>
@@ -45058,25 +45058,25 @@
         <v>3.16</v>
       </c>
       <c r="AN212">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AO212">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ212">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR212">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AS212">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT212">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45264,25 +45264,25 @@
         <v>2.35</v>
       </c>
       <c r="AN213">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AO213">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AP213">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ213">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR213">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="AS213">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AT213">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="AU213">
         <v>8</v>
@@ -45470,25 +45470,25 @@
         <v>3.1</v>
       </c>
       <c r="AN214">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AO214">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="AP214">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR214">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AS214">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT214">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45676,25 +45676,25 @@
         <v>1.25</v>
       </c>
       <c r="AN215">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="AO215">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AP215">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ215">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR215">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS215">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT215">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -45882,25 +45882,25 @@
         <v>3.6</v>
       </c>
       <c r="AN216">
-        <v>2.12</v>
+        <v>2.85</v>
       </c>
       <c r="AO216">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="AP216">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ216">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR216">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS216">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="AT216">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="AU216">
         <v>11</v>
@@ -46088,25 +46088,25 @@
         <v>2</v>
       </c>
       <c r="AN217">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AO217">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="AP217">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ217">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR217">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AS217">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="AT217">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="AU217">
         <v>10</v>
@@ -46294,25 +46294,25 @@
         <v>1.6</v>
       </c>
       <c r="AN218">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO218">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ218">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR218">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AS218">
         <v>1.39</v>
       </c>
       <c r="AT218">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU218">
         <v>3</v>
@@ -46500,25 +46500,25 @@
         <v>1.36</v>
       </c>
       <c r="AN219">
-        <v>1.89</v>
+        <v>2.23</v>
       </c>
       <c r="AO219">
-        <v>2.11</v>
+        <v>2.23</v>
       </c>
       <c r="AP219">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ219">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR219">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="AS219">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AT219">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU219">
         <v>0</v>
@@ -46706,25 +46706,25 @@
         <v>1.69</v>
       </c>
       <c r="AN220">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AO220">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AP220">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ220">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AS220">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT220">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="AU220">
         <v>9</v>
@@ -46912,25 +46912,25 @@
         <v>1.01</v>
       </c>
       <c r="AN221">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AO221">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AP221">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ221">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR221">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AS221">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AT221">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47118,25 +47118,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AO222">
-        <v>1.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR222">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS222">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT222">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU222">
         <v>3</v>
@@ -47324,25 +47324,25 @@
         <v>1.33</v>
       </c>
       <c r="AN223">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AO223">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="AP223">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ223">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR223">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS223">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AT223">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47530,25 +47530,25 @@
         <v>1.55</v>
       </c>
       <c r="AN224">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO224">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ224">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR224">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS224">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT224">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU224">
         <v>3</v>
@@ -47736,25 +47736,25 @@
         <v>1.23</v>
       </c>
       <c r="AN225">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AO225">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AP225">
+        <v>1.5</v>
+      </c>
+      <c r="AQ225">
+        <v>2.18</v>
+      </c>
+      <c r="AR225">
         <v>1.49</v>
       </c>
-      <c r="AQ225">
-        <v>2.34</v>
-      </c>
-      <c r="AR225">
-        <v>1.47</v>
-      </c>
       <c r="AS225">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="AT225">
-        <v>3.69</v>
+        <v>3.56</v>
       </c>
       <c r="AU225">
         <v>6</v>
@@ -47942,25 +47942,25 @@
         <v>3.22</v>
       </c>
       <c r="AN226">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AO226">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="AP226">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ226">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR226">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="AS226">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AT226">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="AU226">
         <v>8</v>
@@ -48148,25 +48148,25 @@
         <v>5</v>
       </c>
       <c r="AN227">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO227">
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ227">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AS227">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AT227">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AU227">
         <v>8</v>
@@ -48354,25 +48354,25 @@
         <v>2.9</v>
       </c>
       <c r="AN228">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AO228">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ228">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR228">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS228">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="AT228">
-        <v>2.64</v>
+        <v>2.41</v>
       </c>
       <c r="AU228">
         <v>7</v>
@@ -48560,25 +48560,25 @@
         <v>1.55</v>
       </c>
       <c r="AN229">
-        <v>2.07</v>
+        <v>2.86</v>
       </c>
       <c r="AO229">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AP229">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ229">
+        <v>1.56</v>
+      </c>
+      <c r="AR229">
         <v>1.83</v>
       </c>
-      <c r="AR229">
-        <v>1.73</v>
-      </c>
       <c r="AS229">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT229">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48766,25 +48766,25 @@
         <v>1.3</v>
       </c>
       <c r="AN230">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="AO230">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AP230">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ230">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR230">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT230">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -48972,25 +48972,25 @@
         <v>1.22</v>
       </c>
       <c r="AN231">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO231">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AP231">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ231">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR231">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS231">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AT231">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU231">
         <v>7</v>
@@ -49178,25 +49178,25 @@
         <v>2.5</v>
       </c>
       <c r="AN232">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AO232">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP232">
+        <v>1.5</v>
+      </c>
+      <c r="AQ232">
+        <v>1.28</v>
+      </c>
+      <c r="AR232">
         <v>1.49</v>
       </c>
-      <c r="AQ232">
-        <v>1.11</v>
-      </c>
-      <c r="AR232">
-        <v>1.47</v>
-      </c>
       <c r="AS232">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49384,25 +49384,25 @@
         <v>4.1</v>
       </c>
       <c r="AN233">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AO233">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AP233">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ233">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR233">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="AS233">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT233">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="AU233">
         <v>13</v>
@@ -49590,25 +49590,25 @@
         <v>2.07</v>
       </c>
       <c r="AN234">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
       <c r="AO234">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="AP234">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR234">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS234">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="AT234">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49796,25 +49796,25 @@
         <v>1.38</v>
       </c>
       <c r="AN235">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="AO235">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AP235">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ235">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR235">
+        <v>1.44</v>
+      </c>
+      <c r="AS235">
         <v>1.42</v>
       </c>
-      <c r="AS235">
-        <v>1.41</v>
-      </c>
       <c r="AT235">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU235">
         <v>7</v>
@@ -50002,25 +50002,25 @@
         <v>1.13</v>
       </c>
       <c r="AN236">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO236">
-        <v>2.1</v>
+        <v>1.29</v>
       </c>
       <c r="AP236">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ236">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR236">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AS236">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT236">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="AU236">
         <v>0</v>
@@ -50208,25 +50208,25 @@
         <v>1.01</v>
       </c>
       <c r="AN237">
-        <v>1.03</v>
+        <v>1.36</v>
       </c>
       <c r="AO237">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AP237">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ237">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR237">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AS237">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="AT237">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="AU237">
         <v>3</v>
@@ -50414,25 +50414,25 @@
         <v>3.34</v>
       </c>
       <c r="AN238">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="AO238">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ238">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR238">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AS238">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT238">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="AU238">
         <v>6</v>
@@ -50620,25 +50620,25 @@
         <v>2.05</v>
       </c>
       <c r="AN239">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AO239">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ239">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR239">
+        <v>1.5</v>
+      </c>
+      <c r="AS239">
         <v>1.46</v>
       </c>
-      <c r="AS239">
-        <v>1.48</v>
-      </c>
       <c r="AT239">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU239">
         <v>6</v>
@@ -50826,25 +50826,25 @@
         <v>1.23</v>
       </c>
       <c r="AN240">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AO240">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AP240">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ240">
         <v>1.11</v>
       </c>
-      <c r="AQ240">
-        <v>1.25</v>
-      </c>
       <c r="AR240">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS240">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="AT240">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -51032,25 +51032,25 @@
         <v>1.15</v>
       </c>
       <c r="AN241">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="AO241">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP241">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ241">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR241">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS241">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT241">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="AU241">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ6">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ7">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
+        <v>1.11</v>
+      </c>
+      <c r="AQ8">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ8">
-        <v>0.61</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3446,25 +3446,25 @@
         <v>4.5</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3652,25 +3652,25 @@
         <v>3.7</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3858,25 +3858,25 @@
         <v>1.28</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AU12">
         <v>7</v>
@@ -4070,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4270,25 +4270,25 @@
         <v>2.06</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4479,22 +4479,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR15">
         <v>1.16</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AT15">
-        <v>1.16</v>
+        <v>3.15</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4688,19 +4688,19 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AS16">
         <v>1.15</v>
       </c>
       <c r="AT16">
-        <v>1.15</v>
+        <v>1.93</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4888,25 +4888,25 @@
         <v>1.2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5094,25 +5094,25 @@
         <v>1.21</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR18">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="AS18">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AT18">
-        <v>2.65</v>
+        <v>2.74</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -5300,25 +5300,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO19">
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ19">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AS19">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AT19">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5509,22 +5509,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="AS20">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>3.36</v>
+        <v>2.83</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5712,25 +5712,25 @@
         <v>3.75</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AT21">
-        <v>1.45</v>
+        <v>2.96</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5918,25 +5918,25 @@
         <v>2.8</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ22">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="AS22">
-        <v>0.78</v>
+        <v>1.39</v>
       </c>
       <c r="AT22">
-        <v>2.77</v>
+        <v>3.42</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -6124,25 +6124,25 @@
         <v>2.75</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR23">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
       <c r="AS23">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="AT23">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6330,25 +6330,25 @@
         <v>1.71</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR24">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AS24">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6536,25 +6536,25 @@
         <v>1.02</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ25">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR25">
-        <v>2.01</v>
+        <v>1.37</v>
       </c>
       <c r="AS25">
-        <v>2.64</v>
+        <v>3.01</v>
       </c>
       <c r="AT25">
-        <v>4.65</v>
+        <v>4.38</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6742,25 +6742,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AS26">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="AT26">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6948,16 +6948,16 @@
         <v>2.75</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -7154,25 +7154,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR28">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AS28">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AT28">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7363,22 +7363,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR29">
-        <v>1.89</v>
+        <v>1.3</v>
       </c>
       <c r="AS29">
-        <v>0.28</v>
+        <v>0.85</v>
       </c>
       <c r="AT29">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7566,25 +7566,25 @@
         <v>1.63</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="AS30">
-        <v>0.6899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AT30">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7772,25 +7772,25 @@
         <v>2.02</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR31">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AS31">
-        <v>0.85</v>
+        <v>1.35</v>
       </c>
       <c r="AT31">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7978,25 +7978,25 @@
         <v>1.2</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP32">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR32">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="AS32">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>3.4</v>
+        <v>2.71</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -8184,25 +8184,25 @@
         <v>1.27</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ33">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT33">
-        <v>2.83</v>
+        <v>2.54</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8390,25 +8390,25 @@
         <v>1.39</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP34">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>1.57</v>
+        <v>3.14</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8599,22 +8599,22 @@
         <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP35">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="AS35">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>2.82</v>
+        <v>3.13</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8802,25 +8802,25 @@
         <v>2.01</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ36">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
-        <v>3.37</v>
+        <v>3.16</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AT36">
-        <v>4.83</v>
+        <v>4.75</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ37">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AS37">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="AT37">
-        <v>2.49</v>
+        <v>2.15</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9214,25 +9214,25 @@
         <v>1.17</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR38">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AS38">
-        <v>0.71</v>
+        <v>1.44</v>
       </c>
       <c r="AT38">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9420,25 +9420,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR39">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="AS39">
-        <v>0.68</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9626,25 +9626,25 @@
         <v>1.66</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
+        <v>1.71</v>
+      </c>
+      <c r="AS40">
         <v>1.47</v>
       </c>
-      <c r="AS40">
-        <v>1.51</v>
-      </c>
       <c r="AT40">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9832,25 +9832,25 @@
         <v>1.28</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="AS41">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -10038,25 +10038,25 @@
         <v>1.03</v>
       </c>
       <c r="AN42">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR42">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS42">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AT42">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10244,25 +10244,25 @@
         <v>2.39</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP43">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS43">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10450,25 +10450,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP44">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR44">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AS44">
-        <v>3.06</v>
+        <v>2.85</v>
       </c>
       <c r="AT44">
-        <v>5.04</v>
+        <v>4.56</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10656,25 +10656,25 @@
         <v>3.2</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR45">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="AS45">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AT45">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10862,25 +10862,25 @@
         <v>1.71</v>
       </c>
       <c r="AN46">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ46">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AT46">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -11068,25 +11068,25 @@
         <v>1.26</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO47">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP47">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR47">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="AT47">
-        <v>3.41</v>
+        <v>2.8</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -11274,25 +11274,25 @@
         <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AS48">
-        <v>0.76</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="AU48">
         <v>10</v>
@@ -11480,25 +11480,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO49">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP49">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR49">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="AS49">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AT49">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11686,25 +11686,25 @@
         <v>1.25</v>
       </c>
       <c r="AN50">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AS50">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11892,25 +11892,25 @@
         <v>5</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ51">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AS51">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT51">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="AU51">
         <v>12</v>
@@ -12098,25 +12098,25 @@
         <v>1.13</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ52">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR52">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AS52">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>2.6</v>
+        <v>2.89</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12304,25 +12304,25 @@
         <v>1.11</v>
       </c>
       <c r="AN53">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR53">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS53">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT53">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12510,25 +12510,25 @@
         <v>1.09</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ54">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AS54">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12716,25 +12716,25 @@
         <v>1.8</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR55">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT55">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12922,25 +12922,25 @@
         <v>1.72</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP56">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR56">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AS56">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AT56">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AU56">
         <v>10</v>
@@ -13128,25 +13128,25 @@
         <v>1.06</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AO57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AS57">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT57">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13334,25 +13334,25 @@
         <v>2.3</v>
       </c>
       <c r="AN58">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AP58">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ58">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS58">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT58">
-        <v>2.91</v>
+        <v>2.98</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13540,25 +13540,25 @@
         <v>3.4</v>
       </c>
       <c r="AN59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP59">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AS59">
-        <v>0.9399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="AT59">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13746,25 +13746,25 @@
         <v>3.23</v>
       </c>
       <c r="AN60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AP60">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR60">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AS60">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="AT60">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="AU60">
         <v>12</v>
@@ -13952,25 +13952,25 @@
         <v>2.85</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO61">
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ61">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS61">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AT61">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -14158,25 +14158,25 @@
         <v>3</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP62">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT62">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -14364,25 +14364,25 @@
         <v>1.57</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ63">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AS63">
-        <v>0.88</v>
+        <v>1.42</v>
       </c>
       <c r="AT63">
-        <v>2.13</v>
+        <v>2.76</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14570,25 +14570,25 @@
         <v>4.33</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2.34</v>
+      </c>
+      <c r="AQ64">
         <v>1.25</v>
       </c>
-      <c r="AP64">
-        <v>2.5</v>
-      </c>
-      <c r="AQ64">
-        <v>1.11</v>
-      </c>
       <c r="AR64">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="AS64">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT64">
-        <v>4.19</v>
+        <v>4.17</v>
       </c>
       <c r="AU64">
         <v>11</v>
@@ -14776,25 +14776,25 @@
         <v>1.22</v>
       </c>
       <c r="AN65">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP65">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR65">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS65">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="AT65">
-        <v>3.12</v>
+        <v>2.8</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14982,25 +14982,25 @@
         <v>1.87</v>
       </c>
       <c r="AN66">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP66">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR66">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS66">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AT66">
-        <v>2.9</v>
+        <v>3.11</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15188,25 +15188,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP67">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR67">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="AS67">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AT67">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -15394,25 +15394,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AP68">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR68">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="AT68">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15600,25 +15600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN69">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO69">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ69">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AS69">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT69">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15806,25 +15806,25 @@
         <v>1.72</v>
       </c>
       <c r="AN70">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO70">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ70">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR70">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="AS70">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="AT70">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -16012,25 +16012,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP71">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="AU71">
         <v>5</v>
@@ -16218,25 +16218,25 @@
         <v>2</v>
       </c>
       <c r="AN72">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
       </c>
       <c r="AS72">
-        <v>0.8</v>
+        <v>1.21</v>
       </c>
       <c r="AT72">
-        <v>2.43</v>
+        <v>2.84</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16424,25 +16424,25 @@
         <v>1.9</v>
       </c>
       <c r="AN73">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AO73">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR73">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AS73">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT73">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16630,25 +16630,25 @@
         <v>3.5</v>
       </c>
       <c r="AN74">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
       </c>
       <c r="AS74">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AT74">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="AU74">
         <v>11</v>
@@ -16836,25 +16836,25 @@
         <v>1.44</v>
       </c>
       <c r="AN75">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="AO75">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP75">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT75">
-        <v>2.53</v>
+        <v>2.34</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -17042,25 +17042,25 @@
         <v>1.03</v>
       </c>
       <c r="AN76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP76">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR76">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AS76">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="AT76">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17248,25 +17248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN77">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO77">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR77">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="AS77">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>2.21</v>
+        <v>2.6</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -17454,25 +17454,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO78">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AP78">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AS78">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AT78">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17660,25 +17660,25 @@
         <v>1.72</v>
       </c>
       <c r="AN79">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AO79">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP79">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ79">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AT79">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17866,25 +17866,25 @@
         <v>1.16</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AO80">
-        <v>1.33</v>
+        <v>2.11</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR80">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS80">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="AT80">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -18072,25 +18072,25 @@
         <v>2.8</v>
       </c>
       <c r="AN81">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ81">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR81">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AS81">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AT81">
-        <v>4.42</v>
+        <v>4.12</v>
       </c>
       <c r="AU81">
         <v>7</v>
@@ -18278,25 +18278,25 @@
         <v>1.85</v>
       </c>
       <c r="AN82">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="AO82">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AP82">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR82">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AS82">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="AT82">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18484,25 +18484,25 @@
         <v>1.28</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO83">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS83">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AT83">
-        <v>2.97</v>
+        <v>3.02</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18693,22 +18693,22 @@
         <v>2</v>
       </c>
       <c r="AO84">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AP84">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18896,25 +18896,25 @@
         <v>1.08</v>
       </c>
       <c r="AN85">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AO85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR85">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AS85">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AT85">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -19102,25 +19102,25 @@
         <v>1.92</v>
       </c>
       <c r="AN86">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AO86">
-        <v>0.67</v>
+        <v>1.27</v>
       </c>
       <c r="AP86">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR86">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS86">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AT86">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19308,25 +19308,25 @@
         <v>2.57</v>
       </c>
       <c r="AN87">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO87">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR87">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AS87">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19514,25 +19514,25 @@
         <v>1.27</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO88">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AP88">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ88">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR88">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT88">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19720,25 +19720,25 @@
         <v>1.37</v>
       </c>
       <c r="AN89">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO89">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AP89">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ89">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR89">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="AS89">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AT89">
-        <v>4.67</v>
+        <v>4.52</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19926,25 +19926,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AO90">
-        <v>0.6</v>
+        <v>1.18</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ90">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR90">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="AS90">
         <v>1.39</v>
       </c>
       <c r="AT90">
-        <v>2.94</v>
+        <v>2.63</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -20132,25 +20132,25 @@
         <v>1.33</v>
       </c>
       <c r="AN91">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="AO91">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR91">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AS91">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT91">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -20338,25 +20338,25 @@
         <v>1.25</v>
       </c>
       <c r="AN92">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ92">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR92">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AS92">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT92">
-        <v>2.9</v>
+        <v>3.12</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20544,25 +20544,25 @@
         <v>2</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO93">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP93">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AS93">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AT93">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20750,25 +20750,25 @@
         <v>1.64</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO94">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="AP94">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
+        <v>1.24</v>
+      </c>
+      <c r="AS94">
         <v>1.25</v>
       </c>
-      <c r="AS94">
-        <v>0.98</v>
-      </c>
       <c r="AT94">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20956,25 +20956,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AO95">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP95">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR95">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AS95">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AT95">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21162,25 +21162,25 @@
         <v>1.23</v>
       </c>
       <c r="AN96">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AO96">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
         <v>1.61</v>
       </c>
       <c r="AT96">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21368,25 +21368,25 @@
         <v>2.12</v>
       </c>
       <c r="AN97">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO97">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="AP97">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR97">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS97">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT97">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21574,25 +21574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="AO98">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AP98">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR98">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AS98">
-        <v>0.87</v>
+        <v>1.22</v>
       </c>
       <c r="AT98">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21780,25 +21780,25 @@
         <v>2.07</v>
       </c>
       <c r="AN99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO99">
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT99">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21986,25 +21986,25 @@
         <v>4.2</v>
       </c>
       <c r="AN100">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO100">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AP100">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ100">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR100">
-        <v>2.51</v>
+        <v>2.35</v>
       </c>
       <c r="AS100">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AT100">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="AU100">
         <v>14</v>
@@ -22192,25 +22192,25 @@
         <v>1.72</v>
       </c>
       <c r="AN101">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="AO101">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP101">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR101">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS101">
-        <v>0.91</v>
+        <v>1.15</v>
       </c>
       <c r="AT101">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22398,25 +22398,25 @@
         <v>2.65</v>
       </c>
       <c r="AN102">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AO102">
-        <v>0.57</v>
+        <v>1.08</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ102">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR102">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS102">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AT102">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22604,25 +22604,25 @@
         <v>1.35</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AO103">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AT103">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22813,22 +22813,22 @@
         <v>1</v>
       </c>
       <c r="AO104">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AP104">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR104">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AS104">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AT104">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -23016,25 +23016,25 @@
         <v>1.05</v>
       </c>
       <c r="AN105">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="AO105">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP105">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ105">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR105">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23222,25 +23222,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
+        <v>1.23</v>
+      </c>
+      <c r="AO106">
+        <v>0.67</v>
+      </c>
+      <c r="AP106">
+        <v>0.97</v>
+      </c>
+      <c r="AQ106">
+        <v>1.19</v>
+      </c>
+      <c r="AR106">
+        <v>1.21</v>
+      </c>
+      <c r="AS106">
         <v>1.29</v>
       </c>
-      <c r="AO106">
-        <v>0.71</v>
-      </c>
-      <c r="AP106">
-        <v>1.22</v>
-      </c>
-      <c r="AQ106">
-        <v>1</v>
-      </c>
-      <c r="AR106">
-        <v>1.47</v>
-      </c>
-      <c r="AS106">
-        <v>1.22</v>
-      </c>
       <c r="AT106">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23428,25 +23428,25 @@
         <v>2</v>
       </c>
       <c r="AN107">
+        <v>1.92</v>
+      </c>
+      <c r="AO107">
+        <v>2.23</v>
+      </c>
+      <c r="AP107">
+        <v>1.83</v>
+      </c>
+      <c r="AQ107">
         <v>2.14</v>
       </c>
-      <c r="AO107">
-        <v>1.86</v>
-      </c>
-      <c r="AP107">
-        <v>2.12</v>
-      </c>
-      <c r="AQ107">
-        <v>1.35</v>
-      </c>
       <c r="AR107">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="AS107">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AT107">
-        <v>3.85</v>
+        <v>3.73</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23634,25 +23634,25 @@
         <v>1.15</v>
       </c>
       <c r="AN108">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AP108">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR108">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS108">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="AT108">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23840,25 +23840,25 @@
         <v>1.47</v>
       </c>
       <c r="AN109">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AO109">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP109">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ109">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AS109">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT109">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -24046,25 +24046,25 @@
         <v>2.2</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO110">
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR110">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AS110">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="AT110">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU110">
         <v>13</v>
@@ -24252,25 +24252,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
-        <v>2.67</v>
+        <v>2.07</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP111">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AS111">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT111">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU111">
         <v>8</v>
@@ -24458,25 +24458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN112">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ112">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR112">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AS112">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AT112">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24664,25 +24664,25 @@
         <v>1.65</v>
       </c>
       <c r="AN113">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="AO113">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ113">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR113">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS113">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT113">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24870,25 +24870,25 @@
         <v>2.4</v>
       </c>
       <c r="AN114">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO114">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="AP114">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ114">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR114">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS114">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT114">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25076,25 +25076,25 @@
         <v>1.06</v>
       </c>
       <c r="AN115">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AO115">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR115">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS115">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="AT115">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="AU115">
         <v>3</v>
@@ -25282,25 +25282,25 @@
         <v>4.75</v>
       </c>
       <c r="AN116">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AP116">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR116">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="AS116">
-        <v>0.91</v>
+        <v>1.21</v>
       </c>
       <c r="AT116">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="AU116">
         <v>13</v>
@@ -25491,22 +25491,22 @@
         <v>0.57</v>
       </c>
       <c r="AO117">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AP117">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ117">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR117">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="AS117">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT117">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="AU117">
         <v>9</v>
@@ -25694,25 +25694,25 @@
         <v>1.31</v>
       </c>
       <c r="AN118">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR118">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS118">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AT118">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -25900,25 +25900,25 @@
         <v>1.06</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AO119">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AP119">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR119">
         <v>1.32</v>
       </c>
       <c r="AS119">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="AT119">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -26106,25 +26106,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AO120">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP120">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ120">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
       </c>
       <c r="AS120">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT120">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="AU120">
         <v>10</v>
@@ -26312,25 +26312,25 @@
         <v>1.47</v>
       </c>
       <c r="AN121">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AO121">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AP121">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR121">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="AS121">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT121">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26518,25 +26518,25 @@
         <v>5.1</v>
       </c>
       <c r="AN122">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="AO122">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ122">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR122">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="AS122">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT122">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26724,25 +26724,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO123">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP123">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ123">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR123">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AS123">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="AT123">
-        <v>2.24</v>
+        <v>2.33</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26930,25 +26930,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AO124">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AP124">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ124">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR124">
+        <v>1.24</v>
+      </c>
+      <c r="AS124">
         <v>1.16</v>
       </c>
-      <c r="AS124">
-        <v>0.87</v>
-      </c>
       <c r="AT124">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -27136,25 +27136,25 @@
         <v>4.2</v>
       </c>
       <c r="AN125">
+        <v>2.13</v>
+      </c>
+      <c r="AO125">
+        <v>1.27</v>
+      </c>
+      <c r="AP125">
         <v>1.86</v>
       </c>
-      <c r="AO125">
-        <v>1</v>
-      </c>
-      <c r="AP125">
-        <v>1.68</v>
-      </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR125">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AS125">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AT125">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27342,25 +27342,25 @@
         <v>1.91</v>
       </c>
       <c r="AN126">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO126">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="AP126">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ126">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR126">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AS126">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT126">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27548,25 +27548,25 @@
         <v>1.33</v>
       </c>
       <c r="AN127">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO127">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR127">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AS127">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="AT127">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27754,25 +27754,25 @@
         <v>2.15</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO128">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ128">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR128">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT128">
-        <v>2.33</v>
+        <v>2.49</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27963,22 +27963,22 @@
         <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AP129">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ129">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR129">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS129">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="AT129">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28166,25 +28166,25 @@
         <v>1.35</v>
       </c>
       <c r="AN130">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO130">
-        <v>1.63</v>
+        <v>2.19</v>
       </c>
       <c r="AP130">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ130">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR130">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AS130">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AT130">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28372,25 +28372,25 @@
         <v>1.08</v>
       </c>
       <c r="AN131">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AO131">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AP131">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ131">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR131">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AS131">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AT131">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28578,25 +28578,25 @@
         <v>2.15</v>
       </c>
       <c r="AN132">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="AO132">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR132">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS132">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT132">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28784,25 +28784,25 @@
         <v>1.08</v>
       </c>
       <c r="AN133">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AO133">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AP133">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR133">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS133">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AT133">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28990,25 +28990,25 @@
         <v>2.38</v>
       </c>
       <c r="AN134">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="AO134">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AP134">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="AS134">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29199,22 +29199,22 @@
         <v>0.5</v>
       </c>
       <c r="AO135">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="AP135">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ135">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR135">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="AS135">
-        <v>2.23</v>
+        <v>2.44</v>
       </c>
       <c r="AT135">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29402,25 +29402,25 @@
         <v>1.66</v>
       </c>
       <c r="AN136">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="AO136">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ136">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR136">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS136">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29608,25 +29608,25 @@
         <v>1.25</v>
       </c>
       <c r="AN137">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="AO137">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR137">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AS137">
         <v>1.42</v>
       </c>
       <c r="AT137">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29814,25 +29814,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR138">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AS138">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AT138">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30020,25 +30020,25 @@
         <v>2.8</v>
       </c>
       <c r="AN139">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="AO139">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AP139">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ139">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR139">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AS139">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AT139">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30226,25 +30226,25 @@
         <v>5.8</v>
       </c>
       <c r="AN140">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="AO140">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AP140">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ140">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR140">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="AS140">
-        <v>0.8100000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AT140">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30432,25 +30432,25 @@
         <v>1.3</v>
       </c>
       <c r="AN141">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO141">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ141">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
       </c>
       <c r="AS141">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AT141">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30638,25 +30638,25 @@
         <v>4.2</v>
       </c>
       <c r="AN142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO142">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR142">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AS142">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT142">
-        <v>3.93</v>
+        <v>3.71</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30847,22 +30847,22 @@
         <v>1</v>
       </c>
       <c r="AO143">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="AP143">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR143">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AS143">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AT143">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31050,25 +31050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN144">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AO144">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT144">
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31256,25 +31256,25 @@
         <v>1.1</v>
       </c>
       <c r="AN145">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AO145">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AP145">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ145">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR145">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AS145">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT145">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="AU145">
         <v>6</v>
@@ -31462,25 +31462,25 @@
         <v>1.18</v>
       </c>
       <c r="AN146">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="AO146">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AP146">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ146">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR146">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AS146">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT146">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31671,22 +31671,22 @@
         <v>0.44</v>
       </c>
       <c r="AO147">
-        <v>1.56</v>
+        <v>2.17</v>
       </c>
       <c r="AP147">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ147">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR147">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AS147">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT147">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31874,25 +31874,25 @@
         <v>2.3</v>
       </c>
       <c r="AN148">
-        <v>2.11</v>
+        <v>1.61</v>
       </c>
       <c r="AO148">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AP148">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR148">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="AS148">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AT148">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32080,25 +32080,25 @@
         <v>1.48</v>
       </c>
       <c r="AN149">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AS149">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AT149">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="AU149">
         <v>2</v>
@@ -32286,25 +32286,25 @@
         <v>6.5</v>
       </c>
       <c r="AN150">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AO150">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="AP150">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ150">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="AS150">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AT150">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="AU150">
         <v>12</v>
@@ -32492,25 +32492,25 @@
         <v>1.65</v>
       </c>
       <c r="AN151">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AO151">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ151">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR151">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS151">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AT151">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32701,22 +32701,22 @@
         <v>1</v>
       </c>
       <c r="AO152">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AP152">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ152">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR152">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AS152">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AT152">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32904,25 +32904,25 @@
         <v>2.35</v>
       </c>
       <c r="AN153">
-        <v>2.78</v>
+        <v>2.21</v>
       </c>
       <c r="AO153">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP153">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR153">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="AS153">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33110,25 +33110,25 @@
         <v>1.06</v>
       </c>
       <c r="AN154">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AO154">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ154">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR154">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AS154">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AT154">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33316,25 +33316,25 @@
         <v>2.95</v>
       </c>
       <c r="AN155">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AO155">
-        <v>0.44</v>
+        <v>1.11</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ155">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR155">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AS155">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT155">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33522,25 +33522,25 @@
         <v>3.2</v>
       </c>
       <c r="AN156">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AO156">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="AP156">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR156">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="AS156">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="AT156">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="AU156">
         <v>11</v>
@@ -33728,25 +33728,25 @@
         <v>1.35</v>
       </c>
       <c r="AN157">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="AO157">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP157">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ157">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR157">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AS157">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT157">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="AU157">
         <v>0</v>
@@ -33934,25 +33934,25 @@
         <v>2.75</v>
       </c>
       <c r="AN158">
-        <v>2.11</v>
+        <v>1.84</v>
       </c>
       <c r="AO158">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR158">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AT158">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34140,25 +34140,25 @@
         <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>1.89</v>
+        <v>1.26</v>
       </c>
       <c r="AO159">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AP159">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ159">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR159">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AT159">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34346,25 +34346,25 @@
         <v>1.9</v>
       </c>
       <c r="AN160">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AO160">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ160">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR160">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS160">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT160">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34552,25 +34552,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AP161">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ161">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR161">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AS161">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT161">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -34758,25 +34758,25 @@
         <v>1.15</v>
       </c>
       <c r="AN162">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AO162">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AP162">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ162">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="AT162">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -34964,25 +34964,25 @@
         <v>2</v>
       </c>
       <c r="AN163">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO163">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="AP163">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ163">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AS163">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="AT163">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35170,25 +35170,25 @@
         <v>1.04</v>
       </c>
       <c r="AN164">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AO164">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AP164">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR164">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AS164">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AT164">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -35376,25 +35376,25 @@
         <v>1.08</v>
       </c>
       <c r="AN165">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AO165">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AP165">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ165">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR165">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT165">
-        <v>2.83</v>
+        <v>2.56</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35582,22 +35582,22 @@
         <v>1.66</v>
       </c>
       <c r="AN166">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO166">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AP166">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ166">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR166">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS166">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT166">
         <v>2.84</v>
@@ -35788,25 +35788,25 @@
         <v>6.5</v>
       </c>
       <c r="AN167">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AO167">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="AP167">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ167">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR167">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="AS167">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AT167">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="AU167">
         <v>10</v>
@@ -35994,25 +35994,25 @@
         <v>2.55</v>
       </c>
       <c r="AN168">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="AO168">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AP168">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ168">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR168">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="AS168">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT168">
-        <v>4.22</v>
+        <v>4.09</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36200,25 +36200,25 @@
         <v>1.81</v>
       </c>
       <c r="AN169">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="AO169">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="AP169">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR169">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AS169">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AT169">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36406,25 +36406,25 @@
         <v>3.22</v>
       </c>
       <c r="AN170">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO170">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AP170">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR170">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="AS170">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="AT170">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36612,25 +36612,25 @@
         <v>2.3</v>
       </c>
       <c r="AN171">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AO171">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ171">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR171">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS171">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="AT171">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36818,25 +36818,25 @@
         <v>1.36</v>
       </c>
       <c r="AN172">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="AO172">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="AP172">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ172">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR172">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AS172">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AT172">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37024,25 +37024,25 @@
         <v>2.23</v>
       </c>
       <c r="AN173">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AO173">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AP173">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ173">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR173">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AS173">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT173">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="AU173">
         <v>12</v>
@@ -37230,25 +37230,25 @@
         <v>1.6</v>
       </c>
       <c r="AN174">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AO174">
-        <v>0.7</v>
+        <v>1.29</v>
       </c>
       <c r="AP174">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ174">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR174">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AS174">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT174">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37436,25 +37436,25 @@
         <v>1.9</v>
       </c>
       <c r="AN175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO175">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR175">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS175">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT175">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37642,25 +37642,25 @@
         <v>1.02</v>
       </c>
       <c r="AN176">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="AO176">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP176">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ176">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR176">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AT176">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -37848,25 +37848,25 @@
         <v>3.3</v>
       </c>
       <c r="AN177">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="AO177">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="AP177">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ177">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR177">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AS177">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="AT177">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -38057,22 +38057,22 @@
         <v>0.45</v>
       </c>
       <c r="AO178">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP178">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ178">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR178">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="AS178">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AT178">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38260,25 +38260,25 @@
         <v>1.28</v>
       </c>
       <c r="AN179">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="AO179">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AP179">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ179">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR179">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS179">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT179">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="AU179">
         <v>8</v>
@@ -38466,25 +38466,25 @@
         <v>1.33</v>
       </c>
       <c r="AN180">
+        <v>1.14</v>
+      </c>
+      <c r="AO180">
         <v>1.45</v>
       </c>
-      <c r="AO180">
-        <v>1.18</v>
-      </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ180">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AT180">
-        <v>2.62</v>
+        <v>2.93</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38672,25 +38672,25 @@
         <v>3.4</v>
       </c>
       <c r="AN181">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AO181">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ181">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR181">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="AS181">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AT181">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU181">
         <v>11</v>
@@ -38878,25 +38878,25 @@
         <v>3.25</v>
       </c>
       <c r="AN182">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AO182">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AP182">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ182">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR182">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="AS182">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AT182">
-        <v>3.92</v>
+        <v>3.75</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39084,25 +39084,25 @@
         <v>2.71</v>
       </c>
       <c r="AN183">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AO183">
+        <v>0.86</v>
+      </c>
+      <c r="AP183">
+        <v>1.42</v>
+      </c>
+      <c r="AQ183">
         <v>0.91</v>
       </c>
-      <c r="AP183">
-        <v>1.67</v>
-      </c>
-      <c r="AQ183">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AR183">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS183">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT183">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39290,25 +39290,25 @@
         <v>1.04</v>
       </c>
       <c r="AN184">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AO184">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="AP184">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ184">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR184">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="AT184">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39496,25 +39496,25 @@
         <v>2.88</v>
       </c>
       <c r="AN185">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO185">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AP185">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ185">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR185">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AS185">
-        <v>0.79</v>
+        <v>1.07</v>
       </c>
       <c r="AT185">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39702,25 +39702,25 @@
         <v>1.39</v>
       </c>
       <c r="AN186">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AO186">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="AP186">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR186">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS186">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT186">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39908,25 +39908,25 @@
         <v>1.35</v>
       </c>
       <c r="AN187">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AO187">
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ187">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR187">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AS187">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AT187">
-        <v>2.98</v>
+        <v>3.17</v>
       </c>
       <c r="AU187">
         <v>6</v>
@@ -40114,25 +40114,25 @@
         <v>1.14</v>
       </c>
       <c r="AN188">
-        <v>1.64</v>
+        <v>1.09</v>
       </c>
       <c r="AO188">
-        <v>1.55</v>
+        <v>2.22</v>
       </c>
       <c r="AP188">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ188">
+        <v>2.14</v>
+      </c>
+      <c r="AR188">
         <v>1.35</v>
       </c>
-      <c r="AR188">
-        <v>1.51</v>
-      </c>
       <c r="AS188">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT188">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="AU188">
         <v>6</v>
@@ -40320,25 +40320,25 @@
         <v>1.2</v>
       </c>
       <c r="AN189">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
       <c r="AO189">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR189">
+        <v>1.2</v>
+      </c>
+      <c r="AS189">
         <v>1.39</v>
       </c>
-      <c r="AS189">
-        <v>1.28</v>
-      </c>
       <c r="AT189">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40526,25 +40526,25 @@
         <v>3</v>
       </c>
       <c r="AN190">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="AO190">
-        <v>0.91</v>
+        <v>1.43</v>
       </c>
       <c r="AP190">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ190">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR190">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AS190">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT190">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40732,25 +40732,25 @@
         <v>1.12</v>
       </c>
       <c r="AN191">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AO191">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AP191">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ191">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR191">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="AS191">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="AT191">
-        <v>4.12</v>
+        <v>3.92</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40938,25 +40938,25 @@
         <v>1.38</v>
       </c>
       <c r="AN192">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
         <v>0.91</v>
       </c>
-      <c r="AP192">
-        <v>0.89</v>
-      </c>
       <c r="AQ192">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR192">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AS192">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="AT192">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41144,25 +41144,25 @@
         <v>1.85</v>
       </c>
       <c r="AN193">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AO193">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AP193">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ193">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS193">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AT193">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU193">
         <v>5</v>
@@ -41350,25 +41350,25 @@
         <v>2.41</v>
       </c>
       <c r="AN194">
-        <v>2.83</v>
+        <v>2.13</v>
       </c>
       <c r="AO194">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AP194">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ194">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR194">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="AS194">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT194">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="AU194">
         <v>8</v>
@@ -41556,25 +41556,25 @@
         <v>1.63</v>
       </c>
       <c r="AN195">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AO195">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AP195">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ195">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR195">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS195">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AT195">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="AU195">
         <v>5</v>
@@ -41765,22 +41765,22 @@
         <v>0.42</v>
       </c>
       <c r="AO196">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="AP196">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ196">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR196">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AS196">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AT196">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AU196">
         <v>0</v>
@@ -41968,25 +41968,25 @@
         <v>6</v>
       </c>
       <c r="AN197">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="AO197">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="AP197">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ197">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR197">
-        <v>2.37</v>
+        <v>2.24</v>
       </c>
       <c r="AS197">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT197">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AU197">
         <v>14</v>
@@ -42174,22 +42174,22 @@
         <v>2.2</v>
       </c>
       <c r="AN198">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO198">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AP198">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ198">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR198">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS198">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT198">
         <v>2.42</v>
@@ -42380,25 +42380,25 @@
         <v>1.31</v>
       </c>
       <c r="AN199">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO199">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AP199">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR199">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AS199">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT199">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42586,25 +42586,25 @@
         <v>2.35</v>
       </c>
       <c r="AN200">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="AO200">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AP200">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ200">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR200">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AS200">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AT200">
-        <v>3.24</v>
+        <v>3.37</v>
       </c>
       <c r="AU200">
         <v>11</v>
@@ -42792,25 +42792,25 @@
         <v>1.63</v>
       </c>
       <c r="AN201">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AO201">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AP201">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ201">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR201">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AS201">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="AT201">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42998,25 +42998,25 @@
         <v>1.87</v>
       </c>
       <c r="AN202">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AO202">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AP202">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ202">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR202">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AS202">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT202">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43204,25 +43204,25 @@
         <v>2.35</v>
       </c>
       <c r="AN203">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AO203">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP203">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR203">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AS203">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT203">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="AU203">
         <v>9</v>
@@ -43410,25 +43410,25 @@
         <v>1.44</v>
       </c>
       <c r="AN204">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO204">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AP204">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ204">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR204">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AS204">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="AT204">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43616,25 +43616,25 @@
         <v>1.06</v>
       </c>
       <c r="AN205">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AO205">
+        <v>2.38</v>
+      </c>
+      <c r="AP205">
+        <v>1.66</v>
+      </c>
+      <c r="AQ205">
+        <v>2.34</v>
+      </c>
+      <c r="AR205">
+        <v>1.46</v>
+      </c>
+      <c r="AS205">
         <v>2.27</v>
       </c>
-      <c r="AP205">
-        <v>1.88</v>
-      </c>
-      <c r="AQ205">
-        <v>2.18</v>
-      </c>
-      <c r="AR205">
-        <v>1.53</v>
-      </c>
-      <c r="AS205">
-        <v>2.09</v>
-      </c>
       <c r="AT205">
-        <v>3.62</v>
+        <v>3.73</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43822,25 +43822,25 @@
         <v>1.03</v>
       </c>
       <c r="AN206">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO206">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="AP206">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ206">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR206">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS206">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AT206">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44028,25 +44028,25 @@
         <v>1.6</v>
       </c>
       <c r="AN207">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AO207">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="AP207">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ207">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR207">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AS207">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT207">
-        <v>3.57</v>
+        <v>3.37</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44234,25 +44234,25 @@
         <v>2.18</v>
       </c>
       <c r="AN208">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="AO208">
-        <v>0.58</v>
+        <v>1.16</v>
       </c>
       <c r="AP208">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ208">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR208">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AS208">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT208">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44443,22 +44443,22 @@
         <v>0.38</v>
       </c>
       <c r="AO209">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AP209">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ209">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR209">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AS209">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT209">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44646,25 +44646,25 @@
         <v>2.3</v>
       </c>
       <c r="AN210">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AO210">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AP210">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ210">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR210">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AS210">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AT210">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AU210">
         <v>8</v>
@@ -44852,25 +44852,25 @@
         <v>1.83</v>
       </c>
       <c r="AN211">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AO211">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="AP211">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ211">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR211">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AS211">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AT211">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AU211">
         <v>8</v>
@@ -45058,25 +45058,25 @@
         <v>3.16</v>
       </c>
       <c r="AN212">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AO212">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="AP212">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ212">
+        <v>1.66</v>
+      </c>
+      <c r="AR212">
+        <v>1.78</v>
+      </c>
+      <c r="AS212">
         <v>1.44</v>
       </c>
-      <c r="AR212">
-        <v>1.89</v>
-      </c>
-      <c r="AS212">
-        <v>1.39</v>
-      </c>
       <c r="AT212">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45264,25 +45264,25 @@
         <v>2.35</v>
       </c>
       <c r="AN213">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AO213">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AP213">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ213">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR213">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="AS213">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AT213">
-        <v>4.13</v>
+        <v>4.14</v>
       </c>
       <c r="AU213">
         <v>8</v>
@@ -45470,25 +45470,25 @@
         <v>3.1</v>
       </c>
       <c r="AN214">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AO214">
-        <v>0.38</v>
+        <v>0.65</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ214">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AS214">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT214">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45676,25 +45676,25 @@
         <v>1.25</v>
       </c>
       <c r="AN215">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="AO215">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="AP215">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ215">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR215">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS215">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT215">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -45882,25 +45882,25 @@
         <v>3.6</v>
       </c>
       <c r="AN216">
-        <v>2.85</v>
+        <v>2.12</v>
       </c>
       <c r="AO216">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AP216">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ216">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR216">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AS216">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AT216">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="AU216">
         <v>11</v>
@@ -46088,25 +46088,25 @@
         <v>2</v>
       </c>
       <c r="AN217">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO217">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="AP217">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ217">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR217">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AS217">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="AT217">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="AU217">
         <v>10</v>
@@ -46294,25 +46294,25 @@
         <v>1.6</v>
       </c>
       <c r="AN218">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AO218">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AP218">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR218">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AS218">
         <v>1.39</v>
       </c>
       <c r="AT218">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU218">
         <v>3</v>
@@ -46500,25 +46500,25 @@
         <v>1.36</v>
       </c>
       <c r="AN219">
-        <v>2.23</v>
+        <v>1.89</v>
       </c>
       <c r="AO219">
-        <v>2.23</v>
+        <v>2.11</v>
       </c>
       <c r="AP219">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ219">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR219">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AS219">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="AT219">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU219">
         <v>0</v>
@@ -46706,25 +46706,25 @@
         <v>1.69</v>
       </c>
       <c r="AN220">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AO220">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AP220">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR220">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AS220">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT220">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="AU220">
         <v>9</v>
@@ -46912,25 +46912,25 @@
         <v>1.01</v>
       </c>
       <c r="AN221">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AO221">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AP221">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ221">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR221">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AS221">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="AT221">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47118,25 +47118,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AO222">
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
       <c r="AP222">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ222">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR222">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AS222">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AT222">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU222">
         <v>3</v>
@@ -47324,25 +47324,25 @@
         <v>1.33</v>
       </c>
       <c r="AN223">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AO223">
-        <v>1.38</v>
+        <v>2.15</v>
       </c>
       <c r="AP223">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ223">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR223">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS223">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AT223">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47530,25 +47530,25 @@
         <v>1.55</v>
       </c>
       <c r="AN224">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AO224">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="AP224">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AQ224">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR224">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS224">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT224">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU224">
         <v>3</v>
@@ -47736,25 +47736,25 @@
         <v>1.23</v>
       </c>
       <c r="AN225">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AO225">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ225">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR225">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS225">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="AT225">
-        <v>3.56</v>
+        <v>3.69</v>
       </c>
       <c r="AU225">
         <v>6</v>
@@ -47942,25 +47942,25 @@
         <v>3.22</v>
       </c>
       <c r="AN226">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AO226">
-        <v>0.43</v>
+        <v>0.68</v>
       </c>
       <c r="AP226">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ226">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR226">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="AS226">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT226">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="AU226">
         <v>8</v>
@@ -48148,25 +48148,25 @@
         <v>5</v>
       </c>
       <c r="AN227">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO227">
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR227">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS227">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AT227">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AU227">
         <v>8</v>
@@ -48354,25 +48354,25 @@
         <v>2.9</v>
       </c>
       <c r="AN228">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AO228">
-        <v>0.79</v>
+        <v>1.07</v>
       </c>
       <c r="AP228">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AQ228">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AR228">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AS228">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AT228">
-        <v>2.41</v>
+        <v>2.64</v>
       </c>
       <c r="AU228">
         <v>7</v>
@@ -48560,25 +48560,25 @@
         <v>1.55</v>
       </c>
       <c r="AN229">
-        <v>2.86</v>
+        <v>2.07</v>
       </c>
       <c r="AO229">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>2.89</v>
+        <v>2.14</v>
       </c>
       <c r="AQ229">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AR229">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS229">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT229">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48766,25 +48766,25 @@
         <v>1.3</v>
       </c>
       <c r="AN230">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="AO230">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AP230">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AQ230">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AR230">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="AS230">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT230">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -48972,25 +48972,25 @@
         <v>1.22</v>
       </c>
       <c r="AN231">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AO231">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AP231">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="AQ231">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AR231">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS231">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AT231">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU231">
         <v>7</v>
@@ -49178,25 +49178,25 @@
         <v>2.5</v>
       </c>
       <c r="AN232">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AO232">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ232">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS232">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AT232">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49384,25 +49384,25 @@
         <v>4.1</v>
       </c>
       <c r="AN233">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AO233">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AP233">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AQ233">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR233">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="AS233">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT233">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="AU233">
         <v>13</v>
@@ -49590,25 +49590,25 @@
         <v>2.07</v>
       </c>
       <c r="AN234">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="AO234">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="AP234">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ234">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AR234">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS234">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="AT234">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49796,25 +49796,25 @@
         <v>1.38</v>
       </c>
       <c r="AN235">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="AO235">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP235">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AQ235">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR235">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS235">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AT235">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU235">
         <v>7</v>
@@ -50002,25 +50002,25 @@
         <v>1.13</v>
       </c>
       <c r="AN236">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO236">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="AP236">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AQ236">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="AR236">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AS236">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT236">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="AU236">
         <v>0</v>
@@ -50208,25 +50208,25 @@
         <v>1.01</v>
       </c>
       <c r="AN237">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="AO237">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AP237">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AQ237">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="AR237">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AS237">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AT237">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="AU237">
         <v>3</v>
@@ -50414,25 +50414,25 @@
         <v>3.34</v>
       </c>
       <c r="AN238">
-        <v>2.07</v>
+        <v>1.76</v>
       </c>
       <c r="AO238">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP238">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AQ238">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AR238">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AS238">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT238">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="AU238">
         <v>6</v>
@@ -50620,25 +50620,25 @@
         <v>2.05</v>
       </c>
       <c r="AN239">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AO239">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AP239">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AQ239">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR239">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS239">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AT239">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AU239">
         <v>6</v>
@@ -50826,25 +50826,25 @@
         <v>1.23</v>
       </c>
       <c r="AN240">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="AO240">
+        <v>1.41</v>
+      </c>
+      <c r="AP240">
+        <v>1.11</v>
+      </c>
+      <c r="AQ240">
+        <v>1.25</v>
+      </c>
+      <c r="AR240">
         <v>1.21</v>
       </c>
-      <c r="AP240">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ240">
-        <v>1.11</v>
-      </c>
-      <c r="AR240">
-        <v>1.31</v>
-      </c>
       <c r="AS240">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="AT240">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -51032,25 +51032,25 @@
         <v>1.15</v>
       </c>
       <c r="AN241">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AO241">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AP241">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ241">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AR241">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS241">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT241">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51650,25 +51650,25 @@
         <v>1.77</v>
       </c>
       <c r="AN244">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AO244">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP244">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ244">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR244">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="AS244">
         <v>1.41</v>
       </c>
       <c r="AT244">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="AU244">
         <v>3</v>
@@ -52474,25 +52474,25 @@
         <v>1.67</v>
       </c>
       <c r="AN248">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AO248">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AP248">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ248">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR248">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AS248">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT248">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52886,25 +52886,25 @@
         <v>1.63</v>
       </c>
       <c r="AN250">
+        <v>1.16</v>
+      </c>
+      <c r="AO250">
+        <v>1.29</v>
+      </c>
+      <c r="AP250">
+        <v>1.19</v>
+      </c>
+      <c r="AQ250">
+        <v>1.42</v>
+      </c>
+      <c r="AR250">
         <v>1.4</v>
       </c>
-      <c r="AO250">
-        <v>1.06</v>
-      </c>
-      <c r="AP250">
-        <v>1.39</v>
-      </c>
-      <c r="AQ250">
-        <v>1.17</v>
-      </c>
-      <c r="AR250">
-        <v>1.41</v>
-      </c>
       <c r="AS250">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53092,25 +53092,25 @@
         <v>1.87</v>
       </c>
       <c r="AN251">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO251">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AP251">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ251">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR251">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AS251">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT251">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="AU251">
         <v>4</v>
@@ -53298,25 +53298,25 @@
         <v>1.67</v>
       </c>
       <c r="AN252">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AO252">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AP252">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR252">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS252">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT252">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53710,25 +53710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN254">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AO254">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP254">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ254">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR254">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS254">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AT254">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -56182,25 +56182,25 @@
         <v>1.58</v>
       </c>
       <c r="AN266">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO266">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AP266">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ266">
+        <v>1.49</v>
+      </c>
+      <c r="AR266">
+        <v>1.36</v>
+      </c>
+      <c r="AS266">
         <v>1.47</v>
       </c>
-      <c r="AR266">
-        <v>1.49</v>
-      </c>
-      <c r="AS266">
-        <v>1.44</v>
-      </c>
       <c r="AT266">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56388,25 +56388,25 @@
         <v>2.06</v>
       </c>
       <c r="AN267">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AO267">
+        <v>1.36</v>
+      </c>
+      <c r="AP267">
+        <v>1.19</v>
+      </c>
+      <c r="AQ267">
         <v>1.25</v>
       </c>
-      <c r="AP267">
-        <v>1.39</v>
-      </c>
-      <c r="AQ267">
-        <v>1.11</v>
-      </c>
       <c r="AR267">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS267">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AT267">
-        <v>2.89</v>
+        <v>3.08</v>
       </c>
       <c r="AU267">
         <v>8</v>
@@ -57624,25 +57624,25 @@
         <v>1.53</v>
       </c>
       <c r="AN273">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AO273">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AP273">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ273">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR273">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS273">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT273">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU273">
         <v>9</v>
@@ -57830,25 +57830,25 @@
         <v>2.15</v>
       </c>
       <c r="AN274">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AO274">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ274">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR274">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS274">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AT274">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -59478,25 +59478,25 @@
         <v>1.25</v>
       </c>
       <c r="AN282">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AO282">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="AP282">
+        <v>1.25</v>
+      </c>
+      <c r="AQ282">
+        <v>1.42</v>
+      </c>
+      <c r="AR282">
+        <v>1.64</v>
+      </c>
+      <c r="AS282">
         <v>1.39</v>
       </c>
-      <c r="AQ282">
-        <v>1.17</v>
-      </c>
-      <c r="AR282">
-        <v>1.85</v>
-      </c>
-      <c r="AS282">
-        <v>1.25</v>
-      </c>
       <c r="AT282">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU282">
         <v>3</v>
@@ -59684,25 +59684,25 @@
         <v>1.27</v>
       </c>
       <c r="AN283">
+        <v>1.23</v>
+      </c>
+      <c r="AO283">
+        <v>1.4</v>
+      </c>
+      <c r="AP283">
+        <v>1.19</v>
+      </c>
+      <c r="AQ283">
+        <v>1.49</v>
+      </c>
+      <c r="AR283">
+        <v>1.43</v>
+      </c>
+      <c r="AS283">
         <v>1.47</v>
       </c>
-      <c r="AO283">
-        <v>1.29</v>
-      </c>
-      <c r="AP283">
-        <v>1.39</v>
-      </c>
-      <c r="AQ283">
-        <v>1.47</v>
-      </c>
-      <c r="AR283">
-        <v>1.47</v>
-      </c>
-      <c r="AS283">
-        <v>1.41</v>
-      </c>
       <c r="AT283">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU283">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ4">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ9">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3446,25 +3446,25 @@
         <v>4.5</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>7</v>
@@ -3652,25 +3652,25 @@
         <v>3.7</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3858,25 +3858,25 @@
         <v>1.28</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>7</v>
@@ -4070,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>4.14</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4270,25 +4270,25 @@
         <v>2.06</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ14">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR14">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4479,22 +4479,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>1.16</v>
       </c>
       <c r="AS15">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>3.15</v>
+        <v>1.16</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4688,19 +4688,19 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AS16">
         <v>1.15</v>
       </c>
       <c r="AT16">
-        <v>1.93</v>
+        <v>1.15</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4888,25 +4888,25 @@
         <v>1.2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ17">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5094,25 +5094,25 @@
         <v>1.21</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="AS18">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AT18">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -5300,25 +5300,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR19">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="AS19">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="AT19">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5509,22 +5509,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="AS20">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT20">
-        <v>2.83</v>
+        <v>3.36</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5712,25 +5712,25 @@
         <v>3.75</v>
       </c>
       <c r="AN21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR21">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AS21">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>2.96</v>
+        <v>1.45</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5918,25 +5918,25 @@
         <v>2.8</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR22">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="AS22">
-        <v>1.39</v>
+        <v>0.78</v>
       </c>
       <c r="AT22">
-        <v>3.42</v>
+        <v>2.77</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -6124,25 +6124,25 @@
         <v>2.75</v>
       </c>
       <c r="AN23">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ23">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AS23">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="AT23">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6330,25 +6330,25 @@
         <v>1.71</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AS24">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="AT24">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6536,25 +6536,25 @@
         <v>1.02</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR25">
-        <v>1.37</v>
+        <v>2.01</v>
       </c>
       <c r="AS25">
-        <v>3.01</v>
+        <v>2.64</v>
       </c>
       <c r="AT25">
-        <v>4.38</v>
+        <v>4.65</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6742,25 +6742,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AS26">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6948,16 +6948,16 @@
         <v>2.75</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.45</v>
@@ -7154,25 +7154,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AS28">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AT28">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7363,22 +7363,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="AS29">
-        <v>0.85</v>
+        <v>0.28</v>
       </c>
       <c r="AT29">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7566,25 +7566,25 @@
         <v>1.63</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="AS30">
-        <v>1.07</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT30">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7772,25 +7772,25 @@
         <v>2.02</v>
       </c>
       <c r="AN31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR31">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AS31">
-        <v>1.35</v>
+        <v>0.85</v>
       </c>
       <c r="AT31">
-        <v>2.76</v>
+        <v>2.06</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7978,25 +7978,25 @@
         <v>1.2</v>
       </c>
       <c r="AN32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="AT32">
-        <v>2.71</v>
+        <v>3.4</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -8184,25 +8184,25 @@
         <v>1.27</v>
       </c>
       <c r="AN33">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>2.54</v>
+        <v>2.83</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8390,25 +8390,25 @@
         <v>1.39</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ34">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>3.14</v>
+        <v>1.57</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8599,22 +8599,22 @@
         <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR35">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="AS35">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AT35">
-        <v>3.13</v>
+        <v>2.82</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8802,25 +8802,25 @@
         <v>2.01</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR36">
-        <v>3.16</v>
+        <v>3.37</v>
       </c>
       <c r="AS36">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>4.75</v>
+        <v>4.83</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="AT37">
-        <v>2.15</v>
+        <v>2.49</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9214,25 +9214,25 @@
         <v>1.17</v>
       </c>
       <c r="AN38">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AS38">
-        <v>1.44</v>
+        <v>0.71</v>
       </c>
       <c r="AT38">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9420,25 +9420,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="AS39">
-        <v>1.08</v>
+        <v>0.68</v>
       </c>
       <c r="AT39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9626,25 +9626,25 @@
         <v>1.66</v>
       </c>
       <c r="AN40">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AS40">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT40">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9832,25 +9832,25 @@
         <v>1.28</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT41">
-        <v>2.51</v>
+        <v>2.42</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -10038,25 +10038,25 @@
         <v>1.03</v>
       </c>
       <c r="AN42">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR42">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS42">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="AT42">
-        <v>2.51</v>
+        <v>2.42</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10244,25 +10244,25 @@
         <v>2.39</v>
       </c>
       <c r="AN43">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO43">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AT43">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10450,25 +10450,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ44">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR44">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="AS44">
-        <v>2.85</v>
+        <v>3.06</v>
       </c>
       <c r="AT44">
-        <v>4.56</v>
+        <v>5.04</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10656,25 +10656,25 @@
         <v>3.2</v>
       </c>
       <c r="AN45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR45">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AS45">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT45">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10862,25 +10862,25 @@
         <v>1.71</v>
       </c>
       <c r="AN46">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR46">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AS46">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -11068,25 +11068,25 @@
         <v>1.26</v>
       </c>
       <c r="AN47">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AS47">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="AT47">
-        <v>2.8</v>
+        <v>3.41</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -11274,25 +11274,25 @@
         <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR48">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>0.76</v>
       </c>
       <c r="AT48">
-        <v>2.57</v>
+        <v>1.93</v>
       </c>
       <c r="AU48">
         <v>10</v>
@@ -11480,25 +11480,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ49">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR49">
+        <v>1.65</v>
+      </c>
+      <c r="AS49">
         <v>1.54</v>
       </c>
-      <c r="AS49">
-        <v>1.58</v>
-      </c>
       <c r="AT49">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11686,25 +11686,25 @@
         <v>1.25</v>
       </c>
       <c r="AN50">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT50">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11892,25 +11892,25 @@
         <v>5</v>
       </c>
       <c r="AN51">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AS51">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT51">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="AU51">
         <v>12</v>
@@ -12098,25 +12098,25 @@
         <v>1.13</v>
       </c>
       <c r="AN52">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS52">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="AT52">
-        <v>2.89</v>
+        <v>2.6</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12304,25 +12304,25 @@
         <v>1.11</v>
       </c>
       <c r="AN53">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AO53">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AS53">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT53">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12510,25 +12510,25 @@
         <v>1.09</v>
       </c>
       <c r="AN54">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR54">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AT54">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12716,25 +12716,25 @@
         <v>1.8</v>
       </c>
       <c r="AN55">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS55">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12922,25 +12922,25 @@
         <v>1.72</v>
       </c>
       <c r="AN56">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ56">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR56">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AS56">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AT56">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AU56">
         <v>10</v>
@@ -13128,25 +13128,25 @@
         <v>1.06</v>
       </c>
       <c r="AN57">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR57">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT57">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13334,25 +13334,25 @@
         <v>2.3</v>
       </c>
       <c r="AN58">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AO58">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AS58">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13540,25 +13540,25 @@
         <v>3.4</v>
       </c>
       <c r="AN59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO59">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AS59">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59">
-        <v>3.09</v>
+        <v>2.65</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13746,25 +13746,25 @@
         <v>3.23</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO60">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ60">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AS60">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="AT60">
-        <v>2.81</v>
+        <v>2.48</v>
       </c>
       <c r="AU60">
         <v>12</v>
@@ -13952,25 +13952,25 @@
         <v>2.85</v>
       </c>
       <c r="AN61">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO61">
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR61">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS61">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AT61">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -14158,25 +14158,25 @@
         <v>3</v>
       </c>
       <c r="AN62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR62">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AS62">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -14364,25 +14364,25 @@
         <v>1.57</v>
       </c>
       <c r="AN63">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ63">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR63">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.42</v>
+        <v>0.88</v>
       </c>
       <c r="AT63">
-        <v>2.76</v>
+        <v>2.13</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14570,25 +14570,25 @@
         <v>4.33</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR64">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="AS64">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AT64">
-        <v>4.17</v>
+        <v>4.19</v>
       </c>
       <c r="AU64">
         <v>11</v>
@@ -14776,25 +14776,25 @@
         <v>1.22</v>
       </c>
       <c r="AN65">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ65">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS65">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AT65">
-        <v>2.8</v>
+        <v>3.12</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14982,25 +14982,25 @@
         <v>1.87</v>
       </c>
       <c r="AN66">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AO66">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ66">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS66">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>3.11</v>
+        <v>2.9</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15188,25 +15188,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO67">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ67">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="AS67">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AT67">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -15394,25 +15394,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
+        <v>2.25</v>
+      </c>
+      <c r="AO68">
         <v>1.5</v>
       </c>
-      <c r="AO68">
-        <v>2.14</v>
-      </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS68">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15600,25 +15600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN69">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AO69">
-        <v>1.44</v>
+        <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR69">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AS69">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT69">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15806,25 +15806,25 @@
         <v>1.72</v>
       </c>
       <c r="AN70">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO70">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="AP70">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR70">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="AS70">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="AT70">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -16012,25 +16012,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO71">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR71">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS71">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>3.11</v>
+        <v>3.19</v>
       </c>
       <c r="AU71">
         <v>5</v>
@@ -16218,25 +16218,25 @@
         <v>2</v>
       </c>
       <c r="AN72">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO72">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
       </c>
       <c r="AS72">
-        <v>1.21</v>
+        <v>0.8</v>
       </c>
       <c r="AT72">
-        <v>2.84</v>
+        <v>2.43</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16424,25 +16424,25 @@
         <v>1.9</v>
       </c>
       <c r="AN73">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ73">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16630,25 +16630,25 @@
         <v>3.5</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AO74">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ74">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
       </c>
       <c r="AS74">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AT74">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="AU74">
         <v>11</v>
@@ -16836,25 +16836,25 @@
         <v>1.44</v>
       </c>
       <c r="AN75">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="AO75">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="AS75">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
-        <v>2.34</v>
+        <v>2.53</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -17042,25 +17042,25 @@
         <v>1.03</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO76">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR76">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AS76">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="AT76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17248,25 +17248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN77">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="AO77">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ77">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AT77">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -17454,25 +17454,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO78">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT78">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17660,25 +17660,25 @@
         <v>1.72</v>
       </c>
       <c r="AN79">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO79">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP79">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR79">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AS79">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT79">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17866,25 +17866,25 @@
         <v>1.16</v>
       </c>
       <c r="AN80">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>2.11</v>
+        <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS80">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="AT80">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -18072,25 +18072,25 @@
         <v>2.8</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO81">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="AS81">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>4.12</v>
+        <v>4.42</v>
       </c>
       <c r="AU81">
         <v>7</v>
@@ -18278,25 +18278,25 @@
         <v>1.85</v>
       </c>
       <c r="AN82">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="AO82">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ82">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="AT82">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18484,25 +18484,25 @@
         <v>1.28</v>
       </c>
       <c r="AN83">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS83">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AT83">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18693,22 +18693,22 @@
         <v>2</v>
       </c>
       <c r="AO84">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="AT84">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18896,25 +18896,25 @@
         <v>1.08</v>
       </c>
       <c r="AN85">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="AO85">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR85">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AS85">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -19102,25 +19102,25 @@
         <v>1.92</v>
       </c>
       <c r="AN86">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="AO86">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR86">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS86">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT86">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19308,25 +19308,25 @@
         <v>2.57</v>
       </c>
       <c r="AN87">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO87">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP87">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR87">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AS87">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="AT87">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19514,25 +19514,25 @@
         <v>1.27</v>
       </c>
       <c r="AN88">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ88">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AS88">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19720,25 +19720,25 @@
         <v>1.37</v>
       </c>
       <c r="AN89">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO89">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR89">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="AS89">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AT89">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19926,25 +19926,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AO90">
-        <v>1.18</v>
+        <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="AS90">
         <v>1.39</v>
       </c>
       <c r="AT90">
-        <v>2.63</v>
+        <v>2.94</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -20132,25 +20132,25 @@
         <v>1.33</v>
       </c>
       <c r="AN91">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AO91">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT91">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -20338,25 +20338,25 @@
         <v>1.25</v>
       </c>
       <c r="AN92">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AO92">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR92">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS92">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>3.12</v>
+        <v>2.9</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20544,25 +20544,25 @@
         <v>2</v>
       </c>
       <c r="AN93">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO93">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR93">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AS93">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AT93">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20750,25 +20750,25 @@
         <v>1.64</v>
       </c>
       <c r="AN94">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR94">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="AT94">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20956,25 +20956,25 @@
         <v>1.45</v>
       </c>
       <c r="AN95">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AO95">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AS95">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AT95">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21162,25 +21162,25 @@
         <v>1.23</v>
       </c>
       <c r="AN96">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AO96">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AS96">
         <v>1.61</v>
       </c>
       <c r="AT96">
-        <v>2.92</v>
+        <v>3.08</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21368,25 +21368,25 @@
         <v>2.12</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO97">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="AP97">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ97">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS97">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT97">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21574,25 +21574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="AO98">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ98">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="AS98">
-        <v>1.22</v>
+        <v>0.87</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21780,25 +21780,25 @@
         <v>2.07</v>
       </c>
       <c r="AN99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO99">
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AS99">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21986,25 +21986,25 @@
         <v>4.2</v>
       </c>
       <c r="AN100">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO100">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="AS100">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AT100">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="AU100">
         <v>14</v>
@@ -22192,25 +22192,25 @@
         <v>1.72</v>
       </c>
       <c r="AN101">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="AO101">
+        <v>0.5</v>
+      </c>
+      <c r="AP101">
+        <v>1.94</v>
+      </c>
+      <c r="AQ101">
         <v>0.33</v>
       </c>
-      <c r="AP101">
-        <v>1.4</v>
-      </c>
-      <c r="AQ101">
-        <v>0.49</v>
-      </c>
       <c r="AR101">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS101">
-        <v>1.15</v>
+        <v>0.91</v>
       </c>
       <c r="AT101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22398,25 +22398,25 @@
         <v>2.65</v>
       </c>
       <c r="AN102">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AO102">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AP102">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR102">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS102">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AT102">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22604,25 +22604,25 @@
         <v>1.35</v>
       </c>
       <c r="AN103">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AP103">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR103">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AS103">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AT103">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22813,22 +22813,22 @@
         <v>1</v>
       </c>
       <c r="AO104">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR104">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AS104">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AT104">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -23016,25 +23016,25 @@
         <v>1.05</v>
       </c>
       <c r="AN105">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="AO105">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP105">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ105">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR105">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AS105">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23222,25 +23222,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AO106">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ106">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AS106">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23428,25 +23428,25 @@
         <v>2</v>
       </c>
       <c r="AN107">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="AO107">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
       <c r="AP107">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ107">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR107">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="AS107">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>3.73</v>
+        <v>3.85</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23634,25 +23634,25 @@
         <v>1.15</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO108">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS108">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="AT108">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23840,25 +23840,25 @@
         <v>1.47</v>
       </c>
       <c r="AN109">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="AO109">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AP109">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR109">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT109">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -24046,25 +24046,25 @@
         <v>2.2</v>
       </c>
       <c r="AN110">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO110">
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR110">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="AT110">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU110">
         <v>13</v>
@@ -24252,25 +24252,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
-        <v>2.07</v>
+        <v>2.67</v>
       </c>
       <c r="AO111">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ111">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AS111">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT111">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU111">
         <v>8</v>
@@ -24458,25 +24458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN112">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AO112">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="AS112">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AT112">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24664,25 +24664,25 @@
         <v>1.65</v>
       </c>
       <c r="AN113">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="AO113">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS113">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT113">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24870,25 +24870,25 @@
         <v>2.4</v>
       </c>
       <c r="AN114">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO114">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT114">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25076,25 +25076,25 @@
         <v>1.06</v>
       </c>
       <c r="AN115">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ115">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AS115">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="AT115">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="AU115">
         <v>3</v>
@@ -25282,25 +25282,25 @@
         <v>4.75</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO116">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="AS116">
-        <v>1.21</v>
+        <v>0.91</v>
       </c>
       <c r="AT116">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="AU116">
         <v>13</v>
@@ -25491,22 +25491,22 @@
         <v>0.57</v>
       </c>
       <c r="AO117">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP117">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ117">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR117">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="AS117">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT117">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="AU117">
         <v>9</v>
@@ -25694,25 +25694,25 @@
         <v>1.31</v>
       </c>
       <c r="AN118">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AO118">
+        <v>1.33</v>
+      </c>
+      <c r="AP118">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118">
+        <v>1.56</v>
+      </c>
+      <c r="AR118">
+        <v>1.49</v>
+      </c>
+      <c r="AS118">
         <v>1.86</v>
       </c>
-      <c r="AP118">
-        <v>1.42</v>
-      </c>
-      <c r="AQ118">
-        <v>1.83</v>
-      </c>
-      <c r="AR118">
-        <v>1.47</v>
-      </c>
-      <c r="AS118">
-        <v>2.01</v>
-      </c>
       <c r="AT118">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -25900,25 +25900,25 @@
         <v>1.06</v>
       </c>
       <c r="AN119">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ119">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR119">
         <v>1.32</v>
       </c>
       <c r="AS119">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="AT119">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -26106,25 +26106,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO120">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ120">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
       </c>
       <c r="AS120">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT120">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AU120">
         <v>10</v>
@@ -26312,25 +26312,25 @@
         <v>1.47</v>
       </c>
       <c r="AN121">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AO121">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ121">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="AS121">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT121">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26518,25 +26518,25 @@
         <v>5.1</v>
       </c>
       <c r="AN122">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="AO122">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AP122">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ122">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR122">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AS122">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT122">
-        <v>3.81</v>
+        <v>4.04</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26724,25 +26724,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO123">
+        <v>0.86</v>
+      </c>
+      <c r="AP123">
+        <v>1.29</v>
+      </c>
+      <c r="AQ123">
+        <v>1.28</v>
+      </c>
+      <c r="AR123">
+        <v>1.31</v>
+      </c>
+      <c r="AS123">
         <v>0.93</v>
       </c>
-      <c r="AP123">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ123">
-        <v>1.11</v>
-      </c>
-      <c r="AR123">
-        <v>1.18</v>
-      </c>
-      <c r="AS123">
-        <v>1.15</v>
-      </c>
       <c r="AT123">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26930,25 +26930,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AO124">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ124">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR124">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AS124">
-        <v>1.16</v>
+        <v>0.87</v>
       </c>
       <c r="AT124">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -27136,25 +27136,25 @@
         <v>4.2</v>
       </c>
       <c r="AN125">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AO125">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR125">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AS125">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AT125">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27342,25 +27342,25 @@
         <v>1.91</v>
       </c>
       <c r="AN126">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO126">
-        <v>1.79</v>
+        <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ126">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AS126">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT126">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27548,25 +27548,25 @@
         <v>1.33</v>
       </c>
       <c r="AN127">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO127">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AS127">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="AT127">
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27754,25 +27754,25 @@
         <v>2.15</v>
       </c>
       <c r="AN128">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR128">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS128">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AT128">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27963,22 +27963,22 @@
         <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR129">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS129">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AT129">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28166,25 +28166,25 @@
         <v>1.35</v>
       </c>
       <c r="AN130">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO130">
-        <v>2.19</v>
+        <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ130">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR130">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AS130">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>2.89</v>
+        <v>3.02</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28372,25 +28372,25 @@
         <v>1.08</v>
       </c>
       <c r="AN131">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AO131">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ131">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR131">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AS131">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AT131">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28578,25 +28578,25 @@
         <v>2.15</v>
       </c>
       <c r="AN132">
+        <v>2.14</v>
+      </c>
+      <c r="AO132">
+        <v>0.88</v>
+      </c>
+      <c r="AP132">
         <v>1.67</v>
       </c>
-      <c r="AO132">
-        <v>1.31</v>
-      </c>
-      <c r="AP132">
-        <v>1.42</v>
-      </c>
       <c r="AQ132">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AT132">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28784,25 +28784,25 @@
         <v>1.08</v>
       </c>
       <c r="AN133">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO133">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AP133">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ133">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR133">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS133">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT133">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28990,25 +28990,25 @@
         <v>2.38</v>
       </c>
       <c r="AN134">
-        <v>1.69</v>
+        <v>2.25</v>
       </c>
       <c r="AO134">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR134">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="AS134">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="AT134">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29199,22 +29199,22 @@
         <v>0.5</v>
       </c>
       <c r="AO135">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="AP135">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ135">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR135">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="AS135">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="AT135">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29402,25 +29402,25 @@
         <v>1.66</v>
       </c>
       <c r="AN136">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="AO136">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ136">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR136">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS136">
-        <v>1.15</v>
+        <v>0.88</v>
       </c>
       <c r="AT136">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29608,25 +29608,25 @@
         <v>1.25</v>
       </c>
       <c r="AN137">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="AO137">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP137">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AS137">
         <v>1.42</v>
       </c>
       <c r="AT137">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29814,25 +29814,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ138">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AS138">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AT138">
-        <v>2.56</v>
+        <v>2.77</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30020,25 +30020,25 @@
         <v>2.8</v>
       </c>
       <c r="AN139">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="AO139">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AP139">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ139">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR139">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AS139">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30226,25 +30226,25 @@
         <v>5.8</v>
       </c>
       <c r="AN140">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="AO140">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ140">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR140">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AS140">
-        <v>1.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT140">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30432,25 +30432,25 @@
         <v>1.3</v>
       </c>
       <c r="AN141">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AO141">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
       </c>
       <c r="AS141">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT141">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30638,25 +30638,25 @@
         <v>4.2</v>
       </c>
       <c r="AN142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR142">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AS142">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT142">
-        <v>3.71</v>
+        <v>3.93</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30847,22 +30847,22 @@
         <v>1</v>
       </c>
       <c r="AO143">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR143">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AS143">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT143">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31050,25 +31050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN144">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO144">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AP144">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
+        <v>1.11</v>
+      </c>
+      <c r="AR144">
+        <v>1.4</v>
+      </c>
+      <c r="AS144">
         <v>1.25</v>
       </c>
-      <c r="AR144">
-        <v>1.41</v>
-      </c>
-      <c r="AS144">
-        <v>1.6</v>
-      </c>
       <c r="AT144">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31256,25 +31256,25 @@
         <v>1.1</v>
       </c>
       <c r="AN145">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AO145">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AP145">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR145">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AS145">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT145">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AU145">
         <v>6</v>
@@ -31462,25 +31462,25 @@
         <v>1.18</v>
       </c>
       <c r="AN146">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AO146">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR146">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AS146">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT146">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31671,22 +31671,22 @@
         <v>0.44</v>
       </c>
       <c r="AO147">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ147">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR147">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AS147">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT147">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31874,25 +31874,25 @@
         <v>2.3</v>
       </c>
       <c r="AN148">
-        <v>1.61</v>
+        <v>2.11</v>
       </c>
       <c r="AO148">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ148">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="AS148">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AT148">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32080,25 +32080,25 @@
         <v>1.48</v>
       </c>
       <c r="AN149">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR149">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AS149">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AT149">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AU149">
         <v>2</v>
@@ -32286,25 +32286,25 @@
         <v>6.5</v>
       </c>
       <c r="AN150">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="AO150">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="AP150">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR150">
-        <v>2.38</v>
+        <v>2.49</v>
       </c>
       <c r="AS150">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AT150">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="AU150">
         <v>12</v>
@@ -32492,25 +32492,25 @@
         <v>1.65</v>
       </c>
       <c r="AN151">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AO151">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR151">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS151">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AT151">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32701,22 +32701,22 @@
         <v>1</v>
       </c>
       <c r="AO152">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
+        <v>1.17</v>
+      </c>
+      <c r="AR152">
+        <v>1.37</v>
+      </c>
+      <c r="AS152">
         <v>1.42</v>
       </c>
-      <c r="AR152">
-        <v>1.23</v>
-      </c>
-      <c r="AS152">
-        <v>1.4</v>
-      </c>
       <c r="AT152">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32904,25 +32904,25 @@
         <v>2.35</v>
       </c>
       <c r="AN153">
-        <v>2.21</v>
+        <v>2.78</v>
       </c>
       <c r="AO153">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ153">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR153">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AT153">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33110,25 +33110,25 @@
         <v>1.06</v>
       </c>
       <c r="AN154">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AO154">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR154">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AS154">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AT154">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33316,25 +33316,25 @@
         <v>2.95</v>
       </c>
       <c r="AN155">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AO155">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR155">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AS155">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT155">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33522,25 +33522,25 @@
         <v>3.2</v>
       </c>
       <c r="AN156">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AO156">
-        <v>1.05</v>
+        <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ156">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR156">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="AS156">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AT156">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="AU156">
         <v>11</v>
@@ -33728,25 +33728,25 @@
         <v>1.35</v>
       </c>
       <c r="AN157">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP157">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ157">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR157">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AS157">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT157">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="AU157">
         <v>0</v>
@@ -33934,25 +33934,25 @@
         <v>2.75</v>
       </c>
       <c r="AN158">
-        <v>1.84</v>
+        <v>2.11</v>
       </c>
       <c r="AO158">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AS158">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="AT158">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34140,25 +34140,25 @@
         <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="AO159">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AP159">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ159">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AT159">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34346,25 +34346,25 @@
         <v>1.9</v>
       </c>
       <c r="AN160">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AO160">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR160">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS160">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT160">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34552,25 +34552,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO161">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ161">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR161">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AS161">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT161">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -34758,25 +34758,25 @@
         <v>1.15</v>
       </c>
       <c r="AN162">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AO162">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AP162">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AT162">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -34964,25 +34964,25 @@
         <v>2</v>
       </c>
       <c r="AN163">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="AO163">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR163">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AT163">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35170,25 +35170,25 @@
         <v>1.04</v>
       </c>
       <c r="AN164">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AO164">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ164">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AS164">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AT164">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -35376,25 +35376,25 @@
         <v>1.08</v>
       </c>
       <c r="AN165">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AO165">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AP165">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ165">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR165">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AS165">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>2.56</v>
+        <v>2.83</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35582,22 +35582,22 @@
         <v>1.66</v>
       </c>
       <c r="AN166">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO166">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AP166">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR166">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AS166">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT166">
         <v>2.84</v>
@@ -35788,25 +35788,25 @@
         <v>6.5</v>
       </c>
       <c r="AN167">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AO167">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ167">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR167">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AS167">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="AT167">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="AU167">
         <v>10</v>
@@ -35994,25 +35994,25 @@
         <v>2.55</v>
       </c>
       <c r="AN168">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="AO168">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AP168">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ168">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR168">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="AS168">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT168">
-        <v>4.09</v>
+        <v>4.22</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36200,25 +36200,25 @@
         <v>1.81</v>
       </c>
       <c r="AN169">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="AO169">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AQ169">
-        <v>0.91</v>
-      </c>
       <c r="AR169">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AT169">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36406,25 +36406,25 @@
         <v>3.22</v>
       </c>
       <c r="AN170">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AO170">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ170">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR170">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="AS170">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="AT170">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36612,25 +36612,25 @@
         <v>2.3</v>
       </c>
       <c r="AN171">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AO171">
+        <v>0.7</v>
+      </c>
+      <c r="AP171">
+        <v>1.88</v>
+      </c>
+      <c r="AQ171">
+        <v>0.71</v>
+      </c>
+      <c r="AR171">
+        <v>1.48</v>
+      </c>
+      <c r="AS171">
         <v>0.95</v>
       </c>
-      <c r="AP171">
-        <v>1.66</v>
-      </c>
-      <c r="AQ171">
-        <v>0.97</v>
-      </c>
-      <c r="AR171">
-        <v>1.45</v>
-      </c>
-      <c r="AS171">
-        <v>1.22</v>
-      </c>
       <c r="AT171">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36818,25 +36818,25 @@
         <v>1.36</v>
       </c>
       <c r="AN172">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="AO172">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="AP172">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ172">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR172">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AS172">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AT172">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37024,25 +37024,25 @@
         <v>2.23</v>
       </c>
       <c r="AN173">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AO173">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ173">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR173">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AS173">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT173">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="AU173">
         <v>12</v>
@@ -37230,25 +37230,25 @@
         <v>1.6</v>
       </c>
       <c r="AN174">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AO174">
-        <v>1.29</v>
+        <v>0.7</v>
       </c>
       <c r="AP174">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ174">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AS174">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37436,25 +37436,25 @@
         <v>1.9</v>
       </c>
       <c r="AN175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO175">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS175">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT175">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37642,25 +37642,25 @@
         <v>1.02</v>
       </c>
       <c r="AN176">
-        <v>1.19</v>
+        <v>1.8</v>
       </c>
       <c r="AO176">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ176">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR176">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS176">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AT176">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -37848,25 +37848,25 @@
         <v>3.3</v>
       </c>
       <c r="AN177">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="AO177">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
       <c r="AP177">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ177">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR177">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="AS177">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AT177">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -38057,22 +38057,22 @@
         <v>0.45</v>
       </c>
       <c r="AO178">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ178">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR178">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AS178">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AT178">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38260,25 +38260,25 @@
         <v>1.28</v>
       </c>
       <c r="AN179">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="AO179">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AP179">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS179">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT179">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="AU179">
         <v>8</v>
@@ -38466,25 +38466,25 @@
         <v>1.33</v>
       </c>
       <c r="AN180">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR180">
         <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>2.93</v>
+        <v>2.62</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38672,25 +38672,25 @@
         <v>3.4</v>
       </c>
       <c r="AN181">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ181">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR181">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="AS181">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AT181">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU181">
         <v>11</v>
@@ -38878,25 +38878,25 @@
         <v>3.25</v>
       </c>
       <c r="AN182">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AO182">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ182">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR182">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="AS182">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AT182">
-        <v>3.75</v>
+        <v>3.92</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39084,25 +39084,25 @@
         <v>2.71</v>
       </c>
       <c r="AN183">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AO183">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="AP183">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ183">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT183">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39290,25 +39290,25 @@
         <v>1.04</v>
       </c>
       <c r="AN184">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AO184">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ184">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AS184">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="AT184">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39496,25 +39496,25 @@
         <v>2.88</v>
       </c>
       <c r="AN185">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="AP185">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ185">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR185">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS185">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AT185">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39702,25 +39702,25 @@
         <v>1.39</v>
       </c>
       <c r="AN186">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AO186">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ186">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR186">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT186">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39908,25 +39908,25 @@
         <v>1.35</v>
       </c>
       <c r="AN187">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="AO187">
         <v>2.09</v>
       </c>
       <c r="AP187">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR187">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AS187">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AT187">
-        <v>3.17</v>
+        <v>2.98</v>
       </c>
       <c r="AU187">
         <v>6</v>
@@ -40114,25 +40114,25 @@
         <v>1.14</v>
       </c>
       <c r="AN188">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="AO188">
-        <v>2.22</v>
+        <v>1.55</v>
       </c>
       <c r="AP188">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ188">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR188">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AS188">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AT188">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="AU188">
         <v>6</v>
@@ -40320,25 +40320,25 @@
         <v>1.2</v>
       </c>
       <c r="AN189">
-        <v>0.57</v>
+        <v>0.82</v>
       </c>
       <c r="AO189">
+        <v>1.18</v>
+      </c>
+      <c r="AP189">
+        <v>1.29</v>
+      </c>
+      <c r="AQ189">
+        <v>1.17</v>
+      </c>
+      <c r="AR189">
         <v>1.39</v>
       </c>
-      <c r="AP189">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ189">
-        <v>1.42</v>
-      </c>
-      <c r="AR189">
-        <v>1.2</v>
-      </c>
       <c r="AS189">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AT189">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40526,25 +40526,25 @@
         <v>3</v>
       </c>
       <c r="AN190">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="AO190">
-        <v>1.43</v>
+        <v>0.91</v>
       </c>
       <c r="AP190">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ190">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR190">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AS190">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT190">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40732,25 +40732,25 @@
         <v>1.12</v>
       </c>
       <c r="AN191">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AO191">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AP191">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ191">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR191">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="AS191">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="AT191">
-        <v>3.92</v>
+        <v>4.12</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40938,25 +40938,25 @@
         <v>1.38</v>
       </c>
       <c r="AN192">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AO192">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP192">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ192">
+        <v>0.71</v>
+      </c>
+      <c r="AR192">
+        <v>1.09</v>
+      </c>
+      <c r="AS192">
         <v>0.97</v>
       </c>
-      <c r="AR192">
-        <v>1.07</v>
-      </c>
-      <c r="AS192">
-        <v>1.2</v>
-      </c>
       <c r="AT192">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41144,25 +41144,25 @@
         <v>1.85</v>
       </c>
       <c r="AN193">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AO193">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR193">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AS193">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="AT193">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU193">
         <v>5</v>
@@ -41350,25 +41350,25 @@
         <v>2.41</v>
       </c>
       <c r="AN194">
-        <v>2.13</v>
+        <v>2.83</v>
       </c>
       <c r="AO194">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AP194">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ194">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR194">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AS194">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT194">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="AU194">
         <v>8</v>
@@ -41556,25 +41556,25 @@
         <v>1.63</v>
       </c>
       <c r="AN195">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AO195">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AP195">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ195">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR195">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS195">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT195">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="AU195">
         <v>5</v>
@@ -41765,22 +41765,22 @@
         <v>0.42</v>
       </c>
       <c r="AO196">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="AP196">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ196">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR196">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AS196">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AT196">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU196">
         <v>0</v>
@@ -41968,25 +41968,25 @@
         <v>6</v>
       </c>
       <c r="AN197">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="AO197">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ197">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR197">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="AS197">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT197">
-        <v>3.48</v>
+        <v>3.51</v>
       </c>
       <c r="AU197">
         <v>14</v>
@@ -42174,22 +42174,22 @@
         <v>2.2</v>
       </c>
       <c r="AN198">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AO198">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="AP198">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS198">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT198">
         <v>2.42</v>
@@ -42380,25 +42380,25 @@
         <v>1.31</v>
       </c>
       <c r="AN199">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO199">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ199">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR199">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AS199">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42586,25 +42586,25 @@
         <v>2.35</v>
       </c>
       <c r="AN200">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AO200">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AS200">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AT200">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="AU200">
         <v>11</v>
@@ -42792,25 +42792,25 @@
         <v>1.63</v>
       </c>
       <c r="AN201">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AO201">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AP201">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ201">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR201">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AS201">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="AT201">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42998,25 +42998,25 @@
         <v>1.87</v>
       </c>
       <c r="AN202">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AO202">
-        <v>1.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ202">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR202">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AS202">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT202">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43204,25 +43204,25 @@
         <v>2.35</v>
       </c>
       <c r="AN203">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AO203">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP203">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ203">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR203">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="AS203">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT203">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="AU203">
         <v>9</v>
@@ -43410,25 +43410,25 @@
         <v>1.44</v>
       </c>
       <c r="AN204">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AO204">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ204">
+        <v>0.71</v>
+      </c>
+      <c r="AR204">
+        <v>1.36</v>
+      </c>
+      <c r="AS204">
         <v>0.97</v>
       </c>
-      <c r="AR204">
-        <v>1.21</v>
-      </c>
-      <c r="AS204">
-        <v>1.18</v>
-      </c>
       <c r="AT204">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43616,25 +43616,25 @@
         <v>1.06</v>
       </c>
       <c r="AN205">
+        <v>2.08</v>
+      </c>
+      <c r="AO205">
+        <v>2.27</v>
+      </c>
+      <c r="AP205">
         <v>1.88</v>
       </c>
-      <c r="AO205">
-        <v>2.38</v>
-      </c>
-      <c r="AP205">
-        <v>1.66</v>
-      </c>
       <c r="AQ205">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR205">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AS205">
-        <v>2.27</v>
+        <v>2.09</v>
       </c>
       <c r="AT205">
-        <v>3.73</v>
+        <v>3.62</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43822,25 +43822,25 @@
         <v>1.03</v>
       </c>
       <c r="AN206">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO206">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AP206">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS206">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AT206">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44028,25 +44028,25 @@
         <v>1.6</v>
       </c>
       <c r="AN207">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AO207">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="AP207">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ207">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AS207">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT207">
-        <v>3.37</v>
+        <v>3.57</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44234,25 +44234,25 @@
         <v>2.18</v>
       </c>
       <c r="AN208">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="AO208">
-        <v>1.16</v>
+        <v>0.58</v>
       </c>
       <c r="AP208">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208">
+        <v>0.76</v>
+      </c>
+      <c r="AR208">
+        <v>1.4</v>
+      </c>
+      <c r="AS208">
         <v>1.2</v>
       </c>
-      <c r="AR208">
-        <v>1.42</v>
-      </c>
-      <c r="AS208">
-        <v>1.35</v>
-      </c>
       <c r="AT208">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44443,22 +44443,22 @@
         <v>0.38</v>
       </c>
       <c r="AO209">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AP209">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ209">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR209">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AS209">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT209">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44646,25 +44646,25 @@
         <v>2.3</v>
       </c>
       <c r="AN210">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AO210">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ210">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR210">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AS210">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AU210">
         <v>8</v>
@@ -44852,25 +44852,25 @@
         <v>1.83</v>
       </c>
       <c r="AN211">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AO211">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="AP211">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR211">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS211">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AT211">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AU211">
         <v>8</v>
@@ -45058,25 +45058,25 @@
         <v>3.16</v>
       </c>
       <c r="AN212">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AO212">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ212">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR212">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AS212">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT212">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45264,25 +45264,25 @@
         <v>2.35</v>
       </c>
       <c r="AN213">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AO213">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AP213">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ213">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AR213">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="AS213">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AT213">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="AU213">
         <v>8</v>
@@ -45470,25 +45470,25 @@
         <v>3.1</v>
       </c>
       <c r="AN214">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AO214">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="AP214">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR214">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AS214">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT214">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45676,25 +45676,25 @@
         <v>1.25</v>
       </c>
       <c r="AN215">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="AO215">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AP215">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ215">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR215">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS215">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT215">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -45882,25 +45882,25 @@
         <v>3.6</v>
       </c>
       <c r="AN216">
-        <v>2.12</v>
+        <v>2.85</v>
       </c>
       <c r="AO216">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="AP216">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ216">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AR216">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS216">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="AT216">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="AU216">
         <v>11</v>
@@ -46088,25 +46088,25 @@
         <v>2</v>
       </c>
       <c r="AN217">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AO217">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="AP217">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ217">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR217">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AS217">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="AT217">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="AU217">
         <v>10</v>
@@ -46294,25 +46294,25 @@
         <v>1.6</v>
       </c>
       <c r="AN218">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO218">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ218">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR218">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AS218">
         <v>1.39</v>
       </c>
       <c r="AT218">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU218">
         <v>3</v>
@@ -46500,25 +46500,25 @@
         <v>1.36</v>
       </c>
       <c r="AN219">
-        <v>1.89</v>
+        <v>2.23</v>
       </c>
       <c r="AO219">
-        <v>2.11</v>
+        <v>2.23</v>
       </c>
       <c r="AP219">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ219">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR219">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="AS219">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AT219">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU219">
         <v>0</v>
@@ -46706,25 +46706,25 @@
         <v>1.69</v>
       </c>
       <c r="AN220">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AO220">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AP220">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ220">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AS220">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT220">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="AU220">
         <v>9</v>
@@ -46912,25 +46912,25 @@
         <v>1.01</v>
       </c>
       <c r="AN221">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AO221">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AP221">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ221">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR221">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AS221">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AT221">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47118,25 +47118,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AO222">
-        <v>1.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR222">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS222">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT222">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU222">
         <v>3</v>
@@ -47324,25 +47324,25 @@
         <v>1.33</v>
       </c>
       <c r="AN223">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AO223">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="AP223">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ223">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR223">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS223">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AT223">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47530,25 +47530,25 @@
         <v>1.55</v>
       </c>
       <c r="AN224">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO224">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ224">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR224">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS224">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT224">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU224">
         <v>3</v>
@@ -47736,25 +47736,25 @@
         <v>1.23</v>
       </c>
       <c r="AN225">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AO225">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AP225">
+        <v>1.5</v>
+      </c>
+      <c r="AQ225">
+        <v>2.18</v>
+      </c>
+      <c r="AR225">
         <v>1.49</v>
       </c>
-      <c r="AQ225">
-        <v>2.34</v>
-      </c>
-      <c r="AR225">
-        <v>1.47</v>
-      </c>
       <c r="AS225">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="AT225">
-        <v>3.69</v>
+        <v>3.56</v>
       </c>
       <c r="AU225">
         <v>6</v>
@@ -47942,25 +47942,25 @@
         <v>3.22</v>
       </c>
       <c r="AN226">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AO226">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="AP226">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ226">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AR226">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="AS226">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AT226">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="AU226">
         <v>8</v>
@@ -48148,25 +48148,25 @@
         <v>5</v>
       </c>
       <c r="AN227">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO227">
         <v>0.93</v>
       </c>
       <c r="AP227">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AQ227">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AS227">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AT227">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AU227">
         <v>8</v>
@@ -48354,25 +48354,25 @@
         <v>2.9</v>
       </c>
       <c r="AN228">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AO228">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ228">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AR228">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS228">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="AT228">
-        <v>2.64</v>
+        <v>2.41</v>
       </c>
       <c r="AU228">
         <v>7</v>
@@ -48560,25 +48560,25 @@
         <v>1.55</v>
       </c>
       <c r="AN229">
-        <v>2.07</v>
+        <v>2.86</v>
       </c>
       <c r="AO229">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AP229">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AQ229">
+        <v>1.56</v>
+      </c>
+      <c r="AR229">
         <v>1.83</v>
       </c>
-      <c r="AR229">
-        <v>1.73</v>
-      </c>
       <c r="AS229">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT229">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48766,25 +48766,25 @@
         <v>1.3</v>
       </c>
       <c r="AN230">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="AO230">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AP230">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AQ230">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR230">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT230">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -48972,25 +48972,25 @@
         <v>1.22</v>
       </c>
       <c r="AN231">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO231">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AP231">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ231">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AR231">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS231">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AT231">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU231">
         <v>7</v>
@@ -49178,25 +49178,25 @@
         <v>2.5</v>
       </c>
       <c r="AN232">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AO232">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP232">
+        <v>1.5</v>
+      </c>
+      <c r="AQ232">
+        <v>1.28</v>
+      </c>
+      <c r="AR232">
         <v>1.49</v>
       </c>
-      <c r="AQ232">
-        <v>1.11</v>
-      </c>
-      <c r="AR232">
-        <v>1.47</v>
-      </c>
       <c r="AS232">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49384,25 +49384,25 @@
         <v>4.1</v>
       </c>
       <c r="AN233">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AO233">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AP233">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AQ233">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR233">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="AS233">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT233">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="AU233">
         <v>13</v>
@@ -49590,25 +49590,25 @@
         <v>2.07</v>
       </c>
       <c r="AN234">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
       <c r="AO234">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="AP234">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AR234">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS234">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="AT234">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49796,25 +49796,25 @@
         <v>1.38</v>
       </c>
       <c r="AN235">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="AO235">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AP235">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AQ235">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR235">
+        <v>1.44</v>
+      </c>
+      <c r="AS235">
         <v>1.42</v>
       </c>
-      <c r="AS235">
-        <v>1.41</v>
-      </c>
       <c r="AT235">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU235">
         <v>7</v>
@@ -50002,25 +50002,25 @@
         <v>1.13</v>
       </c>
       <c r="AN236">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO236">
-        <v>2.1</v>
+        <v>1.29</v>
       </c>
       <c r="AP236">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AQ236">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="AR236">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AS236">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT236">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="AU236">
         <v>0</v>
@@ -50208,25 +50208,25 @@
         <v>1.01</v>
       </c>
       <c r="AN237">
-        <v>1.03</v>
+        <v>1.36</v>
       </c>
       <c r="AO237">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AP237">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="AQ237">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AR237">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AS237">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="AT237">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="AU237">
         <v>3</v>
@@ -50414,25 +50414,25 @@
         <v>3.34</v>
       </c>
       <c r="AN238">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="AO238">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AQ238">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AR238">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AS238">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT238">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="AU238">
         <v>6</v>
@@ -50620,25 +50620,25 @@
         <v>2.05</v>
       </c>
       <c r="AN239">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AO239">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AQ239">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR239">
+        <v>1.5</v>
+      </c>
+      <c r="AS239">
         <v>1.46</v>
       </c>
-      <c r="AS239">
-        <v>1.48</v>
-      </c>
       <c r="AT239">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU239">
         <v>6</v>
@@ -50826,25 +50826,25 @@
         <v>1.23</v>
       </c>
       <c r="AN240">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AO240">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AP240">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ240">
         <v>1.11</v>
       </c>
-      <c r="AQ240">
-        <v>1.25</v>
-      </c>
       <c r="AR240">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS240">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="AT240">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -51032,25 +51032,25 @@
         <v>1.15</v>
       </c>
       <c r="AN241">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="AO241">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP241">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ241">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AR241">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS241">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT241">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51650,25 +51650,25 @@
         <v>1.77</v>
       </c>
       <c r="AN244">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AO244">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP244">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ244">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR244">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="AS244">
         <v>1.41</v>
       </c>
       <c r="AT244">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="AU244">
         <v>3</v>
@@ -52474,25 +52474,25 @@
         <v>1.67</v>
       </c>
       <c r="AN248">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AO248">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR248">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AS248">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT248">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52886,25 +52886,25 @@
         <v>1.63</v>
       </c>
       <c r="AN250">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AO250">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AP250">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ250">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS250">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT250">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53092,25 +53092,25 @@
         <v>1.87</v>
       </c>
       <c r="AN251">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AO251">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AS251">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT251">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="AU251">
         <v>4</v>
@@ -53298,25 +53298,25 @@
         <v>1.67</v>
       </c>
       <c r="AN252">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AO252">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP252">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ252">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR252">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS252">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT252">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53710,25 +53710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN254">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AO254">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AP254">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ254">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR254">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS254">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AT254">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -56182,25 +56182,25 @@
         <v>1.58</v>
       </c>
       <c r="AN266">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO266">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AP266">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ266">
+        <v>1.47</v>
+      </c>
+      <c r="AR266">
         <v>1.49</v>
       </c>
-      <c r="AR266">
-        <v>1.36</v>
-      </c>
       <c r="AS266">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT266">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56388,25 +56388,25 @@
         <v>2.06</v>
       </c>
       <c r="AN267">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AO267">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AP267">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ267">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR267">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS267">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="AT267">
-        <v>3.08</v>
+        <v>2.89</v>
       </c>
       <c r="AU267">
         <v>8</v>
@@ -57624,25 +57624,25 @@
         <v>1.53</v>
       </c>
       <c r="AN273">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AO273">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ273">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR273">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS273">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU273">
         <v>9</v>
@@ -57830,25 +57830,25 @@
         <v>2.15</v>
       </c>
       <c r="AN274">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AO274">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AP274">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ274">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR274">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS274">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AT274">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -59478,25 +59478,25 @@
         <v>1.25</v>
       </c>
       <c r="AN282">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO282">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="AP282">
+        <v>1.39</v>
+      </c>
+      <c r="AQ282">
+        <v>1.17</v>
+      </c>
+      <c r="AR282">
+        <v>1.85</v>
+      </c>
+      <c r="AS282">
         <v>1.25</v>
       </c>
-      <c r="AQ282">
-        <v>1.42</v>
-      </c>
-      <c r="AR282">
-        <v>1.64</v>
-      </c>
-      <c r="AS282">
-        <v>1.39</v>
-      </c>
       <c r="AT282">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU282">
         <v>3</v>
@@ -59684,25 +59684,25 @@
         <v>1.27</v>
       </c>
       <c r="AN283">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AO283">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP283">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ283">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR283">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AS283">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AT283">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU283">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -1831,10 +1831,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -2037,10 +2037,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BA3">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ4">
         <v>4</v>
@@ -2449,10 +2449,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -2655,10 +2655,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ8">
         <v>6</v>
@@ -3273,10 +3273,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -3479,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA10">
         <v>6</v>
@@ -3685,10 +3685,10 @@
         <v>5</v>
       </c>
       <c r="AY11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA11">
         <v>8</v>
@@ -3891,10 +3891,10 @@
         <v>9</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -4097,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AZ13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA13">
         <v>15</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4715,10 +4715,10 @@
         <v>7</v>
       </c>
       <c r="AY16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA16">
         <v>4</v>
@@ -4921,10 +4921,10 @@
         <v>6</v>
       </c>
       <c r="AY17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA17">
         <v>2</v>
@@ -5127,10 +5127,10 @@
         <v>7</v>
       </c>
       <c r="AY18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA18">
         <v>2</v>
@@ -5333,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA19">
         <v>8</v>
@@ -5539,10 +5539,10 @@
         <v>9</v>
       </c>
       <c r="AY20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA20">
         <v>0</v>
@@ -5745,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="AY21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA21">
         <v>5</v>
@@ -5951,10 +5951,10 @@
         <v>8</v>
       </c>
       <c r="AY22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -6157,10 +6157,10 @@
         <v>7</v>
       </c>
       <c r="AY23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>4</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ24">
         <v>6</v>
@@ -6569,10 +6569,10 @@
         <v>13</v>
       </c>
       <c r="AY25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ25">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="BA25">
         <v>2</v>
@@ -6775,10 +6775,10 @@
         <v>1</v>
       </c>
       <c r="AY26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6981,10 +6981,10 @@
         <v>3</v>
       </c>
       <c r="AY27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -7187,10 +7187,10 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="AY29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ29">
         <v>6</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7805,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -8011,10 +8011,10 @@
         <v>10</v>
       </c>
       <c r="AY32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -8217,10 +8217,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -8426,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8629,10 +8629,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8835,10 +8835,10 @@
         <v>2</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA36">
         <v>5</v>
@@ -9041,10 +9041,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -9247,10 +9247,10 @@
         <v>9</v>
       </c>
       <c r="AY38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ38">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA38">
         <v>3</v>
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="AY39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ39">
         <v>9</v>
@@ -9659,10 +9659,10 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9868,7 +9868,7 @@
         <v>6</v>
       </c>
       <c r="AZ41">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA41">
         <v>2</v>
@@ -10071,10 +10071,10 @@
         <v>5</v>
       </c>
       <c r="AY42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ42">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -10277,10 +10277,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA43">
         <v>11</v>
@@ -10483,10 +10483,10 @@
         <v>4</v>
       </c>
       <c r="AY44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10689,10 +10689,10 @@
         <v>4</v>
       </c>
       <c r="AY45">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA45">
         <v>10</v>
@@ -10895,7 +10895,7 @@
         <v>4</v>
       </c>
       <c r="AY46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ46">
         <v>9</v>
@@ -11101,10 +11101,10 @@
         <v>2</v>
       </c>
       <c r="AY47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA47">
         <v>6</v>
@@ -11310,7 +11310,7 @@
         <v>13</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -11513,10 +11513,10 @@
         <v>8</v>
       </c>
       <c r="AY49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -11719,10 +11719,10 @@
         <v>6</v>
       </c>
       <c r="AY50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA50">
         <v>2</v>
@@ -11925,10 +11925,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -12134,7 +12134,7 @@
         <v>5</v>
       </c>
       <c r="AZ52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA52">
         <v>2</v>
@@ -12337,10 +12337,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12543,10 +12543,10 @@
         <v>12</v>
       </c>
       <c r="AY54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ54">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA54">
         <v>1</v>
@@ -12752,7 +12752,7 @@
         <v>13</v>
       </c>
       <c r="AZ55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12955,10 +12955,10 @@
         <v>2</v>
       </c>
       <c r="AY56">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>10</v>
@@ -13161,10 +13161,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ57">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -13367,10 +13367,10 @@
         <v>6</v>
       </c>
       <c r="AY58">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -13573,10 +13573,10 @@
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA59">
         <v>9</v>
@@ -13779,10 +13779,10 @@
         <v>1</v>
       </c>
       <c r="AY60">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AZ60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA60">
         <v>10</v>
@@ -13985,10 +13985,10 @@
         <v>6</v>
       </c>
       <c r="AY61">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -14191,10 +14191,10 @@
         <v>2</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -14397,10 +14397,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14603,10 +14603,10 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AZ64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA64">
         <v>16</v>
@@ -14809,10 +14809,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ65">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -15015,10 +15015,10 @@
         <v>1</v>
       </c>
       <c r="AY66">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA66">
         <v>7</v>
@@ -15221,10 +15221,10 @@
         <v>3</v>
       </c>
       <c r="AY67">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA67">
         <v>13</v>
@@ -15427,10 +15427,10 @@
         <v>4</v>
       </c>
       <c r="AY68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ68">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA68">
         <v>2</v>
@@ -15636,7 +15636,7 @@
         <v>6</v>
       </c>
       <c r="AZ69">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA69">
         <v>0</v>
@@ -15839,10 +15839,10 @@
         <v>11</v>
       </c>
       <c r="AY70">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ70">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA70">
         <v>4</v>
@@ -16045,10 +16045,10 @@
         <v>2</v>
       </c>
       <c r="AY71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA71">
         <v>5</v>
@@ -16251,10 +16251,10 @@
         <v>2</v>
       </c>
       <c r="AY72">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA72">
         <v>8</v>
@@ -16460,7 +16460,7 @@
         <v>11</v>
       </c>
       <c r="AZ73">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16663,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="AY74">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AZ74">
         <v>0</v>
@@ -16869,7 +16869,7 @@
         <v>5</v>
       </c>
       <c r="AY75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ75">
         <v>8</v>
@@ -17075,10 +17075,10 @@
         <v>6</v>
       </c>
       <c r="AY76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA76">
         <v>2</v>
@@ -17281,10 +17281,10 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA77">
         <v>4</v>
@@ -17487,10 +17487,10 @@
         <v>4</v>
       </c>
       <c r="AY78">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA78">
         <v>9</v>
@@ -17693,10 +17693,10 @@
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA79">
         <v>8</v>
@@ -17899,10 +17899,10 @@
         <v>2</v>
       </c>
       <c r="AY80">
+        <v>14</v>
+      </c>
+      <c r="AZ80">
         <v>9</v>
-      </c>
-      <c r="AZ80">
-        <v>7</v>
       </c>
       <c r="BA80">
         <v>6</v>
@@ -18105,10 +18105,10 @@
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ81">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA81">
         <v>5</v>
@@ -18311,10 +18311,10 @@
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA82">
         <v>11</v>
@@ -18517,10 +18517,10 @@
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ83">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18723,10 +18723,10 @@
         <v>5</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA84">
         <v>9</v>
@@ -18929,10 +18929,10 @@
         <v>11</v>
       </c>
       <c r="AY85">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ85">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -19135,10 +19135,10 @@
         <v>8</v>
       </c>
       <c r="AY86">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ86">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA86">
         <v>5</v>
@@ -19341,10 +19341,10 @@
         <v>3</v>
       </c>
       <c r="AY87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -19550,7 +19550,7 @@
         <v>5</v>
       </c>
       <c r="AZ88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA88">
         <v>5</v>
@@ -19753,10 +19753,10 @@
         <v>3</v>
       </c>
       <c r="AY89">
+        <v>12</v>
+      </c>
+      <c r="AZ89">
         <v>10</v>
-      </c>
-      <c r="AZ89">
-        <v>9</v>
       </c>
       <c r="BA89">
         <v>9</v>
@@ -19959,10 +19959,10 @@
         <v>8</v>
       </c>
       <c r="AY90">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ90">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA90">
         <v>11</v>
@@ -20165,7 +20165,7 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ91">
         <v>4</v>
@@ -20371,10 +20371,10 @@
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ92">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA92">
         <v>5</v>
@@ -20577,10 +20577,10 @@
         <v>2</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA93">
         <v>2</v>
@@ -20783,10 +20783,10 @@
         <v>4</v>
       </c>
       <c r="AY94">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20989,10 +20989,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA95">
         <v>1</v>
@@ -21195,10 +21195,10 @@
         <v>2</v>
       </c>
       <c r="AY96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -21401,10 +21401,10 @@
         <v>3</v>
       </c>
       <c r="AY97">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA97">
         <v>10</v>
@@ -21610,7 +21610,7 @@
         <v>7</v>
       </c>
       <c r="AZ98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA98">
         <v>7</v>
@@ -21813,10 +21813,10 @@
         <v>2</v>
       </c>
       <c r="AY99">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA99">
         <v>7</v>
@@ -22019,7 +22019,7 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AZ100">
         <v>5</v>
@@ -22225,10 +22225,10 @@
         <v>4</v>
       </c>
       <c r="AY101">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA101">
         <v>4</v>
@@ -22431,7 +22431,7 @@
         <v>3</v>
       </c>
       <c r="AY102">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ102">
         <v>9</v>
@@ -22637,10 +22637,10 @@
         <v>5</v>
       </c>
       <c r="AY103">
+        <v>19</v>
+      </c>
+      <c r="AZ103">
         <v>16</v>
-      </c>
-      <c r="AZ103">
-        <v>14</v>
       </c>
       <c r="BA103">
         <v>7</v>
@@ -22843,10 +22843,10 @@
         <v>9</v>
       </c>
       <c r="AY104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ104">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA104">
         <v>2</v>
@@ -23049,10 +23049,10 @@
         <v>7</v>
       </c>
       <c r="AY105">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ105">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA105">
         <v>3</v>
@@ -23255,10 +23255,10 @@
         <v>6</v>
       </c>
       <c r="AY106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ106">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA106">
         <v>5</v>
@@ -23461,10 +23461,10 @@
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA107">
         <v>7</v>
@@ -23670,7 +23670,7 @@
         <v>6</v>
       </c>
       <c r="AZ108">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BA108">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>8</v>
       </c>
       <c r="AZ109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA109">
         <v>8</v>
@@ -24079,10 +24079,10 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA110">
         <v>6</v>
@@ -24285,10 +24285,10 @@
         <v>6</v>
       </c>
       <c r="AY111">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ111">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA111">
         <v>8</v>
@@ -24491,10 +24491,10 @@
         <v>10</v>
       </c>
       <c r="AY112">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ112">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA112">
         <v>6</v>
@@ -24697,7 +24697,7 @@
         <v>7</v>
       </c>
       <c r="AY113">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ113">
         <v>10</v>
@@ -24903,10 +24903,10 @@
         <v>3</v>
       </c>
       <c r="AY114">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ114">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA114">
         <v>12</v>
@@ -25109,10 +25109,10 @@
         <v>13</v>
       </c>
       <c r="AY115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ115">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA115">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>4</v>
       </c>
       <c r="AY116">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA116">
         <v>10</v>
@@ -25521,10 +25521,10 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA117">
         <v>7</v>
@@ -25727,10 +25727,10 @@
         <v>5</v>
       </c>
       <c r="AY118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ118">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA118">
         <v>1</v>
@@ -25936,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="AZ119">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA119">
         <v>0</v>
@@ -26139,10 +26139,10 @@
         <v>2</v>
       </c>
       <c r="AY120">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA120">
         <v>10</v>
@@ -26345,7 +26345,7 @@
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ121">
         <v>2</v>
@@ -26551,10 +26551,10 @@
         <v>3</v>
       </c>
       <c r="AY122">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA122">
         <v>12</v>
@@ -26757,10 +26757,10 @@
         <v>5</v>
       </c>
       <c r="AY123">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA123">
         <v>10</v>
@@ -26963,10 +26963,10 @@
         <v>2</v>
       </c>
       <c r="AY124">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA124">
         <v>8</v>
@@ -27169,7 +27169,7 @@
         <v>1</v>
       </c>
       <c r="AY125">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ125">
         <v>4</v>
@@ -27375,10 +27375,10 @@
         <v>6</v>
       </c>
       <c r="AY126">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ126">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27584,7 +27584,7 @@
         <v>5</v>
       </c>
       <c r="AZ127">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA127">
         <v>0</v>
@@ -27790,7 +27790,7 @@
         <v>10</v>
       </c>
       <c r="AZ128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA128">
         <v>6</v>
@@ -27993,10 +27993,10 @@
         <v>3</v>
       </c>
       <c r="AY129">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA129">
         <v>6</v>
@@ -28199,10 +28199,10 @@
         <v>6</v>
       </c>
       <c r="AY130">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ130">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA130">
         <v>5</v>
@@ -28405,10 +28405,10 @@
         <v>7</v>
       </c>
       <c r="AY131">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ131">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA131">
         <v>2</v>
@@ -28611,10 +28611,10 @@
         <v>5</v>
       </c>
       <c r="AY132">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ132">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA132">
         <v>5</v>
@@ -28820,7 +28820,7 @@
         <v>9</v>
       </c>
       <c r="AZ133">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA133">
         <v>5</v>
@@ -29023,10 +29023,10 @@
         <v>2</v>
       </c>
       <c r="AY134">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA134">
         <v>7</v>
@@ -29229,10 +29229,10 @@
         <v>10</v>
       </c>
       <c r="AY135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ135">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA135">
         <v>3</v>
@@ -29435,10 +29435,10 @@
         <v>4</v>
       </c>
       <c r="AY136">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ136">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA136">
         <v>2</v>
@@ -29641,10 +29641,10 @@
         <v>10</v>
       </c>
       <c r="AY137">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ137">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA137">
         <v>1</v>
@@ -29847,10 +29847,10 @@
         <v>3</v>
       </c>
       <c r="AY138">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA138">
         <v>6</v>
@@ -30053,7 +30053,7 @@
         <v>1</v>
       </c>
       <c r="AY139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ139">
         <v>8</v>
@@ -30259,10 +30259,10 @@
         <v>3</v>
       </c>
       <c r="AY140">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AZ140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA140">
         <v>14</v>
@@ -30465,10 +30465,10 @@
         <v>5</v>
       </c>
       <c r="AY141">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ141">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA141">
         <v>4</v>
@@ -30671,10 +30671,10 @@
         <v>1</v>
       </c>
       <c r="AY142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA142">
         <v>3</v>
@@ -30877,10 +30877,10 @@
         <v>2</v>
       </c>
       <c r="AY143">
+        <v>14</v>
+      </c>
+      <c r="AZ143">
         <v>10</v>
-      </c>
-      <c r="AZ143">
-        <v>6</v>
       </c>
       <c r="BA143">
         <v>4</v>
@@ -31083,10 +31083,10 @@
         <v>1</v>
       </c>
       <c r="AY144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA144">
         <v>7</v>
@@ -31289,10 +31289,10 @@
         <v>9</v>
       </c>
       <c r="AY145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ145">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA145">
         <v>8</v>
@@ -31495,10 +31495,10 @@
         <v>1</v>
       </c>
       <c r="AY146">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA146">
         <v>8</v>
@@ -31701,10 +31701,10 @@
         <v>9</v>
       </c>
       <c r="AY147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31907,10 +31907,10 @@
         <v>2</v>
       </c>
       <c r="AY148">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ148">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -32113,10 +32113,10 @@
         <v>8</v>
       </c>
       <c r="AY149">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ149">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA149">
         <v>2</v>
@@ -32319,10 +32319,10 @@
         <v>3</v>
       </c>
       <c r="AY150">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AZ150">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA150">
         <v>12</v>
@@ -32525,10 +32525,10 @@
         <v>6</v>
       </c>
       <c r="AY151">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ151">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA151">
         <v>5</v>
@@ -32731,10 +32731,10 @@
         <v>6</v>
       </c>
       <c r="AY152">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ152">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA152">
         <v>5</v>
@@ -32937,7 +32937,7 @@
         <v>2</v>
       </c>
       <c r="AY153">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ153">
         <v>7</v>
@@ -33143,10 +33143,10 @@
         <v>3</v>
       </c>
       <c r="AY154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ154">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA154">
         <v>2</v>
@@ -33349,10 +33349,10 @@
         <v>5</v>
       </c>
       <c r="AY155">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ155">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA155">
         <v>6</v>
@@ -33555,7 +33555,7 @@
         <v>1</v>
       </c>
       <c r="AY156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ156">
         <v>4</v>
@@ -33761,7 +33761,7 @@
         <v>3</v>
       </c>
       <c r="AY157">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ157">
         <v>7</v>
@@ -33967,7 +33967,7 @@
         <v>2</v>
       </c>
       <c r="AY158">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ158">
         <v>7</v>
@@ -34173,10 +34173,10 @@
         <v>4</v>
       </c>
       <c r="AY159">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA159">
         <v>7</v>
@@ -34379,10 +34379,10 @@
         <v>2</v>
       </c>
       <c r="AY160">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA160">
         <v>6</v>
@@ -34585,10 +34585,10 @@
         <v>5</v>
       </c>
       <c r="AY161">
+        <v>12</v>
+      </c>
+      <c r="AZ161">
         <v>11</v>
-      </c>
-      <c r="AZ161">
-        <v>9</v>
       </c>
       <c r="BA161">
         <v>3</v>
@@ -34791,10 +34791,10 @@
         <v>6</v>
       </c>
       <c r="AY162">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ162">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA162">
         <v>7</v>
@@ -34997,7 +34997,7 @@
         <v>3</v>
       </c>
       <c r="AY163">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ163">
         <v>8</v>
@@ -35206,7 +35206,7 @@
         <v>6</v>
       </c>
       <c r="AZ164">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA164">
         <v>3</v>
@@ -35412,7 +35412,7 @@
         <v>5</v>
       </c>
       <c r="AZ165">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA165">
         <v>3</v>
@@ -35615,10 +35615,10 @@
         <v>3</v>
       </c>
       <c r="AY166">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ166">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA166">
         <v>4</v>
@@ -35821,10 +35821,10 @@
         <v>4</v>
       </c>
       <c r="AY167">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AZ167">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA167">
         <v>10</v>
@@ -36027,10 +36027,10 @@
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ168">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA168">
         <v>2</v>
@@ -36233,10 +36233,10 @@
         <v>2</v>
       </c>
       <c r="AY169">
+        <v>13</v>
+      </c>
+      <c r="AZ169">
         <v>12</v>
-      </c>
-      <c r="AZ169">
-        <v>10</v>
       </c>
       <c r="BA169">
         <v>10</v>
@@ -36439,10 +36439,10 @@
         <v>5</v>
       </c>
       <c r="AY170">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA170">
         <v>9</v>
@@ -36645,10 +36645,10 @@
         <v>4</v>
       </c>
       <c r="AY171">
+        <v>18</v>
+      </c>
+      <c r="AZ171">
         <v>11</v>
-      </c>
-      <c r="AZ171">
-        <v>9</v>
       </c>
       <c r="BA171">
         <v>3</v>
@@ -36851,10 +36851,10 @@
         <v>6</v>
       </c>
       <c r="AY172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ172">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA172">
         <v>7</v>
@@ -37057,10 +37057,10 @@
         <v>1</v>
       </c>
       <c r="AY173">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA173">
         <v>3</v>
@@ -37263,10 +37263,10 @@
         <v>3</v>
       </c>
       <c r="AY174">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ174">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA174">
         <v>8</v>
@@ -37469,10 +37469,10 @@
         <v>8</v>
       </c>
       <c r="AY175">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ175">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA175">
         <v>2</v>
@@ -37675,10 +37675,10 @@
         <v>11</v>
       </c>
       <c r="AY176">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ176">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA176">
         <v>3</v>
@@ -37881,10 +37881,10 @@
         <v>3</v>
       </c>
       <c r="AY177">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ177">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA177">
         <v>4</v>
@@ -38087,10 +38087,10 @@
         <v>2</v>
       </c>
       <c r="AY178">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ178">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA178">
         <v>4</v>
@@ -38293,10 +38293,10 @@
         <v>5</v>
       </c>
       <c r="AY179">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ179">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA179">
         <v>5</v>
@@ -38499,10 +38499,10 @@
         <v>5</v>
       </c>
       <c r="AY180">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ180">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA180">
         <v>3</v>
@@ -38705,10 +38705,10 @@
         <v>2</v>
       </c>
       <c r="AY181">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ181">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA181">
         <v>8</v>
@@ -38911,10 +38911,10 @@
         <v>6</v>
       </c>
       <c r="AY182">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ182">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA182">
         <v>6</v>
@@ -39117,7 +39117,7 @@
         <v>2</v>
       </c>
       <c r="AY183">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ183">
         <v>7</v>
@@ -39323,10 +39323,10 @@
         <v>8</v>
       </c>
       <c r="AY184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ184">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA184">
         <v>4</v>
@@ -39529,7 +39529,7 @@
         <v>3</v>
       </c>
       <c r="AY185">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ185">
         <v>6</v>
@@ -39735,10 +39735,10 @@
         <v>9</v>
       </c>
       <c r="AY186">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ186">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA186">
         <v>2</v>
@@ -39941,10 +39941,10 @@
         <v>10</v>
       </c>
       <c r="AY187">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ187">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA187">
         <v>5</v>
@@ -40147,10 +40147,10 @@
         <v>6</v>
       </c>
       <c r="AY188">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ188">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BA188">
         <v>2</v>
@@ -40353,10 +40353,10 @@
         <v>3</v>
       </c>
       <c r="AY189">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ189">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA189">
         <v>6</v>
@@ -40559,10 +40559,10 @@
         <v>4</v>
       </c>
       <c r="AY190">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ190">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA190">
         <v>5</v>
@@ -40765,10 +40765,10 @@
         <v>5</v>
       </c>
       <c r="AY191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ191">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA191">
         <v>4</v>
@@ -40971,10 +40971,10 @@
         <v>3</v>
       </c>
       <c r="AY192">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ192">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA192">
         <v>6</v>
@@ -41180,7 +41180,7 @@
         <v>9</v>
       </c>
       <c r="AZ193">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA193">
         <v>5</v>
@@ -41383,10 +41383,10 @@
         <v>5</v>
       </c>
       <c r="AY194">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA194">
         <v>5</v>
@@ -41589,10 +41589,10 @@
         <v>3</v>
       </c>
       <c r="AY195">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA195">
         <v>7</v>
@@ -41795,10 +41795,10 @@
         <v>6</v>
       </c>
       <c r="AY196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ196">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA196">
         <v>5</v>
@@ -42001,10 +42001,10 @@
         <v>0</v>
       </c>
       <c r="AY197">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA197">
         <v>8</v>
@@ -42207,7 +42207,7 @@
         <v>3</v>
       </c>
       <c r="AY198">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ198">
         <v>8</v>
@@ -42416,7 +42416,7 @@
         <v>7</v>
       </c>
       <c r="AZ199">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA199">
         <v>3</v>
@@ -42619,10 +42619,10 @@
         <v>8</v>
       </c>
       <c r="AY200">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ200">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA200">
         <v>8</v>
@@ -42828,7 +42828,7 @@
         <v>7</v>
       </c>
       <c r="AZ201">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA201">
         <v>2</v>
@@ -43031,10 +43031,10 @@
         <v>5</v>
       </c>
       <c r="AY202">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ202">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA202">
         <v>4</v>
@@ -43237,7 +43237,7 @@
         <v>9</v>
       </c>
       <c r="AY203">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ203">
         <v>14</v>
@@ -43446,7 +43446,7 @@
         <v>4</v>
       </c>
       <c r="AZ204">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA204">
         <v>6</v>
@@ -43652,7 +43652,7 @@
         <v>7</v>
       </c>
       <c r="AZ205">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA205">
         <v>3</v>
@@ -43855,10 +43855,10 @@
         <v>8</v>
       </c>
       <c r="AY206">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ206">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA206">
         <v>3</v>
@@ -44061,10 +44061,10 @@
         <v>4</v>
       </c>
       <c r="AY207">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ207">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA207">
         <v>2</v>
@@ -44267,10 +44267,10 @@
         <v>4</v>
       </c>
       <c r="AY208">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ208">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA208">
         <v>7</v>
@@ -44473,10 +44473,10 @@
         <v>3</v>
       </c>
       <c r="AY209">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ209">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA209">
         <v>8</v>
@@ -44679,10 +44679,10 @@
         <v>2</v>
       </c>
       <c r="AY210">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AZ210">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA210">
         <v>11</v>
@@ -44885,10 +44885,10 @@
         <v>4</v>
       </c>
       <c r="AY211">
+        <v>12</v>
+      </c>
+      <c r="AZ211">
         <v>11</v>
-      </c>
-      <c r="AZ211">
-        <v>8</v>
       </c>
       <c r="BA211">
         <v>3</v>
@@ -45091,10 +45091,10 @@
         <v>4</v>
       </c>
       <c r="AY212">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ212">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA212">
         <v>6</v>
@@ -45297,10 +45297,10 @@
         <v>5</v>
       </c>
       <c r="AY213">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ213">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA213">
         <v>2</v>
@@ -45503,10 +45503,10 @@
         <v>7</v>
       </c>
       <c r="AY214">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ214">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA214">
         <v>8</v>
@@ -45709,10 +45709,10 @@
         <v>3</v>
       </c>
       <c r="AY215">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ215">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA215">
         <v>5</v>
@@ -45915,10 +45915,10 @@
         <v>5</v>
       </c>
       <c r="AY216">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ216">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA216">
         <v>8</v>
@@ -46121,10 +46121,10 @@
         <v>1</v>
       </c>
       <c r="AY217">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ217">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA217">
         <v>7</v>
@@ -46327,10 +46327,10 @@
         <v>5</v>
       </c>
       <c r="AY218">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ218">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA218">
         <v>1</v>
@@ -46533,10 +46533,10 @@
         <v>5</v>
       </c>
       <c r="AY219">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ219">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA219">
         <v>2</v>
@@ -46739,10 +46739,10 @@
         <v>10</v>
       </c>
       <c r="AY220">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ220">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA220">
         <v>7</v>
@@ -46945,10 +46945,10 @@
         <v>7</v>
       </c>
       <c r="AY221">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ221">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA221">
         <v>4</v>
@@ -47151,10 +47151,10 @@
         <v>8</v>
       </c>
       <c r="AY222">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ222">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA222">
         <v>2</v>
@@ -47360,7 +47360,7 @@
         <v>12</v>
       </c>
       <c r="AZ223">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA223">
         <v>2</v>
@@ -47563,10 +47563,10 @@
         <v>8</v>
       </c>
       <c r="AY224">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ224">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA224">
         <v>1</v>
@@ -47769,10 +47769,10 @@
         <v>15</v>
       </c>
       <c r="AY225">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ225">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BA225">
         <v>3</v>
@@ -47975,10 +47975,10 @@
         <v>4</v>
       </c>
       <c r="AY226">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA226">
         <v>4</v>
@@ -48181,10 +48181,10 @@
         <v>4</v>
       </c>
       <c r="AY227">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ227">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA227">
         <v>14</v>
@@ -48387,7 +48387,7 @@
         <v>2</v>
       </c>
       <c r="AY228">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ228">
         <v>7</v>
@@ -48593,10 +48593,10 @@
         <v>4</v>
       </c>
       <c r="AY229">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA229">
         <v>6</v>
@@ -48799,10 +48799,10 @@
         <v>12</v>
       </c>
       <c r="AY230">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ230">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA230">
         <v>4</v>
@@ -49005,10 +49005,10 @@
         <v>5</v>
       </c>
       <c r="AY231">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ231">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA231">
         <v>5</v>
@@ -49211,10 +49211,10 @@
         <v>6</v>
       </c>
       <c r="AY232">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ232">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA232">
         <v>2</v>
@@ -49417,10 +49417,10 @@
         <v>5</v>
       </c>
       <c r="AY233">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ233">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA233">
         <v>8</v>
@@ -49623,7 +49623,7 @@
         <v>1</v>
       </c>
       <c r="AY234">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ234">
         <v>5</v>
@@ -49829,10 +49829,10 @@
         <v>7</v>
       </c>
       <c r="AY235">
+        <v>16</v>
+      </c>
+      <c r="AZ235">
         <v>13</v>
-      </c>
-      <c r="AZ235">
-        <v>10</v>
       </c>
       <c r="BA235">
         <v>3</v>
@@ -50035,10 +50035,10 @@
         <v>13</v>
       </c>
       <c r="AY236">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ236">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA236">
         <v>7</v>
@@ -50241,10 +50241,10 @@
         <v>3</v>
       </c>
       <c r="AY237">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ237">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA237">
         <v>2</v>
@@ -50447,10 +50447,10 @@
         <v>7</v>
       </c>
       <c r="AY238">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AZ238">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA238">
         <v>7</v>
@@ -50653,10 +50653,10 @@
         <v>7</v>
       </c>
       <c r="AY239">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ239">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA239">
         <v>4</v>
@@ -50859,7 +50859,7 @@
         <v>9</v>
       </c>
       <c r="AY240">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ240">
         <v>18</v>
@@ -51065,10 +51065,10 @@
         <v>10</v>
       </c>
       <c r="AY241">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ241">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA241">
         <v>5</v>
@@ -51271,10 +51271,10 @@
         <v>6</v>
       </c>
       <c r="AY242">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ242">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA242">
         <v>6</v>
@@ -51477,10 +51477,10 @@
         <v>9</v>
       </c>
       <c r="AY243">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ243">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA243">
         <v>3</v>
@@ -51683,10 +51683,10 @@
         <v>4</v>
       </c>
       <c r="AY244">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ244">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA244">
         <v>10</v>
@@ -51889,10 +51889,10 @@
         <v>8</v>
       </c>
       <c r="AY245">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ245">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA245">
         <v>4</v>
@@ -52095,10 +52095,10 @@
         <v>5</v>
       </c>
       <c r="AY246">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AZ246">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA246">
         <v>12</v>
@@ -52301,10 +52301,10 @@
         <v>7</v>
       </c>
       <c r="AY247">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ247">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA247">
         <v>6</v>
@@ -52507,7 +52507,7 @@
         <v>6</v>
       </c>
       <c r="AY248">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ248">
         <v>9</v>
@@ -52713,10 +52713,10 @@
         <v>4</v>
       </c>
       <c r="AY249">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ249">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA249">
         <v>4</v>
@@ -52919,10 +52919,10 @@
         <v>4</v>
       </c>
       <c r="AY250">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ250">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA250">
         <v>6</v>
@@ -53125,10 +53125,10 @@
         <v>6</v>
       </c>
       <c r="AY251">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AZ251">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA251">
         <v>7</v>
@@ -53331,10 +53331,10 @@
         <v>11</v>
       </c>
       <c r="AY252">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ252">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA252">
         <v>5</v>
@@ -53537,10 +53537,10 @@
         <v>7</v>
       </c>
       <c r="AY253">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ253">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA253">
         <v>3</v>
@@ -53743,10 +53743,10 @@
         <v>4</v>
       </c>
       <c r="AY254">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ254">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA254">
         <v>12</v>
@@ -53949,10 +53949,10 @@
         <v>5</v>
       </c>
       <c r="AY255">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ255">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA255">
         <v>5</v>
@@ -54155,10 +54155,10 @@
         <v>6</v>
       </c>
       <c r="AY256">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ256">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA256">
         <v>5</v>
@@ -54361,10 +54361,10 @@
         <v>2</v>
       </c>
       <c r="AY257">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ257">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA257">
         <v>6</v>
@@ -54567,10 +54567,10 @@
         <v>5</v>
       </c>
       <c r="AY258">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ258">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA258">
         <v>1</v>
@@ -54773,10 +54773,10 @@
         <v>10</v>
       </c>
       <c r="AY259">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ259">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA259">
         <v>5</v>
@@ -54979,10 +54979,10 @@
         <v>6</v>
       </c>
       <c r="AY260">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ260">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA260">
         <v>2</v>
@@ -55185,7 +55185,7 @@
         <v>3</v>
       </c>
       <c r="AY261">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ261">
         <v>7</v>
@@ -55391,7 +55391,7 @@
         <v>5</v>
       </c>
       <c r="AY262">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ262">
         <v>12</v>
@@ -55597,7 +55597,7 @@
         <v>5</v>
       </c>
       <c r="AY263">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ263">
         <v>10</v>
@@ -55806,7 +55806,7 @@
         <v>3</v>
       </c>
       <c r="AZ264">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA264">
         <v>1</v>
@@ -56009,10 +56009,10 @@
         <v>4</v>
       </c>
       <c r="AY265">
+        <v>9</v>
+      </c>
+      <c r="AZ265">
         <v>8</v>
-      </c>
-      <c r="AZ265">
-        <v>7</v>
       </c>
       <c r="BA265">
         <v>4</v>
@@ -56215,10 +56215,10 @@
         <v>6</v>
       </c>
       <c r="AY266">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ266">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA266">
         <v>8</v>
@@ -56421,7 +56421,7 @@
         <v>7</v>
       </c>
       <c r="AY267">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ267">
         <v>9</v>
@@ -56627,10 +56627,10 @@
         <v>10</v>
       </c>
       <c r="AY268">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ268">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA268">
         <v>4</v>
@@ -56833,10 +56833,10 @@
         <v>7</v>
       </c>
       <c r="AY269">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ269">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA269">
         <v>5</v>
@@ -57039,10 +57039,10 @@
         <v>9</v>
       </c>
       <c r="AY270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ270">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA270">
         <v>3</v>
@@ -57245,10 +57245,10 @@
         <v>11</v>
       </c>
       <c r="AY271">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ271">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA271">
         <v>2</v>
@@ -57451,10 +57451,10 @@
         <v>5</v>
       </c>
       <c r="AY272">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ272">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA272">
         <v>2</v>
@@ -57657,10 +57657,10 @@
         <v>3</v>
       </c>
       <c r="AY273">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA273">
         <v>6</v>
@@ -57863,10 +57863,10 @@
         <v>11</v>
       </c>
       <c r="AY274">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ274">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA274">
         <v>10</v>
@@ -58069,10 +58069,10 @@
         <v>3</v>
       </c>
       <c r="AY275">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ275">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA275">
         <v>9</v>
@@ -58275,7 +58275,7 @@
         <v>4</v>
       </c>
       <c r="AY276">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ276">
         <v>4</v>
@@ -58481,10 +58481,10 @@
         <v>5</v>
       </c>
       <c r="AY277">
+        <v>12</v>
+      </c>
+      <c r="AZ277">
         <v>10</v>
-      </c>
-      <c r="AZ277">
-        <v>7</v>
       </c>
       <c r="BA277">
         <v>2</v>
@@ -58690,7 +58690,7 @@
         <v>5</v>
       </c>
       <c r="AZ278">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA278">
         <v>8</v>
@@ -58893,7 +58893,7 @@
         <v>1</v>
       </c>
       <c r="AY279">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ279">
         <v>4</v>
@@ -59099,10 +59099,10 @@
         <v>6</v>
       </c>
       <c r="AY280">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ280">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA280">
         <v>4</v>
@@ -59305,7 +59305,7 @@
         <v>3</v>
       </c>
       <c r="AY281">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ281">
         <v>9</v>
@@ -59511,10 +59511,10 @@
         <v>6</v>
       </c>
       <c r="AY282">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ282">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA282">
         <v>1</v>
@@ -59717,10 +59717,10 @@
         <v>14</v>
       </c>
       <c r="AY283">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ283">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA283">
         <v>4</v>
@@ -59923,7 +59923,7 @@
         <v>3</v>
       </c>
       <c r="AY284">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ284">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -51650,25 +51650,25 @@
         <v>1.77</v>
       </c>
       <c r="AN244">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AO244">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP244">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ244">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR244">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="AS244">
         <v>1.41</v>
       </c>
       <c r="AT244">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="AU244">
         <v>3</v>
@@ -52474,25 +52474,25 @@
         <v>1.67</v>
       </c>
       <c r="AN248">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AO248">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AP248">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ248">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR248">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AS248">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT248">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52886,25 +52886,25 @@
         <v>1.63</v>
       </c>
       <c r="AN250">
+        <v>1.16</v>
+      </c>
+      <c r="AO250">
+        <v>1.29</v>
+      </c>
+      <c r="AP250">
+        <v>1.19</v>
+      </c>
+      <c r="AQ250">
+        <v>1.42</v>
+      </c>
+      <c r="AR250">
         <v>1.4</v>
       </c>
-      <c r="AO250">
-        <v>1.06</v>
-      </c>
-      <c r="AP250">
-        <v>1.39</v>
-      </c>
-      <c r="AQ250">
-        <v>1.17</v>
-      </c>
-      <c r="AR250">
-        <v>1.41</v>
-      </c>
       <c r="AS250">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53092,25 +53092,25 @@
         <v>1.87</v>
       </c>
       <c r="AN251">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO251">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AP251">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AQ251">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AR251">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AS251">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT251">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="AU251">
         <v>4</v>
@@ -53298,25 +53298,25 @@
         <v>1.67</v>
       </c>
       <c r="AN252">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AO252">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AP252">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR252">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS252">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT252">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53710,25 +53710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN254">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AO254">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP254">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ254">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR254">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS254">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AT254">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -56182,25 +56182,25 @@
         <v>1.58</v>
       </c>
       <c r="AN266">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO266">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AP266">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ266">
+        <v>1.49</v>
+      </c>
+      <c r="AR266">
+        <v>1.36</v>
+      </c>
+      <c r="AS266">
         <v>1.47</v>
       </c>
-      <c r="AR266">
-        <v>1.49</v>
-      </c>
-      <c r="AS266">
-        <v>1.44</v>
-      </c>
       <c r="AT266">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56388,25 +56388,25 @@
         <v>2.06</v>
       </c>
       <c r="AN267">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AO267">
+        <v>1.36</v>
+      </c>
+      <c r="AP267">
+        <v>1.19</v>
+      </c>
+      <c r="AQ267">
         <v>1.25</v>
       </c>
-      <c r="AP267">
-        <v>1.39</v>
-      </c>
-      <c r="AQ267">
-        <v>1.11</v>
-      </c>
       <c r="AR267">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS267">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AT267">
-        <v>2.89</v>
+        <v>3.08</v>
       </c>
       <c r="AU267">
         <v>8</v>
@@ -57624,25 +57624,25 @@
         <v>1.53</v>
       </c>
       <c r="AN273">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AO273">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AP273">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ273">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AR273">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS273">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT273">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU273">
         <v>9</v>
@@ -57830,25 +57830,25 @@
         <v>2.15</v>
       </c>
       <c r="AN274">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AO274">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ274">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR274">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS274">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AT274">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -59478,25 +59478,25 @@
         <v>1.25</v>
       </c>
       <c r="AN282">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AO282">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="AP282">
+        <v>1.25</v>
+      </c>
+      <c r="AQ282">
+        <v>1.42</v>
+      </c>
+      <c r="AR282">
+        <v>1.64</v>
+      </c>
+      <c r="AS282">
         <v>1.39</v>
       </c>
-      <c r="AQ282">
-        <v>1.17</v>
-      </c>
-      <c r="AR282">
-        <v>1.85</v>
-      </c>
-      <c r="AS282">
-        <v>1.25</v>
-      </c>
       <c r="AT282">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU282">
         <v>3</v>
@@ -59684,25 +59684,25 @@
         <v>1.27</v>
       </c>
       <c r="AN283">
+        <v>1.23</v>
+      </c>
+      <c r="AO283">
+        <v>1.4</v>
+      </c>
+      <c r="AP283">
+        <v>1.19</v>
+      </c>
+      <c r="AQ283">
+        <v>1.49</v>
+      </c>
+      <c r="AR283">
+        <v>1.43</v>
+      </c>
+      <c r="AS283">
         <v>1.47</v>
       </c>
-      <c r="AO283">
-        <v>1.29</v>
-      </c>
-      <c r="AP283">
-        <v>1.39</v>
-      </c>
-      <c r="AQ283">
-        <v>1.47</v>
-      </c>
-      <c r="AR283">
-        <v>1.47</v>
-      </c>
-      <c r="AS283">
-        <v>1.41</v>
-      </c>
       <c r="AT283">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU283">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20232024.xlsx
@@ -51650,25 +51650,25 @@
         <v>1.77</v>
       </c>
       <c r="AN244">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AO244">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP244">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ244">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR244">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="AS244">
         <v>1.41</v>
       </c>
       <c r="AT244">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="AU244">
         <v>3</v>
@@ -52474,25 +52474,25 @@
         <v>1.67</v>
       </c>
       <c r="AN248">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AO248">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR248">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AS248">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT248">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52886,25 +52886,25 @@
         <v>1.63</v>
       </c>
       <c r="AN250">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AO250">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AP250">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ250">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS250">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT250">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53092,25 +53092,25 @@
         <v>1.87</v>
       </c>
       <c r="AN251">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AO251">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AS251">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT251">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="AU251">
         <v>4</v>
@@ -53298,25 +53298,25 @@
         <v>1.67</v>
       </c>
       <c r="AN252">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AO252">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP252">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ252">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR252">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS252">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT252">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53710,25 +53710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN254">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AO254">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AP254">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ254">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR254">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS254">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AT254">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -56182,25 +56182,25 @@
         <v>1.58</v>
       </c>
       <c r="AN266">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO266">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AP266">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ266">
+        <v>1.47</v>
+      </c>
+      <c r="AR266">
         <v>1.49</v>
       </c>
-      <c r="AR266">
-        <v>1.36</v>
-      </c>
       <c r="AS266">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT266">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56388,25 +56388,25 @@
         <v>2.06</v>
       </c>
       <c r="AN267">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AO267">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AP267">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ267">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR267">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS267">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="AT267">
-        <v>3.08</v>
+        <v>2.89</v>
       </c>
       <c r="AU267">
         <v>8</v>
@@ -57624,25 +57624,25 @@
         <v>1.53</v>
       </c>
       <c r="AN273">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AO273">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AQ273">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR273">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS273">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU273">
         <v>9</v>
@@ -57830,25 +57830,25 @@
         <v>2.15</v>
       </c>
       <c r="AN274">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AO274">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AP274">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AQ274">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR274">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS274">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AT274">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -59478,25 +59478,25 @@
         <v>1.25</v>
       </c>
       <c r="AN282">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO282">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="AP282">
+        <v>1.39</v>
+      </c>
+      <c r="AQ282">
+        <v>1.17</v>
+      </c>
+      <c r="AR282">
+        <v>1.85</v>
+      </c>
+      <c r="AS282">
         <v>1.25</v>
       </c>
-      <c r="AQ282">
-        <v>1.42</v>
-      </c>
-      <c r="AR282">
-        <v>1.64</v>
-      </c>
-      <c r="AS282">
-        <v>1.39</v>
-      </c>
       <c r="AT282">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU282">
         <v>3</v>
@@ -59684,25 +59684,25 @@
         <v>1.27</v>
       </c>
       <c r="AN283">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AO283">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP283">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AQ283">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AR283">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AS283">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AT283">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU283">
         <v>3</v>
